--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -346,5112 +346,5112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>9418696.0</v>
+        <v>9418727.0</v>
       </c>
       <c r="B1" t="n">
-        <v>14723.0</v>
+        <v>14755.0</v>
       </c>
       <c r="C1" t="n">
-        <v>435023.0</v>
+        <v>434960.0</v>
       </c>
       <c r="D1" t="n">
-        <v>2103.0</v>
+        <v>2107.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9415120.0</v>
+        <v>9416363.0</v>
       </c>
       <c r="B2" t="n">
-        <v>14620.0</v>
+        <v>13479.0</v>
       </c>
       <c r="C2" t="n">
-        <v>438702.0</v>
+        <v>438600.0</v>
       </c>
       <c r="D2" t="n">
-        <v>3576.0</v>
+        <v>2364.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9411823.0</v>
+        <v>9414675.0</v>
       </c>
       <c r="B3" t="n">
-        <v>15483.0</v>
+        <v>12848.0</v>
       </c>
       <c r="C3" t="n">
-        <v>441136.0</v>
+        <v>440919.0</v>
       </c>
       <c r="D3" t="n">
-        <v>3297.0</v>
+        <v>1688.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9408466.0</v>
+        <v>9413043.0</v>
       </c>
       <c r="B4" t="n">
-        <v>16906.0</v>
+        <v>12549.0</v>
       </c>
       <c r="C4" t="n">
-        <v>443070.0</v>
+        <v>442850.0</v>
       </c>
       <c r="D4" t="n">
-        <v>3357.0</v>
+        <v>1632.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9404956.0</v>
+        <v>9411481.0</v>
       </c>
       <c r="B5" t="n">
-        <v>18622.0</v>
+        <v>12366.0</v>
       </c>
       <c r="C5" t="n">
-        <v>444864.0</v>
+        <v>444595.0</v>
       </c>
       <c r="D5" t="n">
-        <v>3510.0</v>
+        <v>1562.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9401227.0</v>
+        <v>9410084.0</v>
       </c>
       <c r="B6" t="n">
-        <v>20574.0</v>
+        <v>11982.0</v>
       </c>
       <c r="C6" t="n">
-        <v>446641.0</v>
+        <v>446376.0</v>
       </c>
       <c r="D6" t="n">
-        <v>3729.0</v>
+        <v>1397.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9398768.0</v>
+        <v>9408875.0</v>
       </c>
       <c r="B7" t="n">
-        <v>20941.0</v>
+        <v>11190.0</v>
       </c>
       <c r="C7" t="n">
-        <v>448733.0</v>
+        <v>448377.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2459.0</v>
+        <v>1209.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9394960.0</v>
+        <v>9407815.0</v>
       </c>
       <c r="B8" t="n">
-        <v>22168.0</v>
+        <v>10356.0</v>
       </c>
       <c r="C8" t="n">
-        <v>451314.0</v>
+        <v>450271.0</v>
       </c>
       <c r="D8" t="n">
-        <v>3808.0</v>
+        <v>1060.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9391284.0</v>
+        <v>9406670.0</v>
       </c>
       <c r="B9" t="n">
-        <v>22997.0</v>
+        <v>9596.0</v>
       </c>
       <c r="C9" t="n">
-        <v>454161.0</v>
+        <v>452176.0</v>
       </c>
       <c r="D9" t="n">
-        <v>3676.0</v>
+        <v>1145.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9387552.0</v>
+        <v>9405730.0</v>
       </c>
       <c r="B10" t="n">
-        <v>23373.0</v>
+        <v>8740.0</v>
       </c>
       <c r="C10" t="n">
-        <v>457517.0</v>
+        <v>453972.0</v>
       </c>
       <c r="D10" t="n">
-        <v>3732.0</v>
+        <v>940.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9383774.0</v>
+        <v>9404799.0</v>
       </c>
       <c r="B11" t="n">
-        <v>23765.0</v>
+        <v>8053.0</v>
       </c>
       <c r="C11" t="n">
-        <v>460903.0</v>
+        <v>455590.0</v>
       </c>
       <c r="D11" t="n">
-        <v>3778.0</v>
+        <v>931.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9379910.0</v>
+        <v>9404012.0</v>
       </c>
       <c r="B12" t="n">
-        <v>24407.0</v>
+        <v>7378.0</v>
       </c>
       <c r="C12" t="n">
-        <v>464125.0</v>
+        <v>457052.0</v>
       </c>
       <c r="D12" t="n">
-        <v>3864.0</v>
+        <v>787.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9376002.0</v>
+        <v>9403249.0</v>
       </c>
       <c r="B13" t="n">
-        <v>25113.0</v>
+        <v>6826.0</v>
       </c>
       <c r="C13" t="n">
-        <v>467327.0</v>
+        <v>458367.0</v>
       </c>
       <c r="D13" t="n">
-        <v>3908.0</v>
+        <v>763.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9373469.0</v>
+        <v>9402645.0</v>
       </c>
       <c r="B14" t="n">
-        <v>24379.0</v>
+        <v>6257.0</v>
       </c>
       <c r="C14" t="n">
-        <v>470594.0</v>
+        <v>459540.0</v>
       </c>
       <c r="D14" t="n">
-        <v>2533.0</v>
+        <v>604.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9369599.0</v>
+        <v>9402067.0</v>
       </c>
       <c r="B15" t="n">
-        <v>24961.0</v>
+        <v>5751.0</v>
       </c>
       <c r="C15" t="n">
-        <v>473882.0</v>
+        <v>460624.0</v>
       </c>
       <c r="D15" t="n">
-        <v>3870.0</v>
+        <v>578.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9365785.0</v>
+        <v>9401457.0</v>
       </c>
       <c r="B16" t="n">
-        <v>25081.0</v>
+        <v>5336.0</v>
       </c>
       <c r="C16" t="n">
-        <v>477576.0</v>
+        <v>461649.0</v>
       </c>
       <c r="D16" t="n">
-        <v>3814.0</v>
+        <v>610.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9361994.0</v>
+        <v>9400916.0</v>
       </c>
       <c r="B17" t="n">
-        <v>25128.0</v>
+        <v>4865.0</v>
       </c>
       <c r="C17" t="n">
-        <v>481320.0</v>
+        <v>462661.0</v>
       </c>
       <c r="D17" t="n">
-        <v>3791.0</v>
+        <v>541.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9358109.0</v>
+        <v>9400416.0</v>
       </c>
       <c r="B18" t="n">
-        <v>25173.0</v>
+        <v>4422.0</v>
       </c>
       <c r="C18" t="n">
-        <v>485160.0</v>
+        <v>463604.0</v>
       </c>
       <c r="D18" t="n">
-        <v>3885.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9354315.0</v>
+        <v>9399857.0</v>
       </c>
       <c r="B19" t="n">
-        <v>25438.0</v>
+        <v>4181.0</v>
       </c>
       <c r="C19" t="n">
-        <v>488689.0</v>
+        <v>464404.0</v>
       </c>
       <c r="D19" t="n">
-        <v>3794.0</v>
+        <v>559.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9350151.0</v>
+        <v>9399365.0</v>
       </c>
       <c r="B20" t="n">
-        <v>26137.0</v>
+        <v>3941.0</v>
       </c>
       <c r="C20" t="n">
-        <v>492154.0</v>
+        <v>465136.0</v>
       </c>
       <c r="D20" t="n">
-        <v>4164.0</v>
+        <v>492.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9347700.0</v>
+        <v>9398915.0</v>
       </c>
       <c r="B21" t="n">
-        <v>25079.0</v>
+        <v>3769.0</v>
       </c>
       <c r="C21" t="n">
-        <v>495663.0</v>
+        <v>465758.0</v>
       </c>
       <c r="D21" t="n">
-        <v>2451.0</v>
+        <v>450.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9343792.0</v>
+        <v>9398501.0</v>
       </c>
       <c r="B22" t="n">
-        <v>25586.0</v>
+        <v>3558.0</v>
       </c>
       <c r="C22" t="n">
-        <v>499064.0</v>
+        <v>466383.0</v>
       </c>
       <c r="D22" t="n">
-        <v>3908.0</v>
+        <v>414.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9339965.0</v>
+        <v>9398065.0</v>
       </c>
       <c r="B23" t="n">
-        <v>25622.0</v>
+        <v>3397.0</v>
       </c>
       <c r="C23" t="n">
-        <v>502855.0</v>
+        <v>466980.0</v>
       </c>
       <c r="D23" t="n">
-        <v>3827.0</v>
+        <v>436.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>9336188.0</v>
+        <v>9397663.0</v>
       </c>
       <c r="B24" t="n">
-        <v>25422.0</v>
+        <v>3234.0</v>
       </c>
       <c r="C24" t="n">
-        <v>506832.0</v>
+        <v>467545.0</v>
       </c>
       <c r="D24" t="n">
-        <v>3777.0</v>
+        <v>402.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9332403.0</v>
+        <v>9397242.0</v>
       </c>
       <c r="B25" t="n">
-        <v>25261.0</v>
+        <v>3117.0</v>
       </c>
       <c r="C25" t="n">
-        <v>510778.0</v>
+        <v>468083.0</v>
       </c>
       <c r="D25" t="n">
-        <v>3785.0</v>
+        <v>421.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9328632.0</v>
+        <v>9396838.0</v>
       </c>
       <c r="B26" t="n">
-        <v>25478.0</v>
+        <v>3017.0</v>
       </c>
       <c r="C26" t="n">
-        <v>514332.0</v>
+        <v>468587.0</v>
       </c>
       <c r="D26" t="n">
-        <v>3771.0</v>
+        <v>404.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9324657.0</v>
+        <v>9396445.0</v>
       </c>
       <c r="B27" t="n">
-        <v>25800.0</v>
+        <v>2909.0</v>
       </c>
       <c r="C27" t="n">
-        <v>517985.0</v>
+        <v>469088.0</v>
       </c>
       <c r="D27" t="n">
-        <v>3975.0</v>
+        <v>393.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9322180.0</v>
+        <v>9396105.0</v>
       </c>
       <c r="B28" t="n">
-        <v>24740.0</v>
+        <v>2805.0</v>
       </c>
       <c r="C28" t="n">
-        <v>521522.0</v>
+        <v>469532.0</v>
       </c>
       <c r="D28" t="n">
-        <v>2477.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9318229.0</v>
+        <v>9395811.0</v>
       </c>
       <c r="B29" t="n">
-        <v>25239.0</v>
+        <v>2685.0</v>
       </c>
       <c r="C29" t="n">
-        <v>524974.0</v>
+        <v>469946.0</v>
       </c>
       <c r="D29" t="n">
-        <v>3951.0</v>
+        <v>294.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9314375.0</v>
+        <v>9395421.0</v>
       </c>
       <c r="B30" t="n">
-        <v>25249.0</v>
+        <v>2629.0</v>
       </c>
       <c r="C30" t="n">
-        <v>528818.0</v>
+        <v>470392.0</v>
       </c>
       <c r="D30" t="n">
-        <v>3854.0</v>
+        <v>390.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9310650.0</v>
+        <v>9395084.0</v>
       </c>
       <c r="B31" t="n">
-        <v>25145.0</v>
+        <v>2543.0</v>
       </c>
       <c r="C31" t="n">
-        <v>532647.0</v>
+        <v>470815.0</v>
       </c>
       <c r="D31" t="n">
-        <v>3725.0</v>
+        <v>337.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>9306736.0</v>
+        <v>9394740.0</v>
       </c>
       <c r="B32" t="n">
-        <v>25174.0</v>
+        <v>2499.0</v>
       </c>
       <c r="C32" t="n">
-        <v>536532.0</v>
+        <v>471203.0</v>
       </c>
       <c r="D32" t="n">
-        <v>3914.0</v>
+        <v>344.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9302009.0</v>
+        <v>9394354.0</v>
       </c>
       <c r="B33" t="n">
-        <v>26433.0</v>
+        <v>2466.0</v>
       </c>
       <c r="C33" t="n">
-        <v>540000.0</v>
+        <v>471622.0</v>
       </c>
       <c r="D33" t="n">
-        <v>4727.0</v>
+        <v>386.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>9297062.0</v>
+        <v>9393972.0</v>
       </c>
       <c r="B34" t="n">
-        <v>27777.0</v>
+        <v>2465.0</v>
       </c>
       <c r="C34" t="n">
-        <v>543603.0</v>
+        <v>472005.0</v>
       </c>
       <c r="D34" t="n">
-        <v>4947.0</v>
+        <v>382.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9293641.0</v>
+        <v>9393686.0</v>
       </c>
       <c r="B35" t="n">
-        <v>27726.0</v>
+        <v>2395.0</v>
       </c>
       <c r="C35" t="n">
-        <v>547075.0</v>
+        <v>472361.0</v>
       </c>
       <c r="D35" t="n">
-        <v>3421.0</v>
+        <v>286.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>9288818.0</v>
+        <v>9393328.0</v>
       </c>
       <c r="B36" t="n">
-        <v>29070.0</v>
+        <v>2411.0</v>
       </c>
       <c r="C36" t="n">
-        <v>550554.0</v>
+        <v>472703.0</v>
       </c>
       <c r="D36" t="n">
-        <v>4823.0</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>9283395.0</v>
+        <v>9392879.0</v>
       </c>
       <c r="B37" t="n">
-        <v>30661.0</v>
+        <v>2526.0</v>
       </c>
       <c r="C37" t="n">
-        <v>554386.0</v>
+        <v>473037.0</v>
       </c>
       <c r="D37" t="n">
-        <v>5423.0</v>
+        <v>449.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>9277663.0</v>
+        <v>9392464.0</v>
       </c>
       <c r="B38" t="n">
-        <v>32437.0</v>
+        <v>2572.0</v>
       </c>
       <c r="C38" t="n">
-        <v>558342.0</v>
+        <v>473406.0</v>
       </c>
       <c r="D38" t="n">
-        <v>5732.0</v>
+        <v>415.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>9271413.0</v>
+        <v>9391986.0</v>
       </c>
       <c r="B39" t="n">
-        <v>34549.0</v>
+        <v>2706.0</v>
       </c>
       <c r="C39" t="n">
-        <v>562480.0</v>
+        <v>473750.0</v>
       </c>
       <c r="D39" t="n">
-        <v>6250.0</v>
+        <v>478.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9264713.0</v>
+        <v>9391500.0</v>
       </c>
       <c r="B40" t="n">
-        <v>37186.0</v>
+        <v>2838.0</v>
       </c>
       <c r="C40" t="n">
-        <v>566543.0</v>
+        <v>474104.0</v>
       </c>
       <c r="D40" t="n">
-        <v>6700.0</v>
+        <v>486.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>9257432.0</v>
+        <v>9390980.0</v>
       </c>
       <c r="B41" t="n">
-        <v>40277.0</v>
+        <v>3031.0</v>
       </c>
       <c r="C41" t="n">
-        <v>570733.0</v>
+        <v>474431.0</v>
       </c>
       <c r="D41" t="n">
-        <v>7281.0</v>
+        <v>520.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>9252269.0</v>
+        <v>9390637.0</v>
       </c>
       <c r="B42" t="n">
-        <v>41088.0</v>
+        <v>3033.0</v>
       </c>
       <c r="C42" t="n">
-        <v>575085.0</v>
+        <v>474772.0</v>
       </c>
       <c r="D42" t="n">
-        <v>5163.0</v>
+        <v>343.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>9244986.0</v>
+        <v>9390191.0</v>
       </c>
       <c r="B43" t="n">
-        <v>43865.0</v>
+        <v>3119.0</v>
       </c>
       <c r="C43" t="n">
-        <v>579591.0</v>
+        <v>475132.0</v>
       </c>
       <c r="D43" t="n">
-        <v>7283.0</v>
+        <v>446.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>9237366.0</v>
+        <v>9389688.0</v>
       </c>
       <c r="B44" t="n">
-        <v>46225.0</v>
+        <v>3177.0</v>
       </c>
       <c r="C44" t="n">
-        <v>584851.0</v>
+        <v>475577.0</v>
       </c>
       <c r="D44" t="n">
-        <v>7620.0</v>
+        <v>503.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>9229436.0</v>
+        <v>9389158.0</v>
       </c>
       <c r="B45" t="n">
-        <v>48699.0</v>
+        <v>3313.0</v>
       </c>
       <c r="C45" t="n">
-        <v>590307.0</v>
+        <v>475971.0</v>
       </c>
       <c r="D45" t="n">
-        <v>7930.0</v>
+        <v>530.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>9221120.0</v>
+        <v>9388663.0</v>
       </c>
       <c r="B46" t="n">
-        <v>51072.0</v>
+        <v>3367.0</v>
       </c>
       <c r="C46" t="n">
-        <v>596250.0</v>
+        <v>476412.0</v>
       </c>
       <c r="D46" t="n">
-        <v>8316.0</v>
+        <v>495.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9212240.0</v>
+        <v>9388143.0</v>
       </c>
       <c r="B47" t="n">
-        <v>54150.0</v>
+        <v>3443.0</v>
       </c>
       <c r="C47" t="n">
-        <v>602052.0</v>
+        <v>476856.0</v>
       </c>
       <c r="D47" t="n">
-        <v>8880.0</v>
+        <v>520.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>9202841.0</v>
+        <v>9387546.0</v>
       </c>
       <c r="B48" t="n">
-        <v>57096.0</v>
+        <v>3588.0</v>
       </c>
       <c r="C48" t="n">
-        <v>608505.0</v>
+        <v>477308.0</v>
       </c>
       <c r="D48" t="n">
-        <v>9399.0</v>
+        <v>597.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9196191.0</v>
+        <v>9387151.0</v>
       </c>
       <c r="B49" t="n">
-        <v>57176.0</v>
+        <v>3526.0</v>
       </c>
       <c r="C49" t="n">
-        <v>615075.0</v>
+        <v>477765.0</v>
       </c>
       <c r="D49" t="n">
-        <v>6650.0</v>
+        <v>395.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9186781.0</v>
+        <v>9386601.0</v>
       </c>
       <c r="B50" t="n">
-        <v>59804.0</v>
+        <v>3631.0</v>
       </c>
       <c r="C50" t="n">
-        <v>621857.0</v>
+        <v>478210.0</v>
       </c>
       <c r="D50" t="n">
-        <v>9410.0</v>
+        <v>550.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9177027.0</v>
+        <v>9386011.0</v>
       </c>
       <c r="B51" t="n">
-        <v>62167.0</v>
+        <v>3738.0</v>
       </c>
       <c r="C51" t="n">
-        <v>629248.0</v>
+        <v>478693.0</v>
       </c>
       <c r="D51" t="n">
-        <v>9754.0</v>
+        <v>590.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9166972.0</v>
+        <v>9385414.0</v>
       </c>
       <c r="B52" t="n">
-        <v>64550.0</v>
+        <v>3810.0</v>
       </c>
       <c r="C52" t="n">
-        <v>636920.0</v>
+        <v>479218.0</v>
       </c>
       <c r="D52" t="n">
-        <v>10055.0</v>
+        <v>597.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>9156570.0</v>
+        <v>9384811.0</v>
       </c>
       <c r="B53" t="n">
-        <v>66559.0</v>
+        <v>3946.0</v>
       </c>
       <c r="C53" t="n">
-        <v>645313.0</v>
+        <v>479685.0</v>
       </c>
       <c r="D53" t="n">
-        <v>10402.0</v>
+        <v>603.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9145853.0</v>
+        <v>9384168.0</v>
       </c>
       <c r="B54" t="n">
-        <v>69236.0</v>
+        <v>4110.0</v>
       </c>
       <c r="C54" t="n">
-        <v>653353.0</v>
+        <v>480164.0</v>
       </c>
       <c r="D54" t="n">
-        <v>10717.0</v>
+        <v>643.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9134342.0</v>
+        <v>9383479.0</v>
       </c>
       <c r="B55" t="n">
-        <v>72194.0</v>
+        <v>4305.0</v>
       </c>
       <c r="C55" t="n">
-        <v>661906.0</v>
+        <v>480658.0</v>
       </c>
       <c r="D55" t="n">
-        <v>11511.0</v>
+        <v>689.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9126517.0</v>
+        <v>9383039.0</v>
       </c>
       <c r="B56" t="n">
-        <v>71466.0</v>
+        <v>4207.0</v>
       </c>
       <c r="C56" t="n">
-        <v>670459.0</v>
+        <v>481196.0</v>
       </c>
       <c r="D56" t="n">
-        <v>7825.0</v>
+        <v>440.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>9115400.0</v>
+        <v>9382434.0</v>
       </c>
       <c r="B57" t="n">
-        <v>74000.0</v>
+        <v>4279.0</v>
       </c>
       <c r="C57" t="n">
-        <v>679042.0</v>
+        <v>481729.0</v>
       </c>
       <c r="D57" t="n">
-        <v>11117.0</v>
+        <v>605.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>9104219.0</v>
+        <v>9381670.0</v>
       </c>
       <c r="B58" t="n">
-        <v>75473.0</v>
+        <v>4445.0</v>
       </c>
       <c r="C58" t="n">
-        <v>688750.0</v>
+        <v>482327.0</v>
       </c>
       <c r="D58" t="n">
-        <v>11181.0</v>
+        <v>764.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>9092848.0</v>
+        <v>9380958.0</v>
       </c>
       <c r="B59" t="n">
-        <v>76908.0</v>
+        <v>4579.0</v>
       </c>
       <c r="C59" t="n">
-        <v>698686.0</v>
+        <v>482905.0</v>
       </c>
       <c r="D59" t="n">
-        <v>11371.0</v>
+        <v>712.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>9081015.0</v>
+        <v>9380134.0</v>
       </c>
       <c r="B60" t="n">
-        <v>78441.0</v>
+        <v>4766.0</v>
       </c>
       <c r="C60" t="n">
-        <v>708986.0</v>
+        <v>483542.0</v>
       </c>
       <c r="D60" t="n">
-        <v>11833.0</v>
+        <v>824.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>9068902.0</v>
+        <v>9379351.0</v>
       </c>
       <c r="B61" t="n">
-        <v>80844.0</v>
+        <v>4948.0</v>
       </c>
       <c r="C61" t="n">
-        <v>718696.0</v>
+        <v>484143.0</v>
       </c>
       <c r="D61" t="n">
-        <v>12113.0</v>
+        <v>783.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>9056341.0</v>
+        <v>9378487.0</v>
       </c>
       <c r="B62" t="n">
-        <v>83074.0</v>
+        <v>5238.0</v>
       </c>
       <c r="C62" t="n">
-        <v>729027.0</v>
+        <v>484717.0</v>
       </c>
       <c r="D62" t="n">
-        <v>12561.0</v>
+        <v>864.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>9047326.0</v>
+        <v>9377914.0</v>
       </c>
       <c r="B63" t="n">
-        <v>81730.0</v>
+        <v>5217.0</v>
       </c>
       <c r="C63" t="n">
-        <v>739386.0</v>
+        <v>485311.0</v>
       </c>
       <c r="D63" t="n">
-        <v>9015.0</v>
+        <v>573.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>9034733.0</v>
+        <v>9377141.0</v>
       </c>
       <c r="B64" t="n">
-        <v>83960.0</v>
+        <v>5389.0</v>
       </c>
       <c r="C64" t="n">
-        <v>749749.0</v>
+        <v>485912.0</v>
       </c>
       <c r="D64" t="n">
-        <v>12593.0</v>
+        <v>773.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>9021936.0</v>
+        <v>9376306.0</v>
       </c>
       <c r="B65" t="n">
-        <v>85577.0</v>
+        <v>5505.0</v>
       </c>
       <c r="C65" t="n">
-        <v>760929.0</v>
+        <v>486631.0</v>
       </c>
       <c r="D65" t="n">
-        <v>12797.0</v>
+        <v>835.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>9008874.0</v>
+        <v>9375465.0</v>
       </c>
       <c r="B66" t="n">
-        <v>87358.0</v>
+        <v>5626.0</v>
       </c>
       <c r="C66" t="n">
-        <v>772210.0</v>
+        <v>487351.0</v>
       </c>
       <c r="D66" t="n">
-        <v>13062.0</v>
+        <v>841.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>8995577.0</v>
+        <v>9374566.0</v>
       </c>
       <c r="B67" t="n">
-        <v>89096.0</v>
+        <v>5719.0</v>
       </c>
       <c r="C67" t="n">
-        <v>783769.0</v>
+        <v>488157.0</v>
       </c>
       <c r="D67" t="n">
-        <v>13297.0</v>
+        <v>899.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>8981832.0</v>
+        <v>9373606.0</v>
       </c>
       <c r="B68" t="n">
-        <v>91584.0</v>
+        <v>5971.0</v>
       </c>
       <c r="C68" t="n">
-        <v>795026.0</v>
+        <v>488865.0</v>
       </c>
       <c r="D68" t="n">
-        <v>13745.0</v>
+        <v>960.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>8967786.0</v>
+        <v>9372640.0</v>
       </c>
       <c r="B69" t="n">
-        <v>94014.0</v>
+        <v>6197.0</v>
       </c>
       <c r="C69" t="n">
-        <v>806642.0</v>
+        <v>489605.0</v>
       </c>
       <c r="D69" t="n">
-        <v>14046.0</v>
+        <v>966.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>8958080.0</v>
+        <v>9371936.0</v>
       </c>
       <c r="B70" t="n">
-        <v>92022.0</v>
+        <v>6145.0</v>
       </c>
       <c r="C70" t="n">
-        <v>818340.0</v>
+        <v>490361.0</v>
       </c>
       <c r="D70" t="n">
-        <v>9706.0</v>
+        <v>704.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>8944181.0</v>
+        <v>9371087.0</v>
       </c>
       <c r="B71" t="n">
-        <v>94263.0</v>
+        <v>6239.0</v>
       </c>
       <c r="C71" t="n">
-        <v>829998.0</v>
+        <v>491116.0</v>
       </c>
       <c r="D71" t="n">
-        <v>13899.0</v>
+        <v>849.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>8930381.0</v>
+        <v>9370031.0</v>
       </c>
       <c r="B72" t="n">
-        <v>95283.0</v>
+        <v>6438.0</v>
       </c>
       <c r="C72" t="n">
-        <v>842778.0</v>
+        <v>491973.0</v>
       </c>
       <c r="D72" t="n">
-        <v>13800.0</v>
+        <v>1056.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>8916324.0</v>
+        <v>9369052.0</v>
       </c>
       <c r="B73" t="n">
-        <v>96356.0</v>
+        <v>6589.0</v>
       </c>
       <c r="C73" t="n">
-        <v>855762.0</v>
+        <v>492801.0</v>
       </c>
       <c r="D73" t="n">
-        <v>14057.0</v>
+        <v>979.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>8901944.0</v>
+        <v>9367984.0</v>
       </c>
       <c r="B74" t="n">
-        <v>97481.0</v>
+        <v>6734.0</v>
       </c>
       <c r="C74" t="n">
-        <v>869017.0</v>
+        <v>493724.0</v>
       </c>
       <c r="D74" t="n">
-        <v>14380.0</v>
+        <v>1068.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>8887469.0</v>
+        <v>9366865.0</v>
       </c>
       <c r="B75" t="n">
-        <v>99623.0</v>
+        <v>7033.0</v>
       </c>
       <c r="C75" t="n">
-        <v>881350.0</v>
+        <v>494544.0</v>
       </c>
       <c r="D75" t="n">
-        <v>14475.0</v>
+        <v>1119.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>8872445.0</v>
+        <v>9365721.0</v>
       </c>
       <c r="B76" t="n">
-        <v>101743.0</v>
+        <v>7339.0</v>
       </c>
       <c r="C76" t="n">
-        <v>894254.0</v>
+        <v>495382.0</v>
       </c>
       <c r="D76" t="n">
-        <v>15024.0</v>
+        <v>1144.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>8862407.0</v>
+        <v>9364969.0</v>
       </c>
       <c r="B77" t="n">
-        <v>98892.0</v>
+        <v>7177.0</v>
       </c>
       <c r="C77" t="n">
-        <v>907143.0</v>
+        <v>496296.0</v>
       </c>
       <c r="D77" t="n">
-        <v>10038.0</v>
+        <v>752.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>8848157.0</v>
+        <v>9363928.0</v>
       </c>
       <c r="B78" t="n">
-        <v>100231.0</v>
+        <v>7320.0</v>
       </c>
       <c r="C78" t="n">
-        <v>920054.0</v>
+        <v>497194.0</v>
       </c>
       <c r="D78" t="n">
-        <v>14250.0</v>
+        <v>1041.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>8834136.0</v>
+        <v>9362736.0</v>
       </c>
       <c r="B79" t="n">
-        <v>100217.0</v>
+        <v>7585.0</v>
       </c>
       <c r="C79" t="n">
-        <v>934089.0</v>
+        <v>498121.0</v>
       </c>
       <c r="D79" t="n">
-        <v>14021.0</v>
+        <v>1192.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>8819964.0</v>
+        <v>9361600.0</v>
       </c>
       <c r="B80" t="n">
-        <v>100439.0</v>
+        <v>7660.0</v>
       </c>
       <c r="C80" t="n">
-        <v>948039.0</v>
+        <v>499182.0</v>
       </c>
       <c r="D80" t="n">
-        <v>14172.0</v>
+        <v>1136.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>8805715.0</v>
+        <v>9360347.0</v>
       </c>
       <c r="B81" t="n">
-        <v>100405.0</v>
+        <v>7906.0</v>
       </c>
       <c r="C81" t="n">
-        <v>962322.0</v>
+        <v>500189.0</v>
       </c>
       <c r="D81" t="n">
-        <v>14249.0</v>
+        <v>1253.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>8790961.0</v>
+        <v>9359045.0</v>
       </c>
       <c r="B82" t="n">
-        <v>101952.0</v>
+        <v>8144.0</v>
       </c>
       <c r="C82" t="n">
-        <v>975529.0</v>
+        <v>501253.0</v>
       </c>
       <c r="D82" t="n">
-        <v>14754.0</v>
+        <v>1302.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>8776002.0</v>
+        <v>9357643.0</v>
       </c>
       <c r="B83" t="n">
-        <v>103187.0</v>
+        <v>8502.0</v>
       </c>
       <c r="C83" t="n">
-        <v>989253.0</v>
+        <v>502297.0</v>
       </c>
       <c r="D83" t="n">
-        <v>14959.0</v>
+        <v>1402.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>8766006.0</v>
+        <v>9356717.0</v>
       </c>
       <c r="B84" t="n">
-        <v>99836.0</v>
+        <v>8404.0</v>
       </c>
       <c r="C84" t="n">
-        <v>1002600.0</v>
+        <v>503321.0</v>
       </c>
       <c r="D84" t="n">
-        <v>9996.0</v>
+        <v>926.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>8751754.0</v>
+        <v>9355509.0</v>
       </c>
       <c r="B85" t="n">
-        <v>100823.0</v>
+        <v>8652.0</v>
       </c>
       <c r="C85" t="n">
-        <v>1015865.0</v>
+        <v>504281.0</v>
       </c>
       <c r="D85" t="n">
-        <v>14252.0</v>
+        <v>1208.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>8737703.0</v>
+        <v>9354051.0</v>
       </c>
       <c r="B86" t="n">
-        <v>100620.0</v>
+        <v>8967.0</v>
       </c>
       <c r="C86" t="n">
-        <v>1030119.0</v>
+        <v>505424.0</v>
       </c>
       <c r="D86" t="n">
-        <v>14051.0</v>
+        <v>1458.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>8723671.0</v>
+        <v>9352758.0</v>
       </c>
       <c r="B87" t="n">
-        <v>100535.0</v>
+        <v>9058.0</v>
       </c>
       <c r="C87" t="n">
-        <v>1044236.0</v>
+        <v>506626.0</v>
       </c>
       <c r="D87" t="n">
-        <v>14032.0</v>
+        <v>1293.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>8709483.0</v>
+        <v>9351209.0</v>
       </c>
       <c r="B88" t="n">
-        <v>100264.0</v>
+        <v>9307.0</v>
       </c>
       <c r="C88" t="n">
-        <v>1058695.0</v>
+        <v>507926.0</v>
       </c>
       <c r="D88" t="n">
-        <v>14188.0</v>
+        <v>1549.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>8694915.0</v>
+        <v>9349669.0</v>
       </c>
       <c r="B89" t="n">
-        <v>101544.0</v>
+        <v>9692.0</v>
       </c>
       <c r="C89" t="n">
-        <v>1071983.0</v>
+        <v>509081.0</v>
       </c>
       <c r="D89" t="n">
-        <v>14568.0</v>
+        <v>1540.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>8681266.0</v>
+        <v>9348141.0</v>
       </c>
       <c r="B90" t="n">
-        <v>101512.0</v>
+        <v>10060.0</v>
       </c>
       <c r="C90" t="n">
-        <v>1085664.0</v>
+        <v>510241.0</v>
       </c>
       <c r="D90" t="n">
-        <v>13649.0</v>
+        <v>1528.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>8672787.0</v>
+        <v>9347232.0</v>
       </c>
       <c r="B91" t="n">
-        <v>96571.0</v>
+        <v>9783.0</v>
       </c>
       <c r="C91" t="n">
-        <v>1099084.0</v>
+        <v>511427.0</v>
       </c>
       <c r="D91" t="n">
-        <v>8479.0</v>
+        <v>909.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>8659522.0</v>
+        <v>9345720.0</v>
       </c>
       <c r="B92" t="n">
-        <v>96609.0</v>
+        <v>10016.0</v>
       </c>
       <c r="C92" t="n">
-        <v>1112311.0</v>
+        <v>512706.0</v>
       </c>
       <c r="D92" t="n">
-        <v>13265.0</v>
+        <v>1512.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>8647551.0</v>
+        <v>9344246.0</v>
       </c>
       <c r="B93" t="n">
-        <v>94563.0</v>
+        <v>10120.0</v>
       </c>
       <c r="C93" t="n">
-        <v>1126328.0</v>
+        <v>514076.0</v>
       </c>
       <c r="D93" t="n">
-        <v>11971.0</v>
+        <v>1474.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>8634598.0</v>
+        <v>9342831.0</v>
       </c>
       <c r="B94" t="n">
-        <v>93228.0</v>
+        <v>10040.0</v>
       </c>
       <c r="C94" t="n">
-        <v>1140616.0</v>
+        <v>515571.0</v>
       </c>
       <c r="D94" t="n">
-        <v>12953.0</v>
+        <v>1415.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>8622030.0</v>
+        <v>9341316.0</v>
       </c>
       <c r="B95" t="n">
-        <v>91501.0</v>
+        <v>10163.0</v>
       </c>
       <c r="C95" t="n">
-        <v>1154911.0</v>
+        <v>516963.0</v>
       </c>
       <c r="D95" t="n">
-        <v>12568.0</v>
+        <v>1515.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>8609312.0</v>
+        <v>9339686.0</v>
       </c>
       <c r="B96" t="n">
-        <v>91074.0</v>
+        <v>10421.0</v>
       </c>
       <c r="C96" t="n">
-        <v>1168056.0</v>
+        <v>518335.0</v>
       </c>
       <c r="D96" t="n">
-        <v>12718.0</v>
+        <v>1630.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>8598076.0</v>
+        <v>9338440.0</v>
       </c>
       <c r="B97" t="n">
-        <v>89164.0</v>
+        <v>10312.0</v>
       </c>
       <c r="C97" t="n">
-        <v>1181202.0</v>
+        <v>519690.0</v>
       </c>
       <c r="D97" t="n">
-        <v>11236.0</v>
+        <v>1246.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>8590279.0</v>
+        <v>9337504.0</v>
       </c>
       <c r="B98" t="n">
-        <v>84402.0</v>
+        <v>9801.0</v>
       </c>
       <c r="C98" t="n">
-        <v>1193761.0</v>
+        <v>521137.0</v>
       </c>
       <c r="D98" t="n">
-        <v>7797.0</v>
+        <v>936.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>8580168.0</v>
+        <v>9336308.0</v>
       </c>
       <c r="B99" t="n">
-        <v>82247.0</v>
+        <v>9575.0</v>
       </c>
       <c r="C99" t="n">
-        <v>1206027.0</v>
+        <v>522559.0</v>
       </c>
       <c r="D99" t="n">
-        <v>10111.0</v>
+        <v>1196.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>8568902.0</v>
+        <v>9334802.0</v>
       </c>
       <c r="B100" t="n">
-        <v>80192.0</v>
+        <v>9573.0</v>
       </c>
       <c r="C100" t="n">
-        <v>1219348.0</v>
+        <v>524067.0</v>
       </c>
       <c r="D100" t="n">
-        <v>11266.0</v>
+        <v>1506.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>8557521.0</v>
+        <v>9333367.0</v>
       </c>
       <c r="B101" t="n">
-        <v>78621.0</v>
+        <v>9457.0</v>
       </c>
       <c r="C101" t="n">
-        <v>1232300.0</v>
+        <v>525618.0</v>
       </c>
       <c r="D101" t="n">
-        <v>11381.0</v>
+        <v>1435.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>8545990.0</v>
+        <v>9331673.0</v>
       </c>
       <c r="B102" t="n">
-        <v>77381.0</v>
+        <v>9678.0</v>
       </c>
       <c r="C102" t="n">
-        <v>1245071.0</v>
+        <v>527091.0</v>
       </c>
       <c r="D102" t="n">
-        <v>11531.0</v>
+        <v>1694.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>8534265.0</v>
+        <v>9329972.0</v>
       </c>
       <c r="B103" t="n">
-        <v>77834.0</v>
+        <v>10029.0</v>
       </c>
       <c r="C103" t="n">
-        <v>1256343.0</v>
+        <v>528441.0</v>
       </c>
       <c r="D103" t="n">
-        <v>11725.0</v>
+        <v>1701.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>8521620.0</v>
+        <v>9328116.0</v>
       </c>
       <c r="B104" t="n">
-        <v>79775.0</v>
+        <v>10645.0</v>
       </c>
       <c r="C104" t="n">
-        <v>1267047.0</v>
+        <v>529681.0</v>
       </c>
       <c r="D104" t="n">
-        <v>12645.0</v>
+        <v>1856.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>8512875.0</v>
+        <v>9326908.0</v>
       </c>
       <c r="B105" t="n">
-        <v>78465.0</v>
+        <v>10696.0</v>
       </c>
       <c r="C105" t="n">
-        <v>1277102.0</v>
+        <v>530838.0</v>
       </c>
       <c r="D105" t="n">
-        <v>8745.0</v>
+        <v>1208.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>8500699.0</v>
+        <v>9325181.0</v>
       </c>
       <c r="B106" t="n">
-        <v>80716.0</v>
+        <v>11227.0</v>
       </c>
       <c r="C106" t="n">
-        <v>1287027.0</v>
+        <v>532034.0</v>
       </c>
       <c r="D106" t="n">
-        <v>12176.0</v>
+        <v>1727.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>8488319.0</v>
+        <v>9323222.0</v>
       </c>
       <c r="B107" t="n">
-        <v>82277.0</v>
+        <v>11829.0</v>
       </c>
       <c r="C107" t="n">
-        <v>1297846.0</v>
+        <v>533391.0</v>
       </c>
       <c r="D107" t="n">
-        <v>12380.0</v>
+        <v>1959.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>8475923.0</v>
+        <v>9321264.0</v>
       </c>
       <c r="B108" t="n">
-        <v>83747.0</v>
+        <v>12251.0</v>
       </c>
       <c r="C108" t="n">
-        <v>1308772.0</v>
+        <v>534927.0</v>
       </c>
       <c r="D108" t="n">
-        <v>12396.0</v>
+        <v>1958.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>8463217.0</v>
+        <v>9319227.0</v>
       </c>
       <c r="B109" t="n">
-        <v>85178.0</v>
+        <v>12668.0</v>
       </c>
       <c r="C109" t="n">
-        <v>1320047.0</v>
+        <v>536547.0</v>
       </c>
       <c r="D109" t="n">
-        <v>12706.0</v>
+        <v>2037.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>8450234.0</v>
+        <v>9317020.0</v>
       </c>
       <c r="B110" t="n">
-        <v>87195.0</v>
+        <v>13389.0</v>
       </c>
       <c r="C110" t="n">
-        <v>1331013.0</v>
+        <v>538033.0</v>
       </c>
       <c r="D110" t="n">
-        <v>12983.0</v>
+        <v>2207.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>8436535.0</v>
+        <v>9314646.0</v>
       </c>
       <c r="B111" t="n">
-        <v>89800.0</v>
+        <v>14191.0</v>
       </c>
       <c r="C111" t="n">
-        <v>1342107.0</v>
+        <v>539605.0</v>
       </c>
       <c r="D111" t="n">
-        <v>13699.0</v>
+        <v>2374.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>8427220.0</v>
+        <v>9313126.0</v>
       </c>
       <c r="B112" t="n">
-        <v>87877.0</v>
+        <v>14046.0</v>
       </c>
       <c r="C112" t="n">
-        <v>1353345.0</v>
+        <v>541270.0</v>
       </c>
       <c r="D112" t="n">
-        <v>9315.0</v>
+        <v>1520.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>8414062.0</v>
+        <v>9310883.0</v>
       </c>
       <c r="B113" t="n">
-        <v>89602.0</v>
+        <v>14656.0</v>
       </c>
       <c r="C113" t="n">
-        <v>1364778.0</v>
+        <v>542903.0</v>
       </c>
       <c r="D113" t="n">
-        <v>13158.0</v>
+        <v>2243.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>8401059.0</v>
+        <v>9308317.0</v>
       </c>
       <c r="B114" t="n">
-        <v>90253.0</v>
+        <v>15281.0</v>
       </c>
       <c r="C114" t="n">
-        <v>1377130.0</v>
+        <v>544844.0</v>
       </c>
       <c r="D114" t="n">
-        <v>13003.0</v>
+        <v>2566.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>8388048.0</v>
+        <v>9305774.0</v>
       </c>
       <c r="B115" t="n">
-        <v>91010.0</v>
+        <v>15851.0</v>
       </c>
       <c r="C115" t="n">
-        <v>1389384.0</v>
+        <v>546817.0</v>
       </c>
       <c r="D115" t="n">
-        <v>13011.0</v>
+        <v>2543.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>8374678.0</v>
+        <v>9302971.0</v>
       </c>
       <c r="B116" t="n">
-        <v>91780.0</v>
+        <v>16556.0</v>
       </c>
       <c r="C116" t="n">
-        <v>1401984.0</v>
+        <v>548915.0</v>
       </c>
       <c r="D116" t="n">
-        <v>13370.0</v>
+        <v>2803.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>8361034.0</v>
+        <v>9299909.0</v>
       </c>
       <c r="B117" t="n">
-        <v>93442.0</v>
+        <v>17613.0</v>
       </c>
       <c r="C117" t="n">
-        <v>1413966.0</v>
+        <v>550920.0</v>
       </c>
       <c r="D117" t="n">
-        <v>13644.0</v>
+        <v>3062.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>8347023.0</v>
+        <v>9296679.0</v>
       </c>
       <c r="B118" t="n">
-        <v>95225.0</v>
+        <v>18807.0</v>
       </c>
       <c r="C118" t="n">
-        <v>1426194.0</v>
+        <v>552956.0</v>
       </c>
       <c r="D118" t="n">
-        <v>14011.0</v>
+        <v>3230.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>8337599.0</v>
+        <v>9294623.0</v>
       </c>
       <c r="B119" t="n">
-        <v>92232.0</v>
+        <v>18697.0</v>
       </c>
       <c r="C119" t="n">
-        <v>1438611.0</v>
+        <v>555122.0</v>
       </c>
       <c r="D119" t="n">
-        <v>9424.0</v>
+        <v>2056.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>8324066.0</v>
+        <v>9291603.0</v>
       </c>
       <c r="B120" t="n">
-        <v>93436.0</v>
+        <v>19591.0</v>
       </c>
       <c r="C120" t="n">
-        <v>1450940.0</v>
+        <v>557248.0</v>
       </c>
       <c r="D120" t="n">
-        <v>13533.0</v>
+        <v>3020.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>8310809.0</v>
+        <v>9287979.0</v>
       </c>
       <c r="B121" t="n">
-        <v>93589.0</v>
+        <v>20738.0</v>
       </c>
       <c r="C121" t="n">
-        <v>1464044.0</v>
+        <v>559725.0</v>
       </c>
       <c r="D121" t="n">
-        <v>13257.0</v>
+        <v>3624.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>8297429.0</v>
+        <v>9284592.0</v>
       </c>
       <c r="B122" t="n">
-        <v>94071.0</v>
+        <v>21535.0</v>
       </c>
       <c r="C122" t="n">
-        <v>1476942.0</v>
+        <v>562315.0</v>
       </c>
       <c r="D122" t="n">
-        <v>13380.0</v>
+        <v>3387.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>8283801.0</v>
+        <v>9280739.0</v>
       </c>
       <c r="B123" t="n">
-        <v>94366.0</v>
+        <v>22610.0</v>
       </c>
       <c r="C123" t="n">
-        <v>1490275.0</v>
+        <v>565093.0</v>
       </c>
       <c r="D123" t="n">
-        <v>13628.0</v>
+        <v>3853.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>8269514.0</v>
+        <v>9276652.0</v>
       </c>
       <c r="B124" t="n">
-        <v>96116.0</v>
+        <v>23978.0</v>
       </c>
       <c r="C124" t="n">
-        <v>1502812.0</v>
+        <v>567812.0</v>
       </c>
       <c r="D124" t="n">
-        <v>14287.0</v>
+        <v>4087.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>8254692.0</v>
+        <v>9272356.0</v>
       </c>
       <c r="B125" t="n">
-        <v>98078.0</v>
+        <v>25477.0</v>
       </c>
       <c r="C125" t="n">
-        <v>1515672.0</v>
+        <v>570609.0</v>
       </c>
       <c r="D125" t="n">
-        <v>14822.0</v>
+        <v>4296.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>8244690.0</v>
+        <v>9269566.0</v>
       </c>
       <c r="B126" t="n">
-        <v>95404.0</v>
+        <v>25397.0</v>
       </c>
       <c r="C126" t="n">
-        <v>1528348.0</v>
+        <v>573479.0</v>
       </c>
       <c r="D126" t="n">
-        <v>10002.0</v>
+        <v>2790.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>8230663.0</v>
+        <v>9265465.0</v>
       </c>
       <c r="B127" t="n">
-        <v>96847.0</v>
+        <v>26676.0</v>
       </c>
       <c r="C127" t="n">
-        <v>1540932.0</v>
+        <v>576301.0</v>
       </c>
       <c r="D127" t="n">
-        <v>14027.0</v>
+        <v>4101.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>8216799.0</v>
+        <v>9260589.0</v>
       </c>
       <c r="B128" t="n">
-        <v>97190.0</v>
+        <v>28178.0</v>
       </c>
       <c r="C128" t="n">
-        <v>1554453.0</v>
+        <v>579675.0</v>
       </c>
       <c r="D128" t="n">
-        <v>13864.0</v>
+        <v>4876.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>8202658.0</v>
+        <v>9256071.0</v>
       </c>
       <c r="B129" t="n">
-        <v>97798.0</v>
+        <v>29082.0</v>
       </c>
       <c r="C129" t="n">
-        <v>1567986.0</v>
+        <v>583289.0</v>
       </c>
       <c r="D129" t="n">
-        <v>14141.0</v>
+        <v>4518.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>8188279.0</v>
+        <v>9251131.0</v>
       </c>
       <c r="B130" t="n">
-        <v>98348.0</v>
+        <v>30339.0</v>
       </c>
       <c r="C130" t="n">
-        <v>1581815.0</v>
+        <v>586972.0</v>
       </c>
       <c r="D130" t="n">
-        <v>14379.0</v>
+        <v>4940.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>8173693.0</v>
+        <v>9245650.0</v>
       </c>
       <c r="B131" t="n">
-        <v>99930.0</v>
+        <v>32209.0</v>
       </c>
       <c r="C131" t="n">
-        <v>1594819.0</v>
+        <v>590583.0</v>
       </c>
       <c r="D131" t="n">
-        <v>14586.0</v>
+        <v>5481.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>8158486.0</v>
+        <v>9239851.0</v>
       </c>
       <c r="B132" t="n">
-        <v>101786.0</v>
+        <v>34244.0</v>
       </c>
       <c r="C132" t="n">
-        <v>1608170.0</v>
+        <v>594347.0</v>
       </c>
       <c r="D132" t="n">
-        <v>15207.0</v>
+        <v>5799.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>8148442.0</v>
+        <v>9236106.0</v>
       </c>
       <c r="B133" t="n">
-        <v>98360.0</v>
+        <v>34087.0</v>
       </c>
       <c r="C133" t="n">
-        <v>1621640.0</v>
+        <v>598249.0</v>
       </c>
       <c r="D133" t="n">
-        <v>10044.0</v>
+        <v>3745.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>8134293.0</v>
+        <v>9230900.0</v>
       </c>
       <c r="B134" t="n">
-        <v>99589.0</v>
+        <v>35303.0</v>
       </c>
       <c r="C134" t="n">
-        <v>1634560.0</v>
+        <v>602239.0</v>
       </c>
       <c r="D134" t="n">
-        <v>14149.0</v>
+        <v>5206.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>8120403.0</v>
+        <v>9224449.0</v>
       </c>
       <c r="B135" t="n">
-        <v>99449.0</v>
+        <v>37170.0</v>
       </c>
       <c r="C135" t="n">
-        <v>1648590.0</v>
+        <v>606823.0</v>
       </c>
       <c r="D135" t="n">
-        <v>13890.0</v>
+        <v>6451.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>8106200.0</v>
+        <v>9218421.0</v>
       </c>
       <c r="B136" t="n">
-        <v>99614.0</v>
+        <v>38440.0</v>
       </c>
       <c r="C136" t="n">
-        <v>1662628.0</v>
+        <v>611581.0</v>
       </c>
       <c r="D136" t="n">
-        <v>14203.0</v>
+        <v>6028.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>8092088.0</v>
+        <v>9211670.0</v>
       </c>
       <c r="B137" t="n">
-        <v>99389.0</v>
+        <v>40248.0</v>
       </c>
       <c r="C137" t="n">
-        <v>1676965.0</v>
+        <v>616524.0</v>
       </c>
       <c r="D137" t="n">
-        <v>14112.0</v>
+        <v>6751.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>8077440.0</v>
+        <v>9204564.0</v>
       </c>
       <c r="B138" t="n">
-        <v>100814.0</v>
+        <v>42394.0</v>
       </c>
       <c r="C138" t="n">
-        <v>1690188.0</v>
+        <v>621484.0</v>
       </c>
       <c r="D138" t="n">
-        <v>14648.0</v>
+        <v>7106.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>8062597.0</v>
+        <v>9196991.0</v>
       </c>
       <c r="B139" t="n">
-        <v>101934.0</v>
+        <v>44982.0</v>
       </c>
       <c r="C139" t="n">
-        <v>1703911.0</v>
+        <v>626469.0</v>
       </c>
       <c r="D139" t="n">
-        <v>14843.0</v>
+        <v>7573.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>8053053.0</v>
+        <v>9192143.0</v>
       </c>
       <c r="B140" t="n">
-        <v>97947.0</v>
+        <v>44647.0</v>
       </c>
       <c r="C140" t="n">
-        <v>1717442.0</v>
+        <v>631652.0</v>
       </c>
       <c r="D140" t="n">
-        <v>9544.0</v>
+        <v>4848.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>8039111.0</v>
+        <v>9185119.0</v>
       </c>
       <c r="B141" t="n">
-        <v>98803.0</v>
+        <v>46517.0</v>
       </c>
       <c r="C141" t="n">
-        <v>1730528.0</v>
+        <v>636806.0</v>
       </c>
       <c r="D141" t="n">
-        <v>13942.0</v>
+        <v>7024.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>8025338.0</v>
+        <v>9177082.0</v>
       </c>
       <c r="B142" t="n">
-        <v>98339.0</v>
+        <v>48723.0</v>
       </c>
       <c r="C142" t="n">
-        <v>1744765.0</v>
+        <v>642637.0</v>
       </c>
       <c r="D142" t="n">
-        <v>13773.0</v>
+        <v>8037.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>8011563.0</v>
+        <v>9169085.0</v>
       </c>
       <c r="B143" t="n">
-        <v>98007.0</v>
+        <v>50438.0</v>
       </c>
       <c r="C143" t="n">
-        <v>1758872.0</v>
+        <v>648919.0</v>
       </c>
       <c r="D143" t="n">
-        <v>13775.0</v>
+        <v>7997.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>7997804.0</v>
+        <v>9160506.0</v>
       </c>
       <c r="B144" t="n">
-        <v>97378.0</v>
+        <v>52520.0</v>
       </c>
       <c r="C144" t="n">
-        <v>1773260.0</v>
+        <v>655416.0</v>
       </c>
       <c r="D144" t="n">
-        <v>13759.0</v>
+        <v>8579.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>7983639.0</v>
+        <v>9151220.0</v>
       </c>
       <c r="B145" t="n">
-        <v>98252.0</v>
+        <v>55564.0</v>
       </c>
       <c r="C145" t="n">
-        <v>1786551.0</v>
+        <v>661658.0</v>
       </c>
       <c r="D145" t="n">
-        <v>14165.0</v>
+        <v>9286.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>7969546.0</v>
+        <v>9141294.0</v>
       </c>
       <c r="B146" t="n">
-        <v>98773.0</v>
+        <v>58947.0</v>
       </c>
       <c r="C146" t="n">
-        <v>1800123.0</v>
+        <v>668201.0</v>
       </c>
       <c r="D146" t="n">
-        <v>14093.0</v>
+        <v>9926.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>7960024.0</v>
+        <v>9135083.0</v>
       </c>
       <c r="B147" t="n">
-        <v>95103.0</v>
+        <v>58340.0</v>
       </c>
       <c r="C147" t="n">
-        <v>1813315.0</v>
+        <v>675019.0</v>
       </c>
       <c r="D147" t="n">
-        <v>9522.0</v>
+        <v>6211.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>7946814.0</v>
+        <v>9125876.0</v>
       </c>
       <c r="B148" t="n">
-        <v>95465.0</v>
+        <v>60789.0</v>
       </c>
       <c r="C148" t="n">
-        <v>1826163.0</v>
+        <v>681777.0</v>
       </c>
       <c r="D148" t="n">
-        <v>13210.0</v>
+        <v>9207.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>7933722.0</v>
+        <v>9115169.0</v>
       </c>
       <c r="B149" t="n">
-        <v>94682.0</v>
+        <v>63720.0</v>
       </c>
       <c r="C149" t="n">
-        <v>1840038.0</v>
+        <v>689553.0</v>
       </c>
       <c r="D149" t="n">
-        <v>13092.0</v>
+        <v>10707.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>7920853.0</v>
+        <v>9105055.0</v>
       </c>
       <c r="B150" t="n">
-        <v>93847.0</v>
+        <v>65717.0</v>
       </c>
       <c r="C150" t="n">
-        <v>1853742.0</v>
+        <v>697670.0</v>
       </c>
       <c r="D150" t="n">
-        <v>12869.0</v>
+        <v>10114.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>7907910.0</v>
+        <v>9093728.0</v>
       </c>
       <c r="B151" t="n">
-        <v>92993.0</v>
+        <v>68554.0</v>
       </c>
       <c r="C151" t="n">
-        <v>1867539.0</v>
+        <v>706160.0</v>
       </c>
       <c r="D151" t="n">
-        <v>12943.0</v>
+        <v>11327.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>7894643.0</v>
+        <v>9081896.0</v>
       </c>
       <c r="B152" t="n">
-        <v>93415.0</v>
+        <v>72120.0</v>
       </c>
       <c r="C152" t="n">
-        <v>1880384.0</v>
+        <v>714426.0</v>
       </c>
       <c r="D152" t="n">
-        <v>13267.0</v>
+        <v>11832.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>7881299.0</v>
+        <v>9069193.0</v>
       </c>
       <c r="B153" t="n">
-        <v>93875.0</v>
+        <v>76361.0</v>
       </c>
       <c r="C153" t="n">
-        <v>1893268.0</v>
+        <v>722888.0</v>
       </c>
       <c r="D153" t="n">
-        <v>13344.0</v>
+        <v>12703.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>7872527.0</v>
+        <v>9061145.0</v>
       </c>
       <c r="B154" t="n">
-        <v>89958.0</v>
+        <v>75424.0</v>
       </c>
       <c r="C154" t="n">
-        <v>1905957.0</v>
+        <v>731873.0</v>
       </c>
       <c r="D154" t="n">
-        <v>8772.0</v>
+        <v>8048.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>7859684.0</v>
+        <v>9049413.0</v>
       </c>
       <c r="B155" t="n">
-        <v>90321.0</v>
+        <v>78176.0</v>
       </c>
       <c r="C155" t="n">
-        <v>1918437.0</v>
+        <v>740853.0</v>
       </c>
       <c r="D155" t="n">
-        <v>12843.0</v>
+        <v>11732.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>7849250.0</v>
+        <v>9039682.0</v>
       </c>
       <c r="B156" t="n">
-        <v>87638.0</v>
+        <v>78098.0</v>
       </c>
       <c r="C156" t="n">
-        <v>1931554.0</v>
+        <v>750662.0</v>
       </c>
       <c r="D156" t="n">
-        <v>10434.0</v>
+        <v>9731.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>7840557.0</v>
+        <v>9031807.0</v>
       </c>
       <c r="B157" t="n">
-        <v>83300.0</v>
+        <v>75264.0</v>
       </c>
       <c r="C157" t="n">
-        <v>1944585.0</v>
+        <v>761371.0</v>
       </c>
       <c r="D157" t="n">
-        <v>8693.0</v>
+        <v>7875.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>7833677.0</v>
+        <v>9025478.0</v>
       </c>
       <c r="B158" t="n">
-        <v>77112.0</v>
+        <v>70548.0</v>
       </c>
       <c r="C158" t="n">
-        <v>1957653.0</v>
+        <v>772416.0</v>
       </c>
       <c r="D158" t="n">
-        <v>6880.0</v>
+        <v>6329.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>7828394.0</v>
+        <v>9020940.0</v>
       </c>
       <c r="B159" t="n">
-        <v>70286.0</v>
+        <v>64327.0</v>
       </c>
       <c r="C159" t="n">
-        <v>1969762.0</v>
+        <v>783175.0</v>
       </c>
       <c r="D159" t="n">
-        <v>5283.0</v>
+        <v>4538.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>7824078.0</v>
+        <v>9017622.0</v>
       </c>
       <c r="B160" t="n">
-        <v>62241.0</v>
+        <v>56663.0</v>
       </c>
       <c r="C160" t="n">
-        <v>1982123.0</v>
+        <v>794157.0</v>
       </c>
       <c r="D160" t="n">
-        <v>4316.0</v>
+        <v>3318.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>7820587.0</v>
+        <v>9015230.0</v>
       </c>
       <c r="B161" t="n">
-        <v>54192.0</v>
+        <v>48422.0</v>
       </c>
       <c r="C161" t="n">
-        <v>1993663.0</v>
+        <v>804790.0</v>
       </c>
       <c r="D161" t="n">
-        <v>3491.0</v>
+        <v>2392.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>7817719.0</v>
+        <v>9013625.0</v>
       </c>
       <c r="B162" t="n">
-        <v>46244.0</v>
+        <v>40267.0</v>
       </c>
       <c r="C162" t="n">
-        <v>2004479.0</v>
+        <v>814550.0</v>
       </c>
       <c r="D162" t="n">
-        <v>2868.0</v>
+        <v>1605.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>7813329.0</v>
+        <v>9009454.0</v>
       </c>
       <c r="B163" t="n">
-        <v>40118.0</v>
+        <v>34879.0</v>
       </c>
       <c r="C163" t="n">
-        <v>2014995.0</v>
+        <v>824109.0</v>
       </c>
       <c r="D163" t="n">
-        <v>4390.0</v>
+        <v>4171.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>7808889.0</v>
+        <v>9006573.0</v>
       </c>
       <c r="B164" t="n">
-        <v>35754.0</v>
+        <v>29882.0</v>
       </c>
       <c r="C164" t="n">
-        <v>2023799.0</v>
+        <v>831987.0</v>
       </c>
       <c r="D164" t="n">
-        <v>4440.0</v>
+        <v>2881.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>7804232.0</v>
+        <v>9002911.0</v>
       </c>
       <c r="B165" t="n">
-        <v>33123.0</v>
+        <v>27150.0</v>
       </c>
       <c r="C165" t="n">
-        <v>2031087.0</v>
+        <v>838381.0</v>
       </c>
       <c r="D165" t="n">
-        <v>4657.0</v>
+        <v>3662.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>7799266.0</v>
+        <v>8998810.0</v>
       </c>
       <c r="B166" t="n">
-        <v>32307.0</v>
+        <v>26100.0</v>
       </c>
       <c r="C166" t="n">
-        <v>2036869.0</v>
+        <v>843532.0</v>
       </c>
       <c r="D166" t="n">
-        <v>4966.0</v>
+        <v>4101.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>7793724.0</v>
+        <v>8994344.0</v>
       </c>
       <c r="B167" t="n">
-        <v>32991.0</v>
+        <v>26598.0</v>
       </c>
       <c r="C167" t="n">
-        <v>2041727.0</v>
+        <v>847500.0</v>
       </c>
       <c r="D167" t="n">
-        <v>5542.0</v>
+        <v>4466.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>7789771.0</v>
+        <v>8991460.0</v>
       </c>
       <c r="B168" t="n">
-        <v>32534.0</v>
+        <v>25907.0</v>
       </c>
       <c r="C168" t="n">
-        <v>2046137.0</v>
+        <v>851075.0</v>
       </c>
       <c r="D168" t="n">
-        <v>3953.0</v>
+        <v>2884.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>7784190.0</v>
+        <v>8987332.0</v>
       </c>
       <c r="B169" t="n">
-        <v>33975.0</v>
+        <v>26827.0</v>
       </c>
       <c r="C169" t="n">
-        <v>2050277.0</v>
+        <v>854283.0</v>
       </c>
       <c r="D169" t="n">
-        <v>5581.0</v>
+        <v>4128.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>7778157.0</v>
+        <v>8982518.0</v>
       </c>
       <c r="B170" t="n">
-        <v>35586.0</v>
+        <v>28185.0</v>
       </c>
       <c r="C170" t="n">
-        <v>2054699.0</v>
+        <v>857739.0</v>
       </c>
       <c r="D170" t="n">
-        <v>6033.0</v>
+        <v>4814.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>7771979.0</v>
+        <v>8977876.0</v>
       </c>
       <c r="B171" t="n">
-        <v>37127.0</v>
+        <v>29152.0</v>
       </c>
       <c r="C171" t="n">
-        <v>2059336.0</v>
+        <v>861414.0</v>
       </c>
       <c r="D171" t="n">
-        <v>6178.0</v>
+        <v>4642.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>7765586.0</v>
+        <v>8972706.0</v>
       </c>
       <c r="B172" t="n">
-        <v>38807.0</v>
+        <v>30687.0</v>
       </c>
       <c r="C172" t="n">
-        <v>2064049.0</v>
+        <v>865049.0</v>
       </c>
       <c r="D172" t="n">
-        <v>6393.0</v>
+        <v>5170.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>7758858.0</v>
+        <v>8967177.0</v>
       </c>
       <c r="B173" t="n">
-        <v>40861.0</v>
+        <v>32566.0</v>
       </c>
       <c r="C173" t="n">
-        <v>2068723.0</v>
+        <v>868699.0</v>
       </c>
       <c r="D173" t="n">
-        <v>6728.0</v>
+        <v>5529.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>7751769.0</v>
+        <v>8961267.0</v>
       </c>
       <c r="B174" t="n">
-        <v>43039.0</v>
+        <v>34734.0</v>
       </c>
       <c r="C174" t="n">
-        <v>2073634.0</v>
+        <v>872441.0</v>
       </c>
       <c r="D174" t="n">
-        <v>7089.0</v>
+        <v>5910.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>7747010.0</v>
+        <v>8957580.0</v>
       </c>
       <c r="B175" t="n">
-        <v>42660.0</v>
+        <v>34464.0</v>
       </c>
       <c r="C175" t="n">
-        <v>2078772.0</v>
+        <v>876398.0</v>
       </c>
       <c r="D175" t="n">
-        <v>4759.0</v>
+        <v>3687.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>7740245.0</v>
+        <v>8952314.0</v>
       </c>
       <c r="B176" t="n">
-        <v>44144.0</v>
+        <v>35652.0</v>
       </c>
       <c r="C176" t="n">
-        <v>2084053.0</v>
+        <v>880476.0</v>
       </c>
       <c r="D176" t="n">
-        <v>6765.0</v>
+        <v>5266.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>7733180.0</v>
+        <v>8945926.0</v>
       </c>
       <c r="B177" t="n">
-        <v>45282.0</v>
+        <v>37555.0</v>
       </c>
       <c r="C177" t="n">
-        <v>2089980.0</v>
+        <v>884961.0</v>
       </c>
       <c r="D177" t="n">
-        <v>7065.0</v>
+        <v>6388.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>7726074.0</v>
+        <v>8940049.0</v>
       </c>
       <c r="B178" t="n">
-        <v>46390.0</v>
+        <v>38606.0</v>
       </c>
       <c r="C178" t="n">
-        <v>2095978.0</v>
+        <v>889787.0</v>
       </c>
       <c r="D178" t="n">
-        <v>7106.0</v>
+        <v>5877.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>7718686.0</v>
+        <v>8933631.0</v>
       </c>
       <c r="B179" t="n">
-        <v>47453.0</v>
+        <v>39957.0</v>
       </c>
       <c r="C179" t="n">
-        <v>2102303.0</v>
+        <v>894854.0</v>
       </c>
       <c r="D179" t="n">
-        <v>7388.0</v>
+        <v>6418.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>7710984.0</v>
+        <v>8926449.0</v>
       </c>
       <c r="B180" t="n">
-        <v>49112.0</v>
+        <v>42193.0</v>
       </c>
       <c r="C180" t="n">
-        <v>2108346.0</v>
+        <v>899800.0</v>
       </c>
       <c r="D180" t="n">
-        <v>7702.0</v>
+        <v>7182.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>7702811.0</v>
+        <v>8918969.0</v>
       </c>
       <c r="B181" t="n">
-        <v>50948.0</v>
+        <v>44616.0</v>
       </c>
       <c r="C181" t="n">
-        <v>2114683.0</v>
+        <v>904857.0</v>
       </c>
       <c r="D181" t="n">
-        <v>8173.0</v>
+        <v>7480.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>7697455.0</v>
+        <v>8914359.0</v>
       </c>
       <c r="B182" t="n">
-        <v>49972.0</v>
+        <v>44002.0</v>
       </c>
       <c r="C182" t="n">
-        <v>2121015.0</v>
+        <v>910081.0</v>
       </c>
       <c r="D182" t="n">
-        <v>5356.0</v>
+        <v>4610.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>7689925.0</v>
+        <v>8907522.0</v>
       </c>
       <c r="B183" t="n">
-        <v>51087.0</v>
+        <v>45550.0</v>
       </c>
       <c r="C183" t="n">
-        <v>2127430.0</v>
+        <v>915370.0</v>
       </c>
       <c r="D183" t="n">
-        <v>7530.0</v>
+        <v>6837.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>7682353.0</v>
+        <v>8899586.0</v>
       </c>
       <c r="B184" t="n">
-        <v>51503.0</v>
+        <v>47791.0</v>
       </c>
       <c r="C184" t="n">
-        <v>2134586.0</v>
+        <v>921065.0</v>
       </c>
       <c r="D184" t="n">
-        <v>7572.0</v>
+        <v>7936.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>7674728.0</v>
+        <v>8892077.0</v>
       </c>
       <c r="B185" t="n">
-        <v>51879.0</v>
+        <v>49068.0</v>
       </c>
       <c r="C185" t="n">
-        <v>2141835.0</v>
+        <v>927297.0</v>
       </c>
       <c r="D185" t="n">
-        <v>7625.0</v>
+        <v>7509.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>7667084.0</v>
+        <v>8883734.0</v>
       </c>
       <c r="B186" t="n">
-        <v>52166.0</v>
+        <v>50942.0</v>
       </c>
       <c r="C186" t="n">
-        <v>2149192.0</v>
+        <v>933766.0</v>
       </c>
       <c r="D186" t="n">
-        <v>7644.0</v>
+        <v>8343.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>7659135.0</v>
+        <v>8874840.0</v>
       </c>
       <c r="B187" t="n">
-        <v>53150.0</v>
+        <v>53479.0</v>
       </c>
       <c r="C187" t="n">
-        <v>2156157.0</v>
+        <v>940123.0</v>
       </c>
       <c r="D187" t="n">
-        <v>7949.0</v>
+        <v>8894.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>7650790.0</v>
+        <v>8865496.0</v>
       </c>
       <c r="B188" t="n">
-        <v>54344.0</v>
+        <v>56319.0</v>
       </c>
       <c r="C188" t="n">
-        <v>2163308.0</v>
+        <v>946627.0</v>
       </c>
       <c r="D188" t="n">
-        <v>8345.0</v>
+        <v>9344.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>7645349.0</v>
+        <v>8859551.0</v>
       </c>
       <c r="B189" t="n">
-        <v>52556.0</v>
+        <v>55578.0</v>
       </c>
       <c r="C189" t="n">
-        <v>2170537.0</v>
+        <v>953313.0</v>
       </c>
       <c r="D189" t="n">
-        <v>5441.0</v>
+        <v>5945.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>7637432.0</v>
+        <v>8851034.0</v>
       </c>
       <c r="B190" t="n">
-        <v>53469.0</v>
+        <v>57561.0</v>
       </c>
       <c r="C190" t="n">
-        <v>2177541.0</v>
+        <v>959847.0</v>
       </c>
       <c r="D190" t="n">
-        <v>7917.0</v>
+        <v>8517.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>7629607.0</v>
+        <v>8841041.0</v>
       </c>
       <c r="B191" t="n">
-        <v>53782.0</v>
+        <v>60177.0</v>
       </c>
       <c r="C191" t="n">
-        <v>2185053.0</v>
+        <v>967224.0</v>
       </c>
       <c r="D191" t="n">
-        <v>7825.0</v>
+        <v>9993.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>7621641.0</v>
+        <v>8831539.0</v>
       </c>
       <c r="B192" t="n">
-        <v>54116.0</v>
+        <v>61724.0</v>
       </c>
       <c r="C192" t="n">
-        <v>2192685.0</v>
+        <v>975179.0</v>
       </c>
       <c r="D192" t="n">
-        <v>7966.0</v>
+        <v>9502.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>7613450.0</v>
+        <v>8821324.0</v>
       </c>
       <c r="B193" t="n">
-        <v>54449.0</v>
+        <v>63786.0</v>
       </c>
       <c r="C193" t="n">
-        <v>2200543.0</v>
+        <v>983332.0</v>
       </c>
       <c r="D193" t="n">
-        <v>8191.0</v>
+        <v>10215.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>7605055.0</v>
+        <v>8810440.0</v>
       </c>
       <c r="B194" t="n">
-        <v>55549.0</v>
+        <v>66813.0</v>
       </c>
       <c r="C194" t="n">
-        <v>2207838.0</v>
+        <v>991189.0</v>
       </c>
       <c r="D194" t="n">
-        <v>8395.0</v>
+        <v>10884.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>7596212.0</v>
+        <v>8798727.0</v>
       </c>
       <c r="B195" t="n">
-        <v>56942.0</v>
+        <v>70398.0</v>
       </c>
       <c r="C195" t="n">
-        <v>2215288.0</v>
+        <v>999317.0</v>
       </c>
       <c r="D195" t="n">
-        <v>8843.0</v>
+        <v>11713.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>7590386.0</v>
+        <v>8791630.0</v>
       </c>
       <c r="B196" t="n">
-        <v>55390.0</v>
+        <v>69089.0</v>
       </c>
       <c r="C196" t="n">
-        <v>2222666.0</v>
+        <v>1007723.0</v>
       </c>
       <c r="D196" t="n">
-        <v>5826.0</v>
+        <v>7097.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>7582168.0</v>
+        <v>8781332.0</v>
       </c>
       <c r="B197" t="n">
-        <v>56298.0</v>
+        <v>71055.0</v>
       </c>
       <c r="C197" t="n">
-        <v>2229976.0</v>
+        <v>1016055.0</v>
       </c>
       <c r="D197" t="n">
-        <v>8218.0</v>
+        <v>10298.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>7573948.0</v>
+        <v>8769165.0</v>
       </c>
       <c r="B198" t="n">
-        <v>56787.0</v>
+        <v>74005.0</v>
       </c>
       <c r="C198" t="n">
-        <v>2237707.0</v>
+        <v>1025272.0</v>
       </c>
       <c r="D198" t="n">
-        <v>8220.0</v>
+        <v>12167.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>7565536.0</v>
+        <v>8757886.0</v>
       </c>
       <c r="B199" t="n">
-        <v>57245.0</v>
+        <v>75462.0</v>
       </c>
       <c r="C199" t="n">
-        <v>2245661.0</v>
+        <v>1035094.0</v>
       </c>
       <c r="D199" t="n">
-        <v>8412.0</v>
+        <v>11279.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>7557012.0</v>
+        <v>8745638.0</v>
       </c>
       <c r="B200" t="n">
-        <v>57493.0</v>
+        <v>77443.0</v>
       </c>
       <c r="C200" t="n">
-        <v>2253937.0</v>
+        <v>1045361.0</v>
       </c>
       <c r="D200" t="n">
-        <v>8524.0</v>
+        <v>12248.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>7548481.0</v>
+        <v>8732728.0</v>
       </c>
       <c r="B201" t="n">
-        <v>58291.0</v>
+        <v>80657.0</v>
       </c>
       <c r="C201" t="n">
-        <v>2261670.0</v>
+        <v>1055057.0</v>
       </c>
       <c r="D201" t="n">
-        <v>8531.0</v>
+        <v>12910.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>7539482.0</v>
+        <v>8719125.0</v>
       </c>
       <c r="B202" t="n">
-        <v>59496.0</v>
+        <v>84359.0</v>
       </c>
       <c r="C202" t="n">
-        <v>2269464.0</v>
+        <v>1064958.0</v>
       </c>
       <c r="D202" t="n">
-        <v>8999.0</v>
+        <v>13603.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>7533725.0</v>
+        <v>8710608.0</v>
       </c>
       <c r="B203" t="n">
-        <v>57394.0</v>
+        <v>82568.0</v>
       </c>
       <c r="C203" t="n">
-        <v>2277323.0</v>
+        <v>1075266.0</v>
       </c>
       <c r="D203" t="n">
-        <v>5757.0</v>
+        <v>8517.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>7525404.0</v>
+        <v>8698440.0</v>
       </c>
       <c r="B204" t="n">
-        <v>58023.0</v>
+        <v>84790.0</v>
       </c>
       <c r="C204" t="n">
-        <v>2285015.0</v>
+        <v>1085212.0</v>
       </c>
       <c r="D204" t="n">
-        <v>8321.0</v>
+        <v>12168.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>7517239.0</v>
+        <v>8684337.0</v>
       </c>
       <c r="B205" t="n">
-        <v>57695.0</v>
+        <v>87441.0</v>
       </c>
       <c r="C205" t="n">
-        <v>2293508.0</v>
+        <v>1096664.0</v>
       </c>
       <c r="D205" t="n">
-        <v>8165.0</v>
+        <v>14103.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>7508977.0</v>
+        <v>8671336.0</v>
       </c>
       <c r="B206" t="n">
-        <v>57514.0</v>
+        <v>88661.0</v>
       </c>
       <c r="C206" t="n">
-        <v>2301951.0</v>
+        <v>1108445.0</v>
       </c>
       <c r="D206" t="n">
-        <v>8262.0</v>
+        <v>13001.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>7500681.0</v>
+        <v>8657106.0</v>
       </c>
       <c r="B207" t="n">
-        <v>57301.0</v>
+        <v>90772.0</v>
       </c>
       <c r="C207" t="n">
-        <v>2310460.0</v>
+        <v>1120564.0</v>
       </c>
       <c r="D207" t="n">
-        <v>8296.0</v>
+        <v>14230.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>7493344.0</v>
+        <v>8646415.0</v>
       </c>
       <c r="B208" t="n">
-        <v>56743.0</v>
+        <v>89923.0</v>
       </c>
       <c r="C208" t="n">
-        <v>2318355.0</v>
+        <v>1132104.0</v>
       </c>
       <c r="D208" t="n">
-        <v>7337.0</v>
+        <v>10691.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>7485208.0</v>
+        <v>8630441.0</v>
       </c>
       <c r="B209" t="n">
-        <v>56964.0</v>
+        <v>94079.0</v>
       </c>
       <c r="C209" t="n">
-        <v>2326270.0</v>
+        <v>1143922.0</v>
       </c>
       <c r="D209" t="n">
-        <v>8136.0</v>
+        <v>15974.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>7480151.0</v>
+        <v>8622501.0</v>
       </c>
       <c r="B210" t="n">
-        <v>54277.0</v>
+        <v>89860.0</v>
       </c>
       <c r="C210" t="n">
-        <v>2334014.0</v>
+        <v>1156081.0</v>
       </c>
       <c r="D210" t="n">
-        <v>5057.0</v>
+        <v>7940.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>7473471.0</v>
+        <v>8611466.0</v>
       </c>
       <c r="B211" t="n">
-        <v>53183.0</v>
+        <v>89210.0</v>
       </c>
       <c r="C211" t="n">
-        <v>2341788.0</v>
+        <v>1167766.0</v>
       </c>
       <c r="D211" t="n">
-        <v>6680.0</v>
+        <v>11035.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>7466294.0</v>
+        <v>8597467.0</v>
       </c>
       <c r="B212" t="n">
-        <v>52165.0</v>
+        <v>90101.0</v>
       </c>
       <c r="C212" t="n">
-        <v>2349983.0</v>
+        <v>1180874.0</v>
       </c>
       <c r="D212" t="n">
-        <v>7177.0</v>
+        <v>13999.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>7459232.0</v>
+        <v>8585120.0</v>
       </c>
       <c r="B213" t="n">
-        <v>51261.0</v>
+        <v>89576.0</v>
       </c>
       <c r="C213" t="n">
-        <v>2357949.0</v>
+        <v>1193746.0</v>
       </c>
       <c r="D213" t="n">
-        <v>7062.0</v>
+        <v>12347.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>7452397.0</v>
+        <v>8571819.0</v>
       </c>
       <c r="B214" t="n">
-        <v>49948.0</v>
+        <v>89659.0</v>
       </c>
       <c r="C214" t="n">
-        <v>2366097.0</v>
+        <v>1206964.0</v>
       </c>
       <c r="D214" t="n">
-        <v>6835.0</v>
+        <v>13301.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>7445472.0</v>
+        <v>8557891.0</v>
       </c>
       <c r="B215" t="n">
-        <v>49492.0</v>
+        <v>91544.0</v>
       </c>
       <c r="C215" t="n">
-        <v>2373478.0</v>
+        <v>1219007.0</v>
       </c>
       <c r="D215" t="n">
-        <v>6925.0</v>
+        <v>13928.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>7438459.0</v>
+        <v>8543461.0</v>
       </c>
       <c r="B216" t="n">
-        <v>49521.0</v>
+        <v>94100.0</v>
       </c>
       <c r="C216" t="n">
-        <v>2380462.0</v>
+        <v>1230881.0</v>
       </c>
       <c r="D216" t="n">
-        <v>7013.0</v>
+        <v>14430.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>7433789.0</v>
+        <v>8534569.0</v>
       </c>
       <c r="B217" t="n">
-        <v>47415.0</v>
+        <v>90474.0</v>
       </c>
       <c r="C217" t="n">
-        <v>2387238.0</v>
+        <v>1243399.0</v>
       </c>
       <c r="D217" t="n">
-        <v>4670.0</v>
+        <v>8892.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>7427461.0</v>
+        <v>8521875.0</v>
       </c>
       <c r="B218" t="n">
-        <v>47031.0</v>
+        <v>91741.0</v>
       </c>
       <c r="C218" t="n">
-        <v>2393950.0</v>
+        <v>1254826.0</v>
       </c>
       <c r="D218" t="n">
-        <v>6328.0</v>
+        <v>12694.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>7421057.0</v>
+        <v>8507553.0</v>
       </c>
       <c r="B219" t="n">
-        <v>46432.0</v>
+        <v>93569.0</v>
       </c>
       <c r="C219" t="n">
-        <v>2400953.0</v>
+        <v>1267320.0</v>
       </c>
       <c r="D219" t="n">
-        <v>6404.0</v>
+        <v>14322.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>7414635.0</v>
+        <v>8494306.0</v>
       </c>
       <c r="B220" t="n">
-        <v>45728.0</v>
+        <v>93589.0</v>
       </c>
       <c r="C220" t="n">
-        <v>2408079.0</v>
+        <v>1280547.0</v>
       </c>
       <c r="D220" t="n">
-        <v>6422.0</v>
+        <v>13247.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>7409203.0</v>
+        <v>8484710.0</v>
       </c>
       <c r="B221" t="n">
-        <v>44216.0</v>
+        <v>89932.0</v>
       </c>
       <c r="C221" t="n">
-        <v>2415023.0</v>
+        <v>1293800.0</v>
       </c>
       <c r="D221" t="n">
-        <v>5432.0</v>
+        <v>9596.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>7403168.0</v>
+        <v>8470073.0</v>
       </c>
       <c r="B222" t="n">
-        <v>43708.0</v>
+        <v>91735.0</v>
       </c>
       <c r="C222" t="n">
-        <v>2421566.0</v>
+        <v>1306634.0</v>
       </c>
       <c r="D222" t="n">
-        <v>6035.0</v>
+        <v>14637.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>7397241.0</v>
+        <v>8457322.0</v>
       </c>
       <c r="B223" t="n">
-        <v>43345.0</v>
+        <v>91914.0</v>
       </c>
       <c r="C223" t="n">
-        <v>2427856.0</v>
+        <v>1319206.0</v>
       </c>
       <c r="D223" t="n">
-        <v>5927.0</v>
+        <v>12751.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>7393337.0</v>
+        <v>8449777.0</v>
       </c>
       <c r="B224" t="n">
-        <v>41016.0</v>
+        <v>86813.0</v>
       </c>
       <c r="C224" t="n">
-        <v>2434089.0</v>
+        <v>1331852.0</v>
       </c>
       <c r="D224" t="n">
-        <v>3904.0</v>
+        <v>7545.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>7388190.0</v>
+        <v>8439372.0</v>
       </c>
       <c r="B225" t="n">
-        <v>40170.0</v>
+        <v>85055.0</v>
       </c>
       <c r="C225" t="n">
-        <v>2440082.0</v>
+        <v>1344015.0</v>
       </c>
       <c r="D225" t="n">
-        <v>5147.0</v>
+        <v>10405.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>7382834.0</v>
+        <v>8426692.0</v>
       </c>
       <c r="B226" t="n">
-        <v>39230.0</v>
+        <v>85076.0</v>
       </c>
       <c r="C226" t="n">
-        <v>2446378.0</v>
+        <v>1356674.0</v>
       </c>
       <c r="D226" t="n">
-        <v>5356.0</v>
+        <v>12680.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>7377474.0</v>
+        <v>8415564.0</v>
       </c>
       <c r="B227" t="n">
-        <v>38331.0</v>
+        <v>83315.0</v>
       </c>
       <c r="C227" t="n">
-        <v>2452637.0</v>
+        <v>1369563.0</v>
       </c>
       <c r="D227" t="n">
-        <v>5360.0</v>
+        <v>11128.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>7372223.0</v>
+        <v>8403707.0</v>
       </c>
       <c r="B228" t="n">
-        <v>37644.0</v>
+        <v>82381.0</v>
       </c>
       <c r="C228" t="n">
-        <v>2458575.0</v>
+        <v>1382354.0</v>
       </c>
       <c r="D228" t="n">
-        <v>5251.0</v>
+        <v>11857.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>7366680.0</v>
+        <v>8391838.0</v>
       </c>
       <c r="B229" t="n">
-        <v>37766.0</v>
+        <v>82862.0</v>
       </c>
       <c r="C229" t="n">
-        <v>2463996.0</v>
+        <v>1393742.0</v>
       </c>
       <c r="D229" t="n">
-        <v>5543.0</v>
+        <v>11869.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>7361008.0</v>
+        <v>8379589.0</v>
       </c>
       <c r="B230" t="n">
-        <v>38018.0</v>
+        <v>83678.0</v>
       </c>
       <c r="C230" t="n">
-        <v>2469416.0</v>
+        <v>1405175.0</v>
       </c>
       <c r="D230" t="n">
-        <v>5672.0</v>
+        <v>12249.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>7357113.0</v>
+        <v>8372124.0</v>
       </c>
       <c r="B231" t="n">
-        <v>36751.0</v>
+        <v>80161.0</v>
       </c>
       <c r="C231" t="n">
-        <v>2474578.0</v>
+        <v>1416157.0</v>
       </c>
       <c r="D231" t="n">
-        <v>3895.0</v>
+        <v>7465.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>7351923.0</v>
+        <v>8361851.0</v>
       </c>
       <c r="B232" t="n">
-        <v>36968.0</v>
+        <v>79826.0</v>
       </c>
       <c r="C232" t="n">
-        <v>2479551.0</v>
+        <v>1426765.0</v>
       </c>
       <c r="D232" t="n">
-        <v>5190.0</v>
+        <v>10273.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>7346733.0</v>
+        <v>8350470.0</v>
       </c>
       <c r="B233" t="n">
-        <v>36746.0</v>
+        <v>79643.0</v>
       </c>
       <c r="C233" t="n">
-        <v>2484963.0</v>
+        <v>1438329.0</v>
       </c>
       <c r="D233" t="n">
-        <v>5190.0</v>
+        <v>11381.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>7341792.0</v>
+        <v>8341164.0</v>
       </c>
       <c r="B234" t="n">
-        <v>36325.0</v>
+        <v>77204.0</v>
       </c>
       <c r="C234" t="n">
-        <v>2490325.0</v>
+        <v>1450074.0</v>
       </c>
       <c r="D234" t="n">
-        <v>4941.0</v>
+        <v>9306.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>7336809.0</v>
+        <v>8331588.0</v>
       </c>
       <c r="B235" t="n">
-        <v>35962.0</v>
+        <v>75061.0</v>
       </c>
       <c r="C235" t="n">
-        <v>2495671.0</v>
+        <v>1461793.0</v>
       </c>
       <c r="D235" t="n">
-        <v>4983.0</v>
+        <v>9576.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>7331921.0</v>
+        <v>8321997.0</v>
       </c>
       <c r="B236" t="n">
-        <v>35772.0</v>
+        <v>73696.0</v>
       </c>
       <c r="C236" t="n">
-        <v>2500749.0</v>
+        <v>1472749.0</v>
       </c>
       <c r="D236" t="n">
-        <v>4888.0</v>
+        <v>9591.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>7326983.0</v>
+        <v>8312542.0</v>
       </c>
       <c r="B237" t="n">
-        <v>35637.0</v>
+        <v>72576.0</v>
       </c>
       <c r="C237" t="n">
-        <v>2505822.0</v>
+        <v>1483324.0</v>
       </c>
       <c r="D237" t="n">
-        <v>4938.0</v>
+        <v>9455.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>7323855.0</v>
+        <v>8307746.0</v>
       </c>
       <c r="B238" t="n">
-        <v>33662.0</v>
+        <v>66905.0</v>
       </c>
       <c r="C238" t="n">
-        <v>2510925.0</v>
+        <v>1493791.0</v>
       </c>
       <c r="D238" t="n">
-        <v>3128.0</v>
+        <v>4796.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>7319305.0</v>
+        <v>8300249.0</v>
       </c>
       <c r="B239" t="n">
-        <v>33301.0</v>
+        <v>64407.0</v>
       </c>
       <c r="C239" t="n">
-        <v>2515836.0</v>
+        <v>1503786.0</v>
       </c>
       <c r="D239" t="n">
-        <v>4550.0</v>
+        <v>7497.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>7314805.0</v>
+        <v>8292376.0</v>
       </c>
       <c r="B240" t="n">
-        <v>32634.0</v>
+        <v>61486.0</v>
       </c>
       <c r="C240" t="n">
-        <v>2521003.0</v>
+        <v>1514580.0</v>
       </c>
       <c r="D240" t="n">
-        <v>4500.0</v>
+        <v>7873.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>7310500.0</v>
+        <v>8285591.0</v>
       </c>
       <c r="B241" t="n">
-        <v>31739.0</v>
+        <v>57766.0</v>
       </c>
       <c r="C241" t="n">
-        <v>2526203.0</v>
+        <v>1525085.0</v>
       </c>
       <c r="D241" t="n">
-        <v>4305.0</v>
+        <v>6785.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>7306117.0</v>
+        <v>8278758.0</v>
       </c>
       <c r="B242" t="n">
-        <v>30993.0</v>
+        <v>54564.0</v>
       </c>
       <c r="C242" t="n">
-        <v>2531332.0</v>
+        <v>1535120.0</v>
       </c>
       <c r="D242" t="n">
-        <v>4383.0</v>
+        <v>6833.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>7301656.0</v>
+        <v>8271819.0</v>
       </c>
       <c r="B243" t="n">
-        <v>30751.0</v>
+        <v>52496.0</v>
       </c>
       <c r="C243" t="n">
-        <v>2536035.0</v>
+        <v>1544127.0</v>
       </c>
       <c r="D243" t="n">
-        <v>4461.0</v>
+        <v>6939.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>7297014.0</v>
+        <v>8264908.0</v>
       </c>
       <c r="B244" t="n">
-        <v>30893.0</v>
+        <v>50996.0</v>
       </c>
       <c r="C244" t="n">
-        <v>2540535.0</v>
+        <v>1552538.0</v>
       </c>
       <c r="D244" t="n">
-        <v>4642.0</v>
+        <v>6911.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>7294053.0</v>
+        <v>8261025.0</v>
       </c>
       <c r="B245" t="n">
-        <v>29539.0</v>
+        <v>47023.0</v>
       </c>
       <c r="C245" t="n">
-        <v>2544850.0</v>
+        <v>1560394.0</v>
       </c>
       <c r="D245" t="n">
-        <v>2961.0</v>
+        <v>3883.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>7290032.0</v>
+        <v>8255585.0</v>
       </c>
       <c r="B246" t="n">
-        <v>29354.0</v>
+        <v>45348.0</v>
       </c>
       <c r="C246" t="n">
-        <v>2549056.0</v>
+        <v>1567509.0</v>
       </c>
       <c r="D246" t="n">
-        <v>4021.0</v>
+        <v>5440.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>7285893.0</v>
+        <v>8249468.0</v>
       </c>
       <c r="B247" t="n">
-        <v>28956.0</v>
+        <v>43967.0</v>
       </c>
       <c r="C247" t="n">
-        <v>2553593.0</v>
+        <v>1575007.0</v>
       </c>
       <c r="D247" t="n">
-        <v>4139.0</v>
+        <v>6117.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>7281800.0</v>
+        <v>8244016.0</v>
       </c>
       <c r="B248" t="n">
-        <v>28652.0</v>
+        <v>42182.0</v>
       </c>
       <c r="C248" t="n">
-        <v>2557990.0</v>
+        <v>1582244.0</v>
       </c>
       <c r="D248" t="n">
-        <v>4093.0</v>
+        <v>5452.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>7277575.0</v>
+        <v>8238500.0</v>
       </c>
       <c r="B249" t="n">
-        <v>28390.0</v>
+        <v>40681.0</v>
       </c>
       <c r="C249" t="n">
-        <v>2562477.0</v>
+        <v>1589261.0</v>
       </c>
       <c r="D249" t="n">
-        <v>4225.0</v>
+        <v>5516.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>7273387.0</v>
+        <v>8232904.0</v>
       </c>
       <c r="B250" t="n">
-        <v>28476.0</v>
+        <v>40103.0</v>
       </c>
       <c r="C250" t="n">
-        <v>2566579.0</v>
+        <v>1595435.0</v>
       </c>
       <c r="D250" t="n">
-        <v>4188.0</v>
+        <v>5596.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>7269177.0</v>
+        <v>8227413.0</v>
       </c>
       <c r="B251" t="n">
-        <v>28754.0</v>
+        <v>39732.0</v>
       </c>
       <c r="C251" t="n">
-        <v>2570511.0</v>
+        <v>1601297.0</v>
       </c>
       <c r="D251" t="n">
-        <v>4210.0</v>
+        <v>5491.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>7266252.0</v>
+        <v>8224067.0</v>
       </c>
       <c r="B252" t="n">
-        <v>27772.0</v>
+        <v>37517.0</v>
       </c>
       <c r="C252" t="n">
-        <v>2574418.0</v>
+        <v>1606858.0</v>
       </c>
       <c r="D252" t="n">
-        <v>2925.0</v>
+        <v>3346.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>7262240.0</v>
+        <v>8219696.0</v>
       </c>
       <c r="B253" t="n">
-        <v>27920.0</v>
+        <v>36693.0</v>
       </c>
       <c r="C253" t="n">
-        <v>2578282.0</v>
+        <v>1612053.0</v>
       </c>
       <c r="D253" t="n">
-        <v>4012.0</v>
+        <v>4371.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>7258186.0</v>
+        <v>8214983.0</v>
       </c>
       <c r="B254" t="n">
-        <v>27910.0</v>
+        <v>35816.0</v>
       </c>
       <c r="C254" t="n">
-        <v>2582346.0</v>
+        <v>1617643.0</v>
       </c>
       <c r="D254" t="n">
-        <v>4054.0</v>
+        <v>4713.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>7254042.0</v>
+        <v>8210798.0</v>
       </c>
       <c r="B255" t="n">
-        <v>28035.0</v>
+        <v>34417.0</v>
       </c>
       <c r="C255" t="n">
-        <v>2586365.0</v>
+        <v>1623227.0</v>
       </c>
       <c r="D255" t="n">
-        <v>4144.0</v>
+        <v>4185.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>7249969.0</v>
+        <v>8206575.0</v>
       </c>
       <c r="B256" t="n">
-        <v>27982.0</v>
+        <v>33164.0</v>
       </c>
       <c r="C256" t="n">
-        <v>2590491.0</v>
+        <v>1628703.0</v>
       </c>
       <c r="D256" t="n">
-        <v>4073.0</v>
+        <v>4223.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>7245847.0</v>
+        <v>8202369.0</v>
       </c>
       <c r="B257" t="n">
-        <v>28269.0</v>
+        <v>32400.0</v>
       </c>
       <c r="C257" t="n">
-        <v>2594326.0</v>
+        <v>1633673.0</v>
       </c>
       <c r="D257" t="n">
-        <v>4122.0</v>
+        <v>4206.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>7241666.0</v>
+        <v>8198196.0</v>
       </c>
       <c r="B258" t="n">
-        <v>28582.0</v>
+        <v>31754.0</v>
       </c>
       <c r="C258" t="n">
-        <v>2598194.0</v>
+        <v>1638492.0</v>
       </c>
       <c r="D258" t="n">
-        <v>4181.0</v>
+        <v>4173.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>7238689.0</v>
+        <v>8195746.0</v>
       </c>
       <c r="B259" t="n">
-        <v>27915.0</v>
+        <v>29547.0</v>
       </c>
       <c r="C259" t="n">
-        <v>2601838.0</v>
+        <v>1643149.0</v>
       </c>
       <c r="D259" t="n">
-        <v>2977.0</v>
+        <v>2450.0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>7234643.0</v>
+        <v>8192433.0</v>
       </c>
       <c r="B260" t="n">
-        <v>28131.0</v>
+        <v>28591.0</v>
       </c>
       <c r="C260" t="n">
-        <v>2605668.0</v>
+        <v>1647418.0</v>
       </c>
       <c r="D260" t="n">
-        <v>4046.0</v>
+        <v>3313.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>7230817.0</v>
+        <v>8188863.0</v>
       </c>
       <c r="B261" t="n">
-        <v>27886.0</v>
+        <v>27589.0</v>
       </c>
       <c r="C261" t="n">
-        <v>2609739.0</v>
+        <v>1651990.0</v>
       </c>
       <c r="D261" t="n">
-        <v>3826.0</v>
+        <v>3570.0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>7226831.0</v>
+        <v>8185651.0</v>
       </c>
       <c r="B262" t="n">
-        <v>27803.0</v>
+        <v>26373.0</v>
       </c>
       <c r="C262" t="n">
-        <v>2613808.0</v>
+        <v>1656418.0</v>
       </c>
       <c r="D262" t="n">
-        <v>3986.0</v>
+        <v>3212.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>7222874.0</v>
+        <v>8182447.0</v>
       </c>
       <c r="B263" t="n">
-        <v>27640.0</v>
+        <v>25221.0</v>
       </c>
       <c r="C263" t="n">
-        <v>2617928.0</v>
+        <v>1660774.0</v>
       </c>
       <c r="D263" t="n">
-        <v>3957.0</v>
+        <v>3204.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>7218895.0</v>
+        <v>8179342.0</v>
       </c>
       <c r="B264" t="n">
-        <v>27747.0</v>
+        <v>24448.0</v>
       </c>
       <c r="C264" t="n">
-        <v>2621800.0</v>
+        <v>1664652.0</v>
       </c>
       <c r="D264" t="n">
-        <v>3979.0</v>
+        <v>3105.0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>7214832.0</v>
+        <v>8176275.0</v>
       </c>
       <c r="B265" t="n">
-        <v>27896.0</v>
+        <v>23785.0</v>
       </c>
       <c r="C265" t="n">
-        <v>2625714.0</v>
+        <v>1668382.0</v>
       </c>
       <c r="D265" t="n">
-        <v>4063.0</v>
+        <v>3067.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>7211953.0</v>
+        <v>8174493.0</v>
       </c>
       <c r="B266" t="n">
-        <v>26970.0</v>
+        <v>22109.0</v>
       </c>
       <c r="C266" t="n">
-        <v>2629519.0</v>
+        <v>1671840.0</v>
       </c>
       <c r="D266" t="n">
-        <v>2879.0</v>
+        <v>1782.0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>7208125.0</v>
+        <v>8172044.0</v>
       </c>
       <c r="B267" t="n">
-        <v>27158.0</v>
+        <v>21252.0</v>
       </c>
       <c r="C267" t="n">
-        <v>2633159.0</v>
+        <v>1675146.0</v>
       </c>
       <c r="D267" t="n">
-        <v>3828.0</v>
+        <v>2449.0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>7204436.0</v>
+        <v>8169434.0</v>
       </c>
       <c r="B268" t="n">
-        <v>26790.0</v>
+        <v>20565.0</v>
       </c>
       <c r="C268" t="n">
-        <v>2637216.0</v>
+        <v>1678443.0</v>
       </c>
       <c r="D268" t="n">
-        <v>3689.0</v>
+        <v>2610.0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>7200642.0</v>
+        <v>8167108.0</v>
       </c>
       <c r="B269" t="n">
-        <v>26700.0</v>
+        <v>19551.0</v>
       </c>
       <c r="C269" t="n">
-        <v>2641100.0</v>
+        <v>1681783.0</v>
       </c>
       <c r="D269" t="n">
-        <v>3794.0</v>
+        <v>2326.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>7196889.0</v>
+        <v>8164848.0</v>
       </c>
       <c r="B270" t="n">
-        <v>26448.0</v>
+        <v>18583.0</v>
       </c>
       <c r="C270" t="n">
-        <v>2645105.0</v>
+        <v>1685011.0</v>
       </c>
       <c r="D270" t="n">
-        <v>3753.0</v>
+        <v>2260.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>7193124.0</v>
+        <v>8162508.0</v>
       </c>
       <c r="B271" t="n">
-        <v>26467.0</v>
+        <v>18019.0</v>
       </c>
       <c r="C271" t="n">
-        <v>2648851.0</v>
+        <v>1687915.0</v>
       </c>
       <c r="D271" t="n">
-        <v>3765.0</v>
+        <v>2340.0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>7189268.0</v>
+        <v>8160371.0</v>
       </c>
       <c r="B272" t="n">
-        <v>26635.0</v>
+        <v>17524.0</v>
       </c>
       <c r="C272" t="n">
-        <v>2652539.0</v>
+        <v>1690547.0</v>
       </c>
       <c r="D272" t="n">
-        <v>3856.0</v>
+        <v>2137.0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>7186612.0</v>
+        <v>8159030.0</v>
       </c>
       <c r="B273" t="n">
-        <v>25603.0</v>
+        <v>16299.0</v>
       </c>
       <c r="C273" t="n">
-        <v>2656227.0</v>
+        <v>1693113.0</v>
       </c>
       <c r="D273" t="n">
-        <v>2656.0</v>
+        <v>1341.0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>7182984.0</v>
+        <v>8157280.0</v>
       </c>
       <c r="B274" t="n">
-        <v>25623.0</v>
+        <v>15601.0</v>
       </c>
       <c r="C274" t="n">
-        <v>2659835.0</v>
+        <v>1695561.0</v>
       </c>
       <c r="D274" t="n">
-        <v>3628.0</v>
+        <v>1750.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>7179952.0</v>
+        <v>8155774.0</v>
       </c>
       <c r="B275" t="n">
-        <v>24824.0</v>
+        <v>14512.0</v>
       </c>
       <c r="C275" t="n">
-        <v>2663666.0</v>
+        <v>1698156.0</v>
       </c>
       <c r="D275" t="n">
-        <v>3032.0</v>
+        <v>1506.0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>7176645.0</v>
+        <v>8154146.0</v>
       </c>
       <c r="B276" t="n">
-        <v>24266.0</v>
+        <v>13781.0</v>
       </c>
       <c r="C276" t="n">
-        <v>2667531.0</v>
+        <v>1700515.0</v>
       </c>
       <c r="D276" t="n">
-        <v>3307.0</v>
+        <v>1628.0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>7173499.0</v>
+        <v>8152678.0</v>
       </c>
       <c r="B277" t="n">
-        <v>23542.0</v>
+        <v>12910.0</v>
       </c>
       <c r="C277" t="n">
-        <v>2671401.0</v>
+        <v>1702854.0</v>
       </c>
       <c r="D277" t="n">
-        <v>3146.0</v>
+        <v>1468.0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>7170167.0</v>
+        <v>8151235.0</v>
       </c>
       <c r="B278" t="n">
-        <v>23388.0</v>
+        <v>12225.0</v>
       </c>
       <c r="C278" t="n">
-        <v>2674887.0</v>
+        <v>1704982.0</v>
       </c>
       <c r="D278" t="n">
-        <v>3332.0</v>
+        <v>1443.0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>7166948.0</v>
+        <v>8149809.0</v>
       </c>
       <c r="B279" t="n">
-        <v>23134.0</v>
+        <v>11717.0</v>
       </c>
       <c r="C279" t="n">
-        <v>2678360.0</v>
+        <v>1706916.0</v>
       </c>
       <c r="D279" t="n">
-        <v>3219.0</v>
+        <v>1426.0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>7164673.0</v>
+        <v>8148952.0</v>
       </c>
       <c r="B280" t="n">
-        <v>22035.0</v>
+        <v>10723.0</v>
       </c>
       <c r="C280" t="n">
-        <v>2681734.0</v>
+        <v>1708767.0</v>
       </c>
       <c r="D280" t="n">
-        <v>2275.0</v>
+        <v>857.0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>7161599.0</v>
+        <v>8147900.0</v>
       </c>
       <c r="B281" t="n">
-        <v>21956.0</v>
+        <v>10055.0</v>
       </c>
       <c r="C281" t="n">
-        <v>2684887.0</v>
+        <v>1710487.0</v>
       </c>
       <c r="D281" t="n">
-        <v>3074.0</v>
+        <v>1052.0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>7158442.0</v>
+        <v>8146719.0</v>
       </c>
       <c r="B282" t="n">
-        <v>21797.0</v>
+        <v>9581.0</v>
       </c>
       <c r="C282" t="n">
-        <v>2688203.0</v>
+        <v>1712142.0</v>
       </c>
       <c r="D282" t="n">
-        <v>3157.0</v>
+        <v>1181.0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>7155713.0</v>
+        <v>8145904.0</v>
       </c>
       <c r="B283" t="n">
-        <v>21346.0</v>
+        <v>8796.0</v>
       </c>
       <c r="C283" t="n">
-        <v>2691383.0</v>
+        <v>1713742.0</v>
       </c>
       <c r="D283" t="n">
-        <v>2729.0</v>
+        <v>815.0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>7152814.0</v>
+        <v>8144882.0</v>
       </c>
       <c r="B284" t="n">
-        <v>20904.0</v>
+        <v>8229.0</v>
       </c>
       <c r="C284" t="n">
-        <v>2694724.0</v>
+        <v>1715331.0</v>
       </c>
       <c r="D284" t="n">
-        <v>2899.0</v>
+        <v>1022.0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>7149806.0</v>
+        <v>8143999.0</v>
       </c>
       <c r="B285" t="n">
-        <v>20881.0</v>
+        <v>7712.0</v>
       </c>
       <c r="C285" t="n">
-        <v>2697755.0</v>
+        <v>1716731.0</v>
       </c>
       <c r="D285" t="n">
-        <v>3008.0</v>
+        <v>883.0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>7146732.0</v>
+        <v>8143142.0</v>
       </c>
       <c r="B286" t="n">
-        <v>20953.0</v>
+        <v>7314.0</v>
       </c>
       <c r="C286" t="n">
-        <v>2700757.0</v>
+        <v>1717986.0</v>
       </c>
       <c r="D286" t="n">
-        <v>3074.0</v>
+        <v>857.0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>7144655.0</v>
+        <v>8142577.0</v>
       </c>
       <c r="B287" t="n">
-        <v>20039.0</v>
+        <v>6701.0</v>
       </c>
       <c r="C287" t="n">
-        <v>2703748.0</v>
+        <v>1719164.0</v>
       </c>
       <c r="D287" t="n">
-        <v>2077.0</v>
+        <v>565.0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>7141831.0</v>
+        <v>8141925.0</v>
       </c>
       <c r="B288" t="n">
-        <v>19923.0</v>
+        <v>6342.0</v>
       </c>
       <c r="C288" t="n">
-        <v>2706688.0</v>
+        <v>1720175.0</v>
       </c>
       <c r="D288" t="n">
-        <v>2824.0</v>
+        <v>652.0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>7138961.0</v>
+        <v>8141123.0</v>
       </c>
       <c r="B289" t="n">
-        <v>19821.0</v>
+        <v>6044.0</v>
       </c>
       <c r="C289" t="n">
-        <v>2709660.0</v>
+        <v>1721275.0</v>
       </c>
       <c r="D289" t="n">
-        <v>2870.0</v>
+        <v>802.0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>7135996.0</v>
+        <v>8140443.0</v>
       </c>
       <c r="B290" t="n">
-        <v>19933.0</v>
+        <v>5671.0</v>
       </c>
       <c r="C290" t="n">
-        <v>2712513.0</v>
+        <v>1722328.0</v>
       </c>
       <c r="D290" t="n">
-        <v>2965.0</v>
+        <v>680.0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>7133063.0</v>
+        <v>8139785.0</v>
       </c>
       <c r="B291" t="n">
-        <v>19931.0</v>
+        <v>5441.0</v>
       </c>
       <c r="C291" t="n">
-        <v>2715448.0</v>
+        <v>1723216.0</v>
       </c>
       <c r="D291" t="n">
-        <v>2933.0</v>
+        <v>658.0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>7130073.0</v>
+        <v>8139080.0</v>
       </c>
       <c r="B292" t="n">
-        <v>20102.0</v>
+        <v>5285.0</v>
       </c>
       <c r="C292" t="n">
-        <v>2718267.0</v>
+        <v>1724077.0</v>
       </c>
       <c r="D292" t="n">
-        <v>2990.0</v>
+        <v>705.0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>7127076.0</v>
+        <v>8138466.0</v>
       </c>
       <c r="B293" t="n">
-        <v>20371.0</v>
+        <v>5119.0</v>
       </c>
       <c r="C293" t="n">
-        <v>2720995.0</v>
+        <v>1724857.0</v>
       </c>
       <c r="D293" t="n">
-        <v>2997.0</v>
+        <v>614.0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>7124943.0</v>
+        <v>8138011.0</v>
       </c>
       <c r="B294" t="n">
-        <v>19670.0</v>
+        <v>4807.0</v>
       </c>
       <c r="C294" t="n">
-        <v>2723829.0</v>
+        <v>1725624.0</v>
       </c>
       <c r="D294" t="n">
-        <v>2133.0</v>
+        <v>455.0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>7121964.0</v>
+        <v>8137457.0</v>
       </c>
       <c r="B295" t="n">
-        <v>20043.0</v>
+        <v>4655.0</v>
       </c>
       <c r="C295" t="n">
-        <v>2726435.0</v>
+        <v>1726330.0</v>
       </c>
       <c r="D295" t="n">
-        <v>2979.0</v>
+        <v>554.0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>7119093.0</v>
+        <v>8136848.0</v>
       </c>
       <c r="B296" t="n">
-        <v>20054.0</v>
+        <v>4553.0</v>
       </c>
       <c r="C296" t="n">
-        <v>2729295.0</v>
+        <v>1727041.0</v>
       </c>
       <c r="D296" t="n">
-        <v>2871.0</v>
+        <v>609.0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>7116258.0</v>
+        <v>8136302.0</v>
       </c>
       <c r="B297" t="n">
-        <v>19908.0</v>
+        <v>4336.0</v>
       </c>
       <c r="C297" t="n">
-        <v>2732276.0</v>
+        <v>1727804.0</v>
       </c>
       <c r="D297" t="n">
-        <v>2835.0</v>
+        <v>546.0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>7113384.0</v>
+        <v>8135791.0</v>
       </c>
       <c r="B298" t="n">
-        <v>19772.0</v>
+        <v>4159.0</v>
       </c>
       <c r="C298" t="n">
-        <v>2735286.0</v>
+        <v>1728492.0</v>
       </c>
       <c r="D298" t="n">
-        <v>2874.0</v>
+        <v>511.0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>7110498.0</v>
+        <v>8135208.0</v>
       </c>
       <c r="B299" t="n">
-        <v>19869.0</v>
+        <v>4151.0</v>
       </c>
       <c r="C299" t="n">
-        <v>2738075.0</v>
+        <v>1729083.0</v>
       </c>
       <c r="D299" t="n">
-        <v>2886.0</v>
+        <v>583.0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>7107503.0</v>
+        <v>8134691.0</v>
       </c>
       <c r="B300" t="n">
-        <v>20068.0</v>
+        <v>4077.0</v>
       </c>
       <c r="C300" t="n">
-        <v>2740871.0</v>
+        <v>1729674.0</v>
       </c>
       <c r="D300" t="n">
-        <v>2995.0</v>
+        <v>517.0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>7105394.0</v>
+        <v>8134342.0</v>
       </c>
       <c r="B301" t="n">
-        <v>19433.0</v>
+        <v>3847.0</v>
       </c>
       <c r="C301" t="n">
-        <v>2743615.0</v>
+        <v>1730253.0</v>
       </c>
       <c r="D301" t="n">
-        <v>2109.0</v>
+        <v>349.0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>7102515.0</v>
+        <v>8133889.0</v>
       </c>
       <c r="B302" t="n">
-        <v>19584.0</v>
+        <v>3715.0</v>
       </c>
       <c r="C302" t="n">
-        <v>2746343.0</v>
+        <v>1730838.0</v>
       </c>
       <c r="D302" t="n">
-        <v>2879.0</v>
+        <v>453.0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>7099677.0</v>
+        <v>8133441.0</v>
       </c>
       <c r="B303" t="n">
-        <v>19600.0</v>
+        <v>3565.0</v>
       </c>
       <c r="C303" t="n">
-        <v>2749165.0</v>
+        <v>1731436.0</v>
       </c>
       <c r="D303" t="n">
-        <v>2838.0</v>
+        <v>448.0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>7096820.0</v>
+        <v>8133034.0</v>
       </c>
       <c r="B304" t="n">
-        <v>19594.0</v>
+        <v>3442.0</v>
       </c>
       <c r="C304" t="n">
-        <v>2752028.0</v>
+        <v>1731966.0</v>
       </c>
       <c r="D304" t="n">
-        <v>2857.0</v>
+        <v>407.0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>7093938.0</v>
+        <v>8132590.0</v>
       </c>
       <c r="B305" t="n">
-        <v>19483.0</v>
+        <v>3331.0</v>
       </c>
       <c r="C305" t="n">
-        <v>2755021.0</v>
+        <v>1732521.0</v>
       </c>
       <c r="D305" t="n">
-        <v>2882.0</v>
+        <v>444.0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>7091434.0</v>
+        <v>8132229.0</v>
       </c>
       <c r="B306" t="n">
-        <v>19229.0</v>
+        <v>3175.0</v>
       </c>
       <c r="C306" t="n">
-        <v>2757779.0</v>
+        <v>1733038.0</v>
       </c>
       <c r="D306" t="n">
-        <v>2504.0</v>
+        <v>361.0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>7088798.0</v>
+        <v>8131851.0</v>
       </c>
       <c r="B307" t="n">
-        <v>19139.0</v>
+        <v>3079.0</v>
       </c>
       <c r="C307" t="n">
-        <v>2760505.0</v>
+        <v>1733512.0</v>
       </c>
       <c r="D307" t="n">
-        <v>2636.0</v>
+        <v>378.0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>7087040.0</v>
+        <v>8131509.0</v>
       </c>
       <c r="B308" t="n">
-        <v>18272.0</v>
+        <v>2958.0</v>
       </c>
       <c r="C308" t="n">
-        <v>2763130.0</v>
+        <v>1733975.0</v>
       </c>
       <c r="D308" t="n">
-        <v>1758.0</v>
+        <v>342.0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>7084529.0</v>
+        <v>8131189.0</v>
       </c>
       <c r="B309" t="n">
-        <v>18061.0</v>
+        <v>2824.0</v>
       </c>
       <c r="C309" t="n">
-        <v>2765852.0</v>
+        <v>1734429.0</v>
       </c>
       <c r="D309" t="n">
-        <v>2511.0</v>
+        <v>320.0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>7082291.0</v>
+        <v>8130870.0</v>
       </c>
       <c r="B310" t="n">
-        <v>17368.0</v>
+        <v>2683.0</v>
       </c>
       <c r="C310" t="n">
-        <v>2768783.0</v>
+        <v>1734889.0</v>
       </c>
       <c r="D310" t="n">
-        <v>2238.0</v>
+        <v>319.0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>7080069.0</v>
+        <v>8130580.0</v>
       </c>
       <c r="B311" t="n">
-        <v>16784.0</v>
+        <v>2540.0</v>
       </c>
       <c r="C311" t="n">
-        <v>2771589.0</v>
+        <v>1735322.0</v>
       </c>
       <c r="D311" t="n">
-        <v>2222.0</v>
+        <v>290.0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>7077865.0</v>
+        <v>8130268.0</v>
       </c>
       <c r="B312" t="n">
-        <v>16200.0</v>
+        <v>2412.0</v>
       </c>
       <c r="C312" t="n">
-        <v>2774377.0</v>
+        <v>1735762.0</v>
       </c>
       <c r="D312" t="n">
-        <v>2204.0</v>
+        <v>312.0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>7075690.0</v>
+        <v>8129976.0</v>
       </c>
       <c r="B313" t="n">
-        <v>15805.0</v>
+        <v>2307.0</v>
       </c>
       <c r="C313" t="n">
-        <v>2776947.0</v>
+        <v>1736159.0</v>
       </c>
       <c r="D313" t="n">
-        <v>2175.0</v>
+        <v>292.0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>7073581.0</v>
+        <v>8129704.0</v>
       </c>
       <c r="B314" t="n">
-        <v>15534.0</v>
+        <v>2238.0</v>
       </c>
       <c r="C314" t="n">
-        <v>2779327.0</v>
+        <v>1736500.0</v>
       </c>
       <c r="D314" t="n">
-        <v>2109.0</v>
+        <v>272.0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>7072088.0</v>
+        <v>8129434.0</v>
       </c>
       <c r="B315" t="n">
-        <v>14643.0</v>
+        <v>2113.0</v>
       </c>
       <c r="C315" t="n">
-        <v>2781711.0</v>
+        <v>1736895.0</v>
       </c>
       <c r="D315" t="n">
-        <v>1493.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>7069994.0</v>
+        <v>8129188.0</v>
       </c>
       <c r="B316" t="n">
-        <v>14477.0</v>
+        <v>2016.0</v>
       </c>
       <c r="C316" t="n">
-        <v>2783971.0</v>
+        <v>1737238.0</v>
       </c>
       <c r="D316" t="n">
-        <v>2094.0</v>
+        <v>246.0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>7067968.0</v>
+        <v>8128962.0</v>
       </c>
       <c r="B317" t="n">
-        <v>14263.0</v>
+        <v>1919.0</v>
       </c>
       <c r="C317" t="n">
-        <v>2786211.0</v>
+        <v>1737561.0</v>
       </c>
       <c r="D317" t="n">
-        <v>2026.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>7065964.0</v>
+        <v>8128728.0</v>
       </c>
       <c r="B318" t="n">
-        <v>13903.0</v>
+        <v>1841.0</v>
       </c>
       <c r="C318" t="n">
-        <v>2788575.0</v>
+        <v>1737873.0</v>
       </c>
       <c r="D318" t="n">
-        <v>2004.0</v>
+        <v>234.0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>7064006.0</v>
+        <v>8128508.0</v>
       </c>
       <c r="B319" t="n">
-        <v>13614.0</v>
+        <v>1735.0</v>
       </c>
       <c r="C319" t="n">
-        <v>2790822.0</v>
+        <v>1738199.0</v>
       </c>
       <c r="D319" t="n">
-        <v>1958.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>7062049.0</v>
+        <v>8128266.0</v>
       </c>
       <c r="B320" t="n">
-        <v>13534.0</v>
+        <v>1690.0</v>
       </c>
       <c r="C320" t="n">
-        <v>2792859.0</v>
+        <v>1738486.0</v>
       </c>
       <c r="D320" t="n">
-        <v>1957.0</v>
+        <v>242.0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>7059980.0</v>
+        <v>8128039.0</v>
       </c>
       <c r="B321" t="n">
-        <v>13607.0</v>
+        <v>1629.0</v>
       </c>
       <c r="C321" t="n">
-        <v>2794855.0</v>
+        <v>1738774.0</v>
       </c>
       <c r="D321" t="n">
-        <v>2069.0</v>
+        <v>227.0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>7058594.0</v>
+        <v>8127836.0</v>
       </c>
       <c r="B322" t="n">
-        <v>13061.0</v>
+        <v>1589.0</v>
       </c>
       <c r="C322" t="n">
-        <v>2796787.0</v>
+        <v>1739017.0</v>
       </c>
       <c r="D322" t="n">
-        <v>1386.0</v>
+        <v>203.0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>7056625.0</v>
+        <v>8127633.0</v>
       </c>
       <c r="B323" t="n">
-        <v>13064.0</v>
+        <v>1522.0</v>
       </c>
       <c r="C323" t="n">
-        <v>2798753.0</v>
+        <v>1739287.0</v>
       </c>
       <c r="D323" t="n">
-        <v>1969.0</v>
+        <v>203.0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>7054724.0</v>
+        <v>8127432.0</v>
       </c>
       <c r="B324" t="n">
-        <v>12938.0</v>
+        <v>1500.0</v>
       </c>
       <c r="C324" t="n">
-        <v>2800780.0</v>
+        <v>1739510.0</v>
       </c>
       <c r="D324" t="n">
-        <v>1901.0</v>
+        <v>201.0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>7052816.0</v>
+        <v>8127206.0</v>
       </c>
       <c r="B325" t="n">
-        <v>12772.0</v>
+        <v>1516.0</v>
       </c>
       <c r="C325" t="n">
-        <v>2802854.0</v>
+        <v>1739720.0</v>
       </c>
       <c r="D325" t="n">
-        <v>1908.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>7050939.0</v>
+        <v>8127012.0</v>
       </c>
       <c r="B326" t="n">
-        <v>12653.0</v>
+        <v>1446.0</v>
       </c>
       <c r="C326" t="n">
-        <v>2804850.0</v>
+        <v>1739984.0</v>
       </c>
       <c r="D326" t="n">
-        <v>1877.0</v>
+        <v>194.0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>7049083.0</v>
+        <v>8126796.0</v>
       </c>
       <c r="B327" t="n">
-        <v>12671.0</v>
+        <v>1444.0</v>
       </c>
       <c r="C327" t="n">
-        <v>2806688.0</v>
+        <v>1740202.0</v>
       </c>
       <c r="D327" t="n">
-        <v>1856.0</v>
+        <v>216.0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>7047174.0</v>
+        <v>8126604.0</v>
       </c>
       <c r="B328" t="n">
-        <v>12769.0</v>
+        <v>1416.0</v>
       </c>
       <c r="C328" t="n">
-        <v>2808499.0</v>
+        <v>1740422.0</v>
       </c>
       <c r="D328" t="n">
-        <v>1909.0</v>
+        <v>192.0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>7045808.0</v>
+        <v>8126414.0</v>
       </c>
       <c r="B329" t="n">
-        <v>12364.0</v>
+        <v>1395.0</v>
       </c>
       <c r="C329" t="n">
-        <v>2810270.0</v>
+        <v>1740633.0</v>
       </c>
       <c r="D329" t="n">
-        <v>1366.0</v>
+        <v>190.0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>7043871.0</v>
+        <v>8126245.0</v>
       </c>
       <c r="B330" t="n">
-        <v>12470.0</v>
+        <v>1353.0</v>
       </c>
       <c r="C330" t="n">
-        <v>2812101.0</v>
+        <v>1740844.0</v>
       </c>
       <c r="D330" t="n">
-        <v>1937.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>7041968.0</v>
+        <v>8126035.0</v>
       </c>
       <c r="B331" t="n">
-        <v>12472.0</v>
+        <v>1350.0</v>
       </c>
       <c r="C331" t="n">
-        <v>2814002.0</v>
+        <v>1741057.0</v>
       </c>
       <c r="D331" t="n">
-        <v>1903.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>7040062.0</v>
+        <v>8125840.0</v>
       </c>
       <c r="B332" t="n">
-        <v>12498.0</v>
+        <v>1370.0</v>
       </c>
       <c r="C332" t="n">
-        <v>2815882.0</v>
+        <v>1741232.0</v>
       </c>
       <c r="D332" t="n">
-        <v>1906.0</v>
+        <v>195.0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>7038121.0</v>
+        <v>8125624.0</v>
       </c>
       <c r="B333" t="n">
-        <v>12541.0</v>
+        <v>1357.0</v>
       </c>
       <c r="C333" t="n">
-        <v>2817780.0</v>
+        <v>1741461.0</v>
       </c>
       <c r="D333" t="n">
-        <v>1941.0</v>
+        <v>216.0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>7036273.0</v>
+        <v>8125419.0</v>
       </c>
       <c r="B334" t="n">
-        <v>12581.0</v>
+        <v>1364.0</v>
       </c>
       <c r="C334" t="n">
-        <v>2819588.0</v>
+        <v>1741659.0</v>
       </c>
       <c r="D334" t="n">
-        <v>1848.0</v>
+        <v>205.0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>7034358.0</v>
+        <v>8125221.0</v>
       </c>
       <c r="B335" t="n">
-        <v>12751.0</v>
+        <v>1375.0</v>
       </c>
       <c r="C335" t="n">
-        <v>2821333.0</v>
+        <v>1741846.0</v>
       </c>
       <c r="D335" t="n">
-        <v>1915.0</v>
+        <v>198.0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>7033080.0</v>
+        <v>8125036.0</v>
       </c>
       <c r="B336" t="n">
-        <v>12214.0</v>
+        <v>1362.0</v>
       </c>
       <c r="C336" t="n">
-        <v>2823148.0</v>
+        <v>1742044.0</v>
       </c>
       <c r="D336" t="n">
-        <v>1278.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>7031183.0</v>
+        <v>8124848.0</v>
       </c>
       <c r="B337" t="n">
-        <v>12353.0</v>
+        <v>1370.0</v>
       </c>
       <c r="C337" t="n">
-        <v>2824906.0</v>
+        <v>1742224.0</v>
       </c>
       <c r="D337" t="n">
-        <v>1897.0</v>
+        <v>188.0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>7029360.0</v>
+        <v>8124666.0</v>
       </c>
       <c r="B338" t="n">
-        <v>12321.0</v>
+        <v>1356.0</v>
       </c>
       <c r="C338" t="n">
-        <v>2826761.0</v>
+        <v>1742420.0</v>
       </c>
       <c r="D338" t="n">
-        <v>1823.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>7027550.0</v>
+        <v>8124484.0</v>
       </c>
       <c r="B339" t="n">
-        <v>12182.0</v>
+        <v>1327.0</v>
       </c>
       <c r="C339" t="n">
-        <v>2828710.0</v>
+        <v>1742631.0</v>
       </c>
       <c r="D339" t="n">
-        <v>1810.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>7025719.0</v>
+        <v>8124272.0</v>
       </c>
       <c r="B340" t="n">
-        <v>12062.0</v>
+        <v>1319.0</v>
       </c>
       <c r="C340" t="n">
-        <v>2830661.0</v>
+        <v>1742851.0</v>
       </c>
       <c r="D340" t="n">
-        <v>1831.0</v>
+        <v>212.0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>7023854.0</v>
+        <v>8124097.0</v>
       </c>
       <c r="B341" t="n">
-        <v>12191.0</v>
+        <v>1296.0</v>
       </c>
       <c r="C341" t="n">
-        <v>2832397.0</v>
+        <v>1743049.0</v>
       </c>
       <c r="D341" t="n">
-        <v>1865.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>7021980.0</v>
+        <v>8123884.0</v>
       </c>
       <c r="B342" t="n">
-        <v>12371.0</v>
+        <v>1319.0</v>
       </c>
       <c r="C342" t="n">
-        <v>2834091.0</v>
+        <v>1743239.0</v>
       </c>
       <c r="D342" t="n">
-        <v>1874.0</v>
+        <v>213.0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>7020559.0</v>
+        <v>8123697.0</v>
       </c>
       <c r="B343" t="n">
-        <v>12056.0</v>
+        <v>1294.0</v>
       </c>
       <c r="C343" t="n">
-        <v>2835827.0</v>
+        <v>1743451.0</v>
       </c>
       <c r="D343" t="n">
-        <v>1421.0</v>
+        <v>187.0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>7018683.0</v>
+        <v>8123513.0</v>
       </c>
       <c r="B344" t="n">
-        <v>12188.0</v>
+        <v>1302.0</v>
       </c>
       <c r="C344" t="n">
-        <v>2837571.0</v>
+        <v>1743627.0</v>
       </c>
       <c r="D344" t="n">
-        <v>1876.0</v>
+        <v>184.0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>7016961.0</v>
+        <v>8123336.0</v>
       </c>
       <c r="B345" t="n">
-        <v>12081.0</v>
+        <v>1291.0</v>
       </c>
       <c r="C345" t="n">
-        <v>2839400.0</v>
+        <v>1743815.0</v>
       </c>
       <c r="D345" t="n">
-        <v>1722.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>7015131.0</v>
+        <v>8123147.0</v>
       </c>
       <c r="B346" t="n">
-        <v>12093.0</v>
+        <v>1296.0</v>
       </c>
       <c r="C346" t="n">
-        <v>2841218.0</v>
+        <v>1743999.0</v>
       </c>
       <c r="D346" t="n">
-        <v>1830.0</v>
+        <v>189.0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>7013399.0</v>
+        <v>8122963.0</v>
       </c>
       <c r="B347" t="n">
-        <v>11940.0</v>
+        <v>1288.0</v>
       </c>
       <c r="C347" t="n">
-        <v>2843103.0</v>
+        <v>1744191.0</v>
       </c>
       <c r="D347" t="n">
-        <v>1732.0</v>
+        <v>184.0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>7011572.0</v>
+        <v>8122780.0</v>
       </c>
       <c r="B348" t="n">
-        <v>12021.0</v>
+        <v>1266.0</v>
       </c>
       <c r="C348" t="n">
-        <v>2844849.0</v>
+        <v>1744396.0</v>
       </c>
       <c r="D348" t="n">
-        <v>1827.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>7009705.0</v>
+        <v>8122603.0</v>
       </c>
       <c r="B349" t="n">
-        <v>12117.0</v>
+        <v>1269.0</v>
       </c>
       <c r="C349" t="n">
-        <v>2846620.0</v>
+        <v>1744570.0</v>
       </c>
       <c r="D349" t="n">
-        <v>1867.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>7008381.0</v>
+        <v>8122407.0</v>
       </c>
       <c r="B350" t="n">
-        <v>11745.0</v>
+        <v>1286.0</v>
       </c>
       <c r="C350" t="n">
-        <v>2848316.0</v>
+        <v>1744749.0</v>
       </c>
       <c r="D350" t="n">
-        <v>1324.0</v>
+        <v>196.0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>7006564.0</v>
+        <v>8122225.0</v>
       </c>
       <c r="B351" t="n">
-        <v>11829.0</v>
+        <v>1266.0</v>
       </c>
       <c r="C351" t="n">
-        <v>2850049.0</v>
+        <v>1744951.0</v>
       </c>
       <c r="D351" t="n">
-        <v>1817.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>7004791.0</v>
+        <v>8122041.0</v>
       </c>
       <c r="B352" t="n">
-        <v>11857.0</v>
+        <v>1262.0</v>
       </c>
       <c r="C352" t="n">
-        <v>2851794.0</v>
+        <v>1745139.0</v>
       </c>
       <c r="D352" t="n">
-        <v>1773.0</v>
+        <v>184.0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>7003042.0</v>
+        <v>8121863.0</v>
       </c>
       <c r="B353" t="n">
-        <v>11855.0</v>
+        <v>1259.0</v>
       </c>
       <c r="C353" t="n">
-        <v>2853545.0</v>
+        <v>1745320.0</v>
       </c>
       <c r="D353" t="n">
-        <v>1749.0</v>
+        <v>178.0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>7001242.0</v>
+        <v>8121690.0</v>
       </c>
       <c r="B354" t="n">
-        <v>11832.0</v>
+        <v>1233.0</v>
       </c>
       <c r="C354" t="n">
-        <v>2855368.0</v>
+        <v>1745519.0</v>
       </c>
       <c r="D354" t="n">
-        <v>1800.0</v>
+        <v>173.0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>6999441.0</v>
+        <v>8121502.0</v>
       </c>
       <c r="B355" t="n">
-        <v>11975.0</v>
+        <v>1245.0</v>
       </c>
       <c r="C355" t="n">
-        <v>2857026.0</v>
+        <v>1745695.0</v>
       </c>
       <c r="D355" t="n">
-        <v>1801.0</v>
+        <v>188.0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>6997633.0</v>
+        <v>8121320.0</v>
       </c>
       <c r="B356" t="n">
-        <v>12089.0</v>
+        <v>1246.0</v>
       </c>
       <c r="C356" t="n">
-        <v>2858720.0</v>
+        <v>1745876.0</v>
       </c>
       <c r="D356" t="n">
-        <v>1808.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>6996307.0</v>
+        <v>8121146.0</v>
       </c>
       <c r="B357" t="n">
-        <v>11656.0</v>
+        <v>1230.0</v>
       </c>
       <c r="C357" t="n">
-        <v>2860479.0</v>
+        <v>1746066.0</v>
       </c>
       <c r="D357" t="n">
-        <v>1326.0</v>
+        <v>174.0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>6994422.0</v>
+        <v>8121000.0</v>
       </c>
       <c r="B358" t="n">
-        <v>11879.0</v>
+        <v>1200.0</v>
       </c>
       <c r="C358" t="n">
-        <v>2862141.0</v>
+        <v>1746242.0</v>
       </c>
       <c r="D358" t="n">
-        <v>1885.0</v>
+        <v>146.0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>6992697.0</v>
+        <v>8120805.0</v>
       </c>
       <c r="B359" t="n">
-        <v>11838.0</v>
+        <v>1198.0</v>
       </c>
       <c r="C359" t="n">
-        <v>2863907.0</v>
+        <v>1746439.0</v>
       </c>
       <c r="D359" t="n">
-        <v>1725.0</v>
+        <v>195.0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>6991009.0</v>
+        <v>8120629.0</v>
       </c>
       <c r="B360" t="n">
-        <v>11765.0</v>
+        <v>1207.0</v>
       </c>
       <c r="C360" t="n">
-        <v>2865668.0</v>
+        <v>1746606.0</v>
       </c>
       <c r="D360" t="n">
-        <v>1688.0</v>
+        <v>176.0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>6989209.0</v>
+        <v>8120448.0</v>
       </c>
       <c r="B361" t="n">
-        <v>11759.0</v>
+        <v>1227.0</v>
       </c>
       <c r="C361" t="n">
-        <v>2867474.0</v>
+        <v>1746767.0</v>
       </c>
       <c r="D361" t="n">
-        <v>1800.0</v>
+        <v>181.0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>6987396.0</v>
+        <v>8120250.0</v>
       </c>
       <c r="B362" t="n">
-        <v>11870.0</v>
+        <v>1246.0</v>
       </c>
       <c r="C362" t="n">
-        <v>2869176.0</v>
+        <v>1746946.0</v>
       </c>
       <c r="D362" t="n">
-        <v>1813.0</v>
+        <v>198.0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>6985604.0</v>
+        <v>8120059.0</v>
       </c>
       <c r="B363" t="n">
-        <v>11965.0</v>
+        <v>1248.0</v>
       </c>
       <c r="C363" t="n">
-        <v>2870873.0</v>
+        <v>1747135.0</v>
       </c>
       <c r="D363" t="n">
-        <v>1792.0</v>
+        <v>191.0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>6984276.0</v>
+        <v>8119878.0</v>
       </c>
       <c r="B364" t="n">
-        <v>11565.0</v>
+        <v>1270.0</v>
       </c>
       <c r="C364" t="n">
-        <v>2872601.0</v>
+        <v>1747294.0</v>
       </c>
       <c r="D364" t="n">
-        <v>1328.0</v>
+        <v>181.0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>6982535.0</v>
+        <v>8119671.0</v>
       </c>
       <c r="B365" t="n">
-        <v>11657.0</v>
+        <v>1290.0</v>
       </c>
       <c r="C365" t="n">
-        <v>2874250.0</v>
+        <v>1747481.0</v>
       </c>
       <c r="D365" t="n">
-        <v>1741.0</v>
+        <v>207.0</v>
       </c>
     </row>
   </sheetData>

--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -346,5112 +346,5112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>9418727.0</v>
+        <v>9718433.0</v>
       </c>
       <c r="B1" t="n">
-        <v>14755.0</v>
+        <v>12511.0</v>
       </c>
       <c r="C1" t="n">
-        <v>434960.0</v>
+        <v>137498.0</v>
       </c>
       <c r="D1" t="n">
-        <v>2107.0</v>
+        <v>2364.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9416363.0</v>
+        <v>9716274.0</v>
       </c>
       <c r="B2" t="n">
-        <v>13479.0</v>
+        <v>13160.0</v>
       </c>
       <c r="C2" t="n">
-        <v>438600.0</v>
+        <v>139008.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2364.0</v>
+        <v>2159.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9414675.0</v>
+        <v>9714119.0</v>
       </c>
       <c r="B3" t="n">
-        <v>12848.0</v>
+        <v>13736.0</v>
       </c>
       <c r="C3" t="n">
-        <v>440919.0</v>
+        <v>140587.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1688.0</v>
+        <v>2155.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9413043.0</v>
+        <v>9711915.0</v>
       </c>
       <c r="B4" t="n">
-        <v>12549.0</v>
+        <v>14377.0</v>
       </c>
       <c r="C4" t="n">
-        <v>442850.0</v>
+        <v>142150.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1632.0</v>
+        <v>2204.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9411481.0</v>
+        <v>9709666.0</v>
       </c>
       <c r="B5" t="n">
-        <v>12366.0</v>
+        <v>15006.0</v>
       </c>
       <c r="C5" t="n">
-        <v>444595.0</v>
+        <v>143770.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1562.0</v>
+        <v>2249.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9410084.0</v>
+        <v>9707965.0</v>
       </c>
       <c r="B6" t="n">
-        <v>11982.0</v>
+        <v>15113.0</v>
       </c>
       <c r="C6" t="n">
-        <v>446376.0</v>
+        <v>145364.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1397.0</v>
+        <v>1701.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9408875.0</v>
+        <v>9706239.0</v>
       </c>
       <c r="B7" t="n">
-        <v>11190.0</v>
+        <v>15278.0</v>
       </c>
       <c r="C7" t="n">
-        <v>448377.0</v>
+        <v>146925.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1209.0</v>
+        <v>1726.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9407815.0</v>
+        <v>9704106.0</v>
       </c>
       <c r="B8" t="n">
-        <v>10356.0</v>
+        <v>15601.0</v>
       </c>
       <c r="C8" t="n">
-        <v>450271.0</v>
+        <v>148735.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1060.0</v>
+        <v>2133.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9406670.0</v>
+        <v>9702123.0</v>
       </c>
       <c r="B9" t="n">
-        <v>9596.0</v>
+        <v>15661.0</v>
       </c>
       <c r="C9" t="n">
-        <v>452176.0</v>
+        <v>150658.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1145.0</v>
+        <v>1983.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9405730.0</v>
+        <v>9700078.0</v>
       </c>
       <c r="B10" t="n">
-        <v>8740.0</v>
+        <v>15555.0</v>
       </c>
       <c r="C10" t="n">
-        <v>453972.0</v>
+        <v>152809.0</v>
       </c>
       <c r="D10" t="n">
-        <v>940.0</v>
+        <v>2045.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9404799.0</v>
+        <v>9698132.0</v>
       </c>
       <c r="B11" t="n">
-        <v>8053.0</v>
+        <v>15451.0</v>
       </c>
       <c r="C11" t="n">
-        <v>455590.0</v>
+        <v>154859.0</v>
       </c>
       <c r="D11" t="n">
-        <v>931.0</v>
+        <v>1946.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9404012.0</v>
+        <v>9696086.0</v>
       </c>
       <c r="B12" t="n">
-        <v>7378.0</v>
+        <v>15490.0</v>
       </c>
       <c r="C12" t="n">
-        <v>457052.0</v>
+        <v>156866.0</v>
       </c>
       <c r="D12" t="n">
-        <v>787.0</v>
+        <v>2046.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9403249.0</v>
+        <v>9694482.0</v>
       </c>
       <c r="B13" t="n">
-        <v>6826.0</v>
+        <v>15172.0</v>
       </c>
       <c r="C13" t="n">
-        <v>458367.0</v>
+        <v>158788.0</v>
       </c>
       <c r="D13" t="n">
-        <v>763.0</v>
+        <v>1604.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9402645.0</v>
+        <v>9692970.0</v>
       </c>
       <c r="B14" t="n">
-        <v>6257.0</v>
+        <v>14801.0</v>
       </c>
       <c r="C14" t="n">
-        <v>459540.0</v>
+        <v>160671.0</v>
       </c>
       <c r="D14" t="n">
-        <v>604.0</v>
+        <v>1512.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9402067.0</v>
+        <v>9690988.0</v>
       </c>
       <c r="B15" t="n">
-        <v>5751.0</v>
+        <v>14912.0</v>
       </c>
       <c r="C15" t="n">
-        <v>460624.0</v>
+        <v>162542.0</v>
       </c>
       <c r="D15" t="n">
-        <v>578.0</v>
+        <v>1982.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9401457.0</v>
+        <v>9689069.0</v>
       </c>
       <c r="B16" t="n">
-        <v>5336.0</v>
+        <v>14881.0</v>
       </c>
       <c r="C16" t="n">
-        <v>461649.0</v>
+        <v>164492.0</v>
       </c>
       <c r="D16" t="n">
-        <v>610.0</v>
+        <v>1919.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9400916.0</v>
+        <v>9687167.0</v>
       </c>
       <c r="B17" t="n">
-        <v>4865.0</v>
+        <v>14664.0</v>
       </c>
       <c r="C17" t="n">
-        <v>462661.0</v>
+        <v>166611.0</v>
       </c>
       <c r="D17" t="n">
-        <v>541.0</v>
+        <v>1902.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9400416.0</v>
+        <v>9685198.0</v>
       </c>
       <c r="B18" t="n">
-        <v>4422.0</v>
+        <v>14707.0</v>
       </c>
       <c r="C18" t="n">
-        <v>463604.0</v>
+        <v>168537.0</v>
       </c>
       <c r="D18" t="n">
-        <v>500.0</v>
+        <v>1969.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9399857.0</v>
+        <v>9683167.0</v>
       </c>
       <c r="B19" t="n">
-        <v>4181.0</v>
+        <v>14798.0</v>
       </c>
       <c r="C19" t="n">
-        <v>464404.0</v>
+        <v>170477.0</v>
       </c>
       <c r="D19" t="n">
-        <v>559.0</v>
+        <v>2031.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9399365.0</v>
+        <v>9681630.0</v>
       </c>
       <c r="B20" t="n">
-        <v>3941.0</v>
+        <v>14600.0</v>
       </c>
       <c r="C20" t="n">
-        <v>465136.0</v>
+        <v>172212.0</v>
       </c>
       <c r="D20" t="n">
-        <v>492.0</v>
+        <v>1537.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9398915.0</v>
+        <v>9680100.0</v>
       </c>
       <c r="B21" t="n">
-        <v>3769.0</v>
+        <v>14340.0</v>
       </c>
       <c r="C21" t="n">
-        <v>465758.0</v>
+        <v>174002.0</v>
       </c>
       <c r="D21" t="n">
-        <v>450.0</v>
+        <v>1530.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9398501.0</v>
+        <v>9678081.0</v>
       </c>
       <c r="B22" t="n">
-        <v>3558.0</v>
+        <v>14504.0</v>
       </c>
       <c r="C22" t="n">
-        <v>466383.0</v>
+        <v>175857.0</v>
       </c>
       <c r="D22" t="n">
-        <v>414.0</v>
+        <v>2019.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9398065.0</v>
+        <v>9676200.0</v>
       </c>
       <c r="B23" t="n">
-        <v>3397.0</v>
+        <v>14569.0</v>
       </c>
       <c r="C23" t="n">
-        <v>466980.0</v>
+        <v>177673.0</v>
       </c>
       <c r="D23" t="n">
-        <v>436.0</v>
+        <v>1881.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>9397663.0</v>
+        <v>9674254.0</v>
       </c>
       <c r="B24" t="n">
-        <v>3234.0</v>
+        <v>14555.0</v>
       </c>
       <c r="C24" t="n">
-        <v>467545.0</v>
+        <v>179633.0</v>
       </c>
       <c r="D24" t="n">
-        <v>402.0</v>
+        <v>1946.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9397242.0</v>
+        <v>9672444.0</v>
       </c>
       <c r="B25" t="n">
-        <v>3117.0</v>
+        <v>14431.0</v>
       </c>
       <c r="C25" t="n">
-        <v>468083.0</v>
+        <v>181567.0</v>
       </c>
       <c r="D25" t="n">
-        <v>421.0</v>
+        <v>1810.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9396838.0</v>
+        <v>9670469.0</v>
       </c>
       <c r="B26" t="n">
-        <v>3017.0</v>
+        <v>14547.0</v>
       </c>
       <c r="C26" t="n">
-        <v>468587.0</v>
+        <v>183426.0</v>
       </c>
       <c r="D26" t="n">
-        <v>404.0</v>
+        <v>1975.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9396445.0</v>
+        <v>9668923.0</v>
       </c>
       <c r="B27" t="n">
-        <v>2909.0</v>
+        <v>14330.0</v>
       </c>
       <c r="C27" t="n">
-        <v>469088.0</v>
+        <v>185189.0</v>
       </c>
       <c r="D27" t="n">
-        <v>393.0</v>
+        <v>1546.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9396105.0</v>
+        <v>9667323.0</v>
       </c>
       <c r="B28" t="n">
-        <v>2805.0</v>
+        <v>14166.0</v>
       </c>
       <c r="C28" t="n">
-        <v>469532.0</v>
+        <v>186953.0</v>
       </c>
       <c r="D28" t="n">
-        <v>340.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9395811.0</v>
+        <v>9665391.0</v>
       </c>
       <c r="B29" t="n">
-        <v>2685.0</v>
+        <v>14371.0</v>
       </c>
       <c r="C29" t="n">
-        <v>469946.0</v>
+        <v>188680.0</v>
       </c>
       <c r="D29" t="n">
-        <v>294.0</v>
+        <v>1932.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9395421.0</v>
+        <v>9663580.0</v>
       </c>
       <c r="B30" t="n">
-        <v>2629.0</v>
+        <v>14273.0</v>
       </c>
       <c r="C30" t="n">
-        <v>470392.0</v>
+        <v>190589.0</v>
       </c>
       <c r="D30" t="n">
-        <v>390.0</v>
+        <v>1811.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9395084.0</v>
+        <v>9661677.0</v>
       </c>
       <c r="B31" t="n">
-        <v>2543.0</v>
+        <v>14198.0</v>
       </c>
       <c r="C31" t="n">
-        <v>470815.0</v>
+        <v>192567.0</v>
       </c>
       <c r="D31" t="n">
-        <v>337.0</v>
+        <v>1903.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>9394740.0</v>
+        <v>9659810.0</v>
       </c>
       <c r="B32" t="n">
-        <v>2499.0</v>
+        <v>14222.0</v>
       </c>
       <c r="C32" t="n">
-        <v>471203.0</v>
+        <v>194410.0</v>
       </c>
       <c r="D32" t="n">
-        <v>344.0</v>
+        <v>1867.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9394354.0</v>
+        <v>9657489.0</v>
       </c>
       <c r="B33" t="n">
-        <v>2466.0</v>
+        <v>14712.0</v>
       </c>
       <c r="C33" t="n">
-        <v>471622.0</v>
+        <v>196241.0</v>
       </c>
       <c r="D33" t="n">
-        <v>386.0</v>
+        <v>2321.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>9393972.0</v>
+        <v>9655830.0</v>
       </c>
       <c r="B34" t="n">
-        <v>2465.0</v>
+        <v>14603.0</v>
       </c>
       <c r="C34" t="n">
-        <v>472005.0</v>
+        <v>198009.0</v>
       </c>
       <c r="D34" t="n">
-        <v>382.0</v>
+        <v>1659.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9393686.0</v>
+        <v>9654143.0</v>
       </c>
       <c r="B35" t="n">
-        <v>2395.0</v>
+        <v>14573.0</v>
       </c>
       <c r="C35" t="n">
-        <v>472361.0</v>
+        <v>199726.0</v>
       </c>
       <c r="D35" t="n">
-        <v>286.0</v>
+        <v>1687.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>9393328.0</v>
+        <v>9651654.0</v>
       </c>
       <c r="B36" t="n">
-        <v>2411.0</v>
+        <v>15293.0</v>
       </c>
       <c r="C36" t="n">
-        <v>472703.0</v>
+        <v>201495.0</v>
       </c>
       <c r="D36" t="n">
-        <v>358.0</v>
+        <v>2489.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>9392879.0</v>
+        <v>9649196.0</v>
       </c>
       <c r="B37" t="n">
-        <v>2526.0</v>
+        <v>15953.0</v>
       </c>
       <c r="C37" t="n">
-        <v>473037.0</v>
+        <v>203293.0</v>
       </c>
       <c r="D37" t="n">
-        <v>449.0</v>
+        <v>2458.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>9392464.0</v>
+        <v>9646645.0</v>
       </c>
       <c r="B38" t="n">
-        <v>2572.0</v>
+        <v>16681.0</v>
       </c>
       <c r="C38" t="n">
-        <v>473406.0</v>
+        <v>205116.0</v>
       </c>
       <c r="D38" t="n">
-        <v>415.0</v>
+        <v>2551.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>9391986.0</v>
+        <v>9643834.0</v>
       </c>
       <c r="B39" t="n">
-        <v>2706.0</v>
+        <v>17514.0</v>
       </c>
       <c r="C39" t="n">
-        <v>473750.0</v>
+        <v>207094.0</v>
       </c>
       <c r="D39" t="n">
-        <v>478.0</v>
+        <v>2811.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9391500.0</v>
+        <v>9640889.0</v>
       </c>
       <c r="B40" t="n">
-        <v>2838.0</v>
+        <v>18575.0</v>
       </c>
       <c r="C40" t="n">
-        <v>474104.0</v>
+        <v>208978.0</v>
       </c>
       <c r="D40" t="n">
-        <v>486.0</v>
+        <v>2945.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>9390980.0</v>
+        <v>9638357.0</v>
       </c>
       <c r="B41" t="n">
-        <v>3031.0</v>
+        <v>19294.0</v>
       </c>
       <c r="C41" t="n">
-        <v>474431.0</v>
+        <v>210791.0</v>
       </c>
       <c r="D41" t="n">
-        <v>520.0</v>
+        <v>2532.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>9390637.0</v>
+        <v>9635838.0</v>
       </c>
       <c r="B42" t="n">
-        <v>3033.0</v>
+        <v>19788.0</v>
       </c>
       <c r="C42" t="n">
-        <v>474772.0</v>
+        <v>212816.0</v>
       </c>
       <c r="D42" t="n">
-        <v>343.0</v>
+        <v>2519.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>9390191.0</v>
+        <v>9632223.0</v>
       </c>
       <c r="B43" t="n">
-        <v>3119.0</v>
+        <v>21474.0</v>
       </c>
       <c r="C43" t="n">
-        <v>475132.0</v>
+        <v>214745.0</v>
       </c>
       <c r="D43" t="n">
-        <v>446.0</v>
+        <v>3615.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>9389688.0</v>
+        <v>9628956.0</v>
       </c>
       <c r="B44" t="n">
-        <v>3177.0</v>
+        <v>22579.0</v>
       </c>
       <c r="C44" t="n">
-        <v>475577.0</v>
+        <v>216907.0</v>
       </c>
       <c r="D44" t="n">
-        <v>503.0</v>
+        <v>3267.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>9389158.0</v>
+        <v>9625444.0</v>
       </c>
       <c r="B45" t="n">
-        <v>3313.0</v>
+        <v>23614.0</v>
       </c>
       <c r="C45" t="n">
-        <v>475971.0</v>
+        <v>219384.0</v>
       </c>
       <c r="D45" t="n">
-        <v>530.0</v>
+        <v>3512.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>9388663.0</v>
+        <v>9621724.0</v>
       </c>
       <c r="B46" t="n">
-        <v>3367.0</v>
+        <v>24904.0</v>
       </c>
       <c r="C46" t="n">
-        <v>476412.0</v>
+        <v>221814.0</v>
       </c>
       <c r="D46" t="n">
-        <v>495.0</v>
+        <v>3720.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9388143.0</v>
+        <v>9617778.0</v>
       </c>
       <c r="B47" t="n">
-        <v>3443.0</v>
+        <v>26223.0</v>
       </c>
       <c r="C47" t="n">
-        <v>476856.0</v>
+        <v>224441.0</v>
       </c>
       <c r="D47" t="n">
-        <v>520.0</v>
+        <v>3946.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>9387546.0</v>
+        <v>9614552.0</v>
       </c>
       <c r="B48" t="n">
-        <v>3588.0</v>
+        <v>26890.0</v>
       </c>
       <c r="C48" t="n">
-        <v>477308.0</v>
+        <v>227000.0</v>
       </c>
       <c r="D48" t="n">
-        <v>597.0</v>
+        <v>3226.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9387151.0</v>
+        <v>9611348.0</v>
       </c>
       <c r="B49" t="n">
-        <v>3526.0</v>
+        <v>27240.0</v>
       </c>
       <c r="C49" t="n">
-        <v>477765.0</v>
+        <v>229854.0</v>
       </c>
       <c r="D49" t="n">
-        <v>395.0</v>
+        <v>3204.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9386601.0</v>
+        <v>9606986.0</v>
       </c>
       <c r="B50" t="n">
-        <v>3631.0</v>
+        <v>28619.0</v>
       </c>
       <c r="C50" t="n">
-        <v>478210.0</v>
+        <v>232837.0</v>
       </c>
       <c r="D50" t="n">
-        <v>550.0</v>
+        <v>4362.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9386011.0</v>
+        <v>9602920.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3738.0</v>
+        <v>29496.0</v>
       </c>
       <c r="C51" t="n">
-        <v>478693.0</v>
+        <v>236026.0</v>
       </c>
       <c r="D51" t="n">
-        <v>590.0</v>
+        <v>4066.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9385414.0</v>
+        <v>9598491.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3810.0</v>
+        <v>30589.0</v>
       </c>
       <c r="C52" t="n">
-        <v>479218.0</v>
+        <v>239362.0</v>
       </c>
       <c r="D52" t="n">
-        <v>597.0</v>
+        <v>4429.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>9384811.0</v>
+        <v>9593732.0</v>
       </c>
       <c r="B53" t="n">
-        <v>3946.0</v>
+        <v>31940.0</v>
       </c>
       <c r="C53" t="n">
-        <v>479685.0</v>
+        <v>242770.0</v>
       </c>
       <c r="D53" t="n">
-        <v>603.0</v>
+        <v>4759.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9384168.0</v>
+        <v>9588884.0</v>
       </c>
       <c r="B54" t="n">
-        <v>4110.0</v>
+        <v>33411.0</v>
       </c>
       <c r="C54" t="n">
-        <v>480164.0</v>
+        <v>246147.0</v>
       </c>
       <c r="D54" t="n">
-        <v>643.0</v>
+        <v>4848.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9383479.0</v>
+        <v>9584892.0</v>
       </c>
       <c r="B55" t="n">
-        <v>4305.0</v>
+        <v>33953.0</v>
       </c>
       <c r="C55" t="n">
-        <v>480658.0</v>
+        <v>249597.0</v>
       </c>
       <c r="D55" t="n">
-        <v>689.0</v>
+        <v>3992.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9383039.0</v>
+        <v>9580837.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4207.0</v>
+        <v>34306.0</v>
       </c>
       <c r="C56" t="n">
-        <v>481196.0</v>
+        <v>253299.0</v>
       </c>
       <c r="D56" t="n">
-        <v>440.0</v>
+        <v>4055.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>9382434.0</v>
+        <v>9575448.0</v>
       </c>
       <c r="B57" t="n">
-        <v>4279.0</v>
+        <v>35982.0</v>
       </c>
       <c r="C57" t="n">
-        <v>481729.0</v>
+        <v>257012.0</v>
       </c>
       <c r="D57" t="n">
-        <v>605.0</v>
+        <v>5389.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>9381670.0</v>
+        <v>9570386.0</v>
       </c>
       <c r="B58" t="n">
-        <v>4445.0</v>
+        <v>36962.0</v>
       </c>
       <c r="C58" t="n">
-        <v>482327.0</v>
+        <v>261094.0</v>
       </c>
       <c r="D58" t="n">
-        <v>764.0</v>
+        <v>5062.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>9380958.0</v>
+        <v>9565012.0</v>
       </c>
       <c r="B59" t="n">
-        <v>4579.0</v>
+        <v>38133.0</v>
       </c>
       <c r="C59" t="n">
-        <v>482905.0</v>
+        <v>265297.0</v>
       </c>
       <c r="D59" t="n">
-        <v>712.0</v>
+        <v>5374.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>9380134.0</v>
+        <v>9695257.0</v>
       </c>
       <c r="B60" t="n">
-        <v>4766.0</v>
+        <v>39590.0</v>
       </c>
       <c r="C60" t="n">
-        <v>483542.0</v>
+        <v>133595.0</v>
       </c>
       <c r="D60" t="n">
-        <v>824.0</v>
+        <v>5741.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>9379351.0</v>
+        <v>9690759.0</v>
       </c>
       <c r="B61" t="n">
-        <v>4948.0</v>
+        <v>41388.0</v>
       </c>
       <c r="C61" t="n">
-        <v>484143.0</v>
+        <v>136295.0</v>
       </c>
       <c r="D61" t="n">
-        <v>783.0</v>
+        <v>6010.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>9378487.0</v>
+        <v>9687047.0</v>
       </c>
       <c r="B62" t="n">
-        <v>5238.0</v>
+        <v>42284.0</v>
       </c>
       <c r="C62" t="n">
-        <v>484717.0</v>
+        <v>139111.0</v>
       </c>
       <c r="D62" t="n">
-        <v>864.0</v>
+        <v>5222.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>9377914.0</v>
+        <v>9683645.0</v>
       </c>
       <c r="B63" t="n">
-        <v>5217.0</v>
+        <v>42704.0</v>
       </c>
       <c r="C63" t="n">
-        <v>485311.0</v>
+        <v>142093.0</v>
       </c>
       <c r="D63" t="n">
-        <v>573.0</v>
+        <v>4981.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>9377141.0</v>
+        <v>9678059.0</v>
       </c>
       <c r="B64" t="n">
-        <v>5389.0</v>
+        <v>45134.0</v>
       </c>
       <c r="C64" t="n">
-        <v>485912.0</v>
+        <v>145249.0</v>
       </c>
       <c r="D64" t="n">
-        <v>773.0</v>
+        <v>7149.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>9376306.0</v>
+        <v>9673303.0</v>
       </c>
       <c r="B65" t="n">
-        <v>5505.0</v>
+        <v>46625.0</v>
       </c>
       <c r="C65" t="n">
-        <v>486631.0</v>
+        <v>148514.0</v>
       </c>
       <c r="D65" t="n">
-        <v>835.0</v>
+        <v>6376.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>9375465.0</v>
+        <v>9667770.0</v>
       </c>
       <c r="B66" t="n">
-        <v>5626.0</v>
+        <v>48676.0</v>
       </c>
       <c r="C66" t="n">
-        <v>487351.0</v>
+        <v>151996.0</v>
       </c>
       <c r="D66" t="n">
-        <v>841.0</v>
+        <v>7127.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>9374566.0</v>
+        <v>9661769.0</v>
       </c>
       <c r="B67" t="n">
-        <v>5719.0</v>
+        <v>50901.0</v>
       </c>
       <c r="C67" t="n">
-        <v>488157.0</v>
+        <v>155772.0</v>
       </c>
       <c r="D67" t="n">
-        <v>899.0</v>
+        <v>7562.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>9373606.0</v>
+        <v>9655447.0</v>
       </c>
       <c r="B68" t="n">
-        <v>5971.0</v>
+        <v>53796.0</v>
       </c>
       <c r="C68" t="n">
-        <v>488865.0</v>
+        <v>159199.0</v>
       </c>
       <c r="D68" t="n">
-        <v>960.0</v>
+        <v>8132.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>9372640.0</v>
+        <v>9650648.0</v>
       </c>
       <c r="B69" t="n">
-        <v>6197.0</v>
+        <v>55195.0</v>
       </c>
       <c r="C69" t="n">
-        <v>489605.0</v>
+        <v>162599.0</v>
       </c>
       <c r="D69" t="n">
-        <v>966.0</v>
+        <v>6722.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>9371936.0</v>
+        <v>9646135.0</v>
       </c>
       <c r="B70" t="n">
-        <v>6145.0</v>
+        <v>56111.0</v>
       </c>
       <c r="C70" t="n">
-        <v>490361.0</v>
+        <v>166196.0</v>
       </c>
       <c r="D70" t="n">
-        <v>704.0</v>
+        <v>6664.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>9371087.0</v>
+        <v>9639043.0</v>
       </c>
       <c r="B71" t="n">
-        <v>6239.0</v>
+        <v>59412.0</v>
       </c>
       <c r="C71" t="n">
-        <v>491116.0</v>
+        <v>169987.0</v>
       </c>
       <c r="D71" t="n">
-        <v>849.0</v>
+        <v>9142.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>9370031.0</v>
+        <v>9632894.0</v>
       </c>
       <c r="B72" t="n">
-        <v>6438.0</v>
+        <v>61346.0</v>
       </c>
       <c r="C72" t="n">
-        <v>491973.0</v>
+        <v>174202.0</v>
       </c>
       <c r="D72" t="n">
-        <v>1056.0</v>
+        <v>8156.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>9369052.0</v>
+        <v>9625664.0</v>
       </c>
       <c r="B73" t="n">
-        <v>6589.0</v>
+        <v>63850.0</v>
       </c>
       <c r="C73" t="n">
-        <v>492801.0</v>
+        <v>178928.0</v>
       </c>
       <c r="D73" t="n">
-        <v>979.0</v>
+        <v>9152.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>9367984.0</v>
+        <v>9617969.0</v>
       </c>
       <c r="B74" t="n">
-        <v>6734.0</v>
+        <v>66498.0</v>
       </c>
       <c r="C74" t="n">
-        <v>493724.0</v>
+        <v>183975.0</v>
       </c>
       <c r="D74" t="n">
-        <v>1068.0</v>
+        <v>9578.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>9366865.0</v>
+        <v>9609645.0</v>
       </c>
       <c r="B75" t="n">
-        <v>7033.0</v>
+        <v>69737.0</v>
       </c>
       <c r="C75" t="n">
-        <v>494544.0</v>
+        <v>189060.0</v>
       </c>
       <c r="D75" t="n">
-        <v>1119.0</v>
+        <v>10195.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>9365721.0</v>
+        <v>9603086.0</v>
       </c>
       <c r="B76" t="n">
-        <v>7339.0</v>
+        <v>71095.0</v>
       </c>
       <c r="C76" t="n">
-        <v>495382.0</v>
+        <v>194261.0</v>
       </c>
       <c r="D76" t="n">
-        <v>1144.0</v>
+        <v>8509.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>9364969.0</v>
+        <v>9596713.0</v>
       </c>
       <c r="B77" t="n">
-        <v>7177.0</v>
+        <v>71911.0</v>
       </c>
       <c r="C77" t="n">
-        <v>496296.0</v>
+        <v>199818.0</v>
       </c>
       <c r="D77" t="n">
-        <v>752.0</v>
+        <v>8492.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>9363928.0</v>
+        <v>9587440.0</v>
       </c>
       <c r="B78" t="n">
-        <v>7320.0</v>
+        <v>75482.0</v>
       </c>
       <c r="C78" t="n">
-        <v>497194.0</v>
+        <v>205520.0</v>
       </c>
       <c r="D78" t="n">
-        <v>1041.0</v>
+        <v>11199.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>9362736.0</v>
+        <v>9579161.0</v>
       </c>
       <c r="B79" t="n">
-        <v>7585.0</v>
+        <v>77516.0</v>
       </c>
       <c r="C79" t="n">
-        <v>498121.0</v>
+        <v>211765.0</v>
       </c>
       <c r="D79" t="n">
-        <v>1192.0</v>
+        <v>10219.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>9361600.0</v>
+        <v>9569924.0</v>
       </c>
       <c r="B80" t="n">
-        <v>7660.0</v>
+        <v>79880.0</v>
       </c>
       <c r="C80" t="n">
-        <v>499182.0</v>
+        <v>218638.0</v>
       </c>
       <c r="D80" t="n">
-        <v>1136.0</v>
+        <v>10972.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>9360347.0</v>
+        <v>9560097.0</v>
       </c>
       <c r="B81" t="n">
-        <v>7906.0</v>
+        <v>82866.0</v>
       </c>
       <c r="C81" t="n">
-        <v>500189.0</v>
+        <v>225479.0</v>
       </c>
       <c r="D81" t="n">
-        <v>1253.0</v>
+        <v>11617.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>9359045.0</v>
+        <v>9549861.0</v>
       </c>
       <c r="B82" t="n">
-        <v>8144.0</v>
+        <v>86134.0</v>
       </c>
       <c r="C82" t="n">
-        <v>501253.0</v>
+        <v>232447.0</v>
       </c>
       <c r="D82" t="n">
-        <v>1302.0</v>
+        <v>12091.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>9357643.0</v>
+        <v>9541521.0</v>
       </c>
       <c r="B83" t="n">
-        <v>8502.0</v>
+        <v>87104.0</v>
       </c>
       <c r="C83" t="n">
-        <v>502297.0</v>
+        <v>239817.0</v>
       </c>
       <c r="D83" t="n">
-        <v>1402.0</v>
+        <v>10156.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>9356717.0</v>
+        <v>9533847.0</v>
       </c>
       <c r="B84" t="n">
-        <v>8404.0</v>
+        <v>86973.0</v>
       </c>
       <c r="C84" t="n">
-        <v>503321.0</v>
+        <v>247622.0</v>
       </c>
       <c r="D84" t="n">
-        <v>926.0</v>
+        <v>9634.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>9355509.0</v>
+        <v>9522413.0</v>
       </c>
       <c r="B85" t="n">
-        <v>8652.0</v>
+        <v>90893.0</v>
       </c>
       <c r="C85" t="n">
-        <v>504281.0</v>
+        <v>255136.0</v>
       </c>
       <c r="D85" t="n">
-        <v>1208.0</v>
+        <v>13368.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>9354051.0</v>
+        <v>9512647.0</v>
       </c>
       <c r="B86" t="n">
-        <v>8967.0</v>
+        <v>92540.0</v>
       </c>
       <c r="C86" t="n">
-        <v>505424.0</v>
+        <v>263255.0</v>
       </c>
       <c r="D86" t="n">
-        <v>1458.0</v>
+        <v>11625.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>9352758.0</v>
+        <v>9501615.0</v>
       </c>
       <c r="B87" t="n">
-        <v>9058.0</v>
+        <v>94787.0</v>
       </c>
       <c r="C87" t="n">
-        <v>506626.0</v>
+        <v>272040.0</v>
       </c>
       <c r="D87" t="n">
-        <v>1293.0</v>
+        <v>12795.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>9351209.0</v>
+        <v>9489916.0</v>
       </c>
       <c r="B88" t="n">
-        <v>9307.0</v>
+        <v>97443.0</v>
       </c>
       <c r="C88" t="n">
-        <v>507926.0</v>
+        <v>281083.0</v>
       </c>
       <c r="D88" t="n">
-        <v>1549.0</v>
+        <v>13463.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>9349669.0</v>
+        <v>9477714.0</v>
       </c>
       <c r="B89" t="n">
-        <v>9692.0</v>
+        <v>100666.0</v>
       </c>
       <c r="C89" t="n">
-        <v>509081.0</v>
+        <v>290062.0</v>
       </c>
       <c r="D89" t="n">
-        <v>1540.0</v>
+        <v>13929.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>9348141.0</v>
+        <v>9467952.0</v>
       </c>
       <c r="B90" t="n">
-        <v>10060.0</v>
+        <v>101597.0</v>
       </c>
       <c r="C90" t="n">
-        <v>510241.0</v>
+        <v>298893.0</v>
       </c>
       <c r="D90" t="n">
-        <v>1528.0</v>
+        <v>11671.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>9347232.0</v>
+        <v>9458808.0</v>
       </c>
       <c r="B91" t="n">
-        <v>9783.0</v>
+        <v>101249.0</v>
       </c>
       <c r="C91" t="n">
-        <v>511427.0</v>
+        <v>308385.0</v>
       </c>
       <c r="D91" t="n">
-        <v>909.0</v>
+        <v>11122.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>9345720.0</v>
+        <v>9445334.0</v>
       </c>
       <c r="B92" t="n">
-        <v>10016.0</v>
+        <v>105306.0</v>
       </c>
       <c r="C92" t="n">
-        <v>512706.0</v>
+        <v>317802.0</v>
       </c>
       <c r="D92" t="n">
-        <v>1512.0</v>
+        <v>15317.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>9344246.0</v>
+        <v>9433829.0</v>
       </c>
       <c r="B93" t="n">
-        <v>10120.0</v>
+        <v>106879.0</v>
       </c>
       <c r="C93" t="n">
-        <v>514076.0</v>
+        <v>327734.0</v>
       </c>
       <c r="D93" t="n">
-        <v>1474.0</v>
+        <v>13336.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>9342831.0</v>
+        <v>9420859.0</v>
       </c>
       <c r="B94" t="n">
-        <v>10040.0</v>
+        <v>109230.0</v>
       </c>
       <c r="C94" t="n">
-        <v>515571.0</v>
+        <v>338353.0</v>
       </c>
       <c r="D94" t="n">
-        <v>1415.0</v>
+        <v>14738.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>9341316.0</v>
+        <v>9407193.0</v>
       </c>
       <c r="B95" t="n">
-        <v>10163.0</v>
+        <v>112110.0</v>
       </c>
       <c r="C95" t="n">
-        <v>516963.0</v>
+        <v>349139.0</v>
       </c>
       <c r="D95" t="n">
-        <v>1515.0</v>
+        <v>15383.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>9339686.0</v>
+        <v>9393295.0</v>
       </c>
       <c r="B96" t="n">
-        <v>10421.0</v>
+        <v>115525.0</v>
       </c>
       <c r="C96" t="n">
-        <v>518335.0</v>
+        <v>359622.0</v>
       </c>
       <c r="D96" t="n">
-        <v>1630.0</v>
+        <v>15667.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>9338440.0</v>
+        <v>9382001.0</v>
       </c>
       <c r="B97" t="n">
-        <v>10312.0</v>
+        <v>116081.0</v>
       </c>
       <c r="C97" t="n">
-        <v>519690.0</v>
+        <v>370360.0</v>
       </c>
       <c r="D97" t="n">
-        <v>1246.0</v>
+        <v>13092.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>9337504.0</v>
+        <v>9371268.0</v>
       </c>
       <c r="B98" t="n">
-        <v>9801.0</v>
+        <v>115318.0</v>
       </c>
       <c r="C98" t="n">
-        <v>521137.0</v>
+        <v>381856.0</v>
       </c>
       <c r="D98" t="n">
-        <v>936.0</v>
+        <v>12556.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>9336308.0</v>
+        <v>9358132.0</v>
       </c>
       <c r="B99" t="n">
-        <v>9575.0</v>
+        <v>117382.0</v>
       </c>
       <c r="C99" t="n">
-        <v>522559.0</v>
+        <v>392928.0</v>
       </c>
       <c r="D99" t="n">
-        <v>1196.0</v>
+        <v>15114.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9334802.0</v>
+        <v>9347047.0</v>
       </c>
       <c r="B100" t="n">
-        <v>9573.0</v>
+        <v>116889.0</v>
       </c>
       <c r="C100" t="n">
-        <v>524067.0</v>
+        <v>404506.0</v>
       </c>
       <c r="D100" t="n">
-        <v>1506.0</v>
+        <v>12969.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>9333367.0</v>
+        <v>9335567.0</v>
       </c>
       <c r="B101" t="n">
-        <v>9457.0</v>
+        <v>116021.0</v>
       </c>
       <c r="C101" t="n">
-        <v>525618.0</v>
+        <v>416854.0</v>
       </c>
       <c r="D101" t="n">
-        <v>1435.0</v>
+        <v>13293.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>9331673.0</v>
+        <v>9324867.0</v>
       </c>
       <c r="B102" t="n">
-        <v>9678.0</v>
+        <v>114610.0</v>
       </c>
       <c r="C102" t="n">
-        <v>527091.0</v>
+        <v>428965.0</v>
       </c>
       <c r="D102" t="n">
-        <v>1694.0</v>
+        <v>12725.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>9329972.0</v>
+        <v>9313986.0</v>
       </c>
       <c r="B103" t="n">
-        <v>10029.0</v>
+        <v>113386.0</v>
       </c>
       <c r="C103" t="n">
-        <v>528441.0</v>
+        <v>441070.0</v>
       </c>
       <c r="D103" t="n">
-        <v>1701.0</v>
+        <v>12810.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9328116.0</v>
+        <v>9307107.0</v>
       </c>
       <c r="B104" t="n">
-        <v>10645.0</v>
+        <v>108200.0</v>
       </c>
       <c r="C104" t="n">
-        <v>529681.0</v>
+        <v>453135.0</v>
       </c>
       <c r="D104" t="n">
-        <v>1856.0</v>
+        <v>9041.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>9326908.0</v>
+        <v>9300190.0</v>
       </c>
       <c r="B105" t="n">
-        <v>10696.0</v>
+        <v>103104.0</v>
       </c>
       <c r="C105" t="n">
-        <v>530838.0</v>
+        <v>465148.0</v>
       </c>
       <c r="D105" t="n">
-        <v>1208.0</v>
+        <v>9394.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>9325181.0</v>
+        <v>9289650.0</v>
       </c>
       <c r="B106" t="n">
-        <v>11227.0</v>
+        <v>102065.0</v>
       </c>
       <c r="C106" t="n">
-        <v>532034.0</v>
+        <v>476727.0</v>
       </c>
       <c r="D106" t="n">
-        <v>1727.0</v>
+        <v>12970.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>9323222.0</v>
+        <v>9280982.0</v>
       </c>
       <c r="B107" t="n">
-        <v>11829.0</v>
+        <v>99240.0</v>
       </c>
       <c r="C107" t="n">
-        <v>533391.0</v>
+        <v>488220.0</v>
       </c>
       <c r="D107" t="n">
-        <v>1959.0</v>
+        <v>11295.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>9321264.0</v>
+        <v>9271319.0</v>
       </c>
       <c r="B108" t="n">
-        <v>12251.0</v>
+        <v>97438.0</v>
       </c>
       <c r="C108" t="n">
-        <v>534927.0</v>
+        <v>499685.0</v>
       </c>
       <c r="D108" t="n">
-        <v>1958.0</v>
+        <v>12222.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>9319227.0</v>
+        <v>9261286.0</v>
       </c>
       <c r="B109" t="n">
-        <v>12668.0</v>
+        <v>96959.0</v>
       </c>
       <c r="C109" t="n">
-        <v>536547.0</v>
+        <v>510197.0</v>
       </c>
       <c r="D109" t="n">
-        <v>2037.0</v>
+        <v>12887.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>9317020.0</v>
+        <v>9250967.0</v>
       </c>
       <c r="B110" t="n">
-        <v>13389.0</v>
+        <v>97920.0</v>
       </c>
       <c r="C110" t="n">
-        <v>538033.0</v>
+        <v>519555.0</v>
       </c>
       <c r="D110" t="n">
-        <v>2207.0</v>
+        <v>13302.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>9314646.0</v>
+        <v>9243111.0</v>
       </c>
       <c r="B111" t="n">
-        <v>14191.0</v>
+        <v>97110.0</v>
       </c>
       <c r="C111" t="n">
-        <v>539605.0</v>
+        <v>528221.0</v>
       </c>
       <c r="D111" t="n">
-        <v>2374.0</v>
+        <v>11045.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>9313126.0</v>
+        <v>9235838.0</v>
       </c>
       <c r="B112" t="n">
-        <v>14046.0</v>
+        <v>96248.0</v>
       </c>
       <c r="C112" t="n">
-        <v>541270.0</v>
+        <v>536356.0</v>
       </c>
       <c r="D112" t="n">
-        <v>1520.0</v>
+        <v>10609.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>9310883.0</v>
+        <v>9224507.0</v>
       </c>
       <c r="B113" t="n">
-        <v>14656.0</v>
+        <v>99917.0</v>
       </c>
       <c r="C113" t="n">
-        <v>542903.0</v>
+        <v>544018.0</v>
       </c>
       <c r="D113" t="n">
-        <v>2243.0</v>
+        <v>14739.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>9308317.0</v>
+        <v>9215186.0</v>
       </c>
       <c r="B114" t="n">
-        <v>15281.0</v>
+        <v>101247.0</v>
       </c>
       <c r="C114" t="n">
-        <v>544844.0</v>
+        <v>552009.0</v>
       </c>
       <c r="D114" t="n">
-        <v>2566.0</v>
+        <v>12698.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>9305774.0</v>
+        <v>9204504.0</v>
       </c>
       <c r="B115" t="n">
-        <v>15851.0</v>
+        <v>103660.0</v>
       </c>
       <c r="C115" t="n">
-        <v>546817.0</v>
+        <v>560278.0</v>
       </c>
       <c r="D115" t="n">
-        <v>2543.0</v>
+        <v>14132.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>9302971.0</v>
+        <v>9193813.0</v>
       </c>
       <c r="B116" t="n">
-        <v>16556.0</v>
+        <v>106352.0</v>
       </c>
       <c r="C116" t="n">
-        <v>548915.0</v>
+        <v>568277.0</v>
       </c>
       <c r="D116" t="n">
-        <v>2803.0</v>
+        <v>14393.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>9299909.0</v>
+        <v>9182497.0</v>
       </c>
       <c r="B117" t="n">
-        <v>17613.0</v>
+        <v>109469.0</v>
       </c>
       <c r="C117" t="n">
-        <v>550920.0</v>
+        <v>576476.0</v>
       </c>
       <c r="D117" t="n">
-        <v>3062.0</v>
+        <v>15029.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>9296679.0</v>
+        <v>9174283.0</v>
       </c>
       <c r="B118" t="n">
-        <v>18807.0</v>
+        <v>109901.0</v>
       </c>
       <c r="C118" t="n">
-        <v>552956.0</v>
+        <v>584258.0</v>
       </c>
       <c r="D118" t="n">
-        <v>3230.0</v>
+        <v>12296.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>9294623.0</v>
+        <v>9166749.0</v>
       </c>
       <c r="B119" t="n">
-        <v>18697.0</v>
+        <v>109197.0</v>
       </c>
       <c r="C119" t="n">
-        <v>555122.0</v>
+        <v>592496.0</v>
       </c>
       <c r="D119" t="n">
-        <v>2056.0</v>
+        <v>11737.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>9291603.0</v>
+        <v>9155250.0</v>
       </c>
       <c r="B120" t="n">
-        <v>19591.0</v>
+        <v>112554.0</v>
       </c>
       <c r="C120" t="n">
-        <v>557248.0</v>
+        <v>600638.0</v>
       </c>
       <c r="D120" t="n">
-        <v>3020.0</v>
+        <v>15783.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>9287979.0</v>
+        <v>9145586.0</v>
       </c>
       <c r="B121" t="n">
-        <v>20738.0</v>
+        <v>113378.0</v>
       </c>
       <c r="C121" t="n">
-        <v>559725.0</v>
+        <v>609478.0</v>
       </c>
       <c r="D121" t="n">
-        <v>3624.0</v>
+        <v>13876.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>9284592.0</v>
+        <v>9134838.0</v>
       </c>
       <c r="B122" t="n">
-        <v>21535.0</v>
+        <v>114896.0</v>
       </c>
       <c r="C122" t="n">
-        <v>562315.0</v>
+        <v>618708.0</v>
       </c>
       <c r="D122" t="n">
-        <v>3387.0</v>
+        <v>15074.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>9280739.0</v>
+        <v>9123927.0</v>
       </c>
       <c r="B123" t="n">
-        <v>22610.0</v>
+        <v>116880.0</v>
       </c>
       <c r="C123" t="n">
-        <v>565093.0</v>
+        <v>627635.0</v>
       </c>
       <c r="D123" t="n">
-        <v>3853.0</v>
+        <v>15472.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>9276652.0</v>
+        <v>9112761.0</v>
       </c>
       <c r="B124" t="n">
-        <v>23978.0</v>
+        <v>119371.0</v>
       </c>
       <c r="C124" t="n">
-        <v>567812.0</v>
+        <v>636310.0</v>
       </c>
       <c r="D124" t="n">
-        <v>4087.0</v>
+        <v>15885.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>9272356.0</v>
+        <v>9104576.0</v>
       </c>
       <c r="B125" t="n">
-        <v>25477.0</v>
+        <v>119148.0</v>
       </c>
       <c r="C125" t="n">
-        <v>570609.0</v>
+        <v>644718.0</v>
       </c>
       <c r="D125" t="n">
-        <v>4296.0</v>
+        <v>13070.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>9269566.0</v>
+        <v>9097421.0</v>
       </c>
       <c r="B126" t="n">
-        <v>25397.0</v>
+        <v>117197.0</v>
       </c>
       <c r="C126" t="n">
-        <v>573479.0</v>
+        <v>653824.0</v>
       </c>
       <c r="D126" t="n">
-        <v>2790.0</v>
+        <v>12231.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>9265465.0</v>
+        <v>9086139.0</v>
       </c>
       <c r="B127" t="n">
-        <v>26676.0</v>
+        <v>120039.0</v>
       </c>
       <c r="C127" t="n">
-        <v>576301.0</v>
+        <v>662264.0</v>
       </c>
       <c r="D127" t="n">
-        <v>4101.0</v>
+        <v>16619.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>9260589.0</v>
+        <v>9076836.0</v>
       </c>
       <c r="B128" t="n">
-        <v>28178.0</v>
+        <v>120402.0</v>
       </c>
       <c r="C128" t="n">
-        <v>579675.0</v>
+        <v>671204.0</v>
       </c>
       <c r="D128" t="n">
-        <v>4876.0</v>
+        <v>14540.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>9256071.0</v>
+        <v>9066731.0</v>
       </c>
       <c r="B129" t="n">
-        <v>29082.0</v>
+        <v>121224.0</v>
       </c>
       <c r="C129" t="n">
-        <v>583289.0</v>
+        <v>680487.0</v>
       </c>
       <c r="D129" t="n">
-        <v>4518.0</v>
+        <v>15428.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>9251131.0</v>
+        <v>9056126.0</v>
       </c>
       <c r="B130" t="n">
-        <v>30339.0</v>
+        <v>123175.0</v>
       </c>
       <c r="C130" t="n">
-        <v>586972.0</v>
+        <v>689141.0</v>
       </c>
       <c r="D130" t="n">
-        <v>4940.0</v>
+        <v>16353.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>9245650.0</v>
+        <v>9045133.0</v>
       </c>
       <c r="B131" t="n">
-        <v>32209.0</v>
+        <v>125566.0</v>
       </c>
       <c r="C131" t="n">
-        <v>590583.0</v>
+        <v>697743.0</v>
       </c>
       <c r="D131" t="n">
-        <v>5481.0</v>
+        <v>16834.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>9239851.0</v>
+        <v>9037624.0</v>
       </c>
       <c r="B132" t="n">
-        <v>34244.0</v>
+        <v>125052.0</v>
       </c>
       <c r="C132" t="n">
-        <v>594347.0</v>
+        <v>705766.0</v>
       </c>
       <c r="D132" t="n">
-        <v>5799.0</v>
+        <v>13731.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>9236106.0</v>
+        <v>9031233.0</v>
       </c>
       <c r="B133" t="n">
-        <v>34087.0</v>
+        <v>123100.0</v>
       </c>
       <c r="C133" t="n">
-        <v>598249.0</v>
+        <v>714109.0</v>
       </c>
       <c r="D133" t="n">
-        <v>3745.0</v>
+        <v>13039.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>9230900.0</v>
+        <v>9020586.0</v>
       </c>
       <c r="B134" t="n">
-        <v>35303.0</v>
+        <v>126257.0</v>
       </c>
       <c r="C134" t="n">
-        <v>602239.0</v>
+        <v>721599.0</v>
       </c>
       <c r="D134" t="n">
-        <v>5206.0</v>
+        <v>17577.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>9224449.0</v>
+        <v>9012509.0</v>
       </c>
       <c r="B135" t="n">
-        <v>37170.0</v>
+        <v>126785.0</v>
       </c>
       <c r="C135" t="n">
-        <v>606823.0</v>
+        <v>729148.0</v>
       </c>
       <c r="D135" t="n">
-        <v>6451.0</v>
+        <v>15033.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>9218421.0</v>
+        <v>9003276.0</v>
       </c>
       <c r="B136" t="n">
-        <v>38440.0</v>
+        <v>127698.0</v>
       </c>
       <c r="C136" t="n">
-        <v>611581.0</v>
+        <v>737468.0</v>
       </c>
       <c r="D136" t="n">
-        <v>6028.0</v>
+        <v>16384.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>9211670.0</v>
+        <v>8993951.0</v>
       </c>
       <c r="B137" t="n">
-        <v>40248.0</v>
+        <v>129388.0</v>
       </c>
       <c r="C137" t="n">
-        <v>616524.0</v>
+        <v>745103.0</v>
       </c>
       <c r="D137" t="n">
-        <v>6751.0</v>
+        <v>17001.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>9204564.0</v>
+        <v>8984350.0</v>
       </c>
       <c r="B138" t="n">
-        <v>42394.0</v>
+        <v>131530.0</v>
       </c>
       <c r="C138" t="n">
-        <v>621484.0</v>
+        <v>752562.0</v>
       </c>
       <c r="D138" t="n">
-        <v>7106.0</v>
+        <v>17229.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>9196991.0</v>
+        <v>8978666.0</v>
       </c>
       <c r="B139" t="n">
-        <v>44982.0</v>
+        <v>130164.0</v>
       </c>
       <c r="C139" t="n">
-        <v>626469.0</v>
+        <v>759612.0</v>
       </c>
       <c r="D139" t="n">
-        <v>7573.0</v>
+        <v>13869.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>9192143.0</v>
+        <v>8974286.0</v>
       </c>
       <c r="B140" t="n">
-        <v>44647.0</v>
+        <v>127492.0</v>
       </c>
       <c r="C140" t="n">
-        <v>631652.0</v>
+        <v>766664.0</v>
       </c>
       <c r="D140" t="n">
-        <v>4848.0</v>
+        <v>12988.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>9185119.0</v>
+        <v>8964742.0</v>
       </c>
       <c r="B141" t="n">
-        <v>46517.0</v>
+        <v>130626.0</v>
       </c>
       <c r="C141" t="n">
-        <v>636806.0</v>
+        <v>773074.0</v>
       </c>
       <c r="D141" t="n">
-        <v>7024.0</v>
+        <v>18175.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>9177082.0</v>
+        <v>8958142.0</v>
       </c>
       <c r="B142" t="n">
-        <v>48723.0</v>
+        <v>130458.0</v>
       </c>
       <c r="C142" t="n">
-        <v>642637.0</v>
+        <v>779842.0</v>
       </c>
       <c r="D142" t="n">
-        <v>8037.0</v>
+        <v>15423.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>9169085.0</v>
+        <v>8950446.0</v>
       </c>
       <c r="B143" t="n">
-        <v>50438.0</v>
+        <v>131012.0</v>
       </c>
       <c r="C143" t="n">
-        <v>648919.0</v>
+        <v>786984.0</v>
       </c>
       <c r="D143" t="n">
-        <v>7997.0</v>
+        <v>16882.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>9160506.0</v>
+        <v>8943017.0</v>
       </c>
       <c r="B144" t="n">
-        <v>52520.0</v>
+        <v>132479.0</v>
       </c>
       <c r="C144" t="n">
-        <v>655416.0</v>
+        <v>792946.0</v>
       </c>
       <c r="D144" t="n">
-        <v>8579.0</v>
+        <v>17194.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>9151220.0</v>
+        <v>8934658.0</v>
       </c>
       <c r="B145" t="n">
-        <v>55564.0</v>
+        <v>134482.0</v>
       </c>
       <c r="C145" t="n">
-        <v>661658.0</v>
+        <v>799302.0</v>
       </c>
       <c r="D145" t="n">
-        <v>9286.0</v>
+        <v>17807.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>9141294.0</v>
+        <v>8930448.0</v>
       </c>
       <c r="B146" t="n">
-        <v>58947.0</v>
+        <v>133113.0</v>
       </c>
       <c r="C146" t="n">
-        <v>668201.0</v>
+        <v>804881.0</v>
       </c>
       <c r="D146" t="n">
-        <v>9926.0</v>
+        <v>14188.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>9135083.0</v>
+        <v>8927527.0</v>
       </c>
       <c r="B147" t="n">
-        <v>58340.0</v>
+        <v>130664.0</v>
       </c>
       <c r="C147" t="n">
-        <v>675019.0</v>
+        <v>810251.0</v>
       </c>
       <c r="D147" t="n">
-        <v>6211.0</v>
+        <v>13469.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>9125876.0</v>
+        <v>8920160.0</v>
       </c>
       <c r="B148" t="n">
-        <v>60789.0</v>
+        <v>133336.0</v>
       </c>
       <c r="C148" t="n">
-        <v>681777.0</v>
+        <v>814946.0</v>
       </c>
       <c r="D148" t="n">
-        <v>9207.0</v>
+        <v>18174.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>9115169.0</v>
+        <v>8916853.0</v>
       </c>
       <c r="B149" t="n">
-        <v>63720.0</v>
+        <v>131553.0</v>
       </c>
       <c r="C149" t="n">
-        <v>689553.0</v>
+        <v>820036.0</v>
       </c>
       <c r="D149" t="n">
-        <v>10707.0</v>
+        <v>14013.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>9105055.0</v>
+        <v>8912755.0</v>
       </c>
       <c r="B150" t="n">
-        <v>65717.0</v>
+        <v>129957.0</v>
       </c>
       <c r="C150" t="n">
-        <v>697670.0</v>
+        <v>825730.0</v>
       </c>
       <c r="D150" t="n">
-        <v>10114.0</v>
+        <v>14838.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>9093728.0</v>
+        <v>8909749.0</v>
       </c>
       <c r="B151" t="n">
-        <v>68554.0</v>
+        <v>128264.0</v>
       </c>
       <c r="C151" t="n">
-        <v>706160.0</v>
+        <v>830429.0</v>
       </c>
       <c r="D151" t="n">
-        <v>11327.0</v>
+        <v>14476.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>9081896.0</v>
+        <v>8907094.0</v>
       </c>
       <c r="B152" t="n">
-        <v>72120.0</v>
+        <v>126146.0</v>
       </c>
       <c r="C152" t="n">
-        <v>714426.0</v>
+        <v>835202.0</v>
       </c>
       <c r="D152" t="n">
-        <v>11832.0</v>
+        <v>13915.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>9069193.0</v>
+        <v>8909165.0</v>
       </c>
       <c r="B153" t="n">
-        <v>76361.0</v>
+        <v>120010.0</v>
       </c>
       <c r="C153" t="n">
-        <v>722888.0</v>
+        <v>839267.0</v>
       </c>
       <c r="D153" t="n">
-        <v>12703.0</v>
+        <v>9692.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>9061145.0</v>
+        <v>8911849.0</v>
       </c>
       <c r="B154" t="n">
-        <v>75424.0</v>
+        <v>113120.0</v>
       </c>
       <c r="C154" t="n">
-        <v>731873.0</v>
+        <v>843473.0</v>
       </c>
       <c r="D154" t="n">
-        <v>8048.0</v>
+        <v>9703.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>9049413.0</v>
+        <v>8916247.0</v>
       </c>
       <c r="B155" t="n">
-        <v>78176.0</v>
+        <v>105745.0</v>
       </c>
       <c r="C155" t="n">
-        <v>740853.0</v>
+        <v>846450.0</v>
       </c>
       <c r="D155" t="n">
-        <v>11732.0</v>
+        <v>8105.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>9039682.0</v>
+        <v>8922107.0</v>
       </c>
       <c r="B156" t="n">
-        <v>78098.0</v>
+        <v>96540.0</v>
       </c>
       <c r="C156" t="n">
-        <v>750662.0</v>
+        <v>849795.0</v>
       </c>
       <c r="D156" t="n">
-        <v>9731.0</v>
+        <v>6392.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>9031807.0</v>
+        <v>8929423.0</v>
       </c>
       <c r="B157" t="n">
-        <v>75264.0</v>
+        <v>86157.0</v>
       </c>
       <c r="C157" t="n">
-        <v>761371.0</v>
+        <v>852862.0</v>
       </c>
       <c r="D157" t="n">
-        <v>7875.0</v>
+        <v>5220.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>9025478.0</v>
+        <v>8934609.0</v>
       </c>
       <c r="B158" t="n">
-        <v>70548.0</v>
+        <v>79637.0</v>
       </c>
       <c r="C158" t="n">
-        <v>772416.0</v>
+        <v>854196.0</v>
       </c>
       <c r="D158" t="n">
-        <v>6329.0</v>
+        <v>8133.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>9020940.0</v>
+        <v>8940995.0</v>
       </c>
       <c r="B159" t="n">
-        <v>64327.0</v>
+        <v>72449.0</v>
       </c>
       <c r="C159" t="n">
-        <v>783175.0</v>
+        <v>854998.0</v>
       </c>
       <c r="D159" t="n">
-        <v>4538.0</v>
+        <v>6664.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>9017622.0</v>
+        <v>8950092.0</v>
       </c>
       <c r="B160" t="n">
-        <v>56663.0</v>
+        <v>63677.0</v>
       </c>
       <c r="C160" t="n">
-        <v>794157.0</v>
+        <v>854673.0</v>
       </c>
       <c r="D160" t="n">
-        <v>3318.0</v>
+        <v>4365.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>9015230.0</v>
+        <v>8958959.0</v>
       </c>
       <c r="B161" t="n">
-        <v>48422.0</v>
+        <v>57771.0</v>
       </c>
       <c r="C161" t="n">
-        <v>804790.0</v>
+        <v>851712.0</v>
       </c>
       <c r="D161" t="n">
-        <v>2392.0</v>
+        <v>5294.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>9013625.0</v>
+        <v>8966611.0</v>
       </c>
       <c r="B162" t="n">
-        <v>40267.0</v>
+        <v>54739.0</v>
       </c>
       <c r="C162" t="n">
-        <v>814550.0</v>
+        <v>847092.0</v>
       </c>
       <c r="D162" t="n">
-        <v>1605.0</v>
+        <v>6484.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>9009454.0</v>
+        <v>8974889.0</v>
       </c>
       <c r="B163" t="n">
-        <v>34879.0</v>
+        <v>52296.0</v>
       </c>
       <c r="C163" t="n">
-        <v>824109.0</v>
+        <v>841257.0</v>
       </c>
       <c r="D163" t="n">
-        <v>4171.0</v>
+        <v>5756.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>9006573.0</v>
+        <v>8982015.0</v>
       </c>
       <c r="B164" t="n">
-        <v>29882.0</v>
+        <v>51347.0</v>
       </c>
       <c r="C164" t="n">
-        <v>831987.0</v>
+        <v>835080.0</v>
       </c>
       <c r="D164" t="n">
-        <v>2881.0</v>
+        <v>7101.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>9002911.0</v>
+        <v>8989674.0</v>
       </c>
       <c r="B165" t="n">
-        <v>27150.0</v>
+        <v>51280.0</v>
       </c>
       <c r="C165" t="n">
-        <v>838381.0</v>
+        <v>827488.0</v>
       </c>
       <c r="D165" t="n">
-        <v>3662.0</v>
+        <v>6831.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>8998810.0</v>
+        <v>8996273.0</v>
       </c>
       <c r="B166" t="n">
-        <v>26100.0</v>
+        <v>52402.0</v>
       </c>
       <c r="C166" t="n">
-        <v>843532.0</v>
+        <v>819767.0</v>
       </c>
       <c r="D166" t="n">
-        <v>4101.0</v>
+        <v>7410.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>8994344.0</v>
+        <v>9004364.0</v>
       </c>
       <c r="B167" t="n">
-        <v>26598.0</v>
+        <v>52244.0</v>
       </c>
       <c r="C167" t="n">
-        <v>847500.0</v>
+        <v>811834.0</v>
       </c>
       <c r="D167" t="n">
-        <v>4466.0</v>
+        <v>6029.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>8991460.0</v>
+        <v>9012525.0</v>
       </c>
       <c r="B168" t="n">
-        <v>25907.0</v>
+        <v>52253.0</v>
       </c>
       <c r="C168" t="n">
-        <v>851075.0</v>
+        <v>803664.0</v>
       </c>
       <c r="D168" t="n">
-        <v>2884.0</v>
+        <v>5863.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>8987332.0</v>
+        <v>9017691.0</v>
       </c>
       <c r="B169" t="n">
-        <v>26827.0</v>
+        <v>54516.0</v>
       </c>
       <c r="C169" t="n">
-        <v>854283.0</v>
+        <v>796235.0</v>
       </c>
       <c r="D169" t="n">
-        <v>4128.0</v>
+        <v>8200.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>8982518.0</v>
+        <v>9022761.0</v>
       </c>
       <c r="B170" t="n">
-        <v>28185.0</v>
+        <v>55346.0</v>
       </c>
       <c r="C170" t="n">
-        <v>857739.0</v>
+        <v>790335.0</v>
       </c>
       <c r="D170" t="n">
-        <v>4814.0</v>
+        <v>7271.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>8977876.0</v>
+        <v>9026697.0</v>
       </c>
       <c r="B171" t="n">
-        <v>29152.0</v>
+        <v>56701.0</v>
       </c>
       <c r="C171" t="n">
-        <v>861414.0</v>
+        <v>785044.0</v>
       </c>
       <c r="D171" t="n">
-        <v>4642.0</v>
+        <v>7919.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>8972706.0</v>
+        <v>9029722.0</v>
       </c>
       <c r="B172" t="n">
-        <v>30687.0</v>
+        <v>58754.0</v>
       </c>
       <c r="C172" t="n">
-        <v>865049.0</v>
+        <v>779966.0</v>
       </c>
       <c r="D172" t="n">
-        <v>5170.0</v>
+        <v>8446.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>8967177.0</v>
+        <v>9032036.0</v>
       </c>
       <c r="B173" t="n">
-        <v>32566.0</v>
+        <v>61314.0</v>
       </c>
       <c r="C173" t="n">
-        <v>868699.0</v>
+        <v>775092.0</v>
       </c>
       <c r="D173" t="n">
-        <v>5529.0</v>
+        <v>8756.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>8961267.0</v>
+        <v>9036058.0</v>
       </c>
       <c r="B174" t="n">
-        <v>34734.0</v>
+        <v>62076.0</v>
       </c>
       <c r="C174" t="n">
-        <v>872441.0</v>
+        <v>770308.0</v>
       </c>
       <c r="D174" t="n">
-        <v>5910.0</v>
+        <v>7346.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>8957580.0</v>
+        <v>9040854.0</v>
       </c>
       <c r="B175" t="n">
-        <v>34464.0</v>
+        <v>62017.0</v>
       </c>
       <c r="C175" t="n">
-        <v>876398.0</v>
+        <v>765571.0</v>
       </c>
       <c r="D175" t="n">
-        <v>3687.0</v>
+        <v>6923.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>8952314.0</v>
+        <v>9042897.0</v>
       </c>
       <c r="B176" t="n">
-        <v>35652.0</v>
+        <v>64741.0</v>
       </c>
       <c r="C176" t="n">
-        <v>880476.0</v>
+        <v>760804.0</v>
       </c>
       <c r="D176" t="n">
-        <v>5266.0</v>
+        <v>9658.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>8945926.0</v>
+        <v>9046391.0</v>
       </c>
       <c r="B177" t="n">
-        <v>37555.0</v>
+        <v>66032.0</v>
       </c>
       <c r="C177" t="n">
-        <v>884961.0</v>
+        <v>756019.0</v>
       </c>
       <c r="D177" t="n">
-        <v>6388.0</v>
+        <v>8418.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>8940049.0</v>
+        <v>9048953.0</v>
       </c>
       <c r="B178" t="n">
-        <v>38606.0</v>
+        <v>67721.0</v>
       </c>
       <c r="C178" t="n">
-        <v>889787.0</v>
+        <v>751768.0</v>
       </c>
       <c r="D178" t="n">
-        <v>5877.0</v>
+        <v>9302.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>8933631.0</v>
+        <v>9051963.0</v>
       </c>
       <c r="B179" t="n">
-        <v>39957.0</v>
+        <v>69444.0</v>
       </c>
       <c r="C179" t="n">
-        <v>894854.0</v>
+        <v>747035.0</v>
       </c>
       <c r="D179" t="n">
-        <v>6418.0</v>
+        <v>9431.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>8926449.0</v>
+        <v>9054374.0</v>
       </c>
       <c r="B180" t="n">
-        <v>42193.0</v>
+        <v>71698.0</v>
       </c>
       <c r="C180" t="n">
-        <v>899800.0</v>
+        <v>742370.0</v>
       </c>
       <c r="D180" t="n">
-        <v>7182.0</v>
+        <v>10015.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>8918969.0</v>
+        <v>9059206.0</v>
       </c>
       <c r="B181" t="n">
-        <v>44616.0</v>
+        <v>72167.0</v>
       </c>
       <c r="C181" t="n">
-        <v>904857.0</v>
+        <v>737069.0</v>
       </c>
       <c r="D181" t="n">
-        <v>7480.0</v>
+        <v>8220.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>8914359.0</v>
+        <v>9064808.0</v>
       </c>
       <c r="B182" t="n">
-        <v>44002.0</v>
+        <v>71924.0</v>
       </c>
       <c r="C182" t="n">
-        <v>910081.0</v>
+        <v>731710.0</v>
       </c>
       <c r="D182" t="n">
-        <v>4610.0</v>
+        <v>7954.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>8907522.0</v>
+        <v>9067337.0</v>
       </c>
       <c r="B183" t="n">
-        <v>45550.0</v>
+        <v>74683.0</v>
       </c>
       <c r="C183" t="n">
-        <v>915370.0</v>
+        <v>726422.0</v>
       </c>
       <c r="D183" t="n">
-        <v>6837.0</v>
+        <v>10959.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>8899586.0</v>
+        <v>9071251.0</v>
       </c>
       <c r="B184" t="n">
-        <v>47791.0</v>
+        <v>75631.0</v>
       </c>
       <c r="C184" t="n">
-        <v>921065.0</v>
+        <v>721560.0</v>
       </c>
       <c r="D184" t="n">
-        <v>7936.0</v>
+        <v>9480.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>8892077.0</v>
+        <v>9073961.0</v>
       </c>
       <c r="B185" t="n">
-        <v>49068.0</v>
+        <v>77399.0</v>
       </c>
       <c r="C185" t="n">
-        <v>927297.0</v>
+        <v>717082.0</v>
       </c>
       <c r="D185" t="n">
-        <v>7509.0</v>
+        <v>10583.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>8883734.0</v>
+        <v>9077161.0</v>
       </c>
       <c r="B186" t="n">
-        <v>50942.0</v>
+        <v>79374.0</v>
       </c>
       <c r="C186" t="n">
-        <v>933766.0</v>
+        <v>711907.0</v>
       </c>
       <c r="D186" t="n">
-        <v>8343.0</v>
+        <v>10982.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>8874840.0</v>
+        <v>9079186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>53479.0</v>
+        <v>82179.0</v>
       </c>
       <c r="C187" t="n">
-        <v>940123.0</v>
+        <v>707077.0</v>
       </c>
       <c r="D187" t="n">
-        <v>8894.0</v>
+        <v>11752.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>8865496.0</v>
+        <v>9083879.0</v>
       </c>
       <c r="B188" t="n">
-        <v>56319.0</v>
+        <v>82793.0</v>
       </c>
       <c r="C188" t="n">
-        <v>946627.0</v>
+        <v>701770.0</v>
       </c>
       <c r="D188" t="n">
-        <v>9344.0</v>
+        <v>9484.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>8859551.0</v>
+        <v>9089137.0</v>
       </c>
       <c r="B189" t="n">
-        <v>55578.0</v>
+        <v>82721.0</v>
       </c>
       <c r="C189" t="n">
-        <v>953313.0</v>
+        <v>696584.0</v>
       </c>
       <c r="D189" t="n">
-        <v>5945.0</v>
+        <v>9348.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>8851034.0</v>
+        <v>9091051.0</v>
       </c>
       <c r="B190" t="n">
-        <v>57561.0</v>
+        <v>86033.0</v>
       </c>
       <c r="C190" t="n">
-        <v>959847.0</v>
+        <v>691358.0</v>
       </c>
       <c r="D190" t="n">
-        <v>8517.0</v>
+        <v>12488.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>8841041.0</v>
+        <v>9094500.0</v>
       </c>
       <c r="B191" t="n">
-        <v>60177.0</v>
+        <v>87528.0</v>
       </c>
       <c r="C191" t="n">
-        <v>967224.0</v>
+        <v>686414.0</v>
       </c>
       <c r="D191" t="n">
-        <v>9993.0</v>
+        <v>10994.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>8831539.0</v>
+        <v>9096681.0</v>
       </c>
       <c r="B192" t="n">
-        <v>61724.0</v>
+        <v>89478.0</v>
       </c>
       <c r="C192" t="n">
-        <v>975179.0</v>
+        <v>682283.0</v>
       </c>
       <c r="D192" t="n">
-        <v>9502.0</v>
+        <v>12064.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>8821324.0</v>
+        <v>9099219.0</v>
       </c>
       <c r="B193" t="n">
-        <v>63786.0</v>
+        <v>91569.0</v>
       </c>
       <c r="C193" t="n">
-        <v>983332.0</v>
+        <v>677654.0</v>
       </c>
       <c r="D193" t="n">
-        <v>10215.0</v>
+        <v>12453.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>8810440.0</v>
+        <v>9100518.0</v>
       </c>
       <c r="B194" t="n">
-        <v>66813.0</v>
+        <v>94351.0</v>
       </c>
       <c r="C194" t="n">
-        <v>991189.0</v>
+        <v>673573.0</v>
       </c>
       <c r="D194" t="n">
-        <v>10884.0</v>
+        <v>13121.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>8798727.0</v>
+        <v>9104366.0</v>
       </c>
       <c r="B195" t="n">
-        <v>70398.0</v>
+        <v>94736.0</v>
       </c>
       <c r="C195" t="n">
-        <v>999317.0</v>
+        <v>669340.0</v>
       </c>
       <c r="D195" t="n">
-        <v>11713.0</v>
+        <v>10657.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>8791630.0</v>
+        <v>9109446.0</v>
       </c>
       <c r="B196" t="n">
-        <v>69089.0</v>
+        <v>94330.0</v>
       </c>
       <c r="C196" t="n">
-        <v>1007723.0</v>
+        <v>664666.0</v>
       </c>
       <c r="D196" t="n">
-        <v>7097.0</v>
+        <v>10391.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>8781332.0</v>
+        <v>9110651.0</v>
       </c>
       <c r="B197" t="n">
-        <v>71055.0</v>
+        <v>97783.0</v>
       </c>
       <c r="C197" t="n">
-        <v>1016055.0</v>
+        <v>660008.0</v>
       </c>
       <c r="D197" t="n">
-        <v>10298.0</v>
+        <v>14106.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>8769165.0</v>
+        <v>9113262.0</v>
       </c>
       <c r="B198" t="n">
-        <v>74005.0</v>
+        <v>99238.0</v>
       </c>
       <c r="C198" t="n">
-        <v>1025272.0</v>
+        <v>655942.0</v>
       </c>
       <c r="D198" t="n">
-        <v>12167.0</v>
+        <v>12476.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>8757886.0</v>
+        <v>9114942.0</v>
       </c>
       <c r="B199" t="n">
-        <v>75462.0</v>
+        <v>101167.0</v>
       </c>
       <c r="C199" t="n">
-        <v>1035094.0</v>
+        <v>652333.0</v>
       </c>
       <c r="D199" t="n">
-        <v>11279.0</v>
+        <v>13555.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>8745638.0</v>
+        <v>9116270.0</v>
       </c>
       <c r="B200" t="n">
-        <v>77443.0</v>
+        <v>103669.0</v>
       </c>
       <c r="C200" t="n">
-        <v>1045361.0</v>
+        <v>648503.0</v>
       </c>
       <c r="D200" t="n">
-        <v>12248.0</v>
+        <v>14332.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>8732728.0</v>
+        <v>9116629.0</v>
       </c>
       <c r="B201" t="n">
-        <v>80657.0</v>
+        <v>106531.0</v>
       </c>
       <c r="C201" t="n">
-        <v>1055057.0</v>
+        <v>645282.0</v>
       </c>
       <c r="D201" t="n">
-        <v>12910.0</v>
+        <v>14682.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>8719125.0</v>
+        <v>9120417.0</v>
       </c>
       <c r="B202" t="n">
-        <v>84359.0</v>
+        <v>106715.0</v>
       </c>
       <c r="C202" t="n">
-        <v>1064958.0</v>
+        <v>641310.0</v>
       </c>
       <c r="D202" t="n">
-        <v>13603.0</v>
+        <v>11803.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>8710608.0</v>
+        <v>9125301.0</v>
       </c>
       <c r="B203" t="n">
-        <v>82568.0</v>
+        <v>105772.0</v>
       </c>
       <c r="C203" t="n">
-        <v>1075266.0</v>
+        <v>637369.0</v>
       </c>
       <c r="D203" t="n">
-        <v>8517.0</v>
+        <v>11444.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>8698440.0</v>
+        <v>9125858.0</v>
       </c>
       <c r="B204" t="n">
-        <v>84790.0</v>
+        <v>109001.0</v>
       </c>
       <c r="C204" t="n">
-        <v>1085212.0</v>
+        <v>633583.0</v>
       </c>
       <c r="D204" t="n">
-        <v>12168.0</v>
+        <v>15170.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>8684337.0</v>
+        <v>9128240.0</v>
       </c>
       <c r="B205" t="n">
-        <v>87441.0</v>
+        <v>109911.0</v>
       </c>
       <c r="C205" t="n">
-        <v>1096664.0</v>
+        <v>630291.0</v>
       </c>
       <c r="D205" t="n">
-        <v>14103.0</v>
+        <v>13422.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>8671336.0</v>
+        <v>9129170.0</v>
       </c>
       <c r="B206" t="n">
-        <v>88661.0</v>
+        <v>111406.0</v>
       </c>
       <c r="C206" t="n">
-        <v>1108445.0</v>
+        <v>627866.0</v>
       </c>
       <c r="D206" t="n">
-        <v>13001.0</v>
+        <v>14627.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>8657106.0</v>
+        <v>9130285.0</v>
       </c>
       <c r="B207" t="n">
-        <v>90772.0</v>
+        <v>113051.0</v>
       </c>
       <c r="C207" t="n">
-        <v>1120564.0</v>
+        <v>625106.0</v>
       </c>
       <c r="D207" t="n">
-        <v>14230.0</v>
+        <v>14803.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>8646415.0</v>
+        <v>9134966.0</v>
       </c>
       <c r="B208" t="n">
-        <v>89923.0</v>
+        <v>110834.0</v>
       </c>
       <c r="C208" t="n">
-        <v>1132104.0</v>
+        <v>622642.0</v>
       </c>
       <c r="D208" t="n">
-        <v>10691.0</v>
+        <v>10821.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>8630441.0</v>
+        <v>9138398.0</v>
       </c>
       <c r="B209" t="n">
-        <v>94079.0</v>
+        <v>110131.0</v>
       </c>
       <c r="C209" t="n">
-        <v>1143922.0</v>
+        <v>619913.0</v>
       </c>
       <c r="D209" t="n">
-        <v>15974.0</v>
+        <v>12364.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>8622501.0</v>
+        <v>9145514.0</v>
       </c>
       <c r="B210" t="n">
-        <v>89860.0</v>
+        <v>105830.0</v>
       </c>
       <c r="C210" t="n">
-        <v>1156081.0</v>
+        <v>617098.0</v>
       </c>
       <c r="D210" t="n">
-        <v>7940.0</v>
+        <v>9318.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>8611466.0</v>
+        <v>9147494.0</v>
       </c>
       <c r="B211" t="n">
-        <v>89210.0</v>
+        <v>106795.0</v>
       </c>
       <c r="C211" t="n">
-        <v>1167766.0</v>
+        <v>614153.0</v>
       </c>
       <c r="D211" t="n">
-        <v>11035.0</v>
+        <v>14189.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>8597467.0</v>
+        <v>9151582.0</v>
       </c>
       <c r="B212" t="n">
-        <v>90101.0</v>
+        <v>104842.0</v>
       </c>
       <c r="C212" t="n">
-        <v>1180874.0</v>
+        <v>612018.0</v>
       </c>
       <c r="D212" t="n">
-        <v>13999.0</v>
+        <v>11945.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>8585120.0</v>
+        <v>9154282.0</v>
       </c>
       <c r="B213" t="n">
-        <v>89576.0</v>
+        <v>104021.0</v>
       </c>
       <c r="C213" t="n">
-        <v>1193746.0</v>
+        <v>610139.0</v>
       </c>
       <c r="D213" t="n">
-        <v>12347.0</v>
+        <v>13128.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>8571819.0</v>
+        <v>9157238.0</v>
       </c>
       <c r="B214" t="n">
-        <v>89659.0</v>
+        <v>104780.0</v>
       </c>
       <c r="C214" t="n">
-        <v>1206964.0</v>
+        <v>606424.0</v>
       </c>
       <c r="D214" t="n">
-        <v>13301.0</v>
+        <v>13637.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>8557891.0</v>
+        <v>9157958.0</v>
       </c>
       <c r="B215" t="n">
-        <v>91544.0</v>
+        <v>106380.0</v>
       </c>
       <c r="C215" t="n">
-        <v>1219007.0</v>
+        <v>604104.0</v>
       </c>
       <c r="D215" t="n">
-        <v>13928.0</v>
+        <v>14760.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>8543461.0</v>
+        <v>9161728.0</v>
       </c>
       <c r="B216" t="n">
-        <v>94100.0</v>
+        <v>105773.0</v>
       </c>
       <c r="C216" t="n">
-        <v>1230881.0</v>
+        <v>600941.0</v>
       </c>
       <c r="D216" t="n">
-        <v>14430.0</v>
+        <v>11827.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>8534569.0</v>
+        <v>9165916.0</v>
       </c>
       <c r="B217" t="n">
-        <v>90474.0</v>
+        <v>104520.0</v>
       </c>
       <c r="C217" t="n">
-        <v>1243399.0</v>
+        <v>598006.0</v>
       </c>
       <c r="D217" t="n">
-        <v>8892.0</v>
+        <v>11415.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>8521875.0</v>
+        <v>9164868.0</v>
       </c>
       <c r="B218" t="n">
-        <v>91741.0</v>
+        <v>108081.0</v>
       </c>
       <c r="C218" t="n">
-        <v>1254826.0</v>
+        <v>595493.0</v>
       </c>
       <c r="D218" t="n">
-        <v>12694.0</v>
+        <v>15701.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>8507553.0</v>
+        <v>9165142.0</v>
       </c>
       <c r="B219" t="n">
-        <v>93569.0</v>
+        <v>109690.0</v>
       </c>
       <c r="C219" t="n">
-        <v>1267320.0</v>
+        <v>593610.0</v>
       </c>
       <c r="D219" t="n">
-        <v>14322.0</v>
+        <v>13578.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>8494306.0</v>
+        <v>9163440.0</v>
       </c>
       <c r="B220" t="n">
-        <v>93589.0</v>
+        <v>111887.0</v>
       </c>
       <c r="C220" t="n">
-        <v>1280547.0</v>
+        <v>593115.0</v>
       </c>
       <c r="D220" t="n">
-        <v>13247.0</v>
+        <v>14839.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>8484710.0</v>
+        <v>9164419.0</v>
       </c>
       <c r="B221" t="n">
-        <v>89932.0</v>
+        <v>109091.0</v>
       </c>
       <c r="C221" t="n">
-        <v>1293800.0</v>
+        <v>594932.0</v>
       </c>
       <c r="D221" t="n">
-        <v>9596.0</v>
+        <v>10221.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>8470073.0</v>
+        <v>9158043.0</v>
       </c>
       <c r="B222" t="n">
-        <v>91735.0</v>
+        <v>112117.0</v>
       </c>
       <c r="C222" t="n">
-        <v>1306634.0</v>
+        <v>598282.0</v>
       </c>
       <c r="D222" t="n">
-        <v>14637.0</v>
+        <v>15892.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>8457322.0</v>
+        <v>9155887.0</v>
       </c>
       <c r="B223" t="n">
-        <v>91914.0</v>
+        <v>109364.0</v>
       </c>
       <c r="C223" t="n">
-        <v>1319206.0</v>
+        <v>603191.0</v>
       </c>
       <c r="D223" t="n">
-        <v>12751.0</v>
+        <v>10355.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>8449777.0</v>
+        <v>9153891.0</v>
       </c>
       <c r="B224" t="n">
-        <v>86813.0</v>
+        <v>105972.0</v>
       </c>
       <c r="C224" t="n">
-        <v>1331852.0</v>
+        <v>608579.0</v>
       </c>
       <c r="D224" t="n">
-        <v>7545.0</v>
+        <v>10046.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>8439372.0</v>
+        <v>9146233.0</v>
       </c>
       <c r="B225" t="n">
-        <v>85055.0</v>
+        <v>107098.0</v>
       </c>
       <c r="C225" t="n">
-        <v>1344015.0</v>
+        <v>615111.0</v>
       </c>
       <c r="D225" t="n">
-        <v>10405.0</v>
+        <v>14556.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>8426692.0</v>
+        <v>9140311.0</v>
       </c>
       <c r="B226" t="n">
-        <v>85076.0</v>
+        <v>105536.0</v>
       </c>
       <c r="C226" t="n">
-        <v>1356674.0</v>
+        <v>622595.0</v>
       </c>
       <c r="D226" t="n">
-        <v>12680.0</v>
+        <v>12210.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>8415564.0</v>
+        <v>9133062.0</v>
       </c>
       <c r="B227" t="n">
-        <v>83315.0</v>
+        <v>105737.0</v>
       </c>
       <c r="C227" t="n">
-        <v>1369563.0</v>
+        <v>629643.0</v>
       </c>
       <c r="D227" t="n">
-        <v>11128.0</v>
+        <v>13436.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>8403707.0</v>
+        <v>9124796.0</v>
       </c>
       <c r="B228" t="n">
-        <v>82381.0</v>
+        <v>106461.0</v>
       </c>
       <c r="C228" t="n">
-        <v>1382354.0</v>
+        <v>637185.0</v>
       </c>
       <c r="D228" t="n">
-        <v>11857.0</v>
+        <v>14120.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>8391838.0</v>
+        <v>9116070.0</v>
       </c>
       <c r="B229" t="n">
-        <v>82862.0</v>
+        <v>108350.0</v>
       </c>
       <c r="C229" t="n">
-        <v>1393742.0</v>
+        <v>644022.0</v>
       </c>
       <c r="D229" t="n">
-        <v>11869.0</v>
+        <v>14663.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>8379589.0</v>
+        <v>9110603.0</v>
       </c>
       <c r="B230" t="n">
-        <v>83678.0</v>
+        <v>107832.0</v>
       </c>
       <c r="C230" t="n">
-        <v>1405175.0</v>
+        <v>650007.0</v>
       </c>
       <c r="D230" t="n">
-        <v>12249.0</v>
+        <v>11908.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>8372124.0</v>
+        <v>9105911.0</v>
       </c>
       <c r="B231" t="n">
-        <v>80161.0</v>
+        <v>106177.0</v>
       </c>
       <c r="C231" t="n">
-        <v>1416157.0</v>
+        <v>656354.0</v>
       </c>
       <c r="D231" t="n">
-        <v>7465.0</v>
+        <v>11256.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>8361851.0</v>
+        <v>9097288.0</v>
       </c>
       <c r="B232" t="n">
-        <v>79826.0</v>
+        <v>108989.0</v>
       </c>
       <c r="C232" t="n">
-        <v>1426765.0</v>
+        <v>662165.0</v>
       </c>
       <c r="D232" t="n">
-        <v>10273.0</v>
+        <v>15016.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>8350470.0</v>
+        <v>9090262.0</v>
       </c>
       <c r="B233" t="n">
-        <v>79643.0</v>
+        <v>109575.0</v>
       </c>
       <c r="C233" t="n">
-        <v>1438329.0</v>
+        <v>668605.0</v>
       </c>
       <c r="D233" t="n">
-        <v>11381.0</v>
+        <v>13222.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>8341164.0</v>
+        <v>9082775.0</v>
       </c>
       <c r="B234" t="n">
-        <v>77204.0</v>
+        <v>110275.0</v>
       </c>
       <c r="C234" t="n">
-        <v>1450074.0</v>
+        <v>675392.0</v>
       </c>
       <c r="D234" t="n">
-        <v>9306.0</v>
+        <v>14071.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>8331588.0</v>
+        <v>9076924.0</v>
       </c>
       <c r="B235" t="n">
-        <v>75061.0</v>
+        <v>110008.0</v>
       </c>
       <c r="C235" t="n">
-        <v>1461793.0</v>
+        <v>681510.0</v>
       </c>
       <c r="D235" t="n">
-        <v>9576.0</v>
+        <v>12833.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>8321997.0</v>
+        <v>9070584.0</v>
       </c>
       <c r="B236" t="n">
-        <v>73696.0</v>
+        <v>110162.0</v>
       </c>
       <c r="C236" t="n">
-        <v>1472749.0</v>
+        <v>687696.0</v>
       </c>
       <c r="D236" t="n">
-        <v>9591.0</v>
+        <v>13274.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>8312542.0</v>
+        <v>9067973.0</v>
       </c>
       <c r="B237" t="n">
-        <v>72576.0</v>
+        <v>107062.0</v>
       </c>
       <c r="C237" t="n">
-        <v>1483324.0</v>
+        <v>693407.0</v>
       </c>
       <c r="D237" t="n">
-        <v>9455.0</v>
+        <v>9738.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>8307746.0</v>
+        <v>9066042.0</v>
       </c>
       <c r="B238" t="n">
-        <v>66905.0</v>
+        <v>102946.0</v>
       </c>
       <c r="C238" t="n">
-        <v>1493791.0</v>
+        <v>699454.0</v>
       </c>
       <c r="D238" t="n">
-        <v>4796.0</v>
+        <v>9544.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>8300249.0</v>
+        <v>9062179.0</v>
       </c>
       <c r="B239" t="n">
-        <v>64407.0</v>
+        <v>101481.0</v>
       </c>
       <c r="C239" t="n">
-        <v>1503786.0</v>
+        <v>704782.0</v>
       </c>
       <c r="D239" t="n">
-        <v>7497.0</v>
+        <v>11571.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>8292376.0</v>
+        <v>9060069.0</v>
       </c>
       <c r="B240" t="n">
-        <v>61486.0</v>
+        <v>97937.0</v>
       </c>
       <c r="C240" t="n">
-        <v>1514580.0</v>
+        <v>710436.0</v>
       </c>
       <c r="D240" t="n">
-        <v>7873.0</v>
+        <v>9871.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>8285591.0</v>
+        <v>9057882.0</v>
       </c>
       <c r="B241" t="n">
-        <v>57766.0</v>
+        <v>94274.0</v>
       </c>
       <c r="C241" t="n">
-        <v>1525085.0</v>
+        <v>716286.0</v>
       </c>
       <c r="D241" t="n">
-        <v>6785.0</v>
+        <v>9938.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>8278758.0</v>
+        <v>9056137.0</v>
       </c>
       <c r="B242" t="n">
-        <v>54564.0</v>
+        <v>91050.0</v>
       </c>
       <c r="C242" t="n">
-        <v>1535120.0</v>
+        <v>721255.0</v>
       </c>
       <c r="D242" t="n">
-        <v>6833.0</v>
+        <v>9942.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>8271819.0</v>
+        <v>9054407.0</v>
       </c>
       <c r="B243" t="n">
-        <v>52496.0</v>
+        <v>88254.0</v>
       </c>
       <c r="C243" t="n">
-        <v>1544127.0</v>
+        <v>725781.0</v>
       </c>
       <c r="D243" t="n">
-        <v>6939.0</v>
+        <v>9930.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>8264908.0</v>
+        <v>9055881.0</v>
       </c>
       <c r="B244" t="n">
-        <v>50996.0</v>
+        <v>83312.0</v>
       </c>
       <c r="C244" t="n">
-        <v>1552538.0</v>
+        <v>729249.0</v>
       </c>
       <c r="D244" t="n">
-        <v>6911.0</v>
+        <v>7058.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>8261025.0</v>
+        <v>9057400.0</v>
       </c>
       <c r="B245" t="n">
-        <v>47023.0</v>
+        <v>78680.0</v>
       </c>
       <c r="C245" t="n">
-        <v>1560394.0</v>
+        <v>732362.0</v>
       </c>
       <c r="D245" t="n">
-        <v>3883.0</v>
+        <v>7296.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>8255585.0</v>
+        <v>9056578.0</v>
       </c>
       <c r="B246" t="n">
-        <v>45348.0</v>
+        <v>77515.0</v>
       </c>
       <c r="C246" t="n">
-        <v>1567509.0</v>
+        <v>734349.0</v>
       </c>
       <c r="D246" t="n">
-        <v>5440.0</v>
+        <v>9829.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>8249468.0</v>
+        <v>9057086.0</v>
       </c>
       <c r="B247" t="n">
-        <v>43967.0</v>
+        <v>75523.0</v>
       </c>
       <c r="C247" t="n">
-        <v>1575007.0</v>
+        <v>735833.0</v>
       </c>
       <c r="D247" t="n">
-        <v>6117.0</v>
+        <v>8439.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>8244016.0</v>
+        <v>9056824.0</v>
       </c>
       <c r="B248" t="n">
-        <v>42182.0</v>
+        <v>73840.0</v>
       </c>
       <c r="C248" t="n">
-        <v>1582244.0</v>
+        <v>737778.0</v>
       </c>
       <c r="D248" t="n">
-        <v>5452.0</v>
+        <v>9132.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>8238500.0</v>
+        <v>9056719.0</v>
       </c>
       <c r="B249" t="n">
-        <v>40681.0</v>
+        <v>73014.0</v>
       </c>
       <c r="C249" t="n">
-        <v>1589261.0</v>
+        <v>738709.0</v>
       </c>
       <c r="D249" t="n">
-        <v>5516.0</v>
+        <v>9525.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>8232904.0</v>
+        <v>9056215.0</v>
       </c>
       <c r="B250" t="n">
-        <v>40103.0</v>
+        <v>73295.0</v>
       </c>
       <c r="C250" t="n">
-        <v>1595435.0</v>
+        <v>738932.0</v>
       </c>
       <c r="D250" t="n">
-        <v>5596.0</v>
+        <v>9680.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>8227413.0</v>
+        <v>9057828.0</v>
       </c>
       <c r="B251" t="n">
-        <v>39732.0</v>
+        <v>72076.0</v>
       </c>
       <c r="C251" t="n">
-        <v>1601297.0</v>
+        <v>738538.0</v>
       </c>
       <c r="D251" t="n">
-        <v>5491.0</v>
+        <v>7886.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>8224067.0</v>
+        <v>9060323.0</v>
       </c>
       <c r="B252" t="n">
-        <v>37517.0</v>
+        <v>70776.0</v>
       </c>
       <c r="C252" t="n">
-        <v>1606858.0</v>
+        <v>737343.0</v>
       </c>
       <c r="D252" t="n">
-        <v>3346.0</v>
+        <v>7619.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>8219696.0</v>
+        <v>9060462.0</v>
       </c>
       <c r="B253" t="n">
-        <v>36693.0</v>
+        <v>72860.0</v>
       </c>
       <c r="C253" t="n">
-        <v>1612053.0</v>
+        <v>735120.0</v>
       </c>
       <c r="D253" t="n">
-        <v>4371.0</v>
+        <v>10223.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>8214983.0</v>
+        <v>9061864.0</v>
       </c>
       <c r="B254" t="n">
-        <v>35816.0</v>
+        <v>73086.0</v>
       </c>
       <c r="C254" t="n">
-        <v>1617643.0</v>
+        <v>733492.0</v>
       </c>
       <c r="D254" t="n">
-        <v>4713.0</v>
+        <v>8937.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>8210798.0</v>
+        <v>9062606.0</v>
       </c>
       <c r="B255" t="n">
-        <v>34417.0</v>
+        <v>73874.0</v>
       </c>
       <c r="C255" t="n">
-        <v>1623227.0</v>
+        <v>731962.0</v>
       </c>
       <c r="D255" t="n">
-        <v>4185.0</v>
+        <v>9530.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>8206575.0</v>
+        <v>9063414.0</v>
       </c>
       <c r="B256" t="n">
-        <v>33164.0</v>
+        <v>74956.0</v>
       </c>
       <c r="C256" t="n">
-        <v>1628703.0</v>
+        <v>730072.0</v>
       </c>
       <c r="D256" t="n">
-        <v>4223.0</v>
+        <v>9989.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>8202369.0</v>
+        <v>9063921.0</v>
       </c>
       <c r="B257" t="n">
-        <v>32400.0</v>
+        <v>76456.0</v>
       </c>
       <c r="C257" t="n">
-        <v>1633673.0</v>
+        <v>728065.0</v>
       </c>
       <c r="D257" t="n">
-        <v>4206.0</v>
+        <v>10146.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>8198196.0</v>
+        <v>9066556.0</v>
       </c>
       <c r="B258" t="n">
-        <v>31754.0</v>
+        <v>76234.0</v>
       </c>
       <c r="C258" t="n">
-        <v>1638492.0</v>
+        <v>725652.0</v>
       </c>
       <c r="D258" t="n">
-        <v>4173.0</v>
+        <v>8386.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>8195746.0</v>
+        <v>9070377.0</v>
       </c>
       <c r="B259" t="n">
-        <v>29547.0</v>
+        <v>75162.0</v>
       </c>
       <c r="C259" t="n">
-        <v>1643149.0</v>
+        <v>722903.0</v>
       </c>
       <c r="D259" t="n">
-        <v>2450.0</v>
+        <v>7805.0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>8192433.0</v>
+        <v>9071527.0</v>
       </c>
       <c r="B260" t="n">
-        <v>28591.0</v>
+        <v>77024.0</v>
       </c>
       <c r="C260" t="n">
-        <v>1647418.0</v>
+        <v>719891.0</v>
       </c>
       <c r="D260" t="n">
-        <v>3313.0</v>
+        <v>10680.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>8188863.0</v>
+        <v>9074195.0</v>
       </c>
       <c r="B261" t="n">
-        <v>27589.0</v>
+        <v>77007.0</v>
       </c>
       <c r="C261" t="n">
-        <v>1651990.0</v>
+        <v>717240.0</v>
       </c>
       <c r="D261" t="n">
-        <v>3570.0</v>
+        <v>9152.0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>8185651.0</v>
+        <v>9075748.0</v>
       </c>
       <c r="B262" t="n">
-        <v>26373.0</v>
+        <v>77815.0</v>
       </c>
       <c r="C262" t="n">
-        <v>1656418.0</v>
+        <v>714879.0</v>
       </c>
       <c r="D262" t="n">
-        <v>3212.0</v>
+        <v>10066.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>8182447.0</v>
+        <v>9077991.0</v>
       </c>
       <c r="B263" t="n">
-        <v>25221.0</v>
+        <v>78712.0</v>
       </c>
       <c r="C263" t="n">
-        <v>1660774.0</v>
+        <v>711739.0</v>
       </c>
       <c r="D263" t="n">
-        <v>3204.0</v>
+        <v>10144.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>8179342.0</v>
+        <v>9079357.0</v>
       </c>
       <c r="B264" t="n">
-        <v>24448.0</v>
+        <v>79970.0</v>
       </c>
       <c r="C264" t="n">
-        <v>1664652.0</v>
+        <v>709115.0</v>
       </c>
       <c r="D264" t="n">
-        <v>3105.0</v>
+        <v>10575.0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>8176275.0</v>
+        <v>9083455.0</v>
       </c>
       <c r="B265" t="n">
-        <v>23785.0</v>
+        <v>79368.0</v>
       </c>
       <c r="C265" t="n">
-        <v>1668382.0</v>
+        <v>705619.0</v>
       </c>
       <c r="D265" t="n">
-        <v>3067.0</v>
+        <v>8414.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>8174493.0</v>
+        <v>9088529.0</v>
       </c>
       <c r="B266" t="n">
-        <v>22109.0</v>
+        <v>77877.0</v>
       </c>
       <c r="C266" t="n">
-        <v>1671840.0</v>
+        <v>702036.0</v>
       </c>
       <c r="D266" t="n">
-        <v>1782.0</v>
+        <v>8058.0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>8172044.0</v>
+        <v>9090960.0</v>
       </c>
       <c r="B267" t="n">
-        <v>21252.0</v>
+        <v>79293.0</v>
       </c>
       <c r="C267" t="n">
-        <v>1675146.0</v>
+        <v>698189.0</v>
       </c>
       <c r="D267" t="n">
-        <v>2449.0</v>
+        <v>10727.0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>8169434.0</v>
+        <v>9094824.0</v>
       </c>
       <c r="B268" t="n">
-        <v>20565.0</v>
+        <v>79074.0</v>
       </c>
       <c r="C268" t="n">
-        <v>1678443.0</v>
+        <v>694544.0</v>
       </c>
       <c r="D268" t="n">
-        <v>2610.0</v>
+        <v>9174.0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>8167108.0</v>
+        <v>9097964.0</v>
       </c>
       <c r="B269" t="n">
-        <v>19551.0</v>
+        <v>79216.0</v>
       </c>
       <c r="C269" t="n">
-        <v>1681783.0</v>
+        <v>691262.0</v>
       </c>
       <c r="D269" t="n">
-        <v>2326.0</v>
+        <v>9927.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>8164848.0</v>
+        <v>9101296.0</v>
       </c>
       <c r="B270" t="n">
-        <v>18583.0</v>
+        <v>79824.0</v>
       </c>
       <c r="C270" t="n">
-        <v>1685011.0</v>
+        <v>687322.0</v>
       </c>
       <c r="D270" t="n">
-        <v>2260.0</v>
+        <v>10287.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>8162508.0</v>
+        <v>9104176.0</v>
       </c>
       <c r="B271" t="n">
-        <v>18019.0</v>
+        <v>80650.0</v>
       </c>
       <c r="C271" t="n">
-        <v>1687915.0</v>
+        <v>683616.0</v>
       </c>
       <c r="D271" t="n">
-        <v>2340.0</v>
+        <v>10344.0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>8160371.0</v>
+        <v>9109723.0</v>
       </c>
       <c r="B272" t="n">
-        <v>17524.0</v>
+        <v>79532.0</v>
       </c>
       <c r="C272" t="n">
-        <v>1690547.0</v>
+        <v>679187.0</v>
       </c>
       <c r="D272" t="n">
-        <v>2137.0</v>
+        <v>8351.0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>8159030.0</v>
+        <v>9115696.0</v>
       </c>
       <c r="B273" t="n">
-        <v>16299.0</v>
+        <v>77702.0</v>
       </c>
       <c r="C273" t="n">
-        <v>1693113.0</v>
+        <v>675044.0</v>
       </c>
       <c r="D273" t="n">
-        <v>1341.0</v>
+        <v>7976.0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>8157280.0</v>
+        <v>9118081.0</v>
       </c>
       <c r="B274" t="n">
-        <v>15601.0</v>
+        <v>78912.0</v>
       </c>
       <c r="C274" t="n">
-        <v>1695561.0</v>
+        <v>671449.0</v>
       </c>
       <c r="D274" t="n">
-        <v>1750.0</v>
+        <v>10493.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>8155774.0</v>
+        <v>9125332.0</v>
       </c>
       <c r="B275" t="n">
-        <v>14512.0</v>
+        <v>75321.0</v>
       </c>
       <c r="C275" t="n">
-        <v>1698156.0</v>
+        <v>667789.0</v>
       </c>
       <c r="D275" t="n">
-        <v>1506.0</v>
+        <v>5909.0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>8154146.0</v>
+        <v>9127771.0</v>
       </c>
       <c r="B276" t="n">
-        <v>13781.0</v>
+        <v>75485.0</v>
       </c>
       <c r="C276" t="n">
-        <v>1700515.0</v>
+        <v>665186.0</v>
       </c>
       <c r="D276" t="n">
-        <v>1628.0</v>
+        <v>9995.0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>8152678.0</v>
+        <v>9132072.0</v>
       </c>
       <c r="B277" t="n">
-        <v>12910.0</v>
+        <v>74145.0</v>
       </c>
       <c r="C277" t="n">
-        <v>1702854.0</v>
+        <v>662225.0</v>
       </c>
       <c r="D277" t="n">
-        <v>1468.0</v>
+        <v>8367.0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>8151235.0</v>
+        <v>9135033.0</v>
       </c>
       <c r="B278" t="n">
-        <v>12225.0</v>
+        <v>74005.0</v>
       </c>
       <c r="C278" t="n">
-        <v>1704982.0</v>
+        <v>659404.0</v>
       </c>
       <c r="D278" t="n">
-        <v>1443.0</v>
+        <v>9179.0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>8149809.0</v>
+        <v>9139920.0</v>
       </c>
       <c r="B279" t="n">
-        <v>11717.0</v>
+        <v>71625.0</v>
       </c>
       <c r="C279" t="n">
-        <v>1706916.0</v>
+        <v>656897.0</v>
       </c>
       <c r="D279" t="n">
-        <v>1426.0</v>
+        <v>7082.0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>8148952.0</v>
+        <v>9145702.0</v>
       </c>
       <c r="B280" t="n">
-        <v>10723.0</v>
+        <v>68922.0</v>
       </c>
       <c r="C280" t="n">
-        <v>1708767.0</v>
+        <v>653818.0</v>
       </c>
       <c r="D280" t="n">
-        <v>857.0</v>
+        <v>6860.0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>8147900.0</v>
+        <v>9149446.0</v>
       </c>
       <c r="B281" t="n">
-        <v>10055.0</v>
+        <v>69766.0</v>
       </c>
       <c r="C281" t="n">
-        <v>1710487.0</v>
+        <v>649230.0</v>
       </c>
       <c r="D281" t="n">
-        <v>1052.0</v>
+        <v>9273.0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>8146719.0</v>
+        <v>9154072.0</v>
       </c>
       <c r="B282" t="n">
-        <v>9581.0</v>
+        <v>68827.0</v>
       </c>
       <c r="C282" t="n">
-        <v>1712142.0</v>
+        <v>645543.0</v>
       </c>
       <c r="D282" t="n">
-        <v>1181.0</v>
+        <v>8240.0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>8145904.0</v>
+        <v>9161266.0</v>
       </c>
       <c r="B283" t="n">
-        <v>8796.0</v>
+        <v>66003.0</v>
       </c>
       <c r="C283" t="n">
-        <v>1713742.0</v>
+        <v>641173.0</v>
       </c>
       <c r="D283" t="n">
-        <v>815.0</v>
+        <v>5914.0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>8144882.0</v>
+        <v>9165705.0</v>
       </c>
       <c r="B284" t="n">
-        <v>8229.0</v>
+        <v>66597.0</v>
       </c>
       <c r="C284" t="n">
-        <v>1715331.0</v>
+        <v>636140.0</v>
       </c>
       <c r="D284" t="n">
-        <v>1022.0</v>
+        <v>8999.0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>8143999.0</v>
+        <v>9171396.0</v>
       </c>
       <c r="B285" t="n">
-        <v>7712.0</v>
+        <v>65959.0</v>
       </c>
       <c r="C285" t="n">
-        <v>1716731.0</v>
+        <v>631087.0</v>
       </c>
       <c r="D285" t="n">
-        <v>883.0</v>
+        <v>7739.0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>8143142.0</v>
+        <v>9178791.0</v>
       </c>
       <c r="B286" t="n">
-        <v>7314.0</v>
+        <v>64484.0</v>
       </c>
       <c r="C286" t="n">
-        <v>1717986.0</v>
+        <v>625167.0</v>
       </c>
       <c r="D286" t="n">
-        <v>857.0</v>
+        <v>6377.0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>8142577.0</v>
+        <v>9185925.0</v>
       </c>
       <c r="B287" t="n">
-        <v>6701.0</v>
+        <v>62341.0</v>
       </c>
       <c r="C287" t="n">
-        <v>1719164.0</v>
+        <v>620176.0</v>
       </c>
       <c r="D287" t="n">
-        <v>565.0</v>
+        <v>6101.0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>8141925.0</v>
+        <v>9191061.0</v>
       </c>
       <c r="B288" t="n">
-        <v>6342.0</v>
+        <v>62376.0</v>
       </c>
       <c r="C288" t="n">
-        <v>1720175.0</v>
+        <v>615005.0</v>
       </c>
       <c r="D288" t="n">
-        <v>652.0</v>
+        <v>8260.0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>8141123.0</v>
+        <v>9196724.0</v>
       </c>
       <c r="B289" t="n">
-        <v>6044.0</v>
+        <v>61683.0</v>
       </c>
       <c r="C289" t="n">
-        <v>1721275.0</v>
+        <v>610035.0</v>
       </c>
       <c r="D289" t="n">
-        <v>802.0</v>
+        <v>7111.0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>8140443.0</v>
+        <v>9201346.0</v>
       </c>
       <c r="B290" t="n">
-        <v>5671.0</v>
+        <v>61135.0</v>
       </c>
       <c r="C290" t="n">
-        <v>1722328.0</v>
+        <v>605961.0</v>
       </c>
       <c r="D290" t="n">
-        <v>680.0</v>
+        <v>7804.0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>8139785.0</v>
+        <v>9206320.0</v>
       </c>
       <c r="B291" t="n">
-        <v>5441.0</v>
+        <v>61572.0</v>
       </c>
       <c r="C291" t="n">
-        <v>1723216.0</v>
+        <v>600550.0</v>
       </c>
       <c r="D291" t="n">
-        <v>658.0</v>
+        <v>7937.0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>8139080.0</v>
+        <v>9210417.0</v>
       </c>
       <c r="B292" t="n">
-        <v>5285.0</v>
+        <v>62155.0</v>
       </c>
       <c r="C292" t="n">
-        <v>1724077.0</v>
+        <v>595870.0</v>
       </c>
       <c r="D292" t="n">
-        <v>705.0</v>
+        <v>8107.0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>8138466.0</v>
+        <v>9216288.0</v>
       </c>
       <c r="B293" t="n">
-        <v>5119.0</v>
+        <v>61679.0</v>
       </c>
       <c r="C293" t="n">
-        <v>1724857.0</v>
+        <v>590475.0</v>
       </c>
       <c r="D293" t="n">
-        <v>614.0</v>
+        <v>6765.0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>8138011.0</v>
+        <v>9223193.0</v>
       </c>
       <c r="B294" t="n">
-        <v>4807.0</v>
+        <v>60845.0</v>
       </c>
       <c r="C294" t="n">
-        <v>1725624.0</v>
+        <v>584404.0</v>
       </c>
       <c r="D294" t="n">
-        <v>455.0</v>
+        <v>6466.0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>8137457.0</v>
+        <v>9227846.0</v>
       </c>
       <c r="B295" t="n">
-        <v>4655.0</v>
+        <v>62156.0</v>
       </c>
       <c r="C295" t="n">
-        <v>1726330.0</v>
+        <v>578440.0</v>
       </c>
       <c r="D295" t="n">
-        <v>554.0</v>
+        <v>8447.0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>8136848.0</v>
+        <v>9233571.0</v>
       </c>
       <c r="B296" t="n">
-        <v>4553.0</v>
+        <v>62145.0</v>
       </c>
       <c r="C296" t="n">
-        <v>1727041.0</v>
+        <v>572726.0</v>
       </c>
       <c r="D296" t="n">
-        <v>609.0</v>
+        <v>7395.0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>8136302.0</v>
+        <v>9238300.0</v>
       </c>
       <c r="B297" t="n">
-        <v>4336.0</v>
+        <v>62588.0</v>
       </c>
       <c r="C297" t="n">
-        <v>1727804.0</v>
+        <v>567554.0</v>
       </c>
       <c r="D297" t="n">
-        <v>546.0</v>
+        <v>8109.0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>8135791.0</v>
+        <v>9243851.0</v>
       </c>
       <c r="B298" t="n">
-        <v>4159.0</v>
+        <v>63181.0</v>
       </c>
       <c r="C298" t="n">
-        <v>1728492.0</v>
+        <v>561410.0</v>
       </c>
       <c r="D298" t="n">
-        <v>511.0</v>
+        <v>8109.0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>8135208.0</v>
+        <v>9248393.0</v>
       </c>
       <c r="B299" t="n">
-        <v>4151.0</v>
+        <v>64386.0</v>
       </c>
       <c r="C299" t="n">
-        <v>1729083.0</v>
+        <v>555663.0</v>
       </c>
       <c r="D299" t="n">
-        <v>583.0</v>
+        <v>8494.0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>8134691.0</v>
+        <v>9254991.0</v>
       </c>
       <c r="B300" t="n">
-        <v>4077.0</v>
+        <v>63728.0</v>
       </c>
       <c r="C300" t="n">
-        <v>1729674.0</v>
+        <v>549723.0</v>
       </c>
       <c r="D300" t="n">
-        <v>517.0</v>
+        <v>6817.0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>8134342.0</v>
+        <v>9262060.0</v>
       </c>
       <c r="B301" t="n">
-        <v>3847.0</v>
+        <v>62619.0</v>
       </c>
       <c r="C301" t="n">
-        <v>1730253.0</v>
+        <v>543763.0</v>
       </c>
       <c r="D301" t="n">
-        <v>349.0</v>
+        <v>6532.0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>8133889.0</v>
+        <v>9266581.0</v>
       </c>
       <c r="B302" t="n">
-        <v>3715.0</v>
+        <v>63894.0</v>
       </c>
       <c r="C302" t="n">
-        <v>1730838.0</v>
+        <v>537967.0</v>
       </c>
       <c r="D302" t="n">
-        <v>453.0</v>
+        <v>8645.0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>8133441.0</v>
+        <v>9271625.0</v>
       </c>
       <c r="B303" t="n">
-        <v>3565.0</v>
+        <v>63950.0</v>
       </c>
       <c r="C303" t="n">
-        <v>1731436.0</v>
+        <v>532867.0</v>
       </c>
       <c r="D303" t="n">
-        <v>448.0</v>
+        <v>7682.0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>8133034.0</v>
+        <v>9275311.0</v>
       </c>
       <c r="B304" t="n">
-        <v>3442.0</v>
+        <v>64458.0</v>
       </c>
       <c r="C304" t="n">
-        <v>1731966.0</v>
+        <v>528673.0</v>
       </c>
       <c r="D304" t="n">
-        <v>407.0</v>
+        <v>8314.0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>8132590.0</v>
+        <v>9278955.0</v>
       </c>
       <c r="B305" t="n">
-        <v>3331.0</v>
+        <v>64965.0</v>
       </c>
       <c r="C305" t="n">
-        <v>1732521.0</v>
+        <v>524522.0</v>
       </c>
       <c r="D305" t="n">
-        <v>444.0</v>
+        <v>8284.0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>8132229.0</v>
+        <v>9282418.0</v>
       </c>
       <c r="B306" t="n">
-        <v>3175.0</v>
+        <v>64844.0</v>
       </c>
       <c r="C306" t="n">
-        <v>1733038.0</v>
+        <v>521180.0</v>
       </c>
       <c r="D306" t="n">
-        <v>361.0</v>
+        <v>7531.0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>8131851.0</v>
+        <v>9286624.0</v>
       </c>
       <c r="B307" t="n">
-        <v>3079.0</v>
+        <v>63507.0</v>
       </c>
       <c r="C307" t="n">
-        <v>1733512.0</v>
+        <v>518311.0</v>
       </c>
       <c r="D307" t="n">
-        <v>378.0</v>
+        <v>6225.0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>8131509.0</v>
+        <v>9291298.0</v>
       </c>
       <c r="B308" t="n">
-        <v>2958.0</v>
+        <v>61761.0</v>
       </c>
       <c r="C308" t="n">
-        <v>1733975.0</v>
+        <v>515383.0</v>
       </c>
       <c r="D308" t="n">
-        <v>342.0</v>
+        <v>6141.0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>8131189.0</v>
+        <v>9294721.0</v>
       </c>
       <c r="B309" t="n">
-        <v>2824.0</v>
+        <v>61190.0</v>
       </c>
       <c r="C309" t="n">
-        <v>1734429.0</v>
+        <v>512531.0</v>
       </c>
       <c r="D309" t="n">
-        <v>320.0</v>
+        <v>6928.0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>8130870.0</v>
+        <v>9297781.0</v>
       </c>
       <c r="B310" t="n">
-        <v>2683.0</v>
+        <v>59610.0</v>
       </c>
       <c r="C310" t="n">
-        <v>1734889.0</v>
+        <v>511051.0</v>
       </c>
       <c r="D310" t="n">
-        <v>319.0</v>
+        <v>6339.0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>8130580.0</v>
+        <v>9300716.0</v>
       </c>
       <c r="B311" t="n">
-        <v>2540.0</v>
+        <v>57650.0</v>
       </c>
       <c r="C311" t="n">
-        <v>1735322.0</v>
+        <v>510076.0</v>
       </c>
       <c r="D311" t="n">
-        <v>290.0</v>
+        <v>6170.0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>8130268.0</v>
+        <v>9303458.0</v>
       </c>
       <c r="B312" t="n">
-        <v>2412.0</v>
+        <v>56108.0</v>
       </c>
       <c r="C312" t="n">
-        <v>1735762.0</v>
+        <v>508876.0</v>
       </c>
       <c r="D312" t="n">
-        <v>312.0</v>
+        <v>6177.0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>8129976.0</v>
+        <v>9305759.0</v>
       </c>
       <c r="B313" t="n">
-        <v>2307.0</v>
+        <v>54422.0</v>
       </c>
       <c r="C313" t="n">
-        <v>1736159.0</v>
+        <v>508261.0</v>
       </c>
       <c r="D313" t="n">
-        <v>292.0</v>
+        <v>5838.0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>8129704.0</v>
+        <v>9310268.0</v>
       </c>
       <c r="B314" t="n">
-        <v>2238.0</v>
+        <v>51167.0</v>
       </c>
       <c r="C314" t="n">
-        <v>1736500.0</v>
+        <v>507007.0</v>
       </c>
       <c r="D314" t="n">
-        <v>272.0</v>
+        <v>4202.0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>8129434.0</v>
+        <v>9314656.0</v>
       </c>
       <c r="B315" t="n">
-        <v>2113.0</v>
+        <v>48222.0</v>
       </c>
       <c r="C315" t="n">
-        <v>1736895.0</v>
+        <v>505564.0</v>
       </c>
       <c r="D315" t="n">
-        <v>270.0</v>
+        <v>4354.0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>8129188.0</v>
+        <v>9318148.0</v>
       </c>
       <c r="B316" t="n">
-        <v>2016.0</v>
+        <v>46851.0</v>
       </c>
       <c r="C316" t="n">
-        <v>1737238.0</v>
+        <v>503443.0</v>
       </c>
       <c r="D316" t="n">
-        <v>246.0</v>
+        <v>5415.0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>8128962.0</v>
+        <v>9323458.0</v>
       </c>
       <c r="B317" t="n">
-        <v>1919.0</v>
+        <v>43616.0</v>
       </c>
       <c r="C317" t="n">
-        <v>1737561.0</v>
+        <v>501368.0</v>
       </c>
       <c r="D317" t="n">
-        <v>226.0</v>
+        <v>3336.0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>8128728.0</v>
+        <v>9327100.0</v>
       </c>
       <c r="B318" t="n">
-        <v>1841.0</v>
+        <v>42031.0</v>
       </c>
       <c r="C318" t="n">
-        <v>1737873.0</v>
+        <v>499311.0</v>
       </c>
       <c r="D318" t="n">
-        <v>234.0</v>
+        <v>4966.0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>8128508.0</v>
+        <v>9331675.0</v>
       </c>
       <c r="B319" t="n">
-        <v>1735.0</v>
+        <v>40126.0</v>
       </c>
       <c r="C319" t="n">
-        <v>1738199.0</v>
+        <v>496641.0</v>
       </c>
       <c r="D319" t="n">
-        <v>220.0</v>
+        <v>4302.0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>8128266.0</v>
+        <v>9336067.0</v>
       </c>
       <c r="B320" t="n">
-        <v>1690.0</v>
+        <v>38769.0</v>
       </c>
       <c r="C320" t="n">
-        <v>1738486.0</v>
+        <v>493606.0</v>
       </c>
       <c r="D320" t="n">
-        <v>242.0</v>
+        <v>4426.0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>8128039.0</v>
+        <v>9342064.0</v>
       </c>
       <c r="B321" t="n">
-        <v>1629.0</v>
+        <v>36518.0</v>
       </c>
       <c r="C321" t="n">
-        <v>1738774.0</v>
+        <v>489860.0</v>
       </c>
       <c r="D321" t="n">
-        <v>227.0</v>
+        <v>3172.0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>8127836.0</v>
+        <v>9347969.0</v>
       </c>
       <c r="B322" t="n">
-        <v>1589.0</v>
+        <v>34640.0</v>
       </c>
       <c r="C322" t="n">
-        <v>1739017.0</v>
+        <v>485833.0</v>
       </c>
       <c r="D322" t="n">
-        <v>203.0</v>
+        <v>3353.0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>8127633.0</v>
+        <v>9352905.0</v>
       </c>
       <c r="B323" t="n">
-        <v>1522.0</v>
+        <v>34385.0</v>
       </c>
       <c r="C323" t="n">
-        <v>1739287.0</v>
+        <v>481152.0</v>
       </c>
       <c r="D323" t="n">
-        <v>203.0</v>
+        <v>4311.0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>8127432.0</v>
+        <v>9358383.0</v>
       </c>
       <c r="B324" t="n">
-        <v>1500.0</v>
+        <v>33458.0</v>
       </c>
       <c r="C324" t="n">
-        <v>1739510.0</v>
+        <v>476601.0</v>
       </c>
       <c r="D324" t="n">
-        <v>201.0</v>
+        <v>3839.0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>8127206.0</v>
+        <v>9363505.0</v>
       </c>
       <c r="B325" t="n">
-        <v>1516.0</v>
+        <v>32784.0</v>
       </c>
       <c r="C325" t="n">
-        <v>1739720.0</v>
+        <v>472153.0</v>
       </c>
       <c r="D325" t="n">
-        <v>226.0</v>
+        <v>3894.0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>8127012.0</v>
+        <v>9369154.0</v>
       </c>
       <c r="B326" t="n">
-        <v>1446.0</v>
+        <v>32335.0</v>
       </c>
       <c r="C326" t="n">
-        <v>1739984.0</v>
+        <v>466953.0</v>
       </c>
       <c r="D326" t="n">
-        <v>194.0</v>
+        <v>3900.0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>8126796.0</v>
+        <v>9374462.0</v>
       </c>
       <c r="B327" t="n">
-        <v>1444.0</v>
+        <v>32030.0</v>
       </c>
       <c r="C327" t="n">
-        <v>1740202.0</v>
+        <v>461950.0</v>
       </c>
       <c r="D327" t="n">
-        <v>216.0</v>
+        <v>4003.0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>8126604.0</v>
+        <v>9380782.0</v>
       </c>
       <c r="B328" t="n">
-        <v>1416.0</v>
+        <v>31157.0</v>
       </c>
       <c r="C328" t="n">
-        <v>1740422.0</v>
+        <v>456503.0</v>
       </c>
       <c r="D328" t="n">
-        <v>192.0</v>
+        <v>3073.0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>8126414.0</v>
+        <v>9387373.0</v>
       </c>
       <c r="B329" t="n">
-        <v>1395.0</v>
+        <v>30401.0</v>
       </c>
       <c r="C329" t="n">
-        <v>1740633.0</v>
+        <v>450668.0</v>
       </c>
       <c r="D329" t="n">
-        <v>190.0</v>
+        <v>3194.0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>8126245.0</v>
+        <v>9393131.0</v>
       </c>
       <c r="B330" t="n">
-        <v>1353.0</v>
+        <v>30542.0</v>
       </c>
       <c r="C330" t="n">
-        <v>1740844.0</v>
+        <v>444769.0</v>
       </c>
       <c r="D330" t="n">
-        <v>169.0</v>
+        <v>3921.0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>8126035.0</v>
+        <v>9399109.0</v>
       </c>
       <c r="B331" t="n">
-        <v>1350.0</v>
+        <v>30107.0</v>
       </c>
       <c r="C331" t="n">
-        <v>1741057.0</v>
+        <v>439226.0</v>
       </c>
       <c r="D331" t="n">
-        <v>210.0</v>
+        <v>3540.0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>8125840.0</v>
+        <v>9405000.0</v>
       </c>
       <c r="B332" t="n">
-        <v>1370.0</v>
+        <v>29725.0</v>
       </c>
       <c r="C332" t="n">
-        <v>1741232.0</v>
+        <v>433717.0</v>
       </c>
       <c r="D332" t="n">
-        <v>195.0</v>
+        <v>3578.0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>8125624.0</v>
+        <v>9411152.0</v>
       </c>
       <c r="B333" t="n">
-        <v>1357.0</v>
+        <v>29638.0</v>
       </c>
       <c r="C333" t="n">
-        <v>1741461.0</v>
+        <v>427652.0</v>
       </c>
       <c r="D333" t="n">
-        <v>216.0</v>
+        <v>3654.0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>8125419.0</v>
+        <v>9416741.0</v>
       </c>
       <c r="B334" t="n">
-        <v>1364.0</v>
+        <v>29508.0</v>
       </c>
       <c r="C334" t="n">
-        <v>1741659.0</v>
+        <v>422193.0</v>
       </c>
       <c r="D334" t="n">
-        <v>205.0</v>
+        <v>3694.0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>8125221.0</v>
+        <v>9423459.0</v>
       </c>
       <c r="B335" t="n">
-        <v>1375.0</v>
+        <v>28678.0</v>
       </c>
       <c r="C335" t="n">
-        <v>1741846.0</v>
+        <v>416305.0</v>
       </c>
       <c r="D335" t="n">
-        <v>198.0</v>
+        <v>2782.0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>8125036.0</v>
+        <v>9430439.0</v>
       </c>
       <c r="B336" t="n">
-        <v>1362.0</v>
+        <v>27880.0</v>
       </c>
       <c r="C336" t="n">
-        <v>1742044.0</v>
+        <v>410123.0</v>
       </c>
       <c r="D336" t="n">
-        <v>185.0</v>
+        <v>2851.0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>8124848.0</v>
+        <v>9436876.0</v>
       </c>
       <c r="B337" t="n">
-        <v>1370.0</v>
+        <v>27565.0</v>
       </c>
       <c r="C337" t="n">
-        <v>1742224.0</v>
+        <v>404001.0</v>
       </c>
       <c r="D337" t="n">
-        <v>188.0</v>
+        <v>3270.0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>8124666.0</v>
+        <v>9443355.0</v>
       </c>
       <c r="B338" t="n">
-        <v>1356.0</v>
+        <v>26846.0</v>
       </c>
       <c r="C338" t="n">
-        <v>1742420.0</v>
+        <v>398241.0</v>
       </c>
       <c r="D338" t="n">
-        <v>182.0</v>
+        <v>2840.0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>8124484.0</v>
+        <v>9450015.0</v>
       </c>
       <c r="B339" t="n">
-        <v>1327.0</v>
+        <v>25852.0</v>
       </c>
       <c r="C339" t="n">
-        <v>1742631.0</v>
+        <v>392575.0</v>
       </c>
       <c r="D339" t="n">
-        <v>182.0</v>
+        <v>2802.0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>8124272.0</v>
+        <v>9456905.0</v>
       </c>
       <c r="B340" t="n">
-        <v>1319.0</v>
+        <v>24944.0</v>
       </c>
       <c r="C340" t="n">
-        <v>1742851.0</v>
+        <v>386593.0</v>
       </c>
       <c r="D340" t="n">
-        <v>212.0</v>
+        <v>2673.0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>8124097.0</v>
+        <v>9462684.0</v>
       </c>
       <c r="B341" t="n">
-        <v>1296.0</v>
+        <v>24234.0</v>
       </c>
       <c r="C341" t="n">
-        <v>1743049.0</v>
+        <v>381524.0</v>
       </c>
       <c r="D341" t="n">
-        <v>175.0</v>
+        <v>2650.0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>8123884.0</v>
+        <v>9469926.0</v>
       </c>
       <c r="B342" t="n">
-        <v>1319.0</v>
+        <v>22786.0</v>
       </c>
       <c r="C342" t="n">
-        <v>1743239.0</v>
+        <v>375730.0</v>
       </c>
       <c r="D342" t="n">
-        <v>213.0</v>
+        <v>1937.0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>8123697.0</v>
+        <v>9476762.0</v>
       </c>
       <c r="B343" t="n">
-        <v>1294.0</v>
+        <v>21478.0</v>
       </c>
       <c r="C343" t="n">
-        <v>1743451.0</v>
+        <v>370202.0</v>
       </c>
       <c r="D343" t="n">
-        <v>187.0</v>
+        <v>1902.0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>8123513.0</v>
+        <v>9482805.0</v>
       </c>
       <c r="B344" t="n">
-        <v>1302.0</v>
+        <v>20765.0</v>
       </c>
       <c r="C344" t="n">
-        <v>1743627.0</v>
+        <v>364872.0</v>
       </c>
       <c r="D344" t="n">
-        <v>184.0</v>
+        <v>2362.0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>8123336.0</v>
+        <v>9488917.0</v>
       </c>
       <c r="B345" t="n">
-        <v>1291.0</v>
+        <v>19955.0</v>
       </c>
       <c r="C345" t="n">
-        <v>1743815.0</v>
+        <v>359570.0</v>
       </c>
       <c r="D345" t="n">
-        <v>177.0</v>
+        <v>2265.0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>8123147.0</v>
+        <v>9494601.0</v>
       </c>
       <c r="B346" t="n">
-        <v>1296.0</v>
+        <v>19059.0</v>
       </c>
       <c r="C346" t="n">
-        <v>1743999.0</v>
+        <v>354782.0</v>
       </c>
       <c r="D346" t="n">
-        <v>189.0</v>
+        <v>2168.0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>8122963.0</v>
+        <v>9500616.0</v>
       </c>
       <c r="B347" t="n">
-        <v>1288.0</v>
+        <v>18397.0</v>
       </c>
       <c r="C347" t="n">
-        <v>1744191.0</v>
+        <v>349429.0</v>
       </c>
       <c r="D347" t="n">
-        <v>184.0</v>
+        <v>2229.0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>8122780.0</v>
+        <v>9506729.0</v>
       </c>
       <c r="B348" t="n">
-        <v>1266.0</v>
+        <v>17831.0</v>
       </c>
       <c r="C348" t="n">
-        <v>1744396.0</v>
+        <v>343882.0</v>
       </c>
       <c r="D348" t="n">
-        <v>183.0</v>
+        <v>2112.0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>8122603.0</v>
+        <v>9512924.0</v>
       </c>
       <c r="B349" t="n">
-        <v>1269.0</v>
+        <v>17012.0</v>
       </c>
       <c r="C349" t="n">
-        <v>1744570.0</v>
+        <v>338506.0</v>
       </c>
       <c r="D349" t="n">
-        <v>177.0</v>
+        <v>1609.0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>8122407.0</v>
+        <v>9519657.0</v>
       </c>
       <c r="B350" t="n">
-        <v>1286.0</v>
+        <v>16425.0</v>
       </c>
       <c r="C350" t="n">
-        <v>1744749.0</v>
+        <v>332360.0</v>
       </c>
       <c r="D350" t="n">
-        <v>196.0</v>
+        <v>1619.0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>8122225.0</v>
+        <v>9525105.0</v>
       </c>
       <c r="B351" t="n">
-        <v>1266.0</v>
+        <v>16309.0</v>
       </c>
       <c r="C351" t="n">
-        <v>1744951.0</v>
+        <v>327028.0</v>
       </c>
       <c r="D351" t="n">
-        <v>182.0</v>
+        <v>2052.0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>8122041.0</v>
+        <v>9530635.0</v>
       </c>
       <c r="B352" t="n">
-        <v>1262.0</v>
+        <v>16066.0</v>
       </c>
       <c r="C352" t="n">
-        <v>1745139.0</v>
+        <v>321741.0</v>
       </c>
       <c r="D352" t="n">
-        <v>184.0</v>
+        <v>1994.0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>8121863.0</v>
+        <v>9535979.0</v>
       </c>
       <c r="B353" t="n">
-        <v>1259.0</v>
+        <v>15549.0</v>
       </c>
       <c r="C353" t="n">
-        <v>1745320.0</v>
+        <v>316914.0</v>
       </c>
       <c r="D353" t="n">
-        <v>178.0</v>
+        <v>1897.0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>8121690.0</v>
+        <v>9541387.0</v>
       </c>
       <c r="B354" t="n">
-        <v>1233.0</v>
+        <v>15199.0</v>
       </c>
       <c r="C354" t="n">
-        <v>1745519.0</v>
+        <v>311856.0</v>
       </c>
       <c r="D354" t="n">
-        <v>173.0</v>
+        <v>1892.0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>8121502.0</v>
+        <v>9546628.0</v>
       </c>
       <c r="B355" t="n">
-        <v>1245.0</v>
+        <v>15061.0</v>
       </c>
       <c r="C355" t="n">
-        <v>1745695.0</v>
+        <v>306753.0</v>
       </c>
       <c r="D355" t="n">
-        <v>188.0</v>
+        <v>1895.0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>8121320.0</v>
+        <v>9552467.0</v>
       </c>
       <c r="B356" t="n">
-        <v>1246.0</v>
+        <v>14790.0</v>
       </c>
       <c r="C356" t="n">
-        <v>1745876.0</v>
+        <v>301185.0</v>
       </c>
       <c r="D356" t="n">
-        <v>182.0</v>
+        <v>1567.0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>8121146.0</v>
+        <v>9558593.0</v>
       </c>
       <c r="B357" t="n">
-        <v>1230.0</v>
+        <v>14413.0</v>
       </c>
       <c r="C357" t="n">
-        <v>1746066.0</v>
+        <v>295436.0</v>
       </c>
       <c r="D357" t="n">
-        <v>174.0</v>
+        <v>1540.0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>8121000.0</v>
+        <v>9564226.0</v>
       </c>
       <c r="B358" t="n">
-        <v>1200.0</v>
+        <v>14453.0</v>
       </c>
       <c r="C358" t="n">
-        <v>1746242.0</v>
+        <v>289763.0</v>
       </c>
       <c r="D358" t="n">
-        <v>146.0</v>
+        <v>1883.0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>8120805.0</v>
+        <v>9569646.0</v>
       </c>
       <c r="B359" t="n">
-        <v>1198.0</v>
+        <v>14386.0</v>
       </c>
       <c r="C359" t="n">
-        <v>1746439.0</v>
+        <v>284410.0</v>
       </c>
       <c r="D359" t="n">
-        <v>195.0</v>
+        <v>1869.0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>8120629.0</v>
+        <v>9575262.0</v>
       </c>
       <c r="B360" t="n">
-        <v>1207.0</v>
+        <v>14250.0</v>
       </c>
       <c r="C360" t="n">
-        <v>1746606.0</v>
+        <v>278930.0</v>
       </c>
       <c r="D360" t="n">
-        <v>176.0</v>
+        <v>1859.0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>8120448.0</v>
+        <v>9581104.0</v>
       </c>
       <c r="B361" t="n">
-        <v>1227.0</v>
+        <v>14154.0</v>
       </c>
       <c r="C361" t="n">
-        <v>1746767.0</v>
+        <v>273184.0</v>
       </c>
       <c r="D361" t="n">
-        <v>181.0</v>
+        <v>1799.0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>8120250.0</v>
+        <v>9586616.0</v>
       </c>
       <c r="B362" t="n">
-        <v>1246.0</v>
+        <v>14188.0</v>
       </c>
       <c r="C362" t="n">
-        <v>1746946.0</v>
+        <v>267638.0</v>
       </c>
       <c r="D362" t="n">
-        <v>198.0</v>
+        <v>1858.0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>8120059.0</v>
+        <v>9592719.0</v>
       </c>
       <c r="B363" t="n">
-        <v>1248.0</v>
+        <v>14000.0</v>
       </c>
       <c r="C363" t="n">
-        <v>1747135.0</v>
+        <v>261723.0</v>
       </c>
       <c r="D363" t="n">
-        <v>191.0</v>
+        <v>1523.0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>8119878.0</v>
+        <v>9598993.0</v>
       </c>
       <c r="B364" t="n">
-        <v>1270.0</v>
+        <v>13837.0</v>
       </c>
       <c r="C364" t="n">
-        <v>1747294.0</v>
+        <v>255612.0</v>
       </c>
       <c r="D364" t="n">
-        <v>181.0</v>
+        <v>1532.0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>8119671.0</v>
+        <v>9604812.0</v>
       </c>
       <c r="B365" t="n">
-        <v>1290.0</v>
+        <v>14085.0</v>
       </c>
       <c r="C365" t="n">
-        <v>1747481.0</v>
+        <v>249545.0</v>
       </c>
       <c r="D365" t="n">
-        <v>207.0</v>
+        <v>1958.0</v>
       </c>
     </row>
   </sheetData>

--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D365"/>
+  <dimension ref="A1:E365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -346,5112 +346,6207 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>9718433.0</v>
+        <v>9841624.0</v>
       </c>
       <c r="B1" t="n">
-        <v>12511.0</v>
+        <v>24696.0</v>
       </c>
       <c r="C1" t="n">
-        <v>137498.0</v>
+        <v>2122.0</v>
       </c>
       <c r="D1" t="n">
-        <v>2364.0</v>
+        <v>2280.0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>990.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9716274.0</v>
+        <v>9838708.0</v>
       </c>
       <c r="B2" t="n">
-        <v>13160.0</v>
+        <v>25518.0</v>
       </c>
       <c r="C2" t="n">
-        <v>139008.0</v>
+        <v>4216.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2159.0</v>
+        <v>2916.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>955.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9714119.0</v>
+        <v>9836040.0</v>
       </c>
       <c r="B3" t="n">
-        <v>13736.0</v>
+        <v>26087.0</v>
       </c>
       <c r="C3" t="n">
-        <v>140587.0</v>
+        <v>6315.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2155.0</v>
+        <v>2668.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1017.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9711915.0</v>
+        <v>9833560.0</v>
       </c>
       <c r="B4" t="n">
-        <v>14377.0</v>
+        <v>26483.0</v>
       </c>
       <c r="C4" t="n">
-        <v>142150.0</v>
+        <v>8399.0</v>
       </c>
       <c r="D4" t="n">
-        <v>2204.0</v>
+        <v>2480.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1074.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9709666.0</v>
+        <v>9831224.0</v>
       </c>
       <c r="B5" t="n">
-        <v>15006.0</v>
+        <v>26636.0</v>
       </c>
       <c r="C5" t="n">
-        <v>143770.0</v>
+        <v>10582.0</v>
       </c>
       <c r="D5" t="n">
-        <v>2249.0</v>
+        <v>2336.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1120.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9707965.0</v>
+        <v>9829151.0</v>
       </c>
       <c r="B6" t="n">
-        <v>15113.0</v>
+        <v>26585.0</v>
       </c>
       <c r="C6" t="n">
-        <v>145364.0</v>
+        <v>12706.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1701.0</v>
+        <v>2073.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1162.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9706239.0</v>
+        <v>9827226.0</v>
       </c>
       <c r="B7" t="n">
-        <v>15278.0</v>
+        <v>26150.0</v>
       </c>
       <c r="C7" t="n">
-        <v>146925.0</v>
+        <v>15066.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1726.0</v>
+        <v>1925.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1087.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9704106.0</v>
+        <v>9825393.0</v>
       </c>
       <c r="B8" t="n">
-        <v>15601.0</v>
+        <v>25541.0</v>
       </c>
       <c r="C8" t="n">
-        <v>148735.0</v>
+        <v>17508.0</v>
       </c>
       <c r="D8" t="n">
-        <v>2133.0</v>
+        <v>1833.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1013.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9702123.0</v>
+        <v>9823588.0</v>
       </c>
       <c r="B9" t="n">
-        <v>15661.0</v>
+        <v>24907.0</v>
       </c>
       <c r="C9" t="n">
-        <v>150658.0</v>
+        <v>19947.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1983.0</v>
+        <v>1805.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>887.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9700078.0</v>
+        <v>9821746.0</v>
       </c>
       <c r="B10" t="n">
-        <v>15555.0</v>
+        <v>24284.0</v>
       </c>
       <c r="C10" t="n">
-        <v>152809.0</v>
+        <v>22412.0</v>
       </c>
       <c r="D10" t="n">
-        <v>2045.0</v>
+        <v>1842.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>867.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9698132.0</v>
+        <v>9820023.0</v>
       </c>
       <c r="B11" t="n">
-        <v>15451.0</v>
+        <v>23629.0</v>
       </c>
       <c r="C11" t="n">
-        <v>154859.0</v>
+        <v>24790.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1946.0</v>
+        <v>1723.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>832.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9696086.0</v>
+        <v>9818352.0</v>
       </c>
       <c r="B12" t="n">
-        <v>15490.0</v>
+        <v>22885.0</v>
       </c>
       <c r="C12" t="n">
-        <v>156866.0</v>
+        <v>27205.0</v>
       </c>
       <c r="D12" t="n">
-        <v>2046.0</v>
+        <v>1671.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>800.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9694482.0</v>
+        <v>9816842.0</v>
       </c>
       <c r="B13" t="n">
-        <v>15172.0</v>
+        <v>21715.0</v>
       </c>
       <c r="C13" t="n">
-        <v>158788.0</v>
+        <v>29885.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1604.0</v>
+        <v>1510.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>774.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9692970.0</v>
+        <v>9815391.0</v>
       </c>
       <c r="B14" t="n">
-        <v>14801.0</v>
+        <v>20523.0</v>
       </c>
       <c r="C14" t="n">
-        <v>160671.0</v>
+        <v>32528.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1512.0</v>
+        <v>1451.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>699.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9690988.0</v>
+        <v>9813762.0</v>
       </c>
       <c r="B15" t="n">
-        <v>14912.0</v>
+        <v>19599.0</v>
       </c>
       <c r="C15" t="n">
-        <v>162542.0</v>
+        <v>35081.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1982.0</v>
+        <v>1629.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>675.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9689069.0</v>
+        <v>9812205.0</v>
       </c>
       <c r="B16" t="n">
-        <v>14881.0</v>
+        <v>18794.0</v>
       </c>
       <c r="C16" t="n">
-        <v>164492.0</v>
+        <v>37443.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1919.0</v>
+        <v>1557.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>620.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9687167.0</v>
+        <v>9810678.0</v>
       </c>
       <c r="B17" t="n">
-        <v>14664.0</v>
+        <v>18057.0</v>
       </c>
       <c r="C17" t="n">
-        <v>166611.0</v>
+        <v>39707.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1902.0</v>
+        <v>1527.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>676.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9685198.0</v>
+        <v>9809091.0</v>
       </c>
       <c r="B18" t="n">
-        <v>14707.0</v>
+        <v>17540.0</v>
       </c>
       <c r="C18" t="n">
-        <v>168537.0</v>
+        <v>41811.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1969.0</v>
+        <v>1587.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>641.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9683167.0</v>
+        <v>9807553.0</v>
       </c>
       <c r="B19" t="n">
-        <v>14798.0</v>
+        <v>17056.0</v>
       </c>
       <c r="C19" t="n">
-        <v>170477.0</v>
+        <v>43833.0</v>
       </c>
       <c r="D19" t="n">
-        <v>2031.0</v>
+        <v>1538.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>658.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9681630.0</v>
+        <v>9806182.0</v>
       </c>
       <c r="B20" t="n">
-        <v>14600.0</v>
+        <v>16419.0</v>
       </c>
       <c r="C20" t="n">
-        <v>172212.0</v>
+        <v>45841.0</v>
       </c>
       <c r="D20" t="n">
-        <v>1537.0</v>
+        <v>1371.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>644.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9680100.0</v>
+        <v>9804795.0</v>
       </c>
       <c r="B21" t="n">
-        <v>14340.0</v>
+        <v>16005.0</v>
       </c>
       <c r="C21" t="n">
-        <v>174002.0</v>
+        <v>47642.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1530.0</v>
+        <v>1387.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>637.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9678081.0</v>
+        <v>9803229.0</v>
       </c>
       <c r="B22" t="n">
-        <v>14504.0</v>
+        <v>15817.0</v>
       </c>
       <c r="C22" t="n">
-        <v>175857.0</v>
+        <v>49396.0</v>
       </c>
       <c r="D22" t="n">
-        <v>2019.0</v>
+        <v>1566.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>673.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9676200.0</v>
+        <v>9801758.0</v>
       </c>
       <c r="B23" t="n">
-        <v>14569.0</v>
+        <v>15549.0</v>
       </c>
       <c r="C23" t="n">
-        <v>177673.0</v>
+        <v>51135.0</v>
       </c>
       <c r="D23" t="n">
-        <v>1881.0</v>
+        <v>1471.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>614.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>9674254.0</v>
+        <v>9800188.0</v>
       </c>
       <c r="B24" t="n">
-        <v>14555.0</v>
+        <v>15439.0</v>
       </c>
       <c r="C24" t="n">
-        <v>179633.0</v>
+        <v>52815.0</v>
       </c>
       <c r="D24" t="n">
-        <v>1946.0</v>
+        <v>1570.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>568.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9672444.0</v>
+        <v>9798669.0</v>
       </c>
       <c r="B25" t="n">
-        <v>14431.0</v>
+        <v>15422.0</v>
       </c>
       <c r="C25" t="n">
-        <v>181567.0</v>
+        <v>54351.0</v>
       </c>
       <c r="D25" t="n">
-        <v>1810.0</v>
+        <v>1519.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>606.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9670469.0</v>
+        <v>9797113.0</v>
       </c>
       <c r="B26" t="n">
-        <v>14547.0</v>
+        <v>15413.0</v>
       </c>
       <c r="C26" t="n">
-        <v>183426.0</v>
+        <v>55916.0</v>
       </c>
       <c r="D26" t="n">
-        <v>1975.0</v>
+        <v>1556.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>666.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9668923.0</v>
+        <v>9795746.0</v>
       </c>
       <c r="B27" t="n">
-        <v>14330.0</v>
+        <v>15150.0</v>
       </c>
       <c r="C27" t="n">
-        <v>185189.0</v>
+        <v>57546.0</v>
       </c>
       <c r="D27" t="n">
-        <v>1546.0</v>
+        <v>1367.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>624.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9667323.0</v>
+        <v>9794330.0</v>
       </c>
       <c r="B28" t="n">
-        <v>14166.0</v>
+        <v>14979.0</v>
       </c>
       <c r="C28" t="n">
-        <v>186953.0</v>
+        <v>59133.0</v>
       </c>
       <c r="D28" t="n">
-        <v>1600.0</v>
+        <v>1416.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>658.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9665391.0</v>
+        <v>9792827.0</v>
       </c>
       <c r="B29" t="n">
-        <v>14371.0</v>
+        <v>14875.0</v>
       </c>
       <c r="C29" t="n">
-        <v>188680.0</v>
+        <v>60740.0</v>
       </c>
       <c r="D29" t="n">
-        <v>1932.0</v>
+        <v>1503.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>600.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9663580.0</v>
+        <v>9791400.0</v>
       </c>
       <c r="B30" t="n">
-        <v>14273.0</v>
+        <v>14797.0</v>
       </c>
       <c r="C30" t="n">
-        <v>190589.0</v>
+        <v>62245.0</v>
       </c>
       <c r="D30" t="n">
-        <v>1811.0</v>
+        <v>1427.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>611.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9661677.0</v>
+        <v>9792025.0</v>
       </c>
       <c r="B31" t="n">
-        <v>14198.0</v>
+        <v>14766.0</v>
       </c>
       <c r="C31" t="n">
-        <v>192567.0</v>
+        <v>61651.0</v>
       </c>
       <c r="D31" t="n">
-        <v>1903.0</v>
+        <v>1497.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>601.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>9659810.0</v>
+        <v>9792653.0</v>
       </c>
       <c r="B32" t="n">
-        <v>14222.0</v>
+        <v>14720.0</v>
       </c>
       <c r="C32" t="n">
-        <v>194410.0</v>
+        <v>61069.0</v>
       </c>
       <c r="D32" t="n">
-        <v>1867.0</v>
+        <v>1466.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>587.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9657489.0</v>
+        <v>9792983.0</v>
       </c>
       <c r="B33" t="n">
-        <v>14712.0</v>
+        <v>15012.0</v>
       </c>
       <c r="C33" t="n">
-        <v>196241.0</v>
+        <v>60447.0</v>
       </c>
       <c r="D33" t="n">
-        <v>2321.0</v>
+        <v>1769.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>634.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>9655830.0</v>
+        <v>9793727.0</v>
       </c>
       <c r="B34" t="n">
-        <v>14603.0</v>
+        <v>14816.0</v>
       </c>
       <c r="C34" t="n">
-        <v>198009.0</v>
+        <v>59899.0</v>
       </c>
       <c r="D34" t="n">
-        <v>1659.0</v>
+        <v>1340.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>658.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9654143.0</v>
+        <v>9794475.0</v>
       </c>
       <c r="B35" t="n">
-        <v>14573.0</v>
+        <v>14724.0</v>
       </c>
       <c r="C35" t="n">
-        <v>199726.0</v>
+        <v>59243.0</v>
       </c>
       <c r="D35" t="n">
-        <v>1687.0</v>
+        <v>1435.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>638.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>9651654.0</v>
+        <v>9794701.0</v>
       </c>
       <c r="B36" t="n">
-        <v>15293.0</v>
+        <v>15121.0</v>
       </c>
       <c r="C36" t="n">
-        <v>201495.0</v>
+        <v>58620.0</v>
       </c>
       <c r="D36" t="n">
-        <v>2489.0</v>
+        <v>1898.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>649.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>9649196.0</v>
+        <v>9795096.0</v>
       </c>
       <c r="B37" t="n">
-        <v>15953.0</v>
+        <v>15583.0</v>
       </c>
       <c r="C37" t="n">
-        <v>203293.0</v>
+        <v>57763.0</v>
       </c>
       <c r="D37" t="n">
-        <v>2458.0</v>
+        <v>1965.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>673.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>9646645.0</v>
+        <v>9795477.0</v>
       </c>
       <c r="B38" t="n">
-        <v>16681.0</v>
+        <v>16163.0</v>
       </c>
       <c r="C38" t="n">
-        <v>205116.0</v>
+        <v>56802.0</v>
       </c>
       <c r="D38" t="n">
-        <v>2551.0</v>
+        <v>2061.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>736.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>9643834.0</v>
+        <v>9795633.0</v>
       </c>
       <c r="B39" t="n">
-        <v>17514.0</v>
+        <v>16970.0</v>
       </c>
       <c r="C39" t="n">
-        <v>207094.0</v>
+        <v>55839.0</v>
       </c>
       <c r="D39" t="n">
-        <v>2811.0</v>
+        <v>2283.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>809.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9640889.0</v>
+        <v>9795634.0</v>
       </c>
       <c r="B40" t="n">
-        <v>18575.0</v>
+        <v>17960.0</v>
       </c>
       <c r="C40" t="n">
-        <v>208978.0</v>
+        <v>54848.0</v>
       </c>
       <c r="D40" t="n">
-        <v>2945.0</v>
+        <v>2464.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>864.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>9638357.0</v>
+        <v>9795904.0</v>
       </c>
       <c r="B41" t="n">
-        <v>19294.0</v>
+        <v>18632.0</v>
       </c>
       <c r="C41" t="n">
-        <v>210791.0</v>
+        <v>53906.0</v>
       </c>
       <c r="D41" t="n">
-        <v>2532.0</v>
+        <v>2108.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>980.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>9635838.0</v>
+        <v>9796263.0</v>
       </c>
       <c r="B42" t="n">
-        <v>19788.0</v>
+        <v>19054.0</v>
       </c>
       <c r="C42" t="n">
-        <v>212816.0</v>
+        <v>53125.0</v>
       </c>
       <c r="D42" t="n">
-        <v>2519.0</v>
+        <v>2056.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1007.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>9632223.0</v>
+        <v>9796116.0</v>
       </c>
       <c r="B43" t="n">
-        <v>21474.0</v>
+        <v>20286.0</v>
       </c>
       <c r="C43" t="n">
-        <v>214745.0</v>
+        <v>52040.0</v>
       </c>
       <c r="D43" t="n">
-        <v>3615.0</v>
+        <v>2827.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>995.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>9628956.0</v>
+        <v>9795972.0</v>
       </c>
       <c r="B44" t="n">
-        <v>22579.0</v>
+        <v>21459.0</v>
       </c>
       <c r="C44" t="n">
-        <v>216907.0</v>
+        <v>51011.0</v>
       </c>
       <c r="D44" t="n">
-        <v>3267.0</v>
+        <v>2787.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1011.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>9625444.0</v>
+        <v>9795629.0</v>
       </c>
       <c r="B45" t="n">
-        <v>23614.0</v>
+        <v>22716.0</v>
       </c>
       <c r="C45" t="n">
-        <v>219384.0</v>
+        <v>50097.0</v>
       </c>
       <c r="D45" t="n">
-        <v>3512.0</v>
+        <v>2896.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1065.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>9621724.0</v>
+        <v>9794836.0</v>
       </c>
       <c r="B46" t="n">
-        <v>24904.0</v>
+        <v>24124.0</v>
       </c>
       <c r="C46" t="n">
-        <v>221814.0</v>
+        <v>49482.0</v>
       </c>
       <c r="D46" t="n">
-        <v>3720.0</v>
+        <v>3155.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1135.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9617778.0</v>
+        <v>9793862.0</v>
       </c>
       <c r="B47" t="n">
-        <v>26223.0</v>
+        <v>25564.0</v>
       </c>
       <c r="C47" t="n">
-        <v>224441.0</v>
+        <v>49016.0</v>
       </c>
       <c r="D47" t="n">
-        <v>3946.0</v>
+        <v>3238.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1201.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>9614552.0</v>
+        <v>9793348.0</v>
       </c>
       <c r="B48" t="n">
-        <v>26890.0</v>
+        <v>26242.0</v>
       </c>
       <c r="C48" t="n">
-        <v>227000.0</v>
+        <v>48852.0</v>
       </c>
       <c r="D48" t="n">
-        <v>3226.0</v>
+        <v>2618.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1385.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9611348.0</v>
+        <v>9792730.0</v>
       </c>
       <c r="B49" t="n">
-        <v>27240.0</v>
+        <v>26862.0</v>
       </c>
       <c r="C49" t="n">
-        <v>229854.0</v>
+        <v>48850.0</v>
       </c>
       <c r="D49" t="n">
-        <v>3204.0</v>
+        <v>2640.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1366.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9606986.0</v>
+        <v>9791098.0</v>
       </c>
       <c r="B50" t="n">
-        <v>28619.0</v>
+        <v>28366.0</v>
       </c>
       <c r="C50" t="n">
-        <v>232837.0</v>
+        <v>48978.0</v>
       </c>
       <c r="D50" t="n">
-        <v>4362.0</v>
+        <v>3640.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1279.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9602920.0</v>
+        <v>9789429.0</v>
       </c>
       <c r="B51" t="n">
-        <v>29496.0</v>
+        <v>29610.0</v>
       </c>
       <c r="C51" t="n">
-        <v>236026.0</v>
+        <v>49403.0</v>
       </c>
       <c r="D51" t="n">
-        <v>4066.0</v>
+        <v>3470.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1230.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9598491.0</v>
+        <v>9787405.0</v>
       </c>
       <c r="B52" t="n">
-        <v>30589.0</v>
+        <v>31064.0</v>
       </c>
       <c r="C52" t="n">
-        <v>239362.0</v>
+        <v>49973.0</v>
       </c>
       <c r="D52" t="n">
-        <v>4429.0</v>
+        <v>3778.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1434.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>9593732.0</v>
+        <v>9785324.0</v>
       </c>
       <c r="B53" t="n">
-        <v>31940.0</v>
+        <v>32454.0</v>
       </c>
       <c r="C53" t="n">
-        <v>242770.0</v>
+        <v>50664.0</v>
       </c>
       <c r="D53" t="n">
-        <v>4759.0</v>
+        <v>3820.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1409.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9588884.0</v>
+        <v>9782993.0</v>
       </c>
       <c r="B54" t="n">
-        <v>33411.0</v>
+        <v>33918.0</v>
       </c>
       <c r="C54" t="n">
-        <v>246147.0</v>
+        <v>51531.0</v>
       </c>
       <c r="D54" t="n">
-        <v>4848.0</v>
+        <v>4011.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1581.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9584892.0</v>
+        <v>9781206.0</v>
       </c>
       <c r="B55" t="n">
-        <v>33953.0</v>
+        <v>34554.0</v>
       </c>
       <c r="C55" t="n">
-        <v>249597.0</v>
+        <v>52682.0</v>
       </c>
       <c r="D55" t="n">
-        <v>3992.0</v>
+        <v>3323.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1682.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9580837.0</v>
+        <v>9779556.0</v>
       </c>
       <c r="B56" t="n">
-        <v>34306.0</v>
+        <v>35022.0</v>
       </c>
       <c r="C56" t="n">
-        <v>253299.0</v>
+        <v>53864.0</v>
       </c>
       <c r="D56" t="n">
-        <v>4055.0</v>
+        <v>3215.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1641.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>9575448.0</v>
+        <v>9776644.0</v>
       </c>
       <c r="B57" t="n">
-        <v>35982.0</v>
+        <v>36653.0</v>
       </c>
       <c r="C57" t="n">
-        <v>257012.0</v>
+        <v>55145.0</v>
       </c>
       <c r="D57" t="n">
-        <v>5389.0</v>
+        <v>4542.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1660.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>9570386.0</v>
+        <v>9773890.0</v>
       </c>
       <c r="B58" t="n">
-        <v>36962.0</v>
+        <v>37985.0</v>
       </c>
       <c r="C58" t="n">
-        <v>261094.0</v>
+        <v>56567.0</v>
       </c>
       <c r="D58" t="n">
-        <v>5062.0</v>
+        <v>4341.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1653.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>9565012.0</v>
+        <v>9770909.0</v>
       </c>
       <c r="B59" t="n">
-        <v>38133.0</v>
+        <v>39596.0</v>
       </c>
       <c r="C59" t="n">
-        <v>265297.0</v>
+        <v>57937.0</v>
       </c>
       <c r="D59" t="n">
-        <v>5374.0</v>
+        <v>4588.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1670.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>9695257.0</v>
+        <v>9767675.0</v>
       </c>
       <c r="B60" t="n">
-        <v>39590.0</v>
+        <v>41136.0</v>
       </c>
       <c r="C60" t="n">
-        <v>133595.0</v>
+        <v>59631.0</v>
       </c>
       <c r="D60" t="n">
-        <v>5741.0</v>
+        <v>4739.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1674.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>9690759.0</v>
+        <v>9763974.0</v>
       </c>
       <c r="B61" t="n">
-        <v>41388.0</v>
+        <v>43000.0</v>
       </c>
       <c r="C61" t="n">
-        <v>136295.0</v>
+        <v>61468.0</v>
       </c>
       <c r="D61" t="n">
-        <v>6010.0</v>
+        <v>5229.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2056.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>9687047.0</v>
+        <v>9761449.0</v>
       </c>
       <c r="B62" t="n">
-        <v>42284.0</v>
+        <v>43656.0</v>
       </c>
       <c r="C62" t="n">
-        <v>139111.0</v>
+        <v>63337.0</v>
       </c>
       <c r="D62" t="n">
-        <v>5222.0</v>
+        <v>4037.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2121.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>9683645.0</v>
+        <v>9758863.0</v>
       </c>
       <c r="B63" t="n">
-        <v>42704.0</v>
+        <v>44163.0</v>
       </c>
       <c r="C63" t="n">
-        <v>142093.0</v>
+        <v>65416.0</v>
       </c>
       <c r="D63" t="n">
-        <v>4981.0</v>
+        <v>4063.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2156.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>9678059.0</v>
+        <v>9754710.0</v>
       </c>
       <c r="B64" t="n">
-        <v>45134.0</v>
+        <v>46221.0</v>
       </c>
       <c r="C64" t="n">
-        <v>145249.0</v>
+        <v>67511.0</v>
       </c>
       <c r="D64" t="n">
-        <v>7149.0</v>
+        <v>5689.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2046.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>9673303.0</v>
+        <v>9750641.0</v>
       </c>
       <c r="B65" t="n">
-        <v>46625.0</v>
+        <v>48043.0</v>
       </c>
       <c r="C65" t="n">
-        <v>148514.0</v>
+        <v>69758.0</v>
       </c>
       <c r="D65" t="n">
-        <v>6376.0</v>
+        <v>5596.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2097.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>9667770.0</v>
+        <v>9746492.0</v>
       </c>
       <c r="B66" t="n">
-        <v>48676.0</v>
+        <v>49864.0</v>
       </c>
       <c r="C66" t="n">
-        <v>151996.0</v>
+        <v>72086.0</v>
       </c>
       <c r="D66" t="n">
-        <v>7127.0</v>
+        <v>5650.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2147.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>9661769.0</v>
+        <v>9742032.0</v>
       </c>
       <c r="B67" t="n">
-        <v>50901.0</v>
+        <v>51949.0</v>
       </c>
       <c r="C67" t="n">
-        <v>155772.0</v>
+        <v>74461.0</v>
       </c>
       <c r="D67" t="n">
-        <v>7562.0</v>
+        <v>5963.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2327.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>9655447.0</v>
+        <v>9737228.0</v>
       </c>
       <c r="B68" t="n">
-        <v>53796.0</v>
+        <v>54187.0</v>
       </c>
       <c r="C68" t="n">
-        <v>159199.0</v>
+        <v>77027.0</v>
       </c>
       <c r="D68" t="n">
-        <v>8132.0</v>
+        <v>6285.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2466.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>9650648.0</v>
+        <v>9733745.0</v>
       </c>
       <c r="B69" t="n">
-        <v>55195.0</v>
+        <v>54871.0</v>
       </c>
       <c r="C69" t="n">
-        <v>162599.0</v>
+        <v>79826.0</v>
       </c>
       <c r="D69" t="n">
-        <v>6722.0</v>
+        <v>4959.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2723.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>9646135.0</v>
+        <v>9730254.0</v>
       </c>
       <c r="B70" t="n">
-        <v>56111.0</v>
+        <v>55428.0</v>
       </c>
       <c r="C70" t="n">
-        <v>166196.0</v>
+        <v>82760.0</v>
       </c>
       <c r="D70" t="n">
-        <v>6664.0</v>
+        <v>4965.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2755.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>9639043.0</v>
+        <v>9725010.0</v>
       </c>
       <c r="B71" t="n">
-        <v>59412.0</v>
+        <v>57519.0</v>
       </c>
       <c r="C71" t="n">
-        <v>169987.0</v>
+        <v>85913.0</v>
       </c>
       <c r="D71" t="n">
-        <v>9142.0</v>
+        <v>6680.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2546.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>9632894.0</v>
+        <v>9720172.0</v>
       </c>
       <c r="B72" t="n">
-        <v>61346.0</v>
+        <v>59254.0</v>
       </c>
       <c r="C72" t="n">
-        <v>174202.0</v>
+        <v>89016.0</v>
       </c>
       <c r="D72" t="n">
-        <v>8156.0</v>
+        <v>6472.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2511.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>9625664.0</v>
+        <v>9715155.0</v>
       </c>
       <c r="B73" t="n">
-        <v>63850.0</v>
+        <v>61197.0</v>
       </c>
       <c r="C73" t="n">
-        <v>178928.0</v>
+        <v>92090.0</v>
       </c>
       <c r="D73" t="n">
-        <v>9152.0</v>
+        <v>6612.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2588.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>9617969.0</v>
+        <v>9709995.0</v>
       </c>
       <c r="B74" t="n">
-        <v>66498.0</v>
+        <v>63012.0</v>
       </c>
       <c r="C74" t="n">
-        <v>183975.0</v>
+        <v>95435.0</v>
       </c>
       <c r="D74" t="n">
-        <v>9578.0</v>
+        <v>6774.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2653.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>9609645.0</v>
+        <v>9704200.0</v>
       </c>
       <c r="B75" t="n">
-        <v>69737.0</v>
+        <v>65396.0</v>
       </c>
       <c r="C75" t="n">
-        <v>189060.0</v>
+        <v>98846.0</v>
       </c>
       <c r="D75" t="n">
-        <v>10195.0</v>
+        <v>7434.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2908.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>9603086.0</v>
+        <v>9700200.0</v>
       </c>
       <c r="B76" t="n">
-        <v>71095.0</v>
+        <v>65713.0</v>
       </c>
       <c r="C76" t="n">
-        <v>194261.0</v>
+        <v>102529.0</v>
       </c>
       <c r="D76" t="n">
-        <v>8509.0</v>
+        <v>5747.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3252.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>9596713.0</v>
+        <v>9696401.0</v>
       </c>
       <c r="B77" t="n">
-        <v>71911.0</v>
+        <v>65759.0</v>
       </c>
       <c r="C77" t="n">
-        <v>199818.0</v>
+        <v>106282.0</v>
       </c>
       <c r="D77" t="n">
-        <v>8492.0</v>
+        <v>5597.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3129.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>9587440.0</v>
+        <v>9690299.0</v>
       </c>
       <c r="B78" t="n">
-        <v>75482.0</v>
+        <v>68172.0</v>
       </c>
       <c r="C78" t="n">
-        <v>205520.0</v>
+        <v>109971.0</v>
       </c>
       <c r="D78" t="n">
-        <v>11199.0</v>
+        <v>8042.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2984.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>9579161.0</v>
+        <v>9684840.0</v>
       </c>
       <c r="B79" t="n">
-        <v>77516.0</v>
+        <v>69996.0</v>
       </c>
       <c r="C79" t="n">
-        <v>211765.0</v>
+        <v>113606.0</v>
       </c>
       <c r="D79" t="n">
-        <v>10219.0</v>
+        <v>7479.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2985.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>9569924.0</v>
+        <v>9679194.0</v>
       </c>
       <c r="B80" t="n">
-        <v>79880.0</v>
+        <v>71917.0</v>
       </c>
       <c r="C80" t="n">
-        <v>218638.0</v>
+        <v>117331.0</v>
       </c>
       <c r="D80" t="n">
-        <v>10972.0</v>
+        <v>7782.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2971.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>9560097.0</v>
+        <v>9673293.0</v>
       </c>
       <c r="B81" t="n">
-        <v>82866.0</v>
+        <v>73938.0</v>
       </c>
       <c r="C81" t="n">
-        <v>225479.0</v>
+        <v>121211.0</v>
       </c>
       <c r="D81" t="n">
-        <v>11617.0</v>
+        <v>8127.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3127.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>9549861.0</v>
+        <v>9667132.0</v>
       </c>
       <c r="B82" t="n">
-        <v>86134.0</v>
+        <v>76281.0</v>
       </c>
       <c r="C82" t="n">
-        <v>232447.0</v>
+        <v>125029.0</v>
       </c>
       <c r="D82" t="n">
-        <v>12091.0</v>
+        <v>8485.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3388.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>9541521.0</v>
+        <v>9662980.0</v>
       </c>
       <c r="B83" t="n">
-        <v>87104.0</v>
+        <v>76515.0</v>
       </c>
       <c r="C83" t="n">
-        <v>239817.0</v>
+        <v>128947.0</v>
       </c>
       <c r="D83" t="n">
-        <v>10156.0</v>
+        <v>6582.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3779.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>9533847.0</v>
+        <v>9659037.0</v>
       </c>
       <c r="B84" t="n">
-        <v>86973.0</v>
+        <v>76556.0</v>
       </c>
       <c r="C84" t="n">
-        <v>247622.0</v>
+        <v>132849.0</v>
       </c>
       <c r="D84" t="n">
-        <v>9634.0</v>
+        <v>6490.0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>3589.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>9522413.0</v>
+        <v>9652682.0</v>
       </c>
       <c r="B85" t="n">
-        <v>90893.0</v>
+        <v>78870.0</v>
       </c>
       <c r="C85" t="n">
-        <v>255136.0</v>
+        <v>136890.0</v>
       </c>
       <c r="D85" t="n">
-        <v>13368.0</v>
+        <v>9042.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3391.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>9512647.0</v>
+        <v>9646860.0</v>
       </c>
       <c r="B86" t="n">
-        <v>92540.0</v>
+        <v>80701.0</v>
       </c>
       <c r="C86" t="n">
-        <v>263255.0</v>
+        <v>140881.0</v>
       </c>
       <c r="D86" t="n">
-        <v>11625.0</v>
+        <v>8569.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3402.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>9501615.0</v>
+        <v>9640925.0</v>
       </c>
       <c r="B87" t="n">
-        <v>94787.0</v>
+        <v>82765.0</v>
       </c>
       <c r="C87" t="n">
-        <v>272040.0</v>
+        <v>144752.0</v>
       </c>
       <c r="D87" t="n">
-        <v>12795.0</v>
+        <v>8846.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3336.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>9489916.0</v>
+        <v>9634847.0</v>
       </c>
       <c r="B88" t="n">
-        <v>97443.0</v>
+        <v>84858.0</v>
       </c>
       <c r="C88" t="n">
-        <v>281083.0</v>
+        <v>148737.0</v>
       </c>
       <c r="D88" t="n">
-        <v>13463.0</v>
+        <v>9087.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3522.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>9477714.0</v>
+        <v>9628131.0</v>
       </c>
       <c r="B89" t="n">
-        <v>100666.0</v>
+        <v>87499.0</v>
       </c>
       <c r="C89" t="n">
-        <v>290062.0</v>
+        <v>152812.0</v>
       </c>
       <c r="D89" t="n">
-        <v>13929.0</v>
+        <v>9693.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3823.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>9467952.0</v>
+        <v>9624010.0</v>
       </c>
       <c r="B90" t="n">
-        <v>101597.0</v>
+        <v>87460.0</v>
       </c>
       <c r="C90" t="n">
-        <v>298893.0</v>
+        <v>156972.0</v>
       </c>
       <c r="D90" t="n">
-        <v>11671.0</v>
+        <v>7320.0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4311.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>9458808.0</v>
+        <v>9620107.0</v>
       </c>
       <c r="B91" t="n">
-        <v>101249.0</v>
+        <v>87158.0</v>
       </c>
       <c r="C91" t="n">
-        <v>308385.0</v>
+        <v>161177.0</v>
       </c>
       <c r="D91" t="n">
-        <v>11122.0</v>
+        <v>7268.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>4213.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>9445334.0</v>
+        <v>9612974.0</v>
       </c>
       <c r="B92" t="n">
-        <v>105306.0</v>
+        <v>89920.0</v>
       </c>
       <c r="C92" t="n">
-        <v>317802.0</v>
+        <v>165548.0</v>
       </c>
       <c r="D92" t="n">
-        <v>15317.0</v>
+        <v>10514.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3965.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>9433829.0</v>
+        <v>9606793.0</v>
       </c>
       <c r="B93" t="n">
-        <v>106879.0</v>
+        <v>91993.0</v>
       </c>
       <c r="C93" t="n">
-        <v>327734.0</v>
+        <v>169656.0</v>
       </c>
       <c r="D93" t="n">
-        <v>13336.0</v>
+        <v>9737.0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3877.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>9420859.0</v>
+        <v>9600447.0</v>
       </c>
       <c r="B94" t="n">
-        <v>109230.0</v>
+        <v>94350.0</v>
       </c>
       <c r="C94" t="n">
-        <v>338353.0</v>
+        <v>173645.0</v>
       </c>
       <c r="D94" t="n">
-        <v>14738.0</v>
+        <v>9977.0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3864.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>9407193.0</v>
+        <v>9593625.0</v>
       </c>
       <c r="B95" t="n">
-        <v>112110.0</v>
+        <v>96903.0</v>
       </c>
       <c r="C95" t="n">
-        <v>349139.0</v>
+        <v>177914.0</v>
       </c>
       <c r="D95" t="n">
-        <v>15383.0</v>
+        <v>10596.0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4113.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>9393295.0</v>
+        <v>9586383.0</v>
       </c>
       <c r="B96" t="n">
-        <v>115525.0</v>
+        <v>99681.0</v>
       </c>
       <c r="C96" t="n">
-        <v>359622.0</v>
+        <v>182378.0</v>
       </c>
       <c r="D96" t="n">
-        <v>15667.0</v>
+        <v>11071.0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4446.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>9382001.0</v>
+        <v>9581662.0</v>
       </c>
       <c r="B97" t="n">
-        <v>116081.0</v>
+        <v>99791.0</v>
       </c>
       <c r="C97" t="n">
-        <v>370360.0</v>
+        <v>186989.0</v>
       </c>
       <c r="D97" t="n">
-        <v>13092.0</v>
+        <v>8599.0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4902.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>9371268.0</v>
+        <v>9577295.0</v>
       </c>
       <c r="B98" t="n">
-        <v>115318.0</v>
+        <v>99389.0</v>
       </c>
       <c r="C98" t="n">
-        <v>381856.0</v>
+        <v>191758.0</v>
       </c>
       <c r="D98" t="n">
-        <v>12556.0</v>
+        <v>8414.0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>4893.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>9358132.0</v>
+        <v>9572556.0</v>
       </c>
       <c r="B99" t="n">
-        <v>117382.0</v>
+        <v>99741.0</v>
       </c>
       <c r="C99" t="n">
-        <v>392928.0</v>
+        <v>196145.0</v>
       </c>
       <c r="D99" t="n">
-        <v>15114.0</v>
+        <v>9014.0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>4499.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9347047.0</v>
+        <v>9568706.0</v>
       </c>
       <c r="B100" t="n">
-        <v>116889.0</v>
+        <v>99171.0</v>
       </c>
       <c r="C100" t="n">
-        <v>404506.0</v>
+        <v>200565.0</v>
       </c>
       <c r="D100" t="n">
-        <v>12969.0</v>
+        <v>8258.0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>4178.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>9335567.0</v>
+        <v>9565029.0</v>
       </c>
       <c r="B101" t="n">
-        <v>116021.0</v>
+        <v>98351.0</v>
       </c>
       <c r="C101" t="n">
-        <v>416854.0</v>
+        <v>205062.0</v>
       </c>
       <c r="D101" t="n">
-        <v>13293.0</v>
+        <v>8266.0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3985.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>9324867.0</v>
+        <v>9561502.0</v>
       </c>
       <c r="B102" t="n">
-        <v>114610.0</v>
+        <v>97424.0</v>
       </c>
       <c r="C102" t="n">
-        <v>428965.0</v>
+        <v>209516.0</v>
       </c>
       <c r="D102" t="n">
-        <v>12725.0</v>
+        <v>8264.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3866.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>9313986.0</v>
+        <v>9557922.0</v>
       </c>
       <c r="B103" t="n">
-        <v>113386.0</v>
+        <v>96284.0</v>
       </c>
       <c r="C103" t="n">
-        <v>441070.0</v>
+        <v>214236.0</v>
       </c>
       <c r="D103" t="n">
-        <v>12810.0</v>
+        <v>8249.0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>3786.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9307107.0</v>
+        <v>9557926.0</v>
       </c>
       <c r="B104" t="n">
-        <v>108200.0</v>
+        <v>91532.0</v>
       </c>
       <c r="C104" t="n">
-        <v>453135.0</v>
+        <v>218984.0</v>
       </c>
       <c r="D104" t="n">
-        <v>9041.0</v>
+        <v>4955.0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3685.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>9300190.0</v>
+        <v>9556975.0</v>
       </c>
       <c r="B105" t="n">
-        <v>103104.0</v>
+        <v>87736.0</v>
       </c>
       <c r="C105" t="n">
-        <v>465148.0</v>
+        <v>223731.0</v>
       </c>
       <c r="D105" t="n">
-        <v>9394.0</v>
+        <v>6001.0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3554.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>9289650.0</v>
+        <v>9554152.0</v>
       </c>
       <c r="B106" t="n">
-        <v>102065.0</v>
+        <v>86430.0</v>
       </c>
       <c r="C106" t="n">
-        <v>476727.0</v>
+        <v>227860.0</v>
       </c>
       <c r="D106" t="n">
-        <v>12970.0</v>
+        <v>8253.0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3213.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>9280982.0</v>
+        <v>9552009.0</v>
       </c>
       <c r="B107" t="n">
-        <v>99240.0</v>
+        <v>84593.0</v>
       </c>
       <c r="C107" t="n">
-        <v>488220.0</v>
+        <v>231840.0</v>
       </c>
       <c r="D107" t="n">
-        <v>11295.0</v>
+        <v>7694.0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>3007.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>9271319.0</v>
+        <v>9549614.0</v>
       </c>
       <c r="B108" t="n">
-        <v>97438.0</v>
+        <v>83384.0</v>
       </c>
       <c r="C108" t="n">
-        <v>499685.0</v>
+        <v>235444.0</v>
       </c>
       <c r="D108" t="n">
-        <v>12222.0</v>
+        <v>8024.0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3011.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>9261286.0</v>
+        <v>9546895.0</v>
       </c>
       <c r="B109" t="n">
-        <v>96959.0</v>
+        <v>82709.0</v>
       </c>
       <c r="C109" t="n">
-        <v>510197.0</v>
+        <v>238838.0</v>
       </c>
       <c r="D109" t="n">
-        <v>12887.0</v>
+        <v>8374.0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3173.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>9250967.0</v>
+        <v>9543564.0</v>
       </c>
       <c r="B110" t="n">
-        <v>97920.0</v>
+        <v>83401.0</v>
       </c>
       <c r="C110" t="n">
-        <v>519555.0</v>
+        <v>241477.0</v>
       </c>
       <c r="D110" t="n">
-        <v>13302.0</v>
+        <v>9192.0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>3643.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>9243111.0</v>
+        <v>9543085.0</v>
       </c>
       <c r="B111" t="n">
-        <v>97110.0</v>
+        <v>81548.0</v>
       </c>
       <c r="C111" t="n">
-        <v>528221.0</v>
+        <v>243809.0</v>
       </c>
       <c r="D111" t="n">
-        <v>11045.0</v>
+        <v>6585.0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3905.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>9235838.0</v>
+        <v>9542270.0</v>
       </c>
       <c r="B112" t="n">
-        <v>96248.0</v>
+        <v>80108.0</v>
       </c>
       <c r="C112" t="n">
-        <v>536356.0</v>
+        <v>246064.0</v>
       </c>
       <c r="D112" t="n">
-        <v>10609.0</v>
+        <v>6957.0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>3864.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>9224507.0</v>
+        <v>9538798.0</v>
       </c>
       <c r="B113" t="n">
-        <v>99917.0</v>
+        <v>81767.0</v>
       </c>
       <c r="C113" t="n">
-        <v>544018.0</v>
+        <v>247877.0</v>
       </c>
       <c r="D113" t="n">
-        <v>14739.0</v>
+        <v>9820.0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3670.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>9215186.0</v>
+        <v>9536150.0</v>
       </c>
       <c r="B114" t="n">
-        <v>101247.0</v>
+        <v>83098.0</v>
       </c>
       <c r="C114" t="n">
-        <v>552009.0</v>
+        <v>249194.0</v>
       </c>
       <c r="D114" t="n">
-        <v>12698.0</v>
+        <v>9097.0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3556.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>9204504.0</v>
+        <v>9533293.0</v>
       </c>
       <c r="B115" t="n">
-        <v>103660.0</v>
+        <v>85057.0</v>
       </c>
       <c r="C115" t="n">
-        <v>560278.0</v>
+        <v>250092.0</v>
       </c>
       <c r="D115" t="n">
-        <v>14132.0</v>
+        <v>9585.0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3594.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>9193813.0</v>
+        <v>9529768.0</v>
       </c>
       <c r="B116" t="n">
-        <v>106352.0</v>
+        <v>87592.0</v>
       </c>
       <c r="C116" t="n">
-        <v>568277.0</v>
+        <v>251082.0</v>
       </c>
       <c r="D116" t="n">
-        <v>14393.0</v>
+        <v>10263.0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3775.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>9182497.0</v>
+        <v>9525851.0</v>
       </c>
       <c r="B117" t="n">
-        <v>109469.0</v>
+        <v>90602.0</v>
       </c>
       <c r="C117" t="n">
-        <v>576476.0</v>
+        <v>251989.0</v>
       </c>
       <c r="D117" t="n">
-        <v>15029.0</v>
+        <v>10699.0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>4339.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>9174283.0</v>
+        <v>9524547.0</v>
       </c>
       <c r="B118" t="n">
-        <v>109901.0</v>
+        <v>90817.0</v>
       </c>
       <c r="C118" t="n">
-        <v>584258.0</v>
+        <v>253078.0</v>
       </c>
       <c r="D118" t="n">
-        <v>12296.0</v>
+        <v>8298.0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4601.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>9166749.0</v>
+        <v>9523238.0</v>
       </c>
       <c r="B119" t="n">
-        <v>109197.0</v>
+        <v>91033.0</v>
       </c>
       <c r="C119" t="n">
-        <v>592496.0</v>
+        <v>254171.0</v>
       </c>
       <c r="D119" t="n">
-        <v>11737.0</v>
+        <v>8361.0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>4622.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>9155250.0</v>
+        <v>9519062.0</v>
       </c>
       <c r="B120" t="n">
-        <v>112554.0</v>
+        <v>94278.0</v>
       </c>
       <c r="C120" t="n">
-        <v>600638.0</v>
+        <v>255102.0</v>
       </c>
       <c r="D120" t="n">
-        <v>15783.0</v>
+        <v>11535.0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4262.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>9145586.0</v>
+        <v>9515753.0</v>
       </c>
       <c r="B121" t="n">
-        <v>113378.0</v>
+        <v>96631.0</v>
       </c>
       <c r="C121" t="n">
-        <v>609478.0</v>
+        <v>256058.0</v>
       </c>
       <c r="D121" t="n">
-        <v>13876.0</v>
+        <v>10879.0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4262.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>9134838.0</v>
+        <v>9511802.0</v>
       </c>
       <c r="B122" t="n">
-        <v>114896.0</v>
+        <v>99435.0</v>
       </c>
       <c r="C122" t="n">
-        <v>618708.0</v>
+        <v>257205.0</v>
       </c>
       <c r="D122" t="n">
-        <v>15074.0</v>
+        <v>11703.0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4326.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>9123927.0</v>
+        <v>9507221.0</v>
       </c>
       <c r="B123" t="n">
-        <v>116880.0</v>
+        <v>102601.0</v>
       </c>
       <c r="C123" t="n">
-        <v>627635.0</v>
+        <v>258620.0</v>
       </c>
       <c r="D123" t="n">
-        <v>15472.0</v>
+        <v>12245.0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4745.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>9112761.0</v>
+        <v>9501503.0</v>
       </c>
       <c r="B124" t="n">
-        <v>119371.0</v>
+        <v>106707.0</v>
       </c>
       <c r="C124" t="n">
-        <v>636310.0</v>
+        <v>260232.0</v>
       </c>
       <c r="D124" t="n">
-        <v>15885.0</v>
+        <v>13338.0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>5134.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>9104576.0</v>
+        <v>9499522.0</v>
       </c>
       <c r="B125" t="n">
-        <v>119148.0</v>
+        <v>107095.0</v>
       </c>
       <c r="C125" t="n">
-        <v>644718.0</v>
+        <v>261825.0</v>
       </c>
       <c r="D125" t="n">
-        <v>13070.0</v>
+        <v>10024.0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>5578.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>9097421.0</v>
+        <v>9497731.0</v>
       </c>
       <c r="B126" t="n">
-        <v>117197.0</v>
+        <v>107190.0</v>
       </c>
       <c r="C126" t="n">
-        <v>653824.0</v>
+        <v>263521.0</v>
       </c>
       <c r="D126" t="n">
-        <v>12231.0</v>
+        <v>10084.0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>5713.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>9086139.0</v>
+        <v>9492451.0</v>
       </c>
       <c r="B127" t="n">
-        <v>120039.0</v>
+        <v>110897.0</v>
       </c>
       <c r="C127" t="n">
-        <v>662264.0</v>
+        <v>265094.0</v>
       </c>
       <c r="D127" t="n">
-        <v>16619.0</v>
+        <v>13769.0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>5239.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>9076836.0</v>
+        <v>9488305.0</v>
       </c>
       <c r="B128" t="n">
-        <v>120402.0</v>
+        <v>113654.0</v>
       </c>
       <c r="C128" t="n">
-        <v>671204.0</v>
+        <v>266483.0</v>
       </c>
       <c r="D128" t="n">
-        <v>14540.0</v>
+        <v>12962.0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>5080.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>9066731.0</v>
+        <v>9483520.0</v>
       </c>
       <c r="B129" t="n">
-        <v>121224.0</v>
+        <v>116444.0</v>
       </c>
       <c r="C129" t="n">
-        <v>680487.0</v>
+        <v>268478.0</v>
       </c>
       <c r="D129" t="n">
-        <v>15428.0</v>
+        <v>13447.0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>5330.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>9056126.0</v>
+        <v>9477952.0</v>
       </c>
       <c r="B130" t="n">
-        <v>123175.0</v>
+        <v>119804.0</v>
       </c>
       <c r="C130" t="n">
-        <v>689141.0</v>
+        <v>270686.0</v>
       </c>
       <c r="D130" t="n">
-        <v>16353.0</v>
+        <v>14396.0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>5670.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>9045133.0</v>
+        <v>9471403.0</v>
       </c>
       <c r="B131" t="n">
-        <v>125566.0</v>
+        <v>124152.0</v>
       </c>
       <c r="C131" t="n">
-        <v>697743.0</v>
+        <v>272887.0</v>
       </c>
       <c r="D131" t="n">
-        <v>16834.0</v>
+        <v>15635.0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>6204.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>9037624.0</v>
+        <v>9468649.0</v>
       </c>
       <c r="B132" t="n">
-        <v>125052.0</v>
+        <v>124351.0</v>
       </c>
       <c r="C132" t="n">
-        <v>705766.0</v>
+        <v>275442.0</v>
       </c>
       <c r="D132" t="n">
-        <v>13731.0</v>
+        <v>11945.0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>6731.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>9031233.0</v>
+        <v>9466252.0</v>
       </c>
       <c r="B133" t="n">
-        <v>123100.0</v>
+        <v>124487.0</v>
       </c>
       <c r="C133" t="n">
-        <v>714109.0</v>
+        <v>277703.0</v>
       </c>
       <c r="D133" t="n">
-        <v>13039.0</v>
+        <v>11786.0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>6533.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>9020586.0</v>
+        <v>9459890.0</v>
       </c>
       <c r="B134" t="n">
-        <v>126257.0</v>
+        <v>128966.0</v>
       </c>
       <c r="C134" t="n">
-        <v>721599.0</v>
+        <v>279586.0</v>
       </c>
       <c r="D134" t="n">
-        <v>17577.0</v>
+        <v>16069.0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>6136.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>9012509.0</v>
+        <v>9454509.0</v>
       </c>
       <c r="B135" t="n">
-        <v>126785.0</v>
+        <v>132034.0</v>
       </c>
       <c r="C135" t="n">
-        <v>729148.0</v>
+        <v>281899.0</v>
       </c>
       <c r="D135" t="n">
-        <v>15033.0</v>
+        <v>15178.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>6070.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>9003276.0</v>
+        <v>9448161.0</v>
       </c>
       <c r="B136" t="n">
-        <v>127698.0</v>
+        <v>135302.0</v>
       </c>
       <c r="C136" t="n">
-        <v>737468.0</v>
+        <v>284979.0</v>
       </c>
       <c r="D136" t="n">
-        <v>16384.0</v>
+        <v>15907.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>6299.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>8993951.0</v>
+        <v>9440847.0</v>
       </c>
       <c r="B137" t="n">
-        <v>129388.0</v>
+        <v>138801.0</v>
       </c>
       <c r="C137" t="n">
-        <v>745103.0</v>
+        <v>288794.0</v>
       </c>
       <c r="D137" t="n">
-        <v>17001.0</v>
+        <v>16845.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>6569.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>8984350.0</v>
+        <v>9431676.0</v>
       </c>
       <c r="B138" t="n">
-        <v>131530.0</v>
+        <v>143712.0</v>
       </c>
       <c r="C138" t="n">
-        <v>752562.0</v>
+        <v>293054.0</v>
       </c>
       <c r="D138" t="n">
-        <v>17229.0</v>
+        <v>18404.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>7228.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>8978666.0</v>
+        <v>9426973.0</v>
       </c>
       <c r="B139" t="n">
-        <v>130164.0</v>
+        <v>143461.0</v>
       </c>
       <c r="C139" t="n">
-        <v>759612.0</v>
+        <v>298008.0</v>
       </c>
       <c r="D139" t="n">
-        <v>13869.0</v>
+        <v>13752.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>7794.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>8974286.0</v>
+        <v>9421771.0</v>
       </c>
       <c r="B140" t="n">
-        <v>127492.0</v>
+        <v>143044.0</v>
       </c>
       <c r="C140" t="n">
-        <v>766664.0</v>
+        <v>303627.0</v>
       </c>
       <c r="D140" t="n">
-        <v>12988.0</v>
+        <v>13702.0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>7810.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>8964742.0</v>
+        <v>9411666.0</v>
       </c>
       <c r="B141" t="n">
-        <v>130626.0</v>
+        <v>147632.0</v>
       </c>
       <c r="C141" t="n">
-        <v>773074.0</v>
+        <v>309144.0</v>
       </c>
       <c r="D141" t="n">
-        <v>18175.0</v>
+        <v>18543.0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>7086.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>8958142.0</v>
+        <v>9402780.0</v>
       </c>
       <c r="B142" t="n">
-        <v>130458.0</v>
+        <v>150688.0</v>
       </c>
       <c r="C142" t="n">
-        <v>779842.0</v>
+        <v>314974.0</v>
       </c>
       <c r="D142" t="n">
-        <v>15423.0</v>
+        <v>17283.0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>6860.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>8950446.0</v>
+        <v>9392694.0</v>
       </c>
       <c r="B143" t="n">
-        <v>131012.0</v>
+        <v>153957.0</v>
       </c>
       <c r="C143" t="n">
-        <v>786984.0</v>
+        <v>321791.0</v>
       </c>
       <c r="D143" t="n">
-        <v>16882.0</v>
+        <v>18247.0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>7278.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>8943017.0</v>
+        <v>9381392.0</v>
       </c>
       <c r="B144" t="n">
-        <v>132479.0</v>
+        <v>157384.0</v>
       </c>
       <c r="C144" t="n">
-        <v>792946.0</v>
+        <v>329666.0</v>
       </c>
       <c r="D144" t="n">
-        <v>17194.0</v>
+        <v>19068.0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>7534.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>8934658.0</v>
+        <v>9368763.0</v>
       </c>
       <c r="B145" t="n">
-        <v>134482.0</v>
+        <v>161967.0</v>
       </c>
       <c r="C145" t="n">
-        <v>799302.0</v>
+        <v>337712.0</v>
       </c>
       <c r="D145" t="n">
-        <v>17807.0</v>
+        <v>20255.0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>8282.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>8930448.0</v>
+        <v>9361452.0</v>
       </c>
       <c r="B146" t="n">
-        <v>133113.0</v>
+        <v>160715.0</v>
       </c>
       <c r="C146" t="n">
-        <v>804881.0</v>
+        <v>346275.0</v>
       </c>
       <c r="D146" t="n">
-        <v>14188.0</v>
+        <v>15039.0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>8791.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>8927527.0</v>
+        <v>9354210.0</v>
       </c>
       <c r="B147" t="n">
-        <v>130664.0</v>
+        <v>159236.0</v>
       </c>
       <c r="C147" t="n">
-        <v>810251.0</v>
+        <v>354996.0</v>
       </c>
       <c r="D147" t="n">
-        <v>13469.0</v>
+        <v>14931.0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>8613.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>8920160.0</v>
+        <v>9342299.0</v>
       </c>
       <c r="B148" t="n">
-        <v>133336.0</v>
+        <v>163085.0</v>
       </c>
       <c r="C148" t="n">
-        <v>814946.0</v>
+        <v>363058.0</v>
       </c>
       <c r="D148" t="n">
-        <v>18174.0</v>
+        <v>19994.0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>7681.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>8916853.0</v>
+        <v>9336017.0</v>
       </c>
       <c r="B149" t="n">
-        <v>131553.0</v>
+        <v>161056.0</v>
       </c>
       <c r="C149" t="n">
-        <v>820036.0</v>
+        <v>371369.0</v>
       </c>
       <c r="D149" t="n">
-        <v>14013.0</v>
+        <v>14427.0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>7706.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>8912755.0</v>
+        <v>9329801.0</v>
       </c>
       <c r="B150" t="n">
-        <v>129957.0</v>
+        <v>158505.0</v>
       </c>
       <c r="C150" t="n">
-        <v>825730.0</v>
+        <v>380136.0</v>
       </c>
       <c r="D150" t="n">
-        <v>14838.0</v>
+        <v>14506.0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>7412.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>8909749.0</v>
+        <v>9323881.0</v>
       </c>
       <c r="B151" t="n">
-        <v>128264.0</v>
+        <v>155350.0</v>
       </c>
       <c r="C151" t="n">
-        <v>830429.0</v>
+        <v>389211.0</v>
       </c>
       <c r="D151" t="n">
-        <v>14476.0</v>
+        <v>14446.0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>6926.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>8907094.0</v>
+        <v>9318358.0</v>
       </c>
       <c r="B152" t="n">
-        <v>126146.0</v>
+        <v>152277.0</v>
       </c>
       <c r="C152" t="n">
-        <v>835202.0</v>
+        <v>397807.0</v>
       </c>
       <c r="D152" t="n">
-        <v>13915.0</v>
+        <v>14422.0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>7012.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>8909165.0</v>
+        <v>9318904.0</v>
       </c>
       <c r="B153" t="n">
-        <v>120010.0</v>
+        <v>142462.0</v>
       </c>
       <c r="C153" t="n">
-        <v>839267.0</v>
+        <v>407076.0</v>
       </c>
       <c r="D153" t="n">
-        <v>9692.0</v>
+        <v>8533.0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>6821.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>8911849.0</v>
+        <v>9317998.0</v>
       </c>
       <c r="B154" t="n">
-        <v>113120.0</v>
+        <v>134833.0</v>
       </c>
       <c r="C154" t="n">
-        <v>843473.0</v>
+        <v>415611.0</v>
       </c>
       <c r="D154" t="n">
-        <v>9703.0</v>
+        <v>10138.0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>6044.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>8916247.0</v>
+        <v>9319419.0</v>
       </c>
       <c r="B155" t="n">
-        <v>105745.0</v>
+        <v>126006.0</v>
       </c>
       <c r="C155" t="n">
-        <v>846450.0</v>
+        <v>423017.0</v>
       </c>
       <c r="D155" t="n">
-        <v>8105.0</v>
+        <v>8215.0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>4977.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>8922107.0</v>
+        <v>9322936.0</v>
       </c>
       <c r="B156" t="n">
-        <v>96540.0</v>
+        <v>115953.0</v>
       </c>
       <c r="C156" t="n">
-        <v>849795.0</v>
+        <v>429553.0</v>
       </c>
       <c r="D156" t="n">
-        <v>6392.0</v>
+        <v>6472.0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>4525.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>8929423.0</v>
+        <v>9328033.0</v>
       </c>
       <c r="B157" t="n">
-        <v>86157.0</v>
+        <v>104794.0</v>
       </c>
       <c r="C157" t="n">
-        <v>852862.0</v>
+        <v>435615.0</v>
       </c>
       <c r="D157" t="n">
-        <v>5220.0</v>
+        <v>4965.0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>3848.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>8934609.0</v>
+        <v>9330762.0</v>
       </c>
       <c r="B158" t="n">
-        <v>79637.0</v>
+        <v>96963.0</v>
       </c>
       <c r="C158" t="n">
-        <v>854196.0</v>
+        <v>440717.0</v>
       </c>
       <c r="D158" t="n">
-        <v>8133.0</v>
+        <v>7476.0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>3092.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>8940995.0</v>
+        <v>9334809.0</v>
       </c>
       <c r="B159" t="n">
-        <v>72449.0</v>
+        <v>89826.0</v>
       </c>
       <c r="C159" t="n">
-        <v>854998.0</v>
+        <v>443807.0</v>
       </c>
       <c r="D159" t="n">
-        <v>6664.0</v>
+        <v>6610.0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2926.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>8950092.0</v>
+        <v>9342653.0</v>
       </c>
       <c r="B160" t="n">
-        <v>63677.0</v>
+        <v>79526.0</v>
       </c>
       <c r="C160" t="n">
-        <v>854673.0</v>
+        <v>446263.0</v>
       </c>
       <c r="D160" t="n">
-        <v>4365.0</v>
+        <v>3192.0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>2945.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>8958959.0</v>
+        <v>9349396.0</v>
       </c>
       <c r="B161" t="n">
-        <v>57771.0</v>
+        <v>72166.0</v>
       </c>
       <c r="C161" t="n">
-        <v>851712.0</v>
+        <v>446880.0</v>
       </c>
       <c r="D161" t="n">
-        <v>5294.0</v>
+        <v>4544.0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>2863.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>8966611.0</v>
+        <v>9355475.0</v>
       </c>
       <c r="B162" t="n">
-        <v>54739.0</v>
+        <v>67440.0</v>
       </c>
       <c r="C162" t="n">
-        <v>847092.0</v>
+        <v>445527.0</v>
       </c>
       <c r="D162" t="n">
-        <v>6484.0</v>
+        <v>5667.0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>2471.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>8974889.0</v>
+        <v>9361872.0</v>
       </c>
       <c r="B163" t="n">
-        <v>52296.0</v>
+        <v>63488.0</v>
       </c>
       <c r="C163" t="n">
-        <v>841257.0</v>
+        <v>443082.0</v>
       </c>
       <c r="D163" t="n">
-        <v>5756.0</v>
+        <v>5253.0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2471.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>8982015.0</v>
+        <v>9367272.0</v>
       </c>
       <c r="B164" t="n">
-        <v>51347.0</v>
+        <v>61161.0</v>
       </c>
       <c r="C164" t="n">
-        <v>835080.0</v>
+        <v>440009.0</v>
       </c>
       <c r="D164" t="n">
-        <v>7101.0</v>
+        <v>6190.0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2203.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>8989674.0</v>
+        <v>9372877.0</v>
       </c>
       <c r="B165" t="n">
-        <v>51280.0</v>
+        <v>59711.0</v>
       </c>
       <c r="C165" t="n">
-        <v>827488.0</v>
+        <v>435854.0</v>
       </c>
       <c r="D165" t="n">
-        <v>6831.0</v>
+        <v>6505.0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2245.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>8996273.0</v>
+        <v>9378313.0</v>
       </c>
       <c r="B166" t="n">
-        <v>52402.0</v>
+        <v>59588.0</v>
       </c>
       <c r="C166" t="n">
-        <v>819767.0</v>
+        <v>430541.0</v>
       </c>
       <c r="D166" t="n">
-        <v>7410.0</v>
+        <v>7203.0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>2604.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>9004364.0</v>
+        <v>9386515.0</v>
       </c>
       <c r="B167" t="n">
-        <v>52244.0</v>
+        <v>57442.0</v>
       </c>
       <c r="C167" t="n">
-        <v>811834.0</v>
+        <v>424485.0</v>
       </c>
       <c r="D167" t="n">
-        <v>6029.0</v>
+        <v>5144.0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>2949.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>9012525.0</v>
+        <v>9394496.0</v>
       </c>
       <c r="B168" t="n">
-        <v>52253.0</v>
+        <v>56268.0</v>
       </c>
       <c r="C168" t="n">
-        <v>803664.0</v>
+        <v>417678.0</v>
       </c>
       <c r="D168" t="n">
-        <v>5863.0</v>
+        <v>5512.0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>2885.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>9017691.0</v>
+        <v>9400398.0</v>
       </c>
       <c r="B169" t="n">
-        <v>54516.0</v>
+        <v>57986.0</v>
       </c>
       <c r="C169" t="n">
-        <v>796235.0</v>
+        <v>410058.0</v>
       </c>
       <c r="D169" t="n">
-        <v>8200.0</v>
+        <v>8101.0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>2746.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>9022761.0</v>
+        <v>9406996.0</v>
       </c>
       <c r="B170" t="n">
-        <v>55346.0</v>
+        <v>59483.0</v>
       </c>
       <c r="C170" t="n">
-        <v>790335.0</v>
+        <v>401963.0</v>
       </c>
       <c r="D170" t="n">
-        <v>7271.0</v>
+        <v>7521.0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>2921.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>9026697.0</v>
+        <v>9412982.0</v>
       </c>
       <c r="B171" t="n">
-        <v>56701.0</v>
+        <v>61677.0</v>
       </c>
       <c r="C171" t="n">
-        <v>785044.0</v>
+        <v>393783.0</v>
       </c>
       <c r="D171" t="n">
-        <v>7919.0</v>
+        <v>7969.0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>2890.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>9029722.0</v>
+        <v>9418326.0</v>
       </c>
       <c r="B172" t="n">
-        <v>58754.0</v>
+        <v>64596.0</v>
       </c>
       <c r="C172" t="n">
-        <v>779966.0</v>
+        <v>385520.0</v>
       </c>
       <c r="D172" t="n">
-        <v>8446.0</v>
+        <v>8883.0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>3254.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>9032036.0</v>
+        <v>9423595.0</v>
       </c>
       <c r="B173" t="n">
-        <v>61314.0</v>
+        <v>68475.0</v>
       </c>
       <c r="C173" t="n">
-        <v>775092.0</v>
+        <v>376372.0</v>
       </c>
       <c r="D173" t="n">
-        <v>8756.0</v>
+        <v>9709.0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>3564.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>9036058.0</v>
+        <v>9431728.0</v>
       </c>
       <c r="B174" t="n">
-        <v>62076.0</v>
+        <v>69706.0</v>
       </c>
       <c r="C174" t="n">
-        <v>770308.0</v>
+        <v>367008.0</v>
       </c>
       <c r="D174" t="n">
-        <v>7346.0</v>
+        <v>7508.0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>4115.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>9040854.0</v>
+        <v>9440069.0</v>
       </c>
       <c r="B175" t="n">
-        <v>62017.0</v>
+        <v>70597.0</v>
       </c>
       <c r="C175" t="n">
-        <v>765571.0</v>
+        <v>357776.0</v>
       </c>
       <c r="D175" t="n">
-        <v>6923.0</v>
+        <v>7331.0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>4033.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>9042897.0</v>
+        <v>9445969.0</v>
       </c>
       <c r="B176" t="n">
-        <v>64741.0</v>
+        <v>74288.0</v>
       </c>
       <c r="C176" t="n">
-        <v>760804.0</v>
+        <v>348185.0</v>
       </c>
       <c r="D176" t="n">
-        <v>9658.0</v>
+        <v>10391.0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>3788.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>9046391.0</v>
+        <v>9452500.0</v>
       </c>
       <c r="B177" t="n">
-        <v>66032.0</v>
+        <v>77151.0</v>
       </c>
       <c r="C177" t="n">
-        <v>756019.0</v>
+        <v>338791.0</v>
       </c>
       <c r="D177" t="n">
-        <v>8418.0</v>
+        <v>9879.0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>3724.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>9048953.0</v>
+        <v>9458051.0</v>
       </c>
       <c r="B178" t="n">
-        <v>67721.0</v>
+        <v>80217.0</v>
       </c>
       <c r="C178" t="n">
-        <v>751768.0</v>
+        <v>330174.0</v>
       </c>
       <c r="D178" t="n">
-        <v>9302.0</v>
+        <v>10594.0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>3977.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>9051963.0</v>
+        <v>9463092.0</v>
       </c>
       <c r="B179" t="n">
-        <v>69444.0</v>
+        <v>83828.0</v>
       </c>
       <c r="C179" t="n">
-        <v>747035.0</v>
+        <v>321522.0</v>
       </c>
       <c r="D179" t="n">
-        <v>9431.0</v>
+        <v>11415.0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>4336.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>9054374.0</v>
+        <v>9467441.0</v>
       </c>
       <c r="B180" t="n">
-        <v>71698.0</v>
+        <v>88481.0</v>
       </c>
       <c r="C180" t="n">
-        <v>742370.0</v>
+        <v>312520.0</v>
       </c>
       <c r="D180" t="n">
-        <v>10015.0</v>
+        <v>12708.0</v>
+      </c>
+      <c r="E180" t="n">
+        <v>4799.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>9059206.0</v>
+        <v>9475458.0</v>
       </c>
       <c r="B181" t="n">
-        <v>72167.0</v>
+        <v>89439.0</v>
       </c>
       <c r="C181" t="n">
-        <v>737069.0</v>
+        <v>303545.0</v>
       </c>
       <c r="D181" t="n">
-        <v>8220.0</v>
+        <v>9584.0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>5263.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>9064808.0</v>
+        <v>9483434.0</v>
       </c>
       <c r="B182" t="n">
-        <v>71924.0</v>
+        <v>90309.0</v>
       </c>
       <c r="C182" t="n">
-        <v>731710.0</v>
+        <v>294699.0</v>
       </c>
       <c r="D182" t="n">
-        <v>7954.0</v>
+        <v>9519.0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>5252.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>9067337.0</v>
+        <v>9488638.0</v>
       </c>
       <c r="B183" t="n">
-        <v>74683.0</v>
+        <v>94741.0</v>
       </c>
       <c r="C183" t="n">
-        <v>726422.0</v>
+        <v>285063.0</v>
       </c>
       <c r="D183" t="n">
-        <v>10959.0</v>
+        <v>13144.0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>4842.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>9071251.0</v>
+        <v>9493749.0</v>
       </c>
       <c r="B184" t="n">
-        <v>75631.0</v>
+        <v>98142.0</v>
       </c>
       <c r="C184" t="n">
-        <v>721560.0</v>
+        <v>276551.0</v>
       </c>
       <c r="D184" t="n">
-        <v>9480.0</v>
+        <v>12656.0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>4807.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>9073961.0</v>
+        <v>9497072.0</v>
       </c>
       <c r="B185" t="n">
-        <v>77399.0</v>
+        <v>101951.0</v>
       </c>
       <c r="C185" t="n">
-        <v>717082.0</v>
+        <v>269419.0</v>
       </c>
       <c r="D185" t="n">
-        <v>10583.0</v>
+        <v>13719.0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>5015.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>9077161.0</v>
+        <v>9498828.0</v>
       </c>
       <c r="B186" t="n">
-        <v>79374.0</v>
+        <v>106168.0</v>
       </c>
       <c r="C186" t="n">
-        <v>711907.0</v>
+        <v>263446.0</v>
       </c>
       <c r="D186" t="n">
-        <v>10982.0</v>
+        <v>14769.0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>5408.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>9079186.0</v>
+        <v>9498699.0</v>
       </c>
       <c r="B187" t="n">
-        <v>82179.0</v>
+        <v>112092.0</v>
       </c>
       <c r="C187" t="n">
-        <v>707077.0</v>
+        <v>257651.0</v>
       </c>
       <c r="D187" t="n">
-        <v>11752.0</v>
+        <v>16253.0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>6201.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>9083879.0</v>
+        <v>9501475.0</v>
       </c>
       <c r="B188" t="n">
-        <v>82793.0</v>
+        <v>113600.0</v>
       </c>
       <c r="C188" t="n">
-        <v>701770.0</v>
+        <v>253367.0</v>
       </c>
       <c r="D188" t="n">
-        <v>9484.0</v>
+        <v>12531.0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>6834.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>9089137.0</v>
+        <v>9503326.0</v>
       </c>
       <c r="B189" t="n">
-        <v>82721.0</v>
+        <v>114147.0</v>
       </c>
       <c r="C189" t="n">
-        <v>696584.0</v>
+        <v>250969.0</v>
       </c>
       <c r="D189" t="n">
-        <v>9348.0</v>
+        <v>11896.0</v>
+      </c>
+      <c r="E189" t="n">
+        <v>6727.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>9091051.0</v>
+        <v>9500165.0</v>
       </c>
       <c r="B190" t="n">
-        <v>86033.0</v>
+        <v>119413.0</v>
       </c>
       <c r="C190" t="n">
-        <v>691358.0</v>
+        <v>248864.0</v>
       </c>
       <c r="D190" t="n">
-        <v>12488.0</v>
+        <v>16653.0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>6196.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>9094500.0</v>
+        <v>9496229.0</v>
       </c>
       <c r="B191" t="n">
-        <v>87528.0</v>
+        <v>123228.0</v>
       </c>
       <c r="C191" t="n">
-        <v>686414.0</v>
+        <v>248985.0</v>
       </c>
       <c r="D191" t="n">
-        <v>10994.0</v>
+        <v>15840.0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>6108.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>9096681.0</v>
+        <v>9489343.0</v>
       </c>
       <c r="B192" t="n">
-        <v>89478.0</v>
+        <v>127855.0</v>
       </c>
       <c r="C192" t="n">
-        <v>682283.0</v>
+        <v>251244.0</v>
       </c>
       <c r="D192" t="n">
-        <v>12064.0</v>
+        <v>17279.0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>6470.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>9099219.0</v>
+        <v>9480248.0</v>
       </c>
       <c r="B193" t="n">
-        <v>91569.0</v>
+        <v>132862.0</v>
       </c>
       <c r="C193" t="n">
-        <v>677654.0</v>
+        <v>255332.0</v>
       </c>
       <c r="D193" t="n">
-        <v>12453.0</v>
+        <v>18300.0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>6958.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>9100518.0</v>
+        <v>9468639.0</v>
       </c>
       <c r="B194" t="n">
-        <v>94351.0</v>
+        <v>139657.0</v>
       </c>
       <c r="C194" t="n">
-        <v>673573.0</v>
+        <v>260146.0</v>
       </c>
       <c r="D194" t="n">
-        <v>13121.0</v>
+        <v>20126.0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>7727.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>9104366.0</v>
+        <v>9461750.0</v>
       </c>
       <c r="B195" t="n">
-        <v>94736.0</v>
+        <v>140223.0</v>
       </c>
       <c r="C195" t="n">
-        <v>669340.0</v>
+        <v>266469.0</v>
       </c>
       <c r="D195" t="n">
-        <v>10657.0</v>
+        <v>14844.0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>8620.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>9109446.0</v>
+        <v>9454109.0</v>
       </c>
       <c r="B196" t="n">
-        <v>94330.0</v>
+        <v>140847.0</v>
       </c>
       <c r="C196" t="n">
-        <v>664666.0</v>
+        <v>273486.0</v>
       </c>
       <c r="D196" t="n">
-        <v>10391.0</v>
+        <v>14967.0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>8455.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>9110651.0</v>
+        <v>9441367.0</v>
       </c>
       <c r="B197" t="n">
-        <v>97783.0</v>
+        <v>146659.0</v>
       </c>
       <c r="C197" t="n">
-        <v>660008.0</v>
+        <v>280416.0</v>
       </c>
       <c r="D197" t="n">
-        <v>14106.0</v>
+        <v>20032.0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>7302.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>9113262.0</v>
+        <v>9429393.0</v>
       </c>
       <c r="B198" t="n">
-        <v>99238.0</v>
+        <v>150322.0</v>
       </c>
       <c r="C198" t="n">
-        <v>655942.0</v>
+        <v>288727.0</v>
       </c>
       <c r="D198" t="n">
-        <v>12476.0</v>
+        <v>18660.0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>7461.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>9114942.0</v>
+        <v>9415934.0</v>
       </c>
       <c r="B199" t="n">
-        <v>101167.0</v>
+        <v>154337.0</v>
       </c>
       <c r="C199" t="n">
-        <v>652333.0</v>
+        <v>298171.0</v>
       </c>
       <c r="D199" t="n">
-        <v>13555.0</v>
+        <v>19842.0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>7813.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>9116270.0</v>
+        <v>9401043.0</v>
       </c>
       <c r="B200" t="n">
-        <v>103669.0</v>
+        <v>158511.0</v>
       </c>
       <c r="C200" t="n">
-        <v>648503.0</v>
+        <v>308888.0</v>
       </c>
       <c r="D200" t="n">
-        <v>14332.0</v>
+        <v>20915.0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>8309.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>9116629.0</v>
+        <v>9384180.0</v>
       </c>
       <c r="B201" t="n">
-        <v>106531.0</v>
+        <v>164596.0</v>
       </c>
       <c r="C201" t="n">
-        <v>645282.0</v>
+        <v>319666.0</v>
       </c>
       <c r="D201" t="n">
-        <v>14682.0</v>
+        <v>22638.0</v>
+      </c>
+      <c r="E201" t="n">
+        <v>8926.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>9120417.0</v>
+        <v>9373321.0</v>
       </c>
       <c r="B202" t="n">
-        <v>106715.0</v>
+        <v>163809.0</v>
       </c>
       <c r="C202" t="n">
-        <v>641310.0</v>
+        <v>331312.0</v>
       </c>
       <c r="D202" t="n">
-        <v>11803.0</v>
+        <v>16823.0</v>
+      </c>
+      <c r="E202" t="n">
+        <v>9656.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>9125301.0</v>
+        <v>9362698.0</v>
       </c>
       <c r="B203" t="n">
-        <v>105772.0</v>
+        <v>162886.0</v>
       </c>
       <c r="C203" t="n">
-        <v>637369.0</v>
+        <v>342858.0</v>
       </c>
       <c r="D203" t="n">
-        <v>11444.0</v>
+        <v>16453.0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>9593.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>9125858.0</v>
+        <v>9347251.0</v>
       </c>
       <c r="B204" t="n">
-        <v>109001.0</v>
+        <v>167502.0</v>
       </c>
       <c r="C204" t="n">
-        <v>633583.0</v>
+        <v>353689.0</v>
       </c>
       <c r="D204" t="n">
-        <v>15170.0</v>
+        <v>21724.0</v>
+      </c>
+      <c r="E204" t="n">
+        <v>8251.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>9128240.0</v>
+        <v>9333889.0</v>
       </c>
       <c r="B205" t="n">
-        <v>109911.0</v>
+        <v>169508.0</v>
       </c>
       <c r="C205" t="n">
-        <v>630291.0</v>
+        <v>365045.0</v>
       </c>
       <c r="D205" t="n">
-        <v>13422.0</v>
+        <v>19802.0</v>
+      </c>
+      <c r="E205" t="n">
+        <v>8215.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>9129170.0</v>
+        <v>9319749.0</v>
       </c>
       <c r="B206" t="n">
-        <v>111406.0</v>
+        <v>171918.0</v>
       </c>
       <c r="C206" t="n">
-        <v>627866.0</v>
+        <v>376775.0</v>
       </c>
       <c r="D206" t="n">
-        <v>14627.0</v>
+        <v>20840.0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>8505.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>9130285.0</v>
+        <v>9305078.0</v>
       </c>
       <c r="B207" t="n">
-        <v>113051.0</v>
+        <v>174368.0</v>
       </c>
       <c r="C207" t="n">
-        <v>625106.0</v>
+        <v>388996.0</v>
       </c>
       <c r="D207" t="n">
-        <v>14803.0</v>
+        <v>21687.0</v>
+      </c>
+      <c r="E207" t="n">
+        <v>8724.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>9134966.0</v>
+        <v>9297500.0</v>
       </c>
       <c r="B208" t="n">
-        <v>110834.0</v>
+        <v>170350.0</v>
       </c>
       <c r="C208" t="n">
-        <v>622642.0</v>
+        <v>400592.0</v>
       </c>
       <c r="D208" t="n">
-        <v>10821.0</v>
+        <v>15106.0</v>
+      </c>
+      <c r="E208" t="n">
+        <v>9355.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>9138398.0</v>
+        <v>9290166.0</v>
       </c>
       <c r="B209" t="n">
-        <v>110131.0</v>
+        <v>165571.0</v>
       </c>
       <c r="C209" t="n">
-        <v>619913.0</v>
+        <v>412705.0</v>
       </c>
       <c r="D209" t="n">
-        <v>12364.0</v>
+        <v>15138.0</v>
+      </c>
+      <c r="E209" t="n">
+        <v>9139.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>9145514.0</v>
+        <v>9285412.0</v>
       </c>
       <c r="B210" t="n">
-        <v>105830.0</v>
+        <v>159201.0</v>
       </c>
       <c r="C210" t="n">
-        <v>617098.0</v>
+        <v>423829.0</v>
       </c>
       <c r="D210" t="n">
-        <v>9318.0</v>
+        <v>12809.0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>8024.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>9147494.0</v>
+        <v>9276753.0</v>
       </c>
       <c r="B211" t="n">
-        <v>106795.0</v>
+        <v>157552.0</v>
       </c>
       <c r="C211" t="n">
-        <v>614153.0</v>
+        <v>434137.0</v>
       </c>
       <c r="D211" t="n">
-        <v>14189.0</v>
+        <v>17285.0</v>
+      </c>
+      <c r="E211" t="n">
+        <v>7158.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>9151582.0</v>
+        <v>9269986.0</v>
       </c>
       <c r="B212" t="n">
-        <v>104842.0</v>
+        <v>153922.0</v>
       </c>
       <c r="C212" t="n">
-        <v>612018.0</v>
+        <v>444534.0</v>
       </c>
       <c r="D212" t="n">
-        <v>11945.0</v>
+        <v>15416.0</v>
+      </c>
+      <c r="E212" t="n">
+        <v>6587.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>9154282.0</v>
+        <v>9262723.0</v>
       </c>
       <c r="B213" t="n">
-        <v>104021.0</v>
+        <v>150707.0</v>
       </c>
       <c r="C213" t="n">
-        <v>610139.0</v>
+        <v>455012.0</v>
       </c>
       <c r="D213" t="n">
-        <v>13128.0</v>
+        <v>15975.0</v>
+      </c>
+      <c r="E213" t="n">
+        <v>6592.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>9157238.0</v>
+        <v>9255137.0</v>
       </c>
       <c r="B214" t="n">
-        <v>104780.0</v>
+        <v>148878.0</v>
       </c>
       <c r="C214" t="n">
-        <v>606424.0</v>
+        <v>464427.0</v>
       </c>
       <c r="D214" t="n">
-        <v>13637.0</v>
+        <v>16841.0</v>
+      </c>
+      <c r="E214" t="n">
+        <v>6866.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>9157958.0</v>
+        <v>9247132.0</v>
       </c>
       <c r="B215" t="n">
-        <v>106380.0</v>
+        <v>148852.0</v>
       </c>
       <c r="C215" t="n">
-        <v>604104.0</v>
+        <v>472458.0</v>
       </c>
       <c r="D215" t="n">
-        <v>14760.0</v>
+        <v>17915.0</v>
+      </c>
+      <c r="E215" t="n">
+        <v>7479.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>9161728.0</v>
+        <v>9244638.0</v>
       </c>
       <c r="B216" t="n">
-        <v>105773.0</v>
+        <v>144628.0</v>
       </c>
       <c r="C216" t="n">
-        <v>600941.0</v>
+        <v>479176.0</v>
       </c>
       <c r="D216" t="n">
-        <v>11827.0</v>
+        <v>13046.0</v>
+      </c>
+      <c r="E216" t="n">
+        <v>7896.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>9165916.0</v>
+        <v>9242233.0</v>
       </c>
       <c r="B217" t="n">
-        <v>104520.0</v>
+        <v>140986.0</v>
       </c>
       <c r="C217" t="n">
-        <v>598006.0</v>
+        <v>485223.0</v>
       </c>
       <c r="D217" t="n">
-        <v>11415.0</v>
+        <v>12734.0</v>
+      </c>
+      <c r="E217" t="n">
+        <v>7518.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>9164868.0</v>
+        <v>9236580.0</v>
       </c>
       <c r="B218" t="n">
-        <v>108081.0</v>
+        <v>142180.0</v>
       </c>
       <c r="C218" t="n">
-        <v>595493.0</v>
+        <v>489682.0</v>
       </c>
       <c r="D218" t="n">
-        <v>15701.0</v>
+        <v>16676.0</v>
+      </c>
+      <c r="E218" t="n">
+        <v>6714.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>9165142.0</v>
+        <v>9232604.0</v>
       </c>
       <c r="B219" t="n">
-        <v>109690.0</v>
+        <v>142152.0</v>
       </c>
       <c r="C219" t="n">
-        <v>593610.0</v>
+        <v>493686.0</v>
       </c>
       <c r="D219" t="n">
-        <v>13578.0</v>
+        <v>15325.0</v>
+      </c>
+      <c r="E219" t="n">
+        <v>6579.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>9163440.0</v>
+        <v>9228291.0</v>
       </c>
       <c r="B220" t="n">
-        <v>111887.0</v>
+        <v>142095.0</v>
       </c>
       <c r="C220" t="n">
-        <v>593115.0</v>
+        <v>498056.0</v>
       </c>
       <c r="D220" t="n">
-        <v>14839.0</v>
+        <v>15700.0</v>
+      </c>
+      <c r="E220" t="n">
+        <v>6441.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>9164419.0</v>
+        <v>9230003.0</v>
       </c>
       <c r="B221" t="n">
-        <v>109091.0</v>
+        <v>136339.0</v>
       </c>
       <c r="C221" t="n">
-        <v>594932.0</v>
+        <v>502100.0</v>
       </c>
       <c r="D221" t="n">
-        <v>10221.0</v>
+        <v>10313.0</v>
+      </c>
+      <c r="E221" t="n">
+        <v>6521.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>9158043.0</v>
+        <v>9227000.0</v>
       </c>
       <c r="B222" t="n">
-        <v>112117.0</v>
+        <v>136136.0</v>
       </c>
       <c r="C222" t="n">
-        <v>598282.0</v>
+        <v>505306.0</v>
       </c>
       <c r="D222" t="n">
-        <v>15892.0</v>
+        <v>15655.0</v>
+      </c>
+      <c r="E222" t="n">
+        <v>6514.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>9155887.0</v>
+        <v>9230269.0</v>
       </c>
       <c r="B223" t="n">
-        <v>109364.0</v>
+        <v>130143.0</v>
       </c>
       <c r="C223" t="n">
-        <v>603191.0</v>
+        <v>508030.0</v>
       </c>
       <c r="D223" t="n">
-        <v>10355.0</v>
+        <v>10024.0</v>
+      </c>
+      <c r="E223" t="n">
+        <v>6462.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>9153891.0</v>
+        <v>9234040.0</v>
       </c>
       <c r="B224" t="n">
-        <v>105972.0</v>
+        <v>124339.0</v>
       </c>
       <c r="C224" t="n">
-        <v>608579.0</v>
+        <v>510063.0</v>
       </c>
       <c r="D224" t="n">
-        <v>10046.0</v>
+        <v>9560.0</v>
+      </c>
+      <c r="E224" t="n">
+        <v>6316.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>9146233.0</v>
+        <v>9235244.0</v>
       </c>
       <c r="B225" t="n">
-        <v>107098.0</v>
+        <v>122712.0</v>
       </c>
       <c r="C225" t="n">
-        <v>615111.0</v>
+        <v>510486.0</v>
       </c>
       <c r="D225" t="n">
-        <v>14556.0</v>
+        <v>13074.0</v>
+      </c>
+      <c r="E225" t="n">
+        <v>5101.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>9140311.0</v>
+        <v>9238064.0</v>
       </c>
       <c r="B226" t="n">
-        <v>105536.0</v>
+        <v>120050.0</v>
       </c>
       <c r="C226" t="n">
-        <v>622595.0</v>
+        <v>510328.0</v>
       </c>
       <c r="D226" t="n">
-        <v>12210.0</v>
+        <v>11523.0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>4952.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>9133062.0</v>
+        <v>9240468.0</v>
       </c>
       <c r="B227" t="n">
-        <v>105737.0</v>
+        <v>117868.0</v>
       </c>
       <c r="C227" t="n">
-        <v>629643.0</v>
+        <v>510106.0</v>
       </c>
       <c r="D227" t="n">
-        <v>13436.0</v>
+        <v>11816.0</v>
+      </c>
+      <c r="E227" t="n">
+        <v>5239.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>9124796.0</v>
+        <v>9243507.0</v>
       </c>
       <c r="B228" t="n">
-        <v>106461.0</v>
+        <v>116164.0</v>
       </c>
       <c r="C228" t="n">
-        <v>637185.0</v>
+        <v>508771.0</v>
       </c>
       <c r="D228" t="n">
-        <v>14120.0</v>
+        <v>11958.0</v>
+      </c>
+      <c r="E228" t="n">
+        <v>4917.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>9116070.0</v>
+        <v>9246853.0</v>
       </c>
       <c r="B229" t="n">
-        <v>108350.0</v>
+        <v>115581.0</v>
       </c>
       <c r="C229" t="n">
-        <v>644022.0</v>
+        <v>506008.0</v>
       </c>
       <c r="D229" t="n">
-        <v>14663.0</v>
+        <v>12481.0</v>
+      </c>
+      <c r="E229" t="n">
+        <v>5320.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>9110603.0</v>
+        <v>9254497.0</v>
       </c>
       <c r="B230" t="n">
-        <v>107832.0</v>
+        <v>111658.0</v>
       </c>
       <c r="C230" t="n">
-        <v>650007.0</v>
+        <v>502287.0</v>
       </c>
       <c r="D230" t="n">
-        <v>11908.0</v>
+        <v>9097.0</v>
+      </c>
+      <c r="E230" t="n">
+        <v>5541.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>9105911.0</v>
+        <v>9262082.0</v>
       </c>
       <c r="B231" t="n">
-        <v>106177.0</v>
+        <v>108247.0</v>
       </c>
       <c r="C231" t="n">
-        <v>656354.0</v>
+        <v>498113.0</v>
       </c>
       <c r="D231" t="n">
-        <v>11256.0</v>
+        <v>8968.0</v>
+      </c>
+      <c r="E231" t="n">
+        <v>5390.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>9097288.0</v>
+        <v>9267691.0</v>
       </c>
       <c r="B232" t="n">
-        <v>108989.0</v>
+        <v>108430.0</v>
       </c>
       <c r="C232" t="n">
-        <v>662165.0</v>
+        <v>492321.0</v>
       </c>
       <c r="D232" t="n">
-        <v>15016.0</v>
+        <v>12001.0</v>
+      </c>
+      <c r="E232" t="n">
+        <v>4901.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>9090262.0</v>
+        <v>9274295.0</v>
       </c>
       <c r="B233" t="n">
-        <v>109575.0</v>
+        <v>107532.0</v>
       </c>
       <c r="C233" t="n">
-        <v>668605.0</v>
+        <v>486615.0</v>
       </c>
       <c r="D233" t="n">
-        <v>13222.0</v>
+        <v>10772.0</v>
+      </c>
+      <c r="E233" t="n">
+        <v>4794.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>9082775.0</v>
+        <v>9280664.0</v>
       </c>
       <c r="B234" t="n">
-        <v>110275.0</v>
+        <v>106763.0</v>
       </c>
       <c r="C234" t="n">
-        <v>675392.0</v>
+        <v>481015.0</v>
       </c>
       <c r="D234" t="n">
-        <v>14071.0</v>
+        <v>10739.0</v>
+      </c>
+      <c r="E234" t="n">
+        <v>4406.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>9076924.0</v>
+        <v>9289985.0</v>
       </c>
       <c r="B235" t="n">
-        <v>110008.0</v>
+        <v>103689.0</v>
       </c>
       <c r="C235" t="n">
-        <v>681510.0</v>
+        <v>474768.0</v>
       </c>
       <c r="D235" t="n">
-        <v>12833.0</v>
+        <v>8475.0</v>
+      </c>
+      <c r="E235" t="n">
+        <v>4410.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>9070584.0</v>
+        <v>9299652.0</v>
       </c>
       <c r="B236" t="n">
-        <v>110162.0</v>
+        <v>101207.0</v>
       </c>
       <c r="C236" t="n">
-        <v>687696.0</v>
+        <v>467583.0</v>
       </c>
       <c r="D236" t="n">
-        <v>13274.0</v>
+        <v>8763.0</v>
+      </c>
+      <c r="E236" t="n">
+        <v>4733.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>9067973.0</v>
+        <v>9312949.0</v>
       </c>
       <c r="B237" t="n">
-        <v>107062.0</v>
+        <v>95867.0</v>
       </c>
       <c r="C237" t="n">
-        <v>693407.0</v>
+        <v>459626.0</v>
       </c>
       <c r="D237" t="n">
-        <v>9738.0</v>
+        <v>5940.0</v>
+      </c>
+      <c r="E237" t="n">
+        <v>4771.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>9066042.0</v>
+        <v>9325076.0</v>
       </c>
       <c r="B238" t="n">
-        <v>102946.0</v>
+        <v>92108.0</v>
       </c>
       <c r="C238" t="n">
-        <v>699454.0</v>
+        <v>451258.0</v>
       </c>
       <c r="D238" t="n">
-        <v>9544.0</v>
+        <v>6997.0</v>
+      </c>
+      <c r="E238" t="n">
+        <v>4169.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>9062179.0</v>
+        <v>9337636.0</v>
       </c>
       <c r="B239" t="n">
-        <v>101481.0</v>
+        <v>89043.0</v>
       </c>
       <c r="C239" t="n">
-        <v>704782.0</v>
+        <v>441763.0</v>
       </c>
       <c r="D239" t="n">
-        <v>11571.0</v>
+        <v>7357.0</v>
+      </c>
+      <c r="E239" t="n">
+        <v>3621.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>9060069.0</v>
+        <v>9350302.0</v>
       </c>
       <c r="B240" t="n">
-        <v>97937.0</v>
+        <v>85362.0</v>
       </c>
       <c r="C240" t="n">
-        <v>710436.0</v>
+        <v>432778.0</v>
       </c>
       <c r="D240" t="n">
-        <v>9871.0</v>
+        <v>6513.0</v>
+      </c>
+      <c r="E240" t="n">
+        <v>3210.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>9057882.0</v>
+        <v>9363235.0</v>
       </c>
       <c r="B241" t="n">
-        <v>94274.0</v>
+        <v>81521.0</v>
       </c>
       <c r="C241" t="n">
-        <v>716286.0</v>
+        <v>423686.0</v>
       </c>
       <c r="D241" t="n">
-        <v>9938.0</v>
+        <v>6001.0</v>
+      </c>
+      <c r="E241" t="n">
+        <v>2890.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>9056137.0</v>
+        <v>9376337.0</v>
       </c>
       <c r="B242" t="n">
-        <v>91050.0</v>
+        <v>77654.0</v>
       </c>
       <c r="C242" t="n">
-        <v>721255.0</v>
+        <v>414451.0</v>
       </c>
       <c r="D242" t="n">
-        <v>9942.0</v>
+        <v>5944.0</v>
+      </c>
+      <c r="E242" t="n">
+        <v>2797.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>9054407.0</v>
+        <v>9389604.0</v>
       </c>
       <c r="B243" t="n">
-        <v>88254.0</v>
+        <v>74306.0</v>
       </c>
       <c r="C243" t="n">
-        <v>725781.0</v>
+        <v>404532.0</v>
       </c>
       <c r="D243" t="n">
-        <v>9930.0</v>
+        <v>5923.0</v>
+      </c>
+      <c r="E243" t="n">
+        <v>3024.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>9055881.0</v>
+        <v>9404719.0</v>
       </c>
       <c r="B244" t="n">
-        <v>83312.0</v>
+        <v>68661.0</v>
       </c>
       <c r="C244" t="n">
-        <v>729249.0</v>
+        <v>395062.0</v>
       </c>
       <c r="D244" t="n">
-        <v>7058.0</v>
+        <v>3555.0</v>
+      </c>
+      <c r="E244" t="n">
+        <v>2912.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>9057400.0</v>
+        <v>9418167.0</v>
       </c>
       <c r="B245" t="n">
-        <v>78680.0</v>
+        <v>64662.0</v>
       </c>
       <c r="C245" t="n">
-        <v>732362.0</v>
+        <v>385613.0</v>
       </c>
       <c r="D245" t="n">
-        <v>7296.0</v>
+        <v>4493.0</v>
+      </c>
+      <c r="E245" t="n">
+        <v>2691.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>9056578.0</v>
+        <v>9429540.0</v>
       </c>
       <c r="B246" t="n">
-        <v>77515.0</v>
+        <v>62739.0</v>
       </c>
       <c r="C246" t="n">
-        <v>734349.0</v>
+        <v>376163.0</v>
       </c>
       <c r="D246" t="n">
-        <v>9829.0</v>
+        <v>5897.0</v>
+      </c>
+      <c r="E246" t="n">
+        <v>2407.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>9057086.0</v>
+        <v>9440560.0</v>
       </c>
       <c r="B247" t="n">
-        <v>75523.0</v>
+        <v>60787.0</v>
       </c>
       <c r="C247" t="n">
-        <v>735833.0</v>
+        <v>367095.0</v>
       </c>
       <c r="D247" t="n">
-        <v>8439.0</v>
+        <v>5356.0</v>
+      </c>
+      <c r="E247" t="n">
+        <v>2205.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>9056824.0</v>
+        <v>9450846.0</v>
       </c>
       <c r="B248" t="n">
-        <v>73840.0</v>
+        <v>59077.0</v>
       </c>
       <c r="C248" t="n">
-        <v>737778.0</v>
+        <v>358519.0</v>
       </c>
       <c r="D248" t="n">
-        <v>9132.0</v>
+        <v>5196.0</v>
+      </c>
+      <c r="E248" t="n">
+        <v>2041.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>9056719.0</v>
+        <v>9460651.0</v>
       </c>
       <c r="B249" t="n">
-        <v>73014.0</v>
+        <v>58003.0</v>
       </c>
       <c r="C249" t="n">
-        <v>738709.0</v>
+        <v>349788.0</v>
       </c>
       <c r="D249" t="n">
-        <v>9525.0</v>
+        <v>5548.0</v>
+      </c>
+      <c r="E249" t="n">
+        <v>2144.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>9056215.0</v>
+        <v>9470592.0</v>
       </c>
       <c r="B250" t="n">
-        <v>73295.0</v>
+        <v>57471.0</v>
       </c>
       <c r="C250" t="n">
-        <v>738932.0</v>
+        <v>340379.0</v>
       </c>
       <c r="D250" t="n">
-        <v>9680.0</v>
+        <v>5816.0</v>
+      </c>
+      <c r="E250" t="n">
+        <v>2456.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>9057828.0</v>
+        <v>9482496.0</v>
       </c>
       <c r="B251" t="n">
-        <v>72076.0</v>
+        <v>55335.0</v>
       </c>
       <c r="C251" t="n">
-        <v>738538.0</v>
+        <v>330611.0</v>
       </c>
       <c r="D251" t="n">
-        <v>7886.0</v>
+        <v>4165.0</v>
+      </c>
+      <c r="E251" t="n">
+        <v>2557.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>9060323.0</v>
+        <v>9493894.0</v>
       </c>
       <c r="B252" t="n">
-        <v>70776.0</v>
+        <v>53886.0</v>
       </c>
       <c r="C252" t="n">
-        <v>737343.0</v>
+        <v>320662.0</v>
       </c>
       <c r="D252" t="n">
-        <v>7619.0</v>
+        <v>4460.0</v>
+      </c>
+      <c r="E252" t="n">
+        <v>2419.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>9060462.0</v>
+        <v>9503762.0</v>
       </c>
       <c r="B253" t="n">
-        <v>72860.0</v>
+        <v>54382.0</v>
       </c>
       <c r="C253" t="n">
-        <v>735120.0</v>
+        <v>310298.0</v>
       </c>
       <c r="D253" t="n">
-        <v>10223.0</v>
+        <v>6149.0</v>
+      </c>
+      <c r="E253" t="n">
+        <v>2389.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>9061864.0</v>
+        <v>9513518.0</v>
       </c>
       <c r="B254" t="n">
-        <v>73086.0</v>
+        <v>54788.0</v>
       </c>
       <c r="C254" t="n">
-        <v>733492.0</v>
+        <v>300136.0</v>
       </c>
       <c r="D254" t="n">
-        <v>8937.0</v>
+        <v>5608.0</v>
+      </c>
+      <c r="E254" t="n">
+        <v>2300.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>9062606.0</v>
+        <v>9522412.0</v>
       </c>
       <c r="B255" t="n">
-        <v>73874.0</v>
+        <v>55451.0</v>
       </c>
       <c r="C255" t="n">
-        <v>731962.0</v>
+        <v>290579.0</v>
       </c>
       <c r="D255" t="n">
-        <v>9530.0</v>
+        <v>5807.0</v>
+      </c>
+      <c r="E255" t="n">
+        <v>2247.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>9063414.0</v>
+        <v>9530615.0</v>
       </c>
       <c r="B256" t="n">
-        <v>74956.0</v>
+        <v>56295.0</v>
       </c>
       <c r="C256" t="n">
-        <v>730072.0</v>
+        <v>281532.0</v>
       </c>
       <c r="D256" t="n">
-        <v>9989.0</v>
+        <v>5982.0</v>
+      </c>
+      <c r="E256" t="n">
+        <v>2248.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>9063921.0</v>
+        <v>9538244.0</v>
       </c>
       <c r="B257" t="n">
-        <v>76456.0</v>
+        <v>57585.0</v>
       </c>
       <c r="C257" t="n">
-        <v>728065.0</v>
+        <v>272613.0</v>
       </c>
       <c r="D257" t="n">
-        <v>10146.0</v>
+        <v>6369.0</v>
+      </c>
+      <c r="E257" t="n">
+        <v>2550.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>9066556.0</v>
+        <v>9547098.0</v>
       </c>
       <c r="B258" t="n">
-        <v>76234.0</v>
+        <v>57110.0</v>
       </c>
       <c r="C258" t="n">
-        <v>725652.0</v>
+        <v>264234.0</v>
       </c>
       <c r="D258" t="n">
-        <v>8386.0</v>
+        <v>4808.0</v>
+      </c>
+      <c r="E258" t="n">
+        <v>2704.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>9070377.0</v>
+        <v>9555400.0</v>
       </c>
       <c r="B259" t="n">
-        <v>75162.0</v>
+        <v>56535.0</v>
       </c>
       <c r="C259" t="n">
-        <v>722903.0</v>
+        <v>256507.0</v>
       </c>
       <c r="D259" t="n">
-        <v>7805.0</v>
+        <v>4762.0</v>
+      </c>
+      <c r="E259" t="n">
+        <v>2797.0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>9071527.0</v>
+        <v>9561619.0</v>
       </c>
       <c r="B260" t="n">
-        <v>77024.0</v>
+        <v>58103.0</v>
       </c>
       <c r="C260" t="n">
-        <v>719891.0</v>
+        <v>248720.0</v>
       </c>
       <c r="D260" t="n">
-        <v>10680.0</v>
+        <v>6801.0</v>
+      </c>
+      <c r="E260" t="n">
+        <v>2631.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>9074195.0</v>
+        <v>9567662.0</v>
       </c>
       <c r="B261" t="n">
-        <v>77007.0</v>
+        <v>59309.0</v>
       </c>
       <c r="C261" t="n">
-        <v>717240.0</v>
+        <v>241471.0</v>
       </c>
       <c r="D261" t="n">
-        <v>9152.0</v>
+        <v>6336.0</v>
+      </c>
+      <c r="E261" t="n">
+        <v>2540.0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>9075748.0</v>
+        <v>9573183.0</v>
       </c>
       <c r="B262" t="n">
-        <v>77815.0</v>
+        <v>60379.0</v>
       </c>
       <c r="C262" t="n">
-        <v>714879.0</v>
+        <v>234880.0</v>
       </c>
       <c r="D262" t="n">
-        <v>10066.0</v>
+        <v>6297.0</v>
+      </c>
+      <c r="E262" t="n">
+        <v>2420.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>9077991.0</v>
+        <v>9578259.0</v>
       </c>
       <c r="B263" t="n">
-        <v>78712.0</v>
+        <v>61633.0</v>
       </c>
       <c r="C263" t="n">
-        <v>711739.0</v>
+        <v>228550.0</v>
       </c>
       <c r="D263" t="n">
-        <v>10144.0</v>
+        <v>6594.0</v>
+      </c>
+      <c r="E263" t="n">
+        <v>2465.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>9079357.0</v>
+        <v>9582936.0</v>
       </c>
       <c r="B264" t="n">
-        <v>79970.0</v>
+        <v>63097.0</v>
       </c>
       <c r="C264" t="n">
-        <v>709115.0</v>
+        <v>222409.0</v>
       </c>
       <c r="D264" t="n">
-        <v>10575.0</v>
+        <v>6831.0</v>
+      </c>
+      <c r="E264" t="n">
+        <v>2779.0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>9083455.0</v>
+        <v>9589189.0</v>
       </c>
       <c r="B265" t="n">
-        <v>79368.0</v>
+        <v>62983.0</v>
       </c>
       <c r="C265" t="n">
-        <v>705619.0</v>
+        <v>216270.0</v>
       </c>
       <c r="D265" t="n">
-        <v>8414.0</v>
+        <v>5296.0</v>
+      </c>
+      <c r="E265" t="n">
+        <v>2983.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>9088529.0</v>
+        <v>9595102.0</v>
       </c>
       <c r="B266" t="n">
-        <v>77877.0</v>
+        <v>62743.0</v>
       </c>
       <c r="C266" t="n">
-        <v>702036.0</v>
+        <v>210597.0</v>
       </c>
       <c r="D266" t="n">
-        <v>8058.0</v>
+        <v>5332.0</v>
+      </c>
+      <c r="E266" t="n">
+        <v>3032.0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>9090960.0</v>
+        <v>9598896.0</v>
       </c>
       <c r="B267" t="n">
-        <v>79293.0</v>
+        <v>64659.0</v>
       </c>
       <c r="C267" t="n">
-        <v>698189.0</v>
+        <v>204887.0</v>
       </c>
       <c r="D267" t="n">
-        <v>10727.0</v>
+        <v>7486.0</v>
+      </c>
+      <c r="E267" t="n">
+        <v>2824.0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>9094824.0</v>
+        <v>9602645.0</v>
       </c>
       <c r="B268" t="n">
-        <v>79074.0</v>
+        <v>66106.0</v>
       </c>
       <c r="C268" t="n">
-        <v>694544.0</v>
+        <v>199691.0</v>
       </c>
       <c r="D268" t="n">
-        <v>9174.0</v>
+        <v>7007.0</v>
+      </c>
+      <c r="E268" t="n">
+        <v>2893.0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>9097964.0</v>
+        <v>9606159.0</v>
       </c>
       <c r="B269" t="n">
-        <v>79216.0</v>
+        <v>67624.0</v>
       </c>
       <c r="C269" t="n">
-        <v>691262.0</v>
+        <v>194659.0</v>
       </c>
       <c r="D269" t="n">
-        <v>9927.0</v>
+        <v>6908.0</v>
+      </c>
+      <c r="E269" t="n">
+        <v>2745.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>9101296.0</v>
+        <v>9609261.0</v>
       </c>
       <c r="B270" t="n">
-        <v>79824.0</v>
+        <v>68903.0</v>
       </c>
       <c r="C270" t="n">
-        <v>687322.0</v>
+        <v>190278.0</v>
       </c>
       <c r="D270" t="n">
-        <v>10287.0</v>
+        <v>7092.0</v>
+      </c>
+      <c r="E270" t="n">
+        <v>2718.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>9104176.0</v>
+        <v>9611488.0</v>
       </c>
       <c r="B271" t="n">
-        <v>80650.0</v>
+        <v>70722.0</v>
       </c>
       <c r="C271" t="n">
-        <v>683616.0</v>
+        <v>186232.0</v>
       </c>
       <c r="D271" t="n">
-        <v>10344.0</v>
+        <v>7615.0</v>
+      </c>
+      <c r="E271" t="n">
+        <v>3132.0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>9109723.0</v>
+        <v>9615559.0</v>
       </c>
       <c r="B272" t="n">
-        <v>79532.0</v>
+        <v>70297.0</v>
       </c>
       <c r="C272" t="n">
-        <v>679187.0</v>
+        <v>182586.0</v>
       </c>
       <c r="D272" t="n">
-        <v>8351.0</v>
+        <v>5740.0</v>
+      </c>
+      <c r="E272" t="n">
+        <v>3335.0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>9115696.0</v>
+        <v>9619161.0</v>
       </c>
       <c r="B273" t="n">
-        <v>77702.0</v>
+        <v>69866.0</v>
       </c>
       <c r="C273" t="n">
-        <v>675044.0</v>
+        <v>179415.0</v>
       </c>
       <c r="D273" t="n">
-        <v>7976.0</v>
+        <v>5669.0</v>
+      </c>
+      <c r="E273" t="n">
+        <v>3336.0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>9118081.0</v>
+        <v>9620126.0</v>
       </c>
       <c r="B274" t="n">
-        <v>78912.0</v>
+        <v>71932.0</v>
       </c>
       <c r="C274" t="n">
-        <v>671449.0</v>
+        <v>176384.0</v>
       </c>
       <c r="D274" t="n">
-        <v>10493.0</v>
+        <v>8235.0</v>
+      </c>
+      <c r="E274" t="n">
+        <v>3160.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>9125332.0</v>
+        <v>9623342.0</v>
       </c>
       <c r="B275" t="n">
-        <v>75321.0</v>
+        <v>71096.0</v>
       </c>
       <c r="C275" t="n">
-        <v>667789.0</v>
+        <v>174004.0</v>
       </c>
       <c r="D275" t="n">
-        <v>5909.0</v>
+        <v>5276.0</v>
+      </c>
+      <c r="E275" t="n">
+        <v>3121.0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>9127771.0</v>
+        <v>9623673.0</v>
       </c>
       <c r="B276" t="n">
-        <v>75485.0</v>
+        <v>72353.0</v>
       </c>
       <c r="C276" t="n">
-        <v>665186.0</v>
+        <v>172416.0</v>
       </c>
       <c r="D276" t="n">
-        <v>9995.0</v>
+        <v>7489.0</v>
+      </c>
+      <c r="E276" t="n">
+        <v>2904.0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>9132072.0</v>
+        <v>9623820.0</v>
       </c>
       <c r="B277" t="n">
-        <v>74145.0</v>
+        <v>73267.0</v>
       </c>
       <c r="C277" t="n">
-        <v>662225.0</v>
+        <v>171355.0</v>
       </c>
       <c r="D277" t="n">
-        <v>8367.0</v>
+        <v>7161.0</v>
+      </c>
+      <c r="E277" t="n">
+        <v>2812.0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>9135033.0</v>
+        <v>9623534.0</v>
       </c>
       <c r="B278" t="n">
-        <v>74005.0</v>
+        <v>73959.0</v>
       </c>
       <c r="C278" t="n">
-        <v>659404.0</v>
+        <v>170949.0</v>
       </c>
       <c r="D278" t="n">
-        <v>9179.0</v>
+        <v>7192.0</v>
+      </c>
+      <c r="E278" t="n">
+        <v>3049.0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>9139920.0</v>
+        <v>9624647.0</v>
       </c>
       <c r="B279" t="n">
-        <v>71625.0</v>
+        <v>72781.0</v>
       </c>
       <c r="C279" t="n">
-        <v>656897.0</v>
+        <v>171014.0</v>
       </c>
       <c r="D279" t="n">
-        <v>7082.0</v>
+        <v>5509.0</v>
+      </c>
+      <c r="E279" t="n">
+        <v>3207.0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>9145702.0</v>
+        <v>9625858.0</v>
       </c>
       <c r="B280" t="n">
-        <v>68922.0</v>
+        <v>71182.0</v>
       </c>
       <c r="C280" t="n">
-        <v>653818.0</v>
+        <v>171402.0</v>
       </c>
       <c r="D280" t="n">
-        <v>6860.0</v>
+        <v>5137.0</v>
+      </c>
+      <c r="E280" t="n">
+        <v>3123.0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>9149446.0</v>
+        <v>9624202.0</v>
       </c>
       <c r="B281" t="n">
-        <v>69766.0</v>
+        <v>72635.0</v>
       </c>
       <c r="C281" t="n">
-        <v>649230.0</v>
+        <v>171605.0</v>
       </c>
       <c r="D281" t="n">
-        <v>9273.0</v>
+        <v>7957.0</v>
+      </c>
+      <c r="E281" t="n">
+        <v>3073.0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>9154072.0</v>
+        <v>9622599.0</v>
       </c>
       <c r="B282" t="n">
-        <v>68827.0</v>
+        <v>73517.0</v>
       </c>
       <c r="C282" t="n">
-        <v>645543.0</v>
+        <v>172326.0</v>
       </c>
       <c r="D282" t="n">
-        <v>8240.0</v>
+        <v>7512.0</v>
+      </c>
+      <c r="E282" t="n">
+        <v>2993.0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>9161266.0</v>
+        <v>9623203.0</v>
       </c>
       <c r="B283" t="n">
-        <v>66003.0</v>
+        <v>71900.0</v>
       </c>
       <c r="C283" t="n">
-        <v>641173.0</v>
+        <v>173339.0</v>
       </c>
       <c r="D283" t="n">
-        <v>5914.0</v>
+        <v>5049.0</v>
+      </c>
+      <c r="E283" t="n">
+        <v>2806.0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>9165705.0</v>
+        <v>9620863.0</v>
       </c>
       <c r="B284" t="n">
-        <v>66597.0</v>
+        <v>72957.0</v>
       </c>
       <c r="C284" t="n">
-        <v>636140.0</v>
+        <v>174622.0</v>
       </c>
       <c r="D284" t="n">
-        <v>8999.0</v>
+        <v>7542.0</v>
+      </c>
+      <c r="E284" t="n">
+        <v>2889.0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>9171396.0</v>
+        <v>9618558.0</v>
       </c>
       <c r="B285" t="n">
-        <v>65959.0</v>
+        <v>73788.0</v>
       </c>
       <c r="C285" t="n">
-        <v>631087.0</v>
+        <v>176096.0</v>
       </c>
       <c r="D285" t="n">
-        <v>7739.0</v>
+        <v>7449.0</v>
+      </c>
+      <c r="E285" t="n">
+        <v>3034.0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>9178791.0</v>
+        <v>9618300.0</v>
       </c>
       <c r="B286" t="n">
-        <v>64484.0</v>
+        <v>72278.0</v>
       </c>
       <c r="C286" t="n">
-        <v>625167.0</v>
+        <v>177864.0</v>
       </c>
       <c r="D286" t="n">
-        <v>6377.0</v>
+        <v>5396.0</v>
+      </c>
+      <c r="E286" t="n">
+        <v>3300.0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>9185925.0</v>
+        <v>9618169.0</v>
       </c>
       <c r="B287" t="n">
-        <v>62341.0</v>
+        <v>70670.0</v>
       </c>
       <c r="C287" t="n">
-        <v>620176.0</v>
+        <v>179603.0</v>
       </c>
       <c r="D287" t="n">
-        <v>6101.0</v>
+        <v>5210.0</v>
+      </c>
+      <c r="E287" t="n">
+        <v>3059.0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>9191061.0</v>
+        <v>9615689.0</v>
       </c>
       <c r="B288" t="n">
-        <v>62376.0</v>
+        <v>71740.0</v>
       </c>
       <c r="C288" t="n">
-        <v>615005.0</v>
+        <v>181013.0</v>
       </c>
       <c r="D288" t="n">
-        <v>8260.0</v>
+        <v>7763.0</v>
+      </c>
+      <c r="E288" t="n">
+        <v>2995.0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>9196724.0</v>
+        <v>9613713.0</v>
       </c>
       <c r="B289" t="n">
-        <v>61683.0</v>
+        <v>72390.0</v>
       </c>
       <c r="C289" t="n">
-        <v>610035.0</v>
+        <v>182339.0</v>
       </c>
       <c r="D289" t="n">
-        <v>7111.0</v>
+        <v>7313.0</v>
+      </c>
+      <c r="E289" t="n">
+        <v>2943.0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>9201346.0</v>
+        <v>9611795.0</v>
       </c>
       <c r="B290" t="n">
-        <v>61135.0</v>
+        <v>73246.0</v>
       </c>
       <c r="C290" t="n">
-        <v>605961.0</v>
+        <v>183401.0</v>
       </c>
       <c r="D290" t="n">
-        <v>7804.0</v>
+        <v>7151.0</v>
+      </c>
+      <c r="E290" t="n">
+        <v>2972.0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>9206320.0</v>
+        <v>9609650.0</v>
       </c>
       <c r="B291" t="n">
-        <v>61572.0</v>
+        <v>74068.0</v>
       </c>
       <c r="C291" t="n">
-        <v>600550.0</v>
+        <v>184724.0</v>
       </c>
       <c r="D291" t="n">
-        <v>7937.0</v>
+        <v>7275.0</v>
+      </c>
+      <c r="E291" t="n">
+        <v>2866.0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>9210417.0</v>
+        <v>9607120.0</v>
       </c>
       <c r="B292" t="n">
-        <v>62155.0</v>
+        <v>75284.0</v>
       </c>
       <c r="C292" t="n">
-        <v>595870.0</v>
+        <v>186038.0</v>
       </c>
       <c r="D292" t="n">
-        <v>8107.0</v>
+        <v>7757.0</v>
+      </c>
+      <c r="E292" t="n">
+        <v>3216.0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>9216288.0</v>
+        <v>9606399.0</v>
       </c>
       <c r="B293" t="n">
-        <v>61679.0</v>
+        <v>74834.0</v>
       </c>
       <c r="C293" t="n">
-        <v>590475.0</v>
+        <v>187209.0</v>
       </c>
       <c r="D293" t="n">
-        <v>6765.0</v>
+        <v>6061.0</v>
+      </c>
+      <c r="E293" t="n">
+        <v>3530.0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>9223193.0</v>
+        <v>9605880.0</v>
       </c>
       <c r="B294" t="n">
-        <v>60845.0</v>
+        <v>73951.0</v>
       </c>
       <c r="C294" t="n">
-        <v>584404.0</v>
+        <v>188611.0</v>
       </c>
       <c r="D294" t="n">
-        <v>6466.0</v>
+        <v>5886.0</v>
+      </c>
+      <c r="E294" t="n">
+        <v>3457.0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>9227846.0</v>
+        <v>9602940.0</v>
       </c>
       <c r="B295" t="n">
-        <v>62156.0</v>
+        <v>75685.0</v>
       </c>
       <c r="C295" t="n">
-        <v>578440.0</v>
+        <v>189817.0</v>
       </c>
       <c r="D295" t="n">
-        <v>8447.0</v>
+        <v>8350.0</v>
+      </c>
+      <c r="E295" t="n">
+        <v>3307.0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>9233571.0</v>
+        <v>9600699.0</v>
       </c>
       <c r="B296" t="n">
-        <v>62145.0</v>
+        <v>77045.0</v>
       </c>
       <c r="C296" t="n">
-        <v>572726.0</v>
+        <v>190698.0</v>
       </c>
       <c r="D296" t="n">
-        <v>7395.0</v>
+        <v>7813.0</v>
+      </c>
+      <c r="E296" t="n">
+        <v>3260.0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>9238300.0</v>
+        <v>9598677.0</v>
       </c>
       <c r="B297" t="n">
-        <v>62588.0</v>
+        <v>78130.0</v>
       </c>
       <c r="C297" t="n">
-        <v>567554.0</v>
+        <v>191635.0</v>
       </c>
       <c r="D297" t="n">
-        <v>8109.0</v>
+        <v>7592.0</v>
+      </c>
+      <c r="E297" t="n">
+        <v>3167.0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>9243851.0</v>
+        <v>9596360.0</v>
       </c>
       <c r="B298" t="n">
-        <v>63181.0</v>
+        <v>79371.0</v>
       </c>
       <c r="C298" t="n">
-        <v>561410.0</v>
+        <v>192711.0</v>
       </c>
       <c r="D298" t="n">
-        <v>8109.0</v>
+        <v>7877.0</v>
+      </c>
+      <c r="E298" t="n">
+        <v>3120.0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>9248393.0</v>
+        <v>9593621.0</v>
       </c>
       <c r="B299" t="n">
-        <v>64386.0</v>
+        <v>80831.0</v>
       </c>
       <c r="C299" t="n">
-        <v>555663.0</v>
+        <v>193990.0</v>
       </c>
       <c r="D299" t="n">
-        <v>8494.0</v>
+        <v>8129.0</v>
+      </c>
+      <c r="E299" t="n">
+        <v>3584.0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>9254991.0</v>
+        <v>9593234.0</v>
       </c>
       <c r="B300" t="n">
-        <v>63728.0</v>
+        <v>80112.0</v>
       </c>
       <c r="C300" t="n">
-        <v>549723.0</v>
+        <v>195096.0</v>
       </c>
       <c r="D300" t="n">
-        <v>6817.0</v>
+        <v>6200.0</v>
+      </c>
+      <c r="E300" t="n">
+        <v>3750.0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>9262060.0</v>
+        <v>9592749.0</v>
       </c>
       <c r="B301" t="n">
-        <v>62619.0</v>
+        <v>79446.0</v>
       </c>
       <c r="C301" t="n">
-        <v>543763.0</v>
+        <v>196247.0</v>
       </c>
       <c r="D301" t="n">
-        <v>6532.0</v>
+        <v>6281.0</v>
+      </c>
+      <c r="E301" t="n">
+        <v>3687.0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>9266581.0</v>
+        <v>9590158.0</v>
       </c>
       <c r="B302" t="n">
-        <v>63894.0</v>
+        <v>81270.0</v>
       </c>
       <c r="C302" t="n">
-        <v>537967.0</v>
+        <v>197014.0</v>
       </c>
       <c r="D302" t="n">
-        <v>8645.0</v>
+        <v>8756.0</v>
+      </c>
+      <c r="E302" t="n">
+        <v>3491.0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>9271625.0</v>
+        <v>9588230.0</v>
       </c>
       <c r="B303" t="n">
-        <v>63950.0</v>
+        <v>82293.0</v>
       </c>
       <c r="C303" t="n">
-        <v>532867.0</v>
+        <v>197919.0</v>
       </c>
       <c r="D303" t="n">
-        <v>7682.0</v>
+        <v>8028.0</v>
+      </c>
+      <c r="E303" t="n">
+        <v>3434.0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>9275311.0</v>
+        <v>9586318.0</v>
       </c>
       <c r="B304" t="n">
-        <v>64458.0</v>
+        <v>83459.0</v>
       </c>
       <c r="C304" t="n">
-        <v>528673.0</v>
+        <v>198665.0</v>
       </c>
       <c r="D304" t="n">
-        <v>8314.0</v>
+        <v>8081.0</v>
+      </c>
+      <c r="E304" t="n">
+        <v>3217.0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>9278955.0</v>
+        <v>9584422.0</v>
       </c>
       <c r="B305" t="n">
-        <v>64965.0</v>
+        <v>84190.0</v>
       </c>
       <c r="C305" t="n">
-        <v>524522.0</v>
+        <v>199830.0</v>
       </c>
       <c r="D305" t="n">
-        <v>8284.0</v>
+        <v>8008.0</v>
+      </c>
+      <c r="E305" t="n">
+        <v>3249.0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>9282418.0</v>
+        <v>9583930.0</v>
       </c>
       <c r="B306" t="n">
-        <v>64844.0</v>
+        <v>83708.0</v>
       </c>
       <c r="C306" t="n">
-        <v>521180.0</v>
+        <v>200804.0</v>
       </c>
       <c r="D306" t="n">
-        <v>7531.0</v>
+        <v>6724.0</v>
+      </c>
+      <c r="E306" t="n">
+        <v>3594.0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>9286624.0</v>
+        <v>9585390.0</v>
       </c>
       <c r="B307" t="n">
-        <v>63507.0</v>
+        <v>81068.0</v>
       </c>
       <c r="C307" t="n">
-        <v>518311.0</v>
+        <v>201984.0</v>
       </c>
       <c r="D307" t="n">
-        <v>6225.0</v>
+        <v>4787.0</v>
+      </c>
+      <c r="E307" t="n">
+        <v>3857.0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>9291298.0</v>
+        <v>9585708.0</v>
       </c>
       <c r="B308" t="n">
-        <v>61761.0</v>
+        <v>79640.0</v>
       </c>
       <c r="C308" t="n">
-        <v>515383.0</v>
+        <v>203094.0</v>
       </c>
       <c r="D308" t="n">
-        <v>6141.0</v>
+        <v>6182.0</v>
+      </c>
+      <c r="E308" t="n">
+        <v>3632.0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>9294721.0</v>
+        <v>9586028.0</v>
       </c>
       <c r="B309" t="n">
-        <v>61190.0</v>
+        <v>78663.0</v>
       </c>
       <c r="C309" t="n">
-        <v>512531.0</v>
+        <v>203751.0</v>
       </c>
       <c r="D309" t="n">
-        <v>6928.0</v>
+        <v>6367.0</v>
+      </c>
+      <c r="E309" t="n">
+        <v>3287.0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>9297781.0</v>
+        <v>9586897.0</v>
       </c>
       <c r="B310" t="n">
-        <v>59610.0</v>
+        <v>77278.0</v>
       </c>
       <c r="C310" t="n">
-        <v>511051.0</v>
+        <v>204267.0</v>
       </c>
       <c r="D310" t="n">
-        <v>6339.0</v>
+        <v>5867.0</v>
+      </c>
+      <c r="E310" t="n">
+        <v>2867.0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>9300716.0</v>
+        <v>9588038.0</v>
       </c>
       <c r="B311" t="n">
-        <v>57650.0</v>
+        <v>75257.0</v>
       </c>
       <c r="C311" t="n">
-        <v>510076.0</v>
+        <v>205147.0</v>
       </c>
       <c r="D311" t="n">
-        <v>6170.0</v>
+        <v>5363.0</v>
+      </c>
+      <c r="E311" t="n">
+        <v>2566.0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>9303458.0</v>
+        <v>9589366.0</v>
       </c>
       <c r="B312" t="n">
-        <v>56108.0</v>
+        <v>73062.0</v>
       </c>
       <c r="C312" t="n">
-        <v>508876.0</v>
+        <v>206014.0</v>
       </c>
       <c r="D312" t="n">
-        <v>6177.0</v>
+        <v>5302.0</v>
+      </c>
+      <c r="E312" t="n">
+        <v>2500.0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>9305759.0</v>
+        <v>9590702.0</v>
       </c>
       <c r="B313" t="n">
-        <v>54422.0</v>
+        <v>70827.0</v>
       </c>
       <c r="C313" t="n">
-        <v>508261.0</v>
+        <v>206913.0</v>
       </c>
       <c r="D313" t="n">
-        <v>5838.0</v>
+        <v>5330.0</v>
+      </c>
+      <c r="E313" t="n">
+        <v>2665.0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>9310268.0</v>
+        <v>9593990.0</v>
       </c>
       <c r="B314" t="n">
-        <v>51167.0</v>
+        <v>66361.0</v>
       </c>
       <c r="C314" t="n">
-        <v>507007.0</v>
+        <v>208091.0</v>
       </c>
       <c r="D314" t="n">
-        <v>4202.0</v>
+        <v>3197.0</v>
+      </c>
+      <c r="E314" t="n">
+        <v>2689.0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>9314656.0</v>
+        <v>9596545.0</v>
       </c>
       <c r="B315" t="n">
-        <v>48222.0</v>
+        <v>63027.0</v>
       </c>
       <c r="C315" t="n">
-        <v>505564.0</v>
+        <v>208870.0</v>
       </c>
       <c r="D315" t="n">
-        <v>4354.0</v>
+        <v>4063.0</v>
+      </c>
+      <c r="E315" t="n">
+        <v>2453.0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>9318148.0</v>
+        <v>9598457.0</v>
       </c>
       <c r="B316" t="n">
-        <v>46851.0</v>
+        <v>61036.0</v>
       </c>
       <c r="C316" t="n">
-        <v>503443.0</v>
+        <v>208949.0</v>
       </c>
       <c r="D316" t="n">
-        <v>5415.0</v>
+        <v>4994.0</v>
+      </c>
+      <c r="E316" t="n">
+        <v>2164.0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>9323458.0</v>
+        <v>9601881.0</v>
       </c>
       <c r="B317" t="n">
-        <v>43616.0</v>
+        <v>57610.0</v>
       </c>
       <c r="C317" t="n">
-        <v>501368.0</v>
+        <v>208951.0</v>
       </c>
       <c r="D317" t="n">
-        <v>3336.0</v>
+        <v>3394.0</v>
+      </c>
+      <c r="E317" t="n">
+        <v>2018.0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>9327100.0</v>
+        <v>9604550.0</v>
       </c>
       <c r="B318" t="n">
-        <v>42031.0</v>
+        <v>55299.0</v>
       </c>
       <c r="C318" t="n">
-        <v>499311.0</v>
+        <v>208593.0</v>
       </c>
       <c r="D318" t="n">
-        <v>4966.0</v>
+        <v>4024.0</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1782.0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>9331675.0</v>
+        <v>9607346.0</v>
       </c>
       <c r="B319" t="n">
-        <v>40126.0</v>
+        <v>52943.0</v>
       </c>
       <c r="C319" t="n">
-        <v>496641.0</v>
+        <v>208153.0</v>
       </c>
       <c r="D319" t="n">
-        <v>4302.0</v>
+        <v>3867.0</v>
+      </c>
+      <c r="E319" t="n">
+        <v>1778.0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>9336067.0</v>
+        <v>9609695.0</v>
       </c>
       <c r="B320" t="n">
-        <v>38769.0</v>
+        <v>50825.0</v>
       </c>
       <c r="C320" t="n">
-        <v>493606.0</v>
+        <v>207922.0</v>
       </c>
       <c r="D320" t="n">
-        <v>4426.0</v>
+        <v>3946.0</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1857.0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>9342064.0</v>
+        <v>9613769.0</v>
       </c>
       <c r="B321" t="n">
-        <v>36518.0</v>
+        <v>47335.0</v>
       </c>
       <c r="C321" t="n">
-        <v>489860.0</v>
+        <v>207338.0</v>
       </c>
       <c r="D321" t="n">
-        <v>3172.0</v>
+        <v>2379.0</v>
+      </c>
+      <c r="E321" t="n">
+        <v>1880.0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>9347969.0</v>
+        <v>9617410.0</v>
       </c>
       <c r="B322" t="n">
-        <v>34640.0</v>
+        <v>44606.0</v>
       </c>
       <c r="C322" t="n">
-        <v>485833.0</v>
+        <v>206426.0</v>
       </c>
       <c r="D322" t="n">
-        <v>3353.0</v>
+        <v>2900.0</v>
+      </c>
+      <c r="E322" t="n">
+        <v>1663.0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>9352905.0</v>
+        <v>9620181.0</v>
       </c>
       <c r="B323" t="n">
-        <v>34385.0</v>
+        <v>43119.0</v>
       </c>
       <c r="C323" t="n">
-        <v>481152.0</v>
+        <v>205142.0</v>
       </c>
       <c r="D323" t="n">
-        <v>4311.0</v>
+        <v>3740.0</v>
+      </c>
+      <c r="E323" t="n">
+        <v>1589.0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>9358383.0</v>
+        <v>9623599.0</v>
       </c>
       <c r="B324" t="n">
-        <v>33458.0</v>
+        <v>41602.0</v>
       </c>
       <c r="C324" t="n">
-        <v>476601.0</v>
+        <v>203241.0</v>
       </c>
       <c r="D324" t="n">
-        <v>3839.0</v>
+        <v>3351.0</v>
+      </c>
+      <c r="E324" t="n">
+        <v>1620.0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>9363505.0</v>
+        <v>9626998.0</v>
       </c>
       <c r="B325" t="n">
-        <v>32784.0</v>
+        <v>40192.0</v>
       </c>
       <c r="C325" t="n">
-        <v>472153.0</v>
+        <v>201252.0</v>
       </c>
       <c r="D325" t="n">
-        <v>3894.0</v>
+        <v>3217.0</v>
+      </c>
+      <c r="E325" t="n">
+        <v>1349.0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>9369154.0</v>
+        <v>9630271.0</v>
       </c>
       <c r="B326" t="n">
-        <v>32335.0</v>
+        <v>39040.0</v>
       </c>
       <c r="C326" t="n">
-        <v>466953.0</v>
+        <v>199131.0</v>
       </c>
       <c r="D326" t="n">
-        <v>3900.0</v>
+        <v>3180.0</v>
+      </c>
+      <c r="E326" t="n">
+        <v>1423.0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>9374462.0</v>
+        <v>9633474.0</v>
       </c>
       <c r="B327" t="n">
-        <v>32030.0</v>
+        <v>38184.0</v>
       </c>
       <c r="C327" t="n">
-        <v>461950.0</v>
+        <v>196784.0</v>
       </c>
       <c r="D327" t="n">
-        <v>4003.0</v>
+        <v>3304.0</v>
+      </c>
+      <c r="E327" t="n">
+        <v>1478.0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>9380782.0</v>
+        <v>9637925.0</v>
       </c>
       <c r="B328" t="n">
-        <v>31157.0</v>
+        <v>36200.0</v>
       </c>
       <c r="C328" t="n">
-        <v>456503.0</v>
+        <v>194317.0</v>
       </c>
       <c r="D328" t="n">
-        <v>3073.0</v>
+        <v>2185.0</v>
+      </c>
+      <c r="E328" t="n">
+        <v>1573.0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>9387373.0</v>
+        <v>9641897.0</v>
       </c>
       <c r="B329" t="n">
-        <v>30401.0</v>
+        <v>34907.0</v>
       </c>
       <c r="C329" t="n">
-        <v>450668.0</v>
+        <v>191638.0</v>
       </c>
       <c r="D329" t="n">
-        <v>3194.0</v>
+        <v>2697.0</v>
+      </c>
+      <c r="E329" t="n">
+        <v>1373.0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>9393131.0</v>
+        <v>9645628.0</v>
       </c>
       <c r="B330" t="n">
-        <v>30542.0</v>
+        <v>34233.0</v>
       </c>
       <c r="C330" t="n">
-        <v>444769.0</v>
+        <v>188581.0</v>
       </c>
       <c r="D330" t="n">
-        <v>3921.0</v>
+        <v>3188.0</v>
+      </c>
+      <c r="E330" t="n">
+        <v>1386.0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>9399109.0</v>
+        <v>9649695.0</v>
       </c>
       <c r="B331" t="n">
-        <v>30107.0</v>
+        <v>33514.0</v>
       </c>
       <c r="C331" t="n">
-        <v>439226.0</v>
+        <v>185233.0</v>
       </c>
       <c r="D331" t="n">
-        <v>3540.0</v>
+        <v>2880.0</v>
+      </c>
+      <c r="E331" t="n">
+        <v>1298.0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>9405000.0</v>
+        <v>9653817.0</v>
       </c>
       <c r="B332" t="n">
-        <v>29725.0</v>
+        <v>33017.0</v>
       </c>
       <c r="C332" t="n">
-        <v>433717.0</v>
+        <v>181608.0</v>
       </c>
       <c r="D332" t="n">
-        <v>3578.0</v>
+        <v>2810.0</v>
+      </c>
+      <c r="E332" t="n">
+        <v>1190.0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>9411152.0</v>
+        <v>9658018.0</v>
       </c>
       <c r="B333" t="n">
-        <v>29638.0</v>
+        <v>32515.0</v>
       </c>
       <c r="C333" t="n">
-        <v>427652.0</v>
+        <v>177909.0</v>
       </c>
       <c r="D333" t="n">
-        <v>3654.0</v>
+        <v>2804.0</v>
+      </c>
+      <c r="E333" t="n">
+        <v>1215.0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>9416741.0</v>
+        <v>9662055.0</v>
       </c>
       <c r="B334" t="n">
-        <v>29508.0</v>
+        <v>32177.0</v>
       </c>
       <c r="C334" t="n">
-        <v>422193.0</v>
+        <v>174210.0</v>
       </c>
       <c r="D334" t="n">
-        <v>3694.0</v>
+        <v>2878.0</v>
+      </c>
+      <c r="E334" t="n">
+        <v>1387.0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>9423459.0</v>
+        <v>9667336.0</v>
       </c>
       <c r="B335" t="n">
-        <v>28678.0</v>
+        <v>30925.0</v>
       </c>
       <c r="C335" t="n">
-        <v>416305.0</v>
+        <v>170181.0</v>
       </c>
       <c r="D335" t="n">
-        <v>2782.0</v>
+        <v>1996.0</v>
+      </c>
+      <c r="E335" t="n">
+        <v>1342.0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>9430439.0</v>
+        <v>9672043.0</v>
       </c>
       <c r="B336" t="n">
-        <v>27880.0</v>
+        <v>30253.0</v>
       </c>
       <c r="C336" t="n">
-        <v>410123.0</v>
+        <v>166146.0</v>
       </c>
       <c r="D336" t="n">
-        <v>2851.0</v>
+        <v>2499.0</v>
+      </c>
+      <c r="E336" t="n">
+        <v>1235.0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>9436876.0</v>
+        <v>9677154.0</v>
       </c>
       <c r="B337" t="n">
-        <v>27565.0</v>
+        <v>29436.0</v>
       </c>
       <c r="C337" t="n">
-        <v>404001.0</v>
+        <v>161852.0</v>
       </c>
       <c r="D337" t="n">
-        <v>3270.0</v>
+        <v>2316.0</v>
+      </c>
+      <c r="E337" t="n">
+        <v>1134.0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>9443355.0</v>
+        <v>9682543.0</v>
       </c>
       <c r="B338" t="n">
-        <v>26846.0</v>
+        <v>28736.0</v>
       </c>
       <c r="C338" t="n">
-        <v>398241.0</v>
+        <v>157163.0</v>
       </c>
       <c r="D338" t="n">
-        <v>2840.0</v>
+        <v>2221.0</v>
+      </c>
+      <c r="E338" t="n">
+        <v>1183.0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>9450015.0</v>
+        <v>9687825.0</v>
       </c>
       <c r="B339" t="n">
-        <v>25852.0</v>
+        <v>27869.0</v>
       </c>
       <c r="C339" t="n">
-        <v>392575.0</v>
+        <v>152748.0</v>
       </c>
       <c r="D339" t="n">
-        <v>2802.0</v>
+        <v>2062.0</v>
+      </c>
+      <c r="E339" t="n">
+        <v>1049.0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>9456905.0</v>
+        <v>9693076.0</v>
       </c>
       <c r="B340" t="n">
-        <v>24944.0</v>
+        <v>26890.0</v>
       </c>
       <c r="C340" t="n">
-        <v>386593.0</v>
+        <v>148476.0</v>
       </c>
       <c r="D340" t="n">
-        <v>2673.0</v>
+        <v>2001.0</v>
+      </c>
+      <c r="E340" t="n">
+        <v>937.0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>9462684.0</v>
+        <v>9698602.0</v>
       </c>
       <c r="B341" t="n">
-        <v>24234.0</v>
+        <v>25878.0</v>
       </c>
       <c r="C341" t="n">
-        <v>381524.0</v>
+        <v>143962.0</v>
       </c>
       <c r="D341" t="n">
-        <v>2650.0</v>
+        <v>1858.0</v>
+      </c>
+      <c r="E341" t="n">
+        <v>977.0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>9469926.0</v>
+        <v>9704496.0</v>
       </c>
       <c r="B342" t="n">
-        <v>22786.0</v>
+        <v>24616.0</v>
       </c>
       <c r="C342" t="n">
-        <v>375730.0</v>
+        <v>139330.0</v>
       </c>
       <c r="D342" t="n">
-        <v>1937.0</v>
+        <v>1603.0</v>
+      </c>
+      <c r="E342" t="n">
+        <v>864.0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>9476762.0</v>
+        <v>9710553.0</v>
       </c>
       <c r="B343" t="n">
-        <v>21478.0</v>
+        <v>23313.0</v>
       </c>
       <c r="C343" t="n">
-        <v>370202.0</v>
+        <v>134576.0</v>
       </c>
       <c r="D343" t="n">
-        <v>1902.0</v>
+        <v>1508.0</v>
+      </c>
+      <c r="E343" t="n">
+        <v>859.0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>9482805.0</v>
+        <v>9716508.0</v>
       </c>
       <c r="B344" t="n">
-        <v>20765.0</v>
+        <v>22306.0</v>
       </c>
       <c r="C344" t="n">
-        <v>364872.0</v>
+        <v>129628.0</v>
       </c>
       <c r="D344" t="n">
-        <v>2362.0</v>
+        <v>1708.0</v>
+      </c>
+      <c r="E344" t="n">
+        <v>844.0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>9488917.0</v>
+        <v>9722235.0</v>
       </c>
       <c r="B345" t="n">
-        <v>19955.0</v>
+        <v>21336.0</v>
       </c>
       <c r="C345" t="n">
-        <v>359570.0</v>
+        <v>124871.0</v>
       </c>
       <c r="D345" t="n">
-        <v>2265.0</v>
+        <v>1670.0</v>
+      </c>
+      <c r="E345" t="n">
+        <v>801.0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>9494601.0</v>
+        <v>9727640.0</v>
       </c>
       <c r="B346" t="n">
-        <v>19059.0</v>
+        <v>20387.0</v>
       </c>
       <c r="C346" t="n">
-        <v>354782.0</v>
+        <v>120415.0</v>
       </c>
       <c r="D346" t="n">
-        <v>2168.0</v>
+        <v>1580.0</v>
+      </c>
+      <c r="E346" t="n">
+        <v>676.0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>9500616.0</v>
+        <v>9732947.0</v>
       </c>
       <c r="B347" t="n">
-        <v>18397.0</v>
+        <v>19533.0</v>
       </c>
       <c r="C347" t="n">
-        <v>349429.0</v>
+        <v>115962.0</v>
       </c>
       <c r="D347" t="n">
-        <v>2229.0</v>
+        <v>1513.0</v>
+      </c>
+      <c r="E347" t="n">
+        <v>663.0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>9506729.0</v>
+        <v>9737761.0</v>
       </c>
       <c r="B348" t="n">
-        <v>17831.0</v>
+        <v>18754.0</v>
       </c>
       <c r="C348" t="n">
-        <v>343882.0</v>
+        <v>111927.0</v>
       </c>
       <c r="D348" t="n">
-        <v>2112.0</v>
+        <v>1521.0</v>
+      </c>
+      <c r="E348" t="n">
+        <v>664.0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>9512924.0</v>
+        <v>9742703.0</v>
       </c>
       <c r="B349" t="n">
-        <v>17012.0</v>
+        <v>17811.0</v>
       </c>
       <c r="C349" t="n">
-        <v>338506.0</v>
+        <v>107928.0</v>
       </c>
       <c r="D349" t="n">
-        <v>1609.0</v>
+        <v>1281.0</v>
+      </c>
+      <c r="E349" t="n">
+        <v>680.0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>9519657.0</v>
+        <v>9747474.0</v>
       </c>
       <c r="B350" t="n">
-        <v>16425.0</v>
+        <v>16943.0</v>
       </c>
       <c r="C350" t="n">
-        <v>332360.0</v>
+        <v>104025.0</v>
       </c>
       <c r="D350" t="n">
-        <v>1619.0</v>
+        <v>1293.0</v>
+      </c>
+      <c r="E350" t="n">
+        <v>634.0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>9525105.0</v>
+        <v>9751882.0</v>
       </c>
       <c r="B351" t="n">
-        <v>16309.0</v>
+        <v>16400.0</v>
       </c>
       <c r="C351" t="n">
-        <v>327028.0</v>
+        <v>100160.0</v>
       </c>
       <c r="D351" t="n">
-        <v>2052.0</v>
+        <v>1461.0</v>
+      </c>
+      <c r="E351" t="n">
+        <v>622.0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>9530635.0</v>
+        <v>9756084.0</v>
       </c>
       <c r="B352" t="n">
-        <v>16066.0</v>
+        <v>15926.0</v>
       </c>
       <c r="C352" t="n">
-        <v>321741.0</v>
+        <v>96432.0</v>
       </c>
       <c r="D352" t="n">
-        <v>1994.0</v>
+        <v>1427.0</v>
+      </c>
+      <c r="E352" t="n">
+        <v>558.0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>9535979.0</v>
+        <v>9759899.0</v>
       </c>
       <c r="B353" t="n">
-        <v>15549.0</v>
+        <v>15566.0</v>
       </c>
       <c r="C353" t="n">
-        <v>316914.0</v>
+        <v>92977.0</v>
       </c>
       <c r="D353" t="n">
-        <v>1897.0</v>
+        <v>1412.0</v>
+      </c>
+      <c r="E353" t="n">
+        <v>577.0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>9541387.0</v>
+        <v>9763365.0</v>
       </c>
       <c r="B354" t="n">
-        <v>15199.0</v>
+        <v>15248.0</v>
       </c>
       <c r="C354" t="n">
-        <v>311856.0</v>
+        <v>89829.0</v>
       </c>
       <c r="D354" t="n">
-        <v>1892.0</v>
+        <v>1402.0</v>
+      </c>
+      <c r="E354" t="n">
+        <v>591.0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>9546628.0</v>
+        <v>9766558.0</v>
       </c>
       <c r="B355" t="n">
-        <v>15061.0</v>
+        <v>15054.0</v>
       </c>
       <c r="C355" t="n">
-        <v>306753.0</v>
+        <v>86830.0</v>
       </c>
       <c r="D355" t="n">
-        <v>1895.0</v>
+        <v>1434.0</v>
+      </c>
+      <c r="E355" t="n">
+        <v>605.0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>9552467.0</v>
+        <v>9769522.0</v>
       </c>
       <c r="B356" t="n">
-        <v>14790.0</v>
+        <v>14843.0</v>
       </c>
       <c r="C356" t="n">
-        <v>301185.0</v>
+        <v>84077.0</v>
       </c>
       <c r="D356" t="n">
-        <v>1567.0</v>
+        <v>1368.0</v>
+      </c>
+      <c r="E356" t="n">
+        <v>571.0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>9558593.0</v>
+        <v>9772446.0</v>
       </c>
       <c r="B357" t="n">
-        <v>14413.0</v>
+        <v>14469.0</v>
       </c>
       <c r="C357" t="n">
-        <v>295436.0</v>
+        <v>81527.0</v>
       </c>
       <c r="D357" t="n">
-        <v>1540.0</v>
+        <v>1236.0</v>
+      </c>
+      <c r="E357" t="n">
+        <v>604.0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>9564226.0</v>
+        <v>9775247.0</v>
       </c>
       <c r="B358" t="n">
-        <v>14453.0</v>
+        <v>14306.0</v>
       </c>
       <c r="C358" t="n">
-        <v>289763.0</v>
+        <v>78889.0</v>
       </c>
       <c r="D358" t="n">
-        <v>1883.0</v>
+        <v>1368.0</v>
+      </c>
+      <c r="E358" t="n">
+        <v>577.0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>9569646.0</v>
+        <v>9777871.0</v>
       </c>
       <c r="B359" t="n">
-        <v>14386.0</v>
+        <v>14139.0</v>
       </c>
       <c r="C359" t="n">
-        <v>284410.0</v>
+        <v>76432.0</v>
       </c>
       <c r="D359" t="n">
-        <v>1869.0</v>
+        <v>1366.0</v>
+      </c>
+      <c r="E359" t="n">
+        <v>554.0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>9575262.0</v>
+        <v>9780320.0</v>
       </c>
       <c r="B360" t="n">
-        <v>14250.0</v>
+        <v>14047.0</v>
       </c>
       <c r="C360" t="n">
-        <v>278930.0</v>
+        <v>74075.0</v>
       </c>
       <c r="D360" t="n">
-        <v>1859.0</v>
+        <v>1413.0</v>
+      </c>
+      <c r="E360" t="n">
+        <v>551.0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>9581104.0</v>
+        <v>9782549.0</v>
       </c>
       <c r="B361" t="n">
-        <v>14154.0</v>
+        <v>14039.0</v>
       </c>
       <c r="C361" t="n">
-        <v>273184.0</v>
+        <v>71854.0</v>
       </c>
       <c r="D361" t="n">
-        <v>1799.0</v>
+        <v>1370.0</v>
+      </c>
+      <c r="E361" t="n">
+        <v>560.0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>9586616.0</v>
+        <v>9784515.0</v>
       </c>
       <c r="B362" t="n">
-        <v>14188.0</v>
+        <v>14003.0</v>
       </c>
       <c r="C362" t="n">
-        <v>267638.0</v>
+        <v>69924.0</v>
       </c>
       <c r="D362" t="n">
-        <v>1858.0</v>
+        <v>1341.0</v>
+      </c>
+      <c r="E362" t="n">
+        <v>586.0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>9592719.0</v>
+        <v>9786554.0</v>
       </c>
       <c r="B363" t="n">
-        <v>14000.0</v>
+        <v>13863.0</v>
       </c>
       <c r="C363" t="n">
-        <v>261723.0</v>
+        <v>68025.0</v>
       </c>
       <c r="D363" t="n">
-        <v>1523.0</v>
+        <v>1267.0</v>
+      </c>
+      <c r="E363" t="n">
+        <v>561.0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>9598993.0</v>
+        <v>9788559.0</v>
       </c>
       <c r="B364" t="n">
-        <v>13837.0</v>
+        <v>13706.0</v>
       </c>
       <c r="C364" t="n">
-        <v>255612.0</v>
+        <v>66177.0</v>
       </c>
       <c r="D364" t="n">
-        <v>1532.0</v>
+        <v>1211.0</v>
+      </c>
+      <c r="E364" t="n">
+        <v>533.0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>9604812.0</v>
+        <v>9790436.0</v>
       </c>
       <c r="B365" t="n">
-        <v>14085.0</v>
+        <v>13691.0</v>
       </c>
       <c r="C365" t="n">
-        <v>249545.0</v>
+        <v>64315.0</v>
       </c>
       <c r="D365" t="n">
-        <v>1958.0</v>
+        <v>1371.0</v>
+      </c>
+      <c r="E365" t="n">
+        <v>576.0</v>
       </c>
     </row>
   </sheetData>

--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -346,6207 +346,6207 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>9841624.0</v>
+        <v>9842133.0</v>
       </c>
       <c r="B1" t="n">
-        <v>24696.0</v>
+        <v>24178.0</v>
       </c>
       <c r="C1" t="n">
-        <v>2122.0</v>
+        <v>2131.0</v>
       </c>
       <c r="D1" t="n">
-        <v>2280.0</v>
+        <v>1979.0</v>
       </c>
       <c r="E1" t="n">
-        <v>990.0</v>
+        <v>876.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9838708.0</v>
+        <v>9839222.0</v>
       </c>
       <c r="B2" t="n">
-        <v>25518.0</v>
+        <v>24997.0</v>
       </c>
       <c r="C2" t="n">
-        <v>4216.0</v>
+        <v>4223.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2916.0</v>
+        <v>2911.0</v>
       </c>
       <c r="E2" t="n">
-        <v>955.0</v>
+        <v>921.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9836040.0</v>
+        <v>9836385.0</v>
       </c>
       <c r="B3" t="n">
-        <v>26087.0</v>
+        <v>25734.0</v>
       </c>
       <c r="C3" t="n">
-        <v>6315.0</v>
+        <v>6323.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2668.0</v>
+        <v>2837.0</v>
       </c>
       <c r="E3" t="n">
-        <v>1017.0</v>
+        <v>978.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9833560.0</v>
+        <v>9833572.0</v>
       </c>
       <c r="B4" t="n">
-        <v>26483.0</v>
+        <v>26542.0</v>
       </c>
       <c r="C4" t="n">
-        <v>8399.0</v>
+        <v>8328.0</v>
       </c>
       <c r="D4" t="n">
-        <v>2480.0</v>
+        <v>2813.0</v>
       </c>
       <c r="E4" t="n">
-        <v>1074.0</v>
+        <v>1246.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9831224.0</v>
+        <v>9830840.0</v>
       </c>
       <c r="B5" t="n">
-        <v>26636.0</v>
+        <v>27215.0</v>
       </c>
       <c r="C5" t="n">
-        <v>10582.0</v>
+        <v>10387.0</v>
       </c>
       <c r="D5" t="n">
-        <v>2336.0</v>
+        <v>2732.0</v>
       </c>
       <c r="E5" t="n">
-        <v>1120.0</v>
+        <v>1163.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9829151.0</v>
+        <v>9828373.0</v>
       </c>
       <c r="B6" t="n">
-        <v>26585.0</v>
+        <v>27478.0</v>
       </c>
       <c r="C6" t="n">
-        <v>12706.0</v>
+        <v>12591.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2073.0</v>
+        <v>2467.0</v>
       </c>
       <c r="E6" t="n">
-        <v>1162.0</v>
+        <v>1189.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9827226.0</v>
+        <v>9825992.0</v>
       </c>
       <c r="B7" t="n">
-        <v>26150.0</v>
+        <v>27550.0</v>
       </c>
       <c r="C7" t="n">
-        <v>15066.0</v>
+        <v>14900.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1925.0</v>
+        <v>2381.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1087.0</v>
+        <v>1230.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9825393.0</v>
+        <v>9823484.0</v>
       </c>
       <c r="B8" t="n">
-        <v>25541.0</v>
+        <v>27457.0</v>
       </c>
       <c r="C8" t="n">
-        <v>17508.0</v>
+        <v>17501.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1833.0</v>
+        <v>2508.0</v>
       </c>
       <c r="E8" t="n">
-        <v>1013.0</v>
+        <v>1102.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9823588.0</v>
+        <v>9821038.0</v>
       </c>
       <c r="B9" t="n">
-        <v>24907.0</v>
+        <v>27258.0</v>
       </c>
       <c r="C9" t="n">
-        <v>19947.0</v>
+        <v>20146.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1805.0</v>
+        <v>2446.0</v>
       </c>
       <c r="E9" t="n">
-        <v>887.0</v>
+        <v>1072.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9821746.0</v>
+        <v>9818688.0</v>
       </c>
       <c r="B10" t="n">
-        <v>24284.0</v>
+        <v>27043.0</v>
       </c>
       <c r="C10" t="n">
-        <v>22412.0</v>
+        <v>22711.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1842.0</v>
+        <v>2350.0</v>
       </c>
       <c r="E10" t="n">
-        <v>867.0</v>
+        <v>1086.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9820023.0</v>
+        <v>9816355.0</v>
       </c>
       <c r="B11" t="n">
-        <v>23629.0</v>
+        <v>26981.0</v>
       </c>
       <c r="C11" t="n">
-        <v>24790.0</v>
+        <v>25106.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1723.0</v>
+        <v>2333.0</v>
       </c>
       <c r="E11" t="n">
-        <v>832.0</v>
+        <v>1075.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9818352.0</v>
+        <v>9814034.0</v>
       </c>
       <c r="B12" t="n">
-        <v>22885.0</v>
+        <v>26801.0</v>
       </c>
       <c r="C12" t="n">
-        <v>27205.0</v>
+        <v>27607.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1671.0</v>
+        <v>2321.0</v>
       </c>
       <c r="E12" t="n">
-        <v>800.0</v>
+        <v>1041.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9816842.0</v>
+        <v>9811841.0</v>
       </c>
       <c r="B13" t="n">
-        <v>21715.0</v>
+        <v>25978.0</v>
       </c>
       <c r="C13" t="n">
-        <v>29885.0</v>
+        <v>30623.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1510.0</v>
+        <v>2193.0</v>
       </c>
       <c r="E13" t="n">
-        <v>774.0</v>
+        <v>1065.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9815391.0</v>
+        <v>9809693.0</v>
       </c>
       <c r="B14" t="n">
-        <v>20523.0</v>
+        <v>25351.0</v>
       </c>
       <c r="C14" t="n">
-        <v>32528.0</v>
+        <v>33398.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1451.0</v>
+        <v>2148.0</v>
       </c>
       <c r="E14" t="n">
-        <v>699.0</v>
+        <v>1034.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9813762.0</v>
+        <v>9809459.0</v>
       </c>
       <c r="B15" t="n">
-        <v>19599.0</v>
+        <v>24859.0</v>
       </c>
       <c r="C15" t="n">
-        <v>35081.0</v>
+        <v>34124.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1629.0</v>
+        <v>2365.0</v>
       </c>
       <c r="E15" t="n">
-        <v>675.0</v>
+        <v>998.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9812205.0</v>
+        <v>9809313.0</v>
       </c>
       <c r="B16" t="n">
-        <v>18794.0</v>
+        <v>24408.0</v>
       </c>
       <c r="C16" t="n">
-        <v>37443.0</v>
+        <v>34721.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1557.0</v>
+        <v>2238.0</v>
       </c>
       <c r="E16" t="n">
-        <v>620.0</v>
+        <v>927.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9810678.0</v>
+        <v>9809095.0</v>
       </c>
       <c r="B17" t="n">
-        <v>18057.0</v>
+        <v>24051.0</v>
       </c>
       <c r="C17" t="n">
-        <v>39707.0</v>
+        <v>35296.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1527.0</v>
+        <v>2318.0</v>
       </c>
       <c r="E17" t="n">
-        <v>676.0</v>
+        <v>968.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9809091.0</v>
+        <v>9808728.0</v>
       </c>
       <c r="B18" t="n">
-        <v>17540.0</v>
+        <v>23943.0</v>
       </c>
       <c r="C18" t="n">
-        <v>41811.0</v>
+        <v>35771.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1587.0</v>
+        <v>2372.0</v>
       </c>
       <c r="E18" t="n">
-        <v>641.0</v>
+        <v>958.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9807553.0</v>
+        <v>9808420.0</v>
       </c>
       <c r="B19" t="n">
-        <v>17056.0</v>
+        <v>23814.0</v>
       </c>
       <c r="C19" t="n">
-        <v>43833.0</v>
+        <v>36208.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1538.0</v>
+        <v>2367.0</v>
       </c>
       <c r="E19" t="n">
-        <v>658.0</v>
+        <v>936.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9806182.0</v>
+        <v>9808538.0</v>
       </c>
       <c r="B20" t="n">
-        <v>16419.0</v>
+        <v>23423.0</v>
       </c>
       <c r="C20" t="n">
-        <v>45841.0</v>
+        <v>36481.0</v>
       </c>
       <c r="D20" t="n">
-        <v>1371.0</v>
+        <v>2086.0</v>
       </c>
       <c r="E20" t="n">
-        <v>644.0</v>
+        <v>938.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9804795.0</v>
+        <v>9808663.0</v>
       </c>
       <c r="B21" t="n">
-        <v>16005.0</v>
+        <v>23059.0</v>
       </c>
       <c r="C21" t="n">
-        <v>47642.0</v>
+        <v>36720.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1387.0</v>
+        <v>2184.0</v>
       </c>
       <c r="E21" t="n">
-        <v>637.0</v>
+        <v>997.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9803229.0</v>
+        <v>9808887.0</v>
       </c>
       <c r="B22" t="n">
-        <v>15817.0</v>
+        <v>23025.0</v>
       </c>
       <c r="C22" t="n">
-        <v>49396.0</v>
+        <v>36530.0</v>
       </c>
       <c r="D22" t="n">
-        <v>1566.0</v>
+        <v>2377.0</v>
       </c>
       <c r="E22" t="n">
-        <v>673.0</v>
+        <v>968.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9801758.0</v>
+        <v>9809241.0</v>
       </c>
       <c r="B23" t="n">
-        <v>15549.0</v>
+        <v>22923.0</v>
       </c>
       <c r="C23" t="n">
-        <v>51135.0</v>
+        <v>36278.0</v>
       </c>
       <c r="D23" t="n">
-        <v>1471.0</v>
+        <v>2291.0</v>
       </c>
       <c r="E23" t="n">
-        <v>614.0</v>
+        <v>950.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>9800188.0</v>
+        <v>9809456.0</v>
       </c>
       <c r="B24" t="n">
-        <v>15439.0</v>
+        <v>22929.0</v>
       </c>
       <c r="C24" t="n">
-        <v>52815.0</v>
+        <v>36057.0</v>
       </c>
       <c r="D24" t="n">
-        <v>1570.0</v>
+        <v>2350.0</v>
       </c>
       <c r="E24" t="n">
-        <v>568.0</v>
+        <v>935.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9798669.0</v>
+        <v>9809475.0</v>
       </c>
       <c r="B25" t="n">
-        <v>15422.0</v>
+        <v>23120.0</v>
       </c>
       <c r="C25" t="n">
-        <v>54351.0</v>
+        <v>35847.0</v>
       </c>
       <c r="D25" t="n">
-        <v>1519.0</v>
+        <v>2376.0</v>
       </c>
       <c r="E25" t="n">
-        <v>606.0</v>
+        <v>908.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9797113.0</v>
+        <v>9809603.0</v>
       </c>
       <c r="B26" t="n">
-        <v>15413.0</v>
+        <v>23360.0</v>
       </c>
       <c r="C26" t="n">
-        <v>55916.0</v>
+        <v>35479.0</v>
       </c>
       <c r="D26" t="n">
-        <v>1556.0</v>
+        <v>2373.0</v>
       </c>
       <c r="E26" t="n">
-        <v>666.0</v>
+        <v>972.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9795746.0</v>
+        <v>9810498.0</v>
       </c>
       <c r="B27" t="n">
-        <v>15150.0</v>
+        <v>23052.0</v>
       </c>
       <c r="C27" t="n">
-        <v>57546.0</v>
+        <v>34892.0</v>
       </c>
       <c r="D27" t="n">
-        <v>1367.0</v>
+        <v>2121.0</v>
       </c>
       <c r="E27" t="n">
-        <v>624.0</v>
+        <v>989.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9794330.0</v>
+        <v>9811050.0</v>
       </c>
       <c r="B28" t="n">
-        <v>14979.0</v>
+        <v>22974.0</v>
       </c>
       <c r="C28" t="n">
-        <v>59133.0</v>
+        <v>34418.0</v>
       </c>
       <c r="D28" t="n">
-        <v>1416.0</v>
+        <v>2223.0</v>
       </c>
       <c r="E28" t="n">
-        <v>658.0</v>
+        <v>1034.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9792827.0</v>
+        <v>9811489.0</v>
       </c>
       <c r="B29" t="n">
-        <v>14875.0</v>
+        <v>23109.0</v>
       </c>
       <c r="C29" t="n">
-        <v>60740.0</v>
+        <v>33844.0</v>
       </c>
       <c r="D29" t="n">
-        <v>1503.0</v>
+        <v>2418.0</v>
       </c>
       <c r="E29" t="n">
-        <v>600.0</v>
+        <v>974.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9791400.0</v>
+        <v>9811810.0</v>
       </c>
       <c r="B30" t="n">
-        <v>14797.0</v>
+        <v>23094.0</v>
       </c>
       <c r="C30" t="n">
-        <v>62245.0</v>
+        <v>33538.0</v>
       </c>
       <c r="D30" t="n">
-        <v>1427.0</v>
+        <v>2368.0</v>
       </c>
       <c r="E30" t="n">
-        <v>611.0</v>
+        <v>946.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9792025.0</v>
+        <v>9812105.0</v>
       </c>
       <c r="B31" t="n">
-        <v>14766.0</v>
+        <v>23103.0</v>
       </c>
       <c r="C31" t="n">
-        <v>61651.0</v>
+        <v>33234.0</v>
       </c>
       <c r="D31" t="n">
-        <v>1497.0</v>
+        <v>2380.0</v>
       </c>
       <c r="E31" t="n">
-        <v>601.0</v>
+        <v>940.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>9792653.0</v>
+        <v>9812176.0</v>
       </c>
       <c r="B32" t="n">
-        <v>14720.0</v>
+        <v>23236.0</v>
       </c>
       <c r="C32" t="n">
-        <v>61069.0</v>
+        <v>33030.0</v>
       </c>
       <c r="D32" t="n">
-        <v>1466.0</v>
+        <v>2409.0</v>
       </c>
       <c r="E32" t="n">
-        <v>587.0</v>
+        <v>1006.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9792983.0</v>
+        <v>9811687.0</v>
       </c>
       <c r="B33" t="n">
-        <v>15012.0</v>
+        <v>24036.0</v>
       </c>
       <c r="C33" t="n">
-        <v>60447.0</v>
+        <v>32719.0</v>
       </c>
       <c r="D33" t="n">
-        <v>1769.0</v>
+        <v>2985.0</v>
       </c>
       <c r="E33" t="n">
-        <v>634.0</v>
+        <v>988.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>9793727.0</v>
+        <v>9811780.0</v>
       </c>
       <c r="B34" t="n">
-        <v>14816.0</v>
+        <v>24096.0</v>
       </c>
       <c r="C34" t="n">
-        <v>59899.0</v>
+        <v>32566.0</v>
       </c>
       <c r="D34" t="n">
-        <v>1340.0</v>
+        <v>2384.0</v>
       </c>
       <c r="E34" t="n">
-        <v>658.0</v>
+        <v>1005.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9794475.0</v>
+        <v>9812068.0</v>
       </c>
       <c r="B35" t="n">
-        <v>14724.0</v>
+        <v>23923.0</v>
       </c>
       <c r="C35" t="n">
-        <v>59243.0</v>
+        <v>32451.0</v>
       </c>
       <c r="D35" t="n">
-        <v>1435.0</v>
+        <v>2260.0</v>
       </c>
       <c r="E35" t="n">
-        <v>638.0</v>
+        <v>1022.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>9794701.0</v>
+        <v>9811001.0</v>
       </c>
       <c r="B36" t="n">
-        <v>15121.0</v>
+        <v>25054.0</v>
       </c>
       <c r="C36" t="n">
-        <v>58620.0</v>
+        <v>32387.0</v>
       </c>
       <c r="D36" t="n">
-        <v>1898.0</v>
+        <v>3478.0</v>
       </c>
       <c r="E36" t="n">
-        <v>649.0</v>
+        <v>1100.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>9795096.0</v>
+        <v>9810020.0</v>
       </c>
       <c r="B37" t="n">
-        <v>15583.0</v>
+        <v>26103.0</v>
       </c>
       <c r="C37" t="n">
-        <v>57763.0</v>
+        <v>32319.0</v>
       </c>
       <c r="D37" t="n">
-        <v>1965.0</v>
+        <v>3374.0</v>
       </c>
       <c r="E37" t="n">
-        <v>673.0</v>
+        <v>1083.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>9795477.0</v>
+        <v>9808601.0</v>
       </c>
       <c r="B38" t="n">
-        <v>16163.0</v>
+        <v>27587.0</v>
       </c>
       <c r="C38" t="n">
-        <v>56802.0</v>
+        <v>32254.0</v>
       </c>
       <c r="D38" t="n">
-        <v>2061.0</v>
+        <v>3763.0</v>
       </c>
       <c r="E38" t="n">
-        <v>736.0</v>
+        <v>1185.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>9795633.0</v>
+        <v>9806702.0</v>
       </c>
       <c r="B39" t="n">
-        <v>16970.0</v>
+        <v>29407.0</v>
       </c>
       <c r="C39" t="n">
-        <v>55839.0</v>
+        <v>32333.0</v>
       </c>
       <c r="D39" t="n">
-        <v>2283.0</v>
+        <v>4084.0</v>
       </c>
       <c r="E39" t="n">
-        <v>809.0</v>
+        <v>1308.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9795634.0</v>
+        <v>9804387.0</v>
       </c>
       <c r="B40" t="n">
-        <v>17960.0</v>
+        <v>31582.0</v>
       </c>
       <c r="C40" t="n">
-        <v>54848.0</v>
+        <v>32473.0</v>
       </c>
       <c r="D40" t="n">
-        <v>2464.0</v>
+        <v>4448.0</v>
       </c>
       <c r="E40" t="n">
-        <v>864.0</v>
+        <v>1501.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>9795904.0</v>
+        <v>9803093.0</v>
       </c>
       <c r="B41" t="n">
-        <v>18632.0</v>
+        <v>32961.0</v>
       </c>
       <c r="C41" t="n">
-        <v>53906.0</v>
+        <v>32388.0</v>
       </c>
       <c r="D41" t="n">
-        <v>2108.0</v>
+        <v>3723.0</v>
       </c>
       <c r="E41" t="n">
-        <v>980.0</v>
+        <v>1590.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>9796263.0</v>
+        <v>9801920.0</v>
       </c>
       <c r="B42" t="n">
-        <v>19054.0</v>
+        <v>33951.0</v>
       </c>
       <c r="C42" t="n">
-        <v>53125.0</v>
+        <v>32571.0</v>
       </c>
       <c r="D42" t="n">
-        <v>2056.0</v>
+        <v>3474.0</v>
       </c>
       <c r="E42" t="n">
-        <v>1007.0</v>
+        <v>1721.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>9796116.0</v>
+        <v>9798670.0</v>
       </c>
       <c r="B43" t="n">
-        <v>20286.0</v>
+        <v>36981.0</v>
       </c>
       <c r="C43" t="n">
-        <v>52040.0</v>
+        <v>32791.0</v>
       </c>
       <c r="D43" t="n">
-        <v>2827.0</v>
+        <v>5533.0</v>
       </c>
       <c r="E43" t="n">
-        <v>995.0</v>
+        <v>1853.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>9795972.0</v>
+        <v>9795716.0</v>
       </c>
       <c r="B44" t="n">
-        <v>21459.0</v>
+        <v>39760.0</v>
       </c>
       <c r="C44" t="n">
-        <v>51011.0</v>
+        <v>32966.0</v>
       </c>
       <c r="D44" t="n">
-        <v>2787.0</v>
+        <v>5337.0</v>
       </c>
       <c r="E44" t="n">
-        <v>1011.0</v>
+        <v>1828.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>9795629.0</v>
+        <v>9792486.0</v>
       </c>
       <c r="B45" t="n">
-        <v>22716.0</v>
+        <v>42851.0</v>
       </c>
       <c r="C45" t="n">
-        <v>50097.0</v>
+        <v>33105.0</v>
       </c>
       <c r="D45" t="n">
-        <v>2896.0</v>
+        <v>5601.0</v>
       </c>
       <c r="E45" t="n">
-        <v>1065.0</v>
+        <v>1915.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>9794836.0</v>
+        <v>9788460.0</v>
       </c>
       <c r="B46" t="n">
-        <v>24124.0</v>
+        <v>46369.0</v>
       </c>
       <c r="C46" t="n">
-        <v>49482.0</v>
+        <v>33613.0</v>
       </c>
       <c r="D46" t="n">
-        <v>3155.0</v>
+        <v>6302.0</v>
       </c>
       <c r="E46" t="n">
-        <v>1135.0</v>
+        <v>2173.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9793862.0</v>
+        <v>9784017.0</v>
       </c>
       <c r="B47" t="n">
-        <v>25564.0</v>
+        <v>50119.0</v>
       </c>
       <c r="C47" t="n">
-        <v>49016.0</v>
+        <v>34306.0</v>
       </c>
       <c r="D47" t="n">
-        <v>3238.0</v>
+        <v>6628.0</v>
       </c>
       <c r="E47" t="n">
-        <v>1201.0</v>
+        <v>2341.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>9793348.0</v>
+        <v>9780876.0</v>
       </c>
       <c r="B48" t="n">
-        <v>26242.0</v>
+        <v>52492.0</v>
       </c>
       <c r="C48" t="n">
-        <v>48852.0</v>
+        <v>35074.0</v>
       </c>
       <c r="D48" t="n">
-        <v>2618.0</v>
+        <v>5465.0</v>
       </c>
       <c r="E48" t="n">
-        <v>1385.0</v>
+        <v>2399.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9792730.0</v>
+        <v>9778287.0</v>
       </c>
       <c r="B49" t="n">
-        <v>26862.0</v>
+        <v>53946.0</v>
       </c>
       <c r="C49" t="n">
-        <v>48850.0</v>
+        <v>36209.0</v>
       </c>
       <c r="D49" t="n">
-        <v>2640.0</v>
+        <v>5022.0</v>
       </c>
       <c r="E49" t="n">
-        <v>1366.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9791098.0</v>
+        <v>9772777.0</v>
       </c>
       <c r="B50" t="n">
-        <v>28366.0</v>
+        <v>58210.0</v>
       </c>
       <c r="C50" t="n">
-        <v>48978.0</v>
+        <v>37455.0</v>
       </c>
       <c r="D50" t="n">
-        <v>3640.0</v>
+        <v>7857.0</v>
       </c>
       <c r="E50" t="n">
-        <v>1279.0</v>
+        <v>2793.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9789429.0</v>
+        <v>9767598.0</v>
       </c>
       <c r="B51" t="n">
-        <v>29610.0</v>
+        <v>61584.0</v>
       </c>
       <c r="C51" t="n">
-        <v>49403.0</v>
+        <v>39260.0</v>
       </c>
       <c r="D51" t="n">
-        <v>3470.0</v>
+        <v>7504.0</v>
       </c>
       <c r="E51" t="n">
-        <v>1230.0</v>
+        <v>2674.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9787405.0</v>
+        <v>9762102.0</v>
       </c>
       <c r="B52" t="n">
-        <v>31064.0</v>
+        <v>65077.0</v>
       </c>
       <c r="C52" t="n">
-        <v>49973.0</v>
+        <v>41263.0</v>
       </c>
       <c r="D52" t="n">
-        <v>3778.0</v>
+        <v>7775.0</v>
       </c>
       <c r="E52" t="n">
-        <v>1434.0</v>
+        <v>2697.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>9785324.0</v>
+        <v>9755674.0</v>
       </c>
       <c r="B53" t="n">
-        <v>32454.0</v>
+        <v>69294.0</v>
       </c>
       <c r="C53" t="n">
-        <v>50664.0</v>
+        <v>43474.0</v>
       </c>
       <c r="D53" t="n">
-        <v>3820.0</v>
+        <v>8692.0</v>
       </c>
       <c r="E53" t="n">
-        <v>1409.0</v>
+        <v>3010.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9782993.0</v>
+        <v>9748837.0</v>
       </c>
       <c r="B54" t="n">
-        <v>33918.0</v>
+        <v>73830.0</v>
       </c>
       <c r="C54" t="n">
-        <v>51531.0</v>
+        <v>45775.0</v>
       </c>
       <c r="D54" t="n">
-        <v>4011.0</v>
+        <v>9110.0</v>
       </c>
       <c r="E54" t="n">
-        <v>1581.0</v>
+        <v>3364.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9781206.0</v>
+        <v>9743833.0</v>
       </c>
       <c r="B55" t="n">
-        <v>34554.0</v>
+        <v>76613.0</v>
       </c>
       <c r="C55" t="n">
-        <v>52682.0</v>
+        <v>47996.0</v>
       </c>
       <c r="D55" t="n">
-        <v>3323.0</v>
+        <v>7348.0</v>
       </c>
       <c r="E55" t="n">
-        <v>1682.0</v>
+        <v>3438.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9779556.0</v>
+        <v>9739589.0</v>
       </c>
       <c r="B56" t="n">
-        <v>35022.0</v>
+        <v>78016.0</v>
       </c>
       <c r="C56" t="n">
-        <v>53864.0</v>
+        <v>50837.0</v>
       </c>
       <c r="D56" t="n">
-        <v>3215.0</v>
+        <v>6728.0</v>
       </c>
       <c r="E56" t="n">
-        <v>1641.0</v>
+        <v>3768.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>9776644.0</v>
+        <v>9731283.0</v>
       </c>
       <c r="B57" t="n">
-        <v>36653.0</v>
+        <v>83308.0</v>
       </c>
       <c r="C57" t="n">
-        <v>55145.0</v>
+        <v>53851.0</v>
       </c>
       <c r="D57" t="n">
-        <v>4542.0</v>
+        <v>10809.0</v>
       </c>
       <c r="E57" t="n">
-        <v>1660.0</v>
+        <v>3953.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>9773890.0</v>
+        <v>9723717.0</v>
       </c>
       <c r="B58" t="n">
-        <v>37985.0</v>
+        <v>87367.0</v>
       </c>
       <c r="C58" t="n">
-        <v>56567.0</v>
+        <v>57358.0</v>
       </c>
       <c r="D58" t="n">
-        <v>4341.0</v>
+        <v>10124.0</v>
       </c>
       <c r="E58" t="n">
-        <v>1653.0</v>
+        <v>3754.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>9770909.0</v>
+        <v>9715803.0</v>
       </c>
       <c r="B59" t="n">
-        <v>39596.0</v>
+        <v>91452.0</v>
       </c>
       <c r="C59" t="n">
-        <v>57937.0</v>
+        <v>61187.0</v>
       </c>
       <c r="D59" t="n">
-        <v>4588.0</v>
+        <v>10424.0</v>
       </c>
       <c r="E59" t="n">
-        <v>1670.0</v>
+        <v>3806.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>9767675.0</v>
+        <v>9707211.0</v>
       </c>
       <c r="B60" t="n">
-        <v>41136.0</v>
+        <v>96456.0</v>
       </c>
       <c r="C60" t="n">
-        <v>59631.0</v>
+        <v>64775.0</v>
       </c>
       <c r="D60" t="n">
-        <v>4739.0</v>
+        <v>11376.0</v>
       </c>
       <c r="E60" t="n">
-        <v>1674.0</v>
+        <v>4230.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>9763974.0</v>
+        <v>9698187.0</v>
       </c>
       <c r="B61" t="n">
-        <v>43000.0</v>
+        <v>101588.0</v>
       </c>
       <c r="C61" t="n">
-        <v>61468.0</v>
+        <v>68667.0</v>
       </c>
       <c r="D61" t="n">
-        <v>5229.0</v>
+        <v>11902.0</v>
       </c>
       <c r="E61" t="n">
-        <v>2056.0</v>
+        <v>4698.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>9761449.0</v>
+        <v>9691434.0</v>
       </c>
       <c r="B62" t="n">
-        <v>43656.0</v>
+        <v>105065.0</v>
       </c>
       <c r="C62" t="n">
-        <v>63337.0</v>
+        <v>71943.0</v>
       </c>
       <c r="D62" t="n">
-        <v>4037.0</v>
+        <v>9845.0</v>
       </c>
       <c r="E62" t="n">
-        <v>2121.0</v>
+        <v>4598.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>9758863.0</v>
+        <v>9686577.0</v>
       </c>
       <c r="B63" t="n">
-        <v>44163.0</v>
+        <v>105793.0</v>
       </c>
       <c r="C63" t="n">
-        <v>65416.0</v>
+        <v>76072.0</v>
       </c>
       <c r="D63" t="n">
-        <v>4063.0</v>
+        <v>8425.0</v>
       </c>
       <c r="E63" t="n">
-        <v>2156.0</v>
+        <v>4965.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>9754710.0</v>
+        <v>9676254.0</v>
       </c>
       <c r="B64" t="n">
-        <v>46221.0</v>
+        <v>112014.0</v>
       </c>
       <c r="C64" t="n">
-        <v>67511.0</v>
+        <v>80174.0</v>
       </c>
       <c r="D64" t="n">
-        <v>5689.0</v>
+        <v>13916.0</v>
       </c>
       <c r="E64" t="n">
-        <v>2046.0</v>
+        <v>5249.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>9750641.0</v>
+        <v>9667554.0</v>
       </c>
       <c r="B65" t="n">
-        <v>48043.0</v>
+        <v>116273.0</v>
       </c>
       <c r="C65" t="n">
-        <v>69758.0</v>
+        <v>84615.0</v>
       </c>
       <c r="D65" t="n">
-        <v>5596.0</v>
+        <v>12830.0</v>
       </c>
       <c r="E65" t="n">
-        <v>2097.0</v>
+        <v>4865.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>9746492.0</v>
+        <v>9658505.0</v>
       </c>
       <c r="B66" t="n">
-        <v>49864.0</v>
+        <v>120987.0</v>
       </c>
       <c r="C66" t="n">
-        <v>72086.0</v>
+        <v>88950.0</v>
       </c>
       <c r="D66" t="n">
-        <v>5650.0</v>
+        <v>13331.0</v>
       </c>
       <c r="E66" t="n">
-        <v>2147.0</v>
+        <v>4907.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>9742032.0</v>
+        <v>9648748.0</v>
       </c>
       <c r="B67" t="n">
-        <v>51949.0</v>
+        <v>126717.0</v>
       </c>
       <c r="C67" t="n">
-        <v>74461.0</v>
+        <v>92977.0</v>
       </c>
       <c r="D67" t="n">
-        <v>5963.0</v>
+        <v>14232.0</v>
       </c>
       <c r="E67" t="n">
-        <v>2327.0</v>
+        <v>5281.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>9737228.0</v>
+        <v>9638200.0</v>
       </c>
       <c r="B68" t="n">
-        <v>54187.0</v>
+        <v>132614.0</v>
       </c>
       <c r="C68" t="n">
-        <v>77027.0</v>
+        <v>97628.0</v>
       </c>
       <c r="D68" t="n">
-        <v>6285.0</v>
+        <v>15122.0</v>
       </c>
       <c r="E68" t="n">
-        <v>2466.0</v>
+        <v>5728.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>9733745.0</v>
+        <v>9630910.0</v>
       </c>
       <c r="B69" t="n">
-        <v>54871.0</v>
+        <v>135918.0</v>
       </c>
       <c r="C69" t="n">
-        <v>79826.0</v>
+        <v>101614.0</v>
       </c>
       <c r="D69" t="n">
-        <v>4959.0</v>
+        <v>11855.0</v>
       </c>
       <c r="E69" t="n">
-        <v>2723.0</v>
+        <v>6110.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>9730254.0</v>
+        <v>9625667.0</v>
       </c>
       <c r="B70" t="n">
-        <v>55428.0</v>
+        <v>136350.0</v>
       </c>
       <c r="C70" t="n">
-        <v>82760.0</v>
+        <v>106425.0</v>
       </c>
       <c r="D70" t="n">
-        <v>4965.0</v>
+        <v>10568.0</v>
       </c>
       <c r="E70" t="n">
-        <v>2755.0</v>
+        <v>6375.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>9725010.0</v>
+        <v>9614188.0</v>
       </c>
       <c r="B71" t="n">
-        <v>57519.0</v>
+        <v>143347.0</v>
       </c>
       <c r="C71" t="n">
-        <v>85913.0</v>
+        <v>110907.0</v>
       </c>
       <c r="D71" t="n">
-        <v>6680.0</v>
+        <v>16996.0</v>
       </c>
       <c r="E71" t="n">
-        <v>2546.0</v>
+        <v>6430.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>9720172.0</v>
+        <v>9604712.0</v>
       </c>
       <c r="B72" t="n">
-        <v>59254.0</v>
+        <v>147321.0</v>
       </c>
       <c r="C72" t="n">
-        <v>89016.0</v>
+        <v>116409.0</v>
       </c>
       <c r="D72" t="n">
-        <v>6472.0</v>
+        <v>15541.0</v>
       </c>
       <c r="E72" t="n">
-        <v>2511.0</v>
+        <v>6231.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>9715155.0</v>
+        <v>9595095.0</v>
       </c>
       <c r="B73" t="n">
-        <v>61197.0</v>
+        <v>151858.0</v>
       </c>
       <c r="C73" t="n">
-        <v>92090.0</v>
+        <v>121489.0</v>
       </c>
       <c r="D73" t="n">
-        <v>6612.0</v>
+        <v>15956.0</v>
       </c>
       <c r="E73" t="n">
-        <v>2588.0</v>
+        <v>6020.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>9709995.0</v>
+        <v>9584599.0</v>
       </c>
       <c r="B74" t="n">
-        <v>63012.0</v>
+        <v>157484.0</v>
       </c>
       <c r="C74" t="n">
-        <v>95435.0</v>
+        <v>126359.0</v>
       </c>
       <c r="D74" t="n">
-        <v>6774.0</v>
+        <v>16868.0</v>
       </c>
       <c r="E74" t="n">
-        <v>2653.0</v>
+        <v>6547.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>9704200.0</v>
+        <v>9573711.0</v>
       </c>
       <c r="B75" t="n">
-        <v>65396.0</v>
+        <v>163459.0</v>
       </c>
       <c r="C75" t="n">
-        <v>98846.0</v>
+        <v>131272.0</v>
       </c>
       <c r="D75" t="n">
-        <v>7434.0</v>
+        <v>17658.0</v>
       </c>
       <c r="E75" t="n">
-        <v>2908.0</v>
+        <v>6990.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>9700200.0</v>
+        <v>9566132.0</v>
       </c>
       <c r="B76" t="n">
-        <v>65713.0</v>
+        <v>166238.0</v>
       </c>
       <c r="C76" t="n">
-        <v>102529.0</v>
+        <v>136072.0</v>
       </c>
       <c r="D76" t="n">
-        <v>5747.0</v>
+        <v>13947.0</v>
       </c>
       <c r="E76" t="n">
-        <v>3252.0</v>
+        <v>7252.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>9696401.0</v>
+        <v>9561617.0</v>
       </c>
       <c r="B77" t="n">
-        <v>65759.0</v>
+        <v>165490.0</v>
       </c>
       <c r="C77" t="n">
-        <v>106282.0</v>
+        <v>141335.0</v>
       </c>
       <c r="D77" t="n">
-        <v>5597.0</v>
+        <v>12212.0</v>
       </c>
       <c r="E77" t="n">
-        <v>3129.0</v>
+        <v>7375.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>9690299.0</v>
+        <v>9549851.0</v>
       </c>
       <c r="B78" t="n">
-        <v>68172.0</v>
+        <v>172374.0</v>
       </c>
       <c r="C78" t="n">
-        <v>109971.0</v>
+        <v>146217.0</v>
       </c>
       <c r="D78" t="n">
-        <v>8042.0</v>
+        <v>19461.0</v>
       </c>
       <c r="E78" t="n">
-        <v>2984.0</v>
+        <v>7693.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>9684840.0</v>
+        <v>9540526.0</v>
       </c>
       <c r="B79" t="n">
-        <v>69996.0</v>
+        <v>176014.0</v>
       </c>
       <c r="C79" t="n">
-        <v>113606.0</v>
+        <v>151902.0</v>
       </c>
       <c r="D79" t="n">
-        <v>7479.0</v>
+        <v>17896.0</v>
       </c>
       <c r="E79" t="n">
-        <v>2985.0</v>
+        <v>7074.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>9679194.0</v>
+        <v>9531039.0</v>
       </c>
       <c r="B80" t="n">
-        <v>71917.0</v>
+        <v>180038.0</v>
       </c>
       <c r="C80" t="n">
-        <v>117331.0</v>
+        <v>157365.0</v>
       </c>
       <c r="D80" t="n">
-        <v>7782.0</v>
+        <v>18104.0</v>
       </c>
       <c r="E80" t="n">
-        <v>2971.0</v>
+        <v>6791.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>9673293.0</v>
+        <v>9520575.0</v>
       </c>
       <c r="B81" t="n">
-        <v>73938.0</v>
+        <v>185349.0</v>
       </c>
       <c r="C81" t="n">
-        <v>121211.0</v>
+        <v>162518.0</v>
       </c>
       <c r="D81" t="n">
-        <v>8127.0</v>
+        <v>18966.0</v>
       </c>
       <c r="E81" t="n">
-        <v>3127.0</v>
+        <v>7570.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>9667132.0</v>
+        <v>9509724.0</v>
       </c>
       <c r="B82" t="n">
-        <v>76281.0</v>
+        <v>190969.0</v>
       </c>
       <c r="C82" t="n">
-        <v>125029.0</v>
+        <v>167749.0</v>
       </c>
       <c r="D82" t="n">
-        <v>8485.0</v>
+        <v>20076.0</v>
       </c>
       <c r="E82" t="n">
-        <v>3388.0</v>
+        <v>8131.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>9662980.0</v>
+        <v>9502488.0</v>
       </c>
       <c r="B83" t="n">
-        <v>76515.0</v>
+        <v>193379.0</v>
       </c>
       <c r="C83" t="n">
-        <v>128947.0</v>
+        <v>172575.0</v>
       </c>
       <c r="D83" t="n">
-        <v>6582.0</v>
+        <v>15787.0</v>
       </c>
       <c r="E83" t="n">
-        <v>3779.0</v>
+        <v>8204.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>9659037.0</v>
+        <v>9498575.0</v>
       </c>
       <c r="B84" t="n">
-        <v>76556.0</v>
+        <v>191951.0</v>
       </c>
       <c r="C84" t="n">
-        <v>132849.0</v>
+        <v>177916.0</v>
       </c>
       <c r="D84" t="n">
-        <v>6490.0</v>
+        <v>14049.0</v>
       </c>
       <c r="E84" t="n">
-        <v>3589.0</v>
+        <v>8429.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>9652682.0</v>
+        <v>9486610.0</v>
       </c>
       <c r="B85" t="n">
-        <v>78870.0</v>
+        <v>198805.0</v>
       </c>
       <c r="C85" t="n">
-        <v>136890.0</v>
+        <v>183027.0</v>
       </c>
       <c r="D85" t="n">
-        <v>9042.0</v>
+        <v>21964.0</v>
       </c>
       <c r="E85" t="n">
-        <v>3391.0</v>
+        <v>8811.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>9646860.0</v>
+        <v>9478090.0</v>
       </c>
       <c r="B86" t="n">
-        <v>80701.0</v>
+        <v>202082.0</v>
       </c>
       <c r="C86" t="n">
-        <v>140881.0</v>
+        <v>188270.0</v>
       </c>
       <c r="D86" t="n">
-        <v>8569.0</v>
+        <v>20087.0</v>
       </c>
       <c r="E86" t="n">
-        <v>3402.0</v>
+        <v>8303.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>9640925.0</v>
+        <v>9469106.0</v>
       </c>
       <c r="B87" t="n">
-        <v>82765.0</v>
+        <v>206201.0</v>
       </c>
       <c r="C87" t="n">
-        <v>144752.0</v>
+        <v>193135.0</v>
       </c>
       <c r="D87" t="n">
-        <v>8846.0</v>
+        <v>20403.0</v>
       </c>
       <c r="E87" t="n">
-        <v>3336.0</v>
+        <v>7914.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>9634847.0</v>
+        <v>9459102.0</v>
       </c>
       <c r="B88" t="n">
-        <v>84858.0</v>
+        <v>211439.0</v>
       </c>
       <c r="C88" t="n">
-        <v>148737.0</v>
+        <v>197901.0</v>
       </c>
       <c r="D88" t="n">
-        <v>9087.0</v>
+        <v>21246.0</v>
       </c>
       <c r="E88" t="n">
-        <v>3522.0</v>
+        <v>8646.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>9628131.0</v>
+        <v>9448510.0</v>
       </c>
       <c r="B89" t="n">
-        <v>87499.0</v>
+        <v>216867.0</v>
       </c>
       <c r="C89" t="n">
-        <v>152812.0</v>
+        <v>203065.0</v>
       </c>
       <c r="D89" t="n">
-        <v>9693.0</v>
+        <v>22275.0</v>
       </c>
       <c r="E89" t="n">
-        <v>3823.0</v>
+        <v>9096.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>9624010.0</v>
+        <v>9442291.0</v>
       </c>
       <c r="B90" t="n">
-        <v>87460.0</v>
+        <v>218445.0</v>
       </c>
       <c r="C90" t="n">
-        <v>156972.0</v>
+        <v>207706.0</v>
       </c>
       <c r="D90" t="n">
-        <v>7320.0</v>
+        <v>17387.0</v>
       </c>
       <c r="E90" t="n">
-        <v>4311.0</v>
+        <v>9256.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>9620107.0</v>
+        <v>9439780.0</v>
       </c>
       <c r="B91" t="n">
-        <v>87158.0</v>
+        <v>216232.0</v>
       </c>
       <c r="C91" t="n">
-        <v>161177.0</v>
+        <v>212430.0</v>
       </c>
       <c r="D91" t="n">
-        <v>7268.0</v>
+        <v>15471.0</v>
       </c>
       <c r="E91" t="n">
-        <v>4213.0</v>
+        <v>9442.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>9612974.0</v>
+        <v>9428172.0</v>
       </c>
       <c r="B92" t="n">
-        <v>89920.0</v>
+        <v>223219.0</v>
       </c>
       <c r="C92" t="n">
-        <v>165548.0</v>
+        <v>217051.0</v>
       </c>
       <c r="D92" t="n">
-        <v>10514.0</v>
+        <v>24185.0</v>
       </c>
       <c r="E92" t="n">
-        <v>3965.0</v>
+        <v>9746.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>9606793.0</v>
+        <v>9420505.0</v>
       </c>
       <c r="B93" t="n">
-        <v>91993.0</v>
+        <v>225630.0</v>
       </c>
       <c r="C93" t="n">
-        <v>169656.0</v>
+        <v>222307.0</v>
       </c>
       <c r="D93" t="n">
-        <v>9737.0</v>
+        <v>21923.0</v>
       </c>
       <c r="E93" t="n">
-        <v>3877.0</v>
+        <v>8920.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>9600447.0</v>
+        <v>9412058.0</v>
       </c>
       <c r="B94" t="n">
-        <v>94350.0</v>
+        <v>229337.0</v>
       </c>
       <c r="C94" t="n">
-        <v>173645.0</v>
+        <v>227047.0</v>
       </c>
       <c r="D94" t="n">
-        <v>9977.0</v>
+        <v>22527.0</v>
       </c>
       <c r="E94" t="n">
-        <v>3864.0</v>
+        <v>8680.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>9593625.0</v>
+        <v>9402646.0</v>
       </c>
       <c r="B95" t="n">
-        <v>96903.0</v>
+        <v>234245.0</v>
       </c>
       <c r="C95" t="n">
-        <v>177914.0</v>
+        <v>231551.0</v>
       </c>
       <c r="D95" t="n">
-        <v>10596.0</v>
+        <v>23067.0</v>
       </c>
       <c r="E95" t="n">
-        <v>4113.0</v>
+        <v>9218.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>9586383.0</v>
+        <v>9392633.0</v>
       </c>
       <c r="B96" t="n">
-        <v>99681.0</v>
+        <v>239821.0</v>
       </c>
       <c r="C96" t="n">
-        <v>182378.0</v>
+        <v>235988.0</v>
       </c>
       <c r="D96" t="n">
-        <v>11071.0</v>
+        <v>24469.0</v>
       </c>
       <c r="E96" t="n">
-        <v>4446.0</v>
+        <v>10011.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>9581662.0</v>
+        <v>9387009.0</v>
       </c>
       <c r="B97" t="n">
-        <v>99791.0</v>
+        <v>241046.0</v>
       </c>
       <c r="C97" t="n">
-        <v>186989.0</v>
+        <v>240387.0</v>
       </c>
       <c r="D97" t="n">
-        <v>8599.0</v>
+        <v>19001.0</v>
       </c>
       <c r="E97" t="n">
-        <v>4902.0</v>
+        <v>10048.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>9577295.0</v>
+        <v>9385652.0</v>
       </c>
       <c r="B98" t="n">
-        <v>99389.0</v>
+        <v>237788.0</v>
       </c>
       <c r="C98" t="n">
-        <v>191758.0</v>
+        <v>245002.0</v>
       </c>
       <c r="D98" t="n">
-        <v>8414.0</v>
+        <v>16834.0</v>
       </c>
       <c r="E98" t="n">
-        <v>4893.0</v>
+        <v>10527.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>9572556.0</v>
+        <v>9380328.0</v>
       </c>
       <c r="B99" t="n">
-        <v>99741.0</v>
+        <v>238652.0</v>
       </c>
       <c r="C99" t="n">
-        <v>196145.0</v>
+        <v>249462.0</v>
       </c>
       <c r="D99" t="n">
-        <v>9014.0</v>
+        <v>20434.0</v>
       </c>
       <c r="E99" t="n">
-        <v>4499.0</v>
+        <v>10498.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9568706.0</v>
+        <v>9378287.0</v>
       </c>
       <c r="B100" t="n">
-        <v>99171.0</v>
+        <v>235850.0</v>
       </c>
       <c r="C100" t="n">
-        <v>200565.0</v>
+        <v>254305.0</v>
       </c>
       <c r="D100" t="n">
-        <v>8258.0</v>
+        <v>18851.0</v>
       </c>
       <c r="E100" t="n">
-        <v>4178.0</v>
+        <v>9917.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>9565029.0</v>
+        <v>9376523.0</v>
       </c>
       <c r="B101" t="n">
-        <v>98351.0</v>
+        <v>233153.0</v>
       </c>
       <c r="C101" t="n">
-        <v>205062.0</v>
+        <v>258766.0</v>
       </c>
       <c r="D101" t="n">
-        <v>8266.0</v>
+        <v>18048.0</v>
       </c>
       <c r="E101" t="n">
-        <v>3985.0</v>
+        <v>8941.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>9561502.0</v>
+        <v>9374847.0</v>
       </c>
       <c r="B102" t="n">
-        <v>97424.0</v>
+        <v>230668.0</v>
       </c>
       <c r="C102" t="n">
-        <v>209516.0</v>
+        <v>262927.0</v>
       </c>
       <c r="D102" t="n">
-        <v>8264.0</v>
+        <v>17684.0</v>
       </c>
       <c r="E102" t="n">
-        <v>3866.0</v>
+        <v>8572.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>9557922.0</v>
+        <v>9374299.0</v>
       </c>
       <c r="B103" t="n">
-        <v>96284.0</v>
+        <v>227018.0</v>
       </c>
       <c r="C103" t="n">
-        <v>214236.0</v>
+        <v>267125.0</v>
       </c>
       <c r="D103" t="n">
-        <v>8249.0</v>
+        <v>17395.0</v>
       </c>
       <c r="E103" t="n">
-        <v>3786.0</v>
+        <v>8403.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9557926.0</v>
+        <v>9378205.0</v>
       </c>
       <c r="B104" t="n">
-        <v>91532.0</v>
+        <v>219497.0</v>
       </c>
       <c r="C104" t="n">
-        <v>218984.0</v>
+        <v>270740.0</v>
       </c>
       <c r="D104" t="n">
-        <v>4955.0</v>
+        <v>11903.0</v>
       </c>
       <c r="E104" t="n">
-        <v>3685.0</v>
+        <v>8195.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>9556975.0</v>
+        <v>9383932.0</v>
       </c>
       <c r="B105" t="n">
-        <v>87736.0</v>
+        <v>209390.0</v>
       </c>
       <c r="C105" t="n">
-        <v>223731.0</v>
+        <v>275120.0</v>
       </c>
       <c r="D105" t="n">
-        <v>6001.0</v>
+        <v>11957.0</v>
       </c>
       <c r="E105" t="n">
-        <v>3554.0</v>
+        <v>7929.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>9554152.0</v>
+        <v>9382870.0</v>
       </c>
       <c r="B106" t="n">
-        <v>86430.0</v>
+        <v>206274.0</v>
       </c>
       <c r="C106" t="n">
-        <v>227860.0</v>
+        <v>279298.0</v>
       </c>
       <c r="D106" t="n">
-        <v>8253.0</v>
+        <v>18260.0</v>
       </c>
       <c r="E106" t="n">
-        <v>3213.0</v>
+        <v>7420.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>9552009.0</v>
+        <v>9386218.0</v>
       </c>
       <c r="B107" t="n">
-        <v>84593.0</v>
+        <v>199194.0</v>
       </c>
       <c r="C107" t="n">
-        <v>231840.0</v>
+        <v>283030.0</v>
       </c>
       <c r="D107" t="n">
-        <v>7694.0</v>
+        <v>16164.0</v>
       </c>
       <c r="E107" t="n">
-        <v>3007.0</v>
+        <v>6550.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>9549614.0</v>
+        <v>9388369.0</v>
       </c>
       <c r="B108" t="n">
-        <v>83384.0</v>
+        <v>193504.0</v>
       </c>
       <c r="C108" t="n">
-        <v>235444.0</v>
+        <v>286569.0</v>
       </c>
       <c r="D108" t="n">
-        <v>8024.0</v>
+        <v>16669.0</v>
       </c>
       <c r="E108" t="n">
-        <v>3011.0</v>
+        <v>6361.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>9546895.0</v>
+        <v>9389075.0</v>
       </c>
       <c r="B109" t="n">
-        <v>82709.0</v>
+        <v>190024.0</v>
       </c>
       <c r="C109" t="n">
-        <v>238838.0</v>
+        <v>289343.0</v>
       </c>
       <c r="D109" t="n">
-        <v>8374.0</v>
+        <v>17453.0</v>
       </c>
       <c r="E109" t="n">
-        <v>3173.0</v>
+        <v>6675.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>9543564.0</v>
+        <v>9389488.0</v>
       </c>
       <c r="B110" t="n">
-        <v>83401.0</v>
+        <v>188423.0</v>
       </c>
       <c r="C110" t="n">
-        <v>241477.0</v>
+        <v>290531.0</v>
       </c>
       <c r="D110" t="n">
-        <v>9192.0</v>
+        <v>18480.0</v>
       </c>
       <c r="E110" t="n">
-        <v>3643.0</v>
+        <v>7243.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>9543085.0</v>
+        <v>9393624.0</v>
       </c>
       <c r="B111" t="n">
-        <v>81548.0</v>
+        <v>183607.0</v>
       </c>
       <c r="C111" t="n">
-        <v>243809.0</v>
+        <v>291211.0</v>
       </c>
       <c r="D111" t="n">
-        <v>6585.0</v>
+        <v>13640.0</v>
       </c>
       <c r="E111" t="n">
-        <v>3905.0</v>
+        <v>7465.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>9542270.0</v>
+        <v>9400883.0</v>
       </c>
       <c r="B112" t="n">
-        <v>80108.0</v>
+        <v>178183.0</v>
       </c>
       <c r="C112" t="n">
-        <v>246064.0</v>
+        <v>289376.0</v>
       </c>
       <c r="D112" t="n">
-        <v>6957.0</v>
+        <v>12833.0</v>
       </c>
       <c r="E112" t="n">
-        <v>3864.0</v>
+        <v>7857.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>9538798.0</v>
+        <v>9399696.0</v>
       </c>
       <c r="B113" t="n">
-        <v>81767.0</v>
+        <v>181739.0</v>
       </c>
       <c r="C113" t="n">
-        <v>247877.0</v>
+        <v>287007.0</v>
       </c>
       <c r="D113" t="n">
-        <v>9820.0</v>
+        <v>20757.0</v>
       </c>
       <c r="E113" t="n">
-        <v>3670.0</v>
+        <v>7997.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>9536150.0</v>
+        <v>9402172.0</v>
       </c>
       <c r="B114" t="n">
-        <v>83098.0</v>
+        <v>183541.0</v>
       </c>
       <c r="C114" t="n">
-        <v>249194.0</v>
+        <v>282729.0</v>
       </c>
       <c r="D114" t="n">
-        <v>9097.0</v>
+        <v>19177.0</v>
       </c>
       <c r="E114" t="n">
-        <v>3556.0</v>
+        <v>7485.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>9533293.0</v>
+        <v>9402974.0</v>
       </c>
       <c r="B115" t="n">
-        <v>85057.0</v>
+        <v>187444.0</v>
       </c>
       <c r="C115" t="n">
-        <v>250092.0</v>
+        <v>278024.0</v>
       </c>
       <c r="D115" t="n">
-        <v>9585.0</v>
+        <v>19943.0</v>
       </c>
       <c r="E115" t="n">
-        <v>3594.0</v>
+        <v>7195.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>9529768.0</v>
+        <v>9401993.0</v>
       </c>
       <c r="B116" t="n">
-        <v>87592.0</v>
+        <v>193167.0</v>
       </c>
       <c r="C116" t="n">
-        <v>251082.0</v>
+        <v>273282.0</v>
       </c>
       <c r="D116" t="n">
-        <v>10263.0</v>
+        <v>21150.0</v>
       </c>
       <c r="E116" t="n">
-        <v>3775.0</v>
+        <v>7915.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>9525851.0</v>
+        <v>9400689.0</v>
       </c>
       <c r="B117" t="n">
-        <v>90602.0</v>
+        <v>200690.0</v>
       </c>
       <c r="C117" t="n">
-        <v>251989.0</v>
+        <v>267063.0</v>
       </c>
       <c r="D117" t="n">
-        <v>10699.0</v>
+        <v>22349.0</v>
       </c>
       <c r="E117" t="n">
-        <v>4339.0</v>
+        <v>8653.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>9524547.0</v>
+        <v>9402680.0</v>
       </c>
       <c r="B118" t="n">
-        <v>90817.0</v>
+        <v>202525.0</v>
       </c>
       <c r="C118" t="n">
-        <v>253078.0</v>
+        <v>263237.0</v>
       </c>
       <c r="D118" t="n">
-        <v>8298.0</v>
+        <v>17433.0</v>
       </c>
       <c r="E118" t="n">
-        <v>4601.0</v>
+        <v>9005.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>9523238.0</v>
+        <v>9409242.0</v>
       </c>
       <c r="B119" t="n">
-        <v>91033.0</v>
+        <v>201640.0</v>
       </c>
       <c r="C119" t="n">
-        <v>254171.0</v>
+        <v>257560.0</v>
       </c>
       <c r="D119" t="n">
-        <v>8361.0</v>
+        <v>15502.0</v>
       </c>
       <c r="E119" t="n">
-        <v>4622.0</v>
+        <v>9365.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>9519062.0</v>
+        <v>9405875.0</v>
       </c>
       <c r="B120" t="n">
-        <v>94278.0</v>
+        <v>209800.0</v>
       </c>
       <c r="C120" t="n">
-        <v>255102.0</v>
+        <v>252767.0</v>
       </c>
       <c r="D120" t="n">
-        <v>11535.0</v>
+        <v>24743.0</v>
       </c>
       <c r="E120" t="n">
-        <v>4262.0</v>
+        <v>9443.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>9515753.0</v>
+        <v>9406196.0</v>
       </c>
       <c r="B121" t="n">
-        <v>96631.0</v>
+        <v>214533.0</v>
       </c>
       <c r="C121" t="n">
-        <v>256058.0</v>
+        <v>247713.0</v>
       </c>
       <c r="D121" t="n">
-        <v>10879.0</v>
+        <v>22923.0</v>
       </c>
       <c r="E121" t="n">
-        <v>4262.0</v>
+        <v>8815.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>9511802.0</v>
+        <v>9404774.0</v>
       </c>
       <c r="B122" t="n">
-        <v>99435.0</v>
+        <v>220703.0</v>
       </c>
       <c r="C122" t="n">
-        <v>257205.0</v>
+        <v>242965.0</v>
       </c>
       <c r="D122" t="n">
-        <v>11703.0</v>
+        <v>23781.0</v>
       </c>
       <c r="E122" t="n">
-        <v>4326.0</v>
+        <v>8868.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>9507221.0</v>
+        <v>9400763.0</v>
       </c>
       <c r="B123" t="n">
-        <v>102601.0</v>
+        <v>228014.0</v>
       </c>
       <c r="C123" t="n">
-        <v>258620.0</v>
+        <v>239665.0</v>
       </c>
       <c r="D123" t="n">
-        <v>12245.0</v>
+        <v>24944.0</v>
       </c>
       <c r="E123" t="n">
-        <v>4745.0</v>
+        <v>9552.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>9501503.0</v>
+        <v>9394018.0</v>
       </c>
       <c r="B124" t="n">
-        <v>106707.0</v>
+        <v>236971.0</v>
       </c>
       <c r="C124" t="n">
-        <v>260232.0</v>
+        <v>237453.0</v>
       </c>
       <c r="D124" t="n">
-        <v>13338.0</v>
+        <v>26826.0</v>
       </c>
       <c r="E124" t="n">
-        <v>5134.0</v>
+        <v>10458.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>9499522.0</v>
+        <v>9391287.0</v>
       </c>
       <c r="B125" t="n">
-        <v>107095.0</v>
+        <v>240590.0</v>
       </c>
       <c r="C125" t="n">
-        <v>261825.0</v>
+        <v>236565.0</v>
       </c>
       <c r="D125" t="n">
-        <v>10024.0</v>
+        <v>21187.0</v>
       </c>
       <c r="E125" t="n">
-        <v>5578.0</v>
+        <v>10827.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>9497731.0</v>
+        <v>9391093.0</v>
       </c>
       <c r="B126" t="n">
-        <v>107190.0</v>
+        <v>239068.0</v>
       </c>
       <c r="C126" t="n">
-        <v>263521.0</v>
+        <v>238281.0</v>
       </c>
       <c r="D126" t="n">
-        <v>10084.0</v>
+        <v>18451.0</v>
       </c>
       <c r="E126" t="n">
-        <v>5713.0</v>
+        <v>11187.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>9492451.0</v>
+        <v>9378831.0</v>
       </c>
       <c r="B127" t="n">
-        <v>110897.0</v>
+        <v>248678.0</v>
       </c>
       <c r="C127" t="n">
-        <v>265094.0</v>
+        <v>240933.0</v>
       </c>
       <c r="D127" t="n">
-        <v>13769.0</v>
+        <v>29463.0</v>
       </c>
       <c r="E127" t="n">
-        <v>5239.0</v>
+        <v>11437.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>9488305.0</v>
+        <v>9369262.0</v>
       </c>
       <c r="B128" t="n">
-        <v>113654.0</v>
+        <v>253790.0</v>
       </c>
       <c r="C128" t="n">
-        <v>266483.0</v>
+        <v>245390.0</v>
       </c>
       <c r="D128" t="n">
-        <v>12962.0</v>
+        <v>26944.0</v>
       </c>
       <c r="E128" t="n">
-        <v>5080.0</v>
+        <v>10736.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>9483520.0</v>
+        <v>9356938.0</v>
       </c>
       <c r="B129" t="n">
-        <v>116444.0</v>
+        <v>260932.0</v>
       </c>
       <c r="C129" t="n">
-        <v>268478.0</v>
+        <v>250572.0</v>
       </c>
       <c r="D129" t="n">
-        <v>13447.0</v>
+        <v>28364.0</v>
       </c>
       <c r="E129" t="n">
-        <v>5330.0</v>
+        <v>10575.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>9477952.0</v>
+        <v>9342744.0</v>
       </c>
       <c r="B130" t="n">
-        <v>119804.0</v>
+        <v>268598.0</v>
       </c>
       <c r="C130" t="n">
-        <v>270686.0</v>
+        <v>257100.0</v>
       </c>
       <c r="D130" t="n">
-        <v>14396.0</v>
+        <v>29621.0</v>
       </c>
       <c r="E130" t="n">
-        <v>5670.0</v>
+        <v>11163.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>9471403.0</v>
+        <v>9325953.0</v>
       </c>
       <c r="B131" t="n">
-        <v>124152.0</v>
+        <v>278196.0</v>
       </c>
       <c r="C131" t="n">
-        <v>272887.0</v>
+        <v>264293.0</v>
       </c>
       <c r="D131" t="n">
-        <v>15635.0</v>
+        <v>31617.0</v>
       </c>
       <c r="E131" t="n">
-        <v>6204.0</v>
+        <v>12600.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>9468649.0</v>
+        <v>9316611.0</v>
       </c>
       <c r="B132" t="n">
-        <v>124351.0</v>
+        <v>282027.0</v>
       </c>
       <c r="C132" t="n">
-        <v>275442.0</v>
+        <v>269804.0</v>
       </c>
       <c r="D132" t="n">
-        <v>11945.0</v>
+        <v>24940.0</v>
       </c>
       <c r="E132" t="n">
-        <v>6731.0</v>
+        <v>13011.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>9466252.0</v>
+        <v>9311085.0</v>
       </c>
       <c r="B133" t="n">
-        <v>124487.0</v>
+        <v>279683.0</v>
       </c>
       <c r="C133" t="n">
-        <v>277703.0</v>
+        <v>277674.0</v>
       </c>
       <c r="D133" t="n">
-        <v>11786.0</v>
+        <v>21913.0</v>
       </c>
       <c r="E133" t="n">
-        <v>6533.0</v>
+        <v>13507.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>9459890.0</v>
+        <v>9294328.0</v>
       </c>
       <c r="B134" t="n">
-        <v>128966.0</v>
+        <v>289522.0</v>
       </c>
       <c r="C134" t="n">
-        <v>279586.0</v>
+        <v>284592.0</v>
       </c>
       <c r="D134" t="n">
-        <v>16069.0</v>
+        <v>33340.0</v>
       </c>
       <c r="E134" t="n">
-        <v>6136.0</v>
+        <v>13141.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>9454509.0</v>
+        <v>9281981.0</v>
       </c>
       <c r="B135" t="n">
-        <v>132034.0</v>
+        <v>293936.0</v>
       </c>
       <c r="C135" t="n">
-        <v>281899.0</v>
+        <v>292525.0</v>
       </c>
       <c r="D135" t="n">
-        <v>15178.0</v>
+        <v>30537.0</v>
       </c>
       <c r="E135" t="n">
-        <v>6070.0</v>
+        <v>12488.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>9448161.0</v>
+        <v>9267724.0</v>
       </c>
       <c r="B136" t="n">
-        <v>135302.0</v>
+        <v>300394.0</v>
       </c>
       <c r="C136" t="n">
-        <v>284979.0</v>
+        <v>300324.0</v>
       </c>
       <c r="D136" t="n">
-        <v>15907.0</v>
+        <v>31868.0</v>
       </c>
       <c r="E136" t="n">
-        <v>6299.0</v>
+        <v>12386.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>9440847.0</v>
+        <v>9252513.0</v>
       </c>
       <c r="B137" t="n">
-        <v>138801.0</v>
+        <v>306701.0</v>
       </c>
       <c r="C137" t="n">
-        <v>288794.0</v>
+        <v>309228.0</v>
       </c>
       <c r="D137" t="n">
-        <v>16845.0</v>
+        <v>32844.0</v>
       </c>
       <c r="E137" t="n">
-        <v>6569.0</v>
+        <v>12879.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>9431676.0</v>
+        <v>9235079.0</v>
       </c>
       <c r="B138" t="n">
-        <v>143712.0</v>
+        <v>315625.0</v>
       </c>
       <c r="C138" t="n">
-        <v>293054.0</v>
+        <v>317738.0</v>
       </c>
       <c r="D138" t="n">
-        <v>18404.0</v>
+        <v>35303.0</v>
       </c>
       <c r="E138" t="n">
-        <v>7228.0</v>
+        <v>14075.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>9426973.0</v>
+        <v>9225506.0</v>
       </c>
       <c r="B139" t="n">
-        <v>143461.0</v>
+        <v>317304.0</v>
       </c>
       <c r="C139" t="n">
-        <v>298008.0</v>
+        <v>325632.0</v>
       </c>
       <c r="D139" t="n">
-        <v>13752.0</v>
+        <v>27141.0</v>
       </c>
       <c r="E139" t="n">
-        <v>7794.0</v>
+        <v>14454.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>9421771.0</v>
+        <v>9221580.0</v>
       </c>
       <c r="B140" t="n">
-        <v>143044.0</v>
+        <v>312134.0</v>
       </c>
       <c r="C140" t="n">
-        <v>303627.0</v>
+        <v>334728.0</v>
       </c>
       <c r="D140" t="n">
-        <v>13702.0</v>
+        <v>23899.0</v>
       </c>
       <c r="E140" t="n">
-        <v>7810.0</v>
+        <v>14620.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>9411666.0</v>
+        <v>9205236.0</v>
       </c>
       <c r="B141" t="n">
-        <v>147632.0</v>
+        <v>320102.0</v>
       </c>
       <c r="C141" t="n">
-        <v>309144.0</v>
+        <v>343104.0</v>
       </c>
       <c r="D141" t="n">
-        <v>18543.0</v>
+        <v>36197.0</v>
       </c>
       <c r="E141" t="n">
-        <v>7086.0</v>
+        <v>14477.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>9402780.0</v>
+        <v>9193905.0</v>
       </c>
       <c r="B142" t="n">
-        <v>150688.0</v>
+        <v>322653.0</v>
       </c>
       <c r="C142" t="n">
-        <v>314974.0</v>
+        <v>351884.0</v>
       </c>
       <c r="D142" t="n">
-        <v>17283.0</v>
+        <v>33163.0</v>
       </c>
       <c r="E142" t="n">
-        <v>6860.0</v>
+        <v>13711.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>9392694.0</v>
+        <v>9181006.0</v>
       </c>
       <c r="B143" t="n">
-        <v>153957.0</v>
+        <v>327448.0</v>
       </c>
       <c r="C143" t="n">
-        <v>321791.0</v>
+        <v>359988.0</v>
       </c>
       <c r="D143" t="n">
-        <v>18247.0</v>
+        <v>34121.0</v>
       </c>
       <c r="E143" t="n">
-        <v>7278.0</v>
+        <v>13588.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>9381392.0</v>
+        <v>9168082.0</v>
       </c>
       <c r="B144" t="n">
-        <v>157384.0</v>
+        <v>331474.0</v>
       </c>
       <c r="C144" t="n">
-        <v>329666.0</v>
+        <v>368886.0</v>
       </c>
       <c r="D144" t="n">
-        <v>19068.0</v>
+        <v>34879.0</v>
       </c>
       <c r="E144" t="n">
-        <v>7534.0</v>
+        <v>13908.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>9368763.0</v>
+        <v>9153344.0</v>
       </c>
       <c r="B145" t="n">
-        <v>161967.0</v>
+        <v>338411.0</v>
       </c>
       <c r="C145" t="n">
-        <v>337712.0</v>
+        <v>376687.0</v>
       </c>
       <c r="D145" t="n">
-        <v>20255.0</v>
+        <v>36757.0</v>
       </c>
       <c r="E145" t="n">
-        <v>8282.0</v>
+        <v>15073.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>9361452.0</v>
+        <v>9146009.0</v>
       </c>
       <c r="B146" t="n">
-        <v>160715.0</v>
+        <v>338447.0</v>
       </c>
       <c r="C146" t="n">
-        <v>346275.0</v>
+        <v>383986.0</v>
       </c>
       <c r="D146" t="n">
-        <v>15039.0</v>
+        <v>28444.0</v>
       </c>
       <c r="E146" t="n">
-        <v>8791.0</v>
+        <v>15785.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>9354210.0</v>
+        <v>9145150.0</v>
       </c>
       <c r="B147" t="n">
-        <v>159236.0</v>
+        <v>330910.0</v>
       </c>
       <c r="C147" t="n">
-        <v>354996.0</v>
+        <v>392382.0</v>
       </c>
       <c r="D147" t="n">
-        <v>14931.0</v>
+        <v>25116.0</v>
       </c>
       <c r="E147" t="n">
-        <v>8613.0</v>
+        <v>15526.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>9342299.0</v>
+        <v>9131555.0</v>
       </c>
       <c r="B148" t="n">
-        <v>163085.0</v>
+        <v>336707.0</v>
       </c>
       <c r="C148" t="n">
-        <v>363058.0</v>
+        <v>400180.0</v>
       </c>
       <c r="D148" t="n">
-        <v>19994.0</v>
+        <v>37096.0</v>
       </c>
       <c r="E148" t="n">
-        <v>7681.0</v>
+        <v>15285.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>9336017.0</v>
+        <v>9130417.0</v>
       </c>
       <c r="B149" t="n">
-        <v>161056.0</v>
+        <v>330721.0</v>
       </c>
       <c r="C149" t="n">
-        <v>371369.0</v>
+        <v>407304.0</v>
       </c>
       <c r="D149" t="n">
-        <v>14427.0</v>
+        <v>27261.0</v>
       </c>
       <c r="E149" t="n">
-        <v>7706.0</v>
+        <v>14144.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>9329801.0</v>
+        <v>9128398.0</v>
       </c>
       <c r="B150" t="n">
-        <v>158505.0</v>
+        <v>326130.0</v>
       </c>
       <c r="C150" t="n">
-        <v>380136.0</v>
+        <v>413914.0</v>
       </c>
       <c r="D150" t="n">
-        <v>14506.0</v>
+        <v>27429.0</v>
       </c>
       <c r="E150" t="n">
-        <v>7412.0</v>
+        <v>13665.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>9323881.0</v>
+        <v>9127901.0</v>
       </c>
       <c r="B151" t="n">
-        <v>155350.0</v>
+        <v>319758.0</v>
       </c>
       <c r="C151" t="n">
-        <v>389211.0</v>
+        <v>420783.0</v>
       </c>
       <c r="D151" t="n">
-        <v>14446.0</v>
+        <v>27034.0</v>
       </c>
       <c r="E151" t="n">
-        <v>6926.0</v>
+        <v>13297.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>9318358.0</v>
+        <v>9126713.0</v>
       </c>
       <c r="B152" t="n">
-        <v>152277.0</v>
+        <v>315097.0</v>
       </c>
       <c r="C152" t="n">
-        <v>397807.0</v>
+        <v>426632.0</v>
       </c>
       <c r="D152" t="n">
-        <v>14422.0</v>
+        <v>27567.0</v>
       </c>
       <c r="E152" t="n">
-        <v>7012.0</v>
+        <v>13463.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>9318904.0</v>
+        <v>9133853.0</v>
       </c>
       <c r="B153" t="n">
-        <v>142462.0</v>
+        <v>303170.0</v>
       </c>
       <c r="C153" t="n">
-        <v>407076.0</v>
+        <v>431419.0</v>
       </c>
       <c r="D153" t="n">
-        <v>8533.0</v>
+        <v>18322.0</v>
       </c>
       <c r="E153" t="n">
-        <v>6821.0</v>
+        <v>12879.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>9317998.0</v>
+        <v>9144731.0</v>
       </c>
       <c r="B154" t="n">
-        <v>134833.0</v>
+        <v>287197.0</v>
       </c>
       <c r="C154" t="n">
-        <v>415611.0</v>
+        <v>436514.0</v>
       </c>
       <c r="D154" t="n">
-        <v>10138.0</v>
+        <v>18191.0</v>
       </c>
       <c r="E154" t="n">
-        <v>6044.0</v>
+        <v>12007.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>9319419.0</v>
+        <v>9157763.0</v>
       </c>
       <c r="B155" t="n">
-        <v>126006.0</v>
+        <v>270117.0</v>
       </c>
       <c r="C155" t="n">
-        <v>423017.0</v>
+        <v>440562.0</v>
       </c>
       <c r="D155" t="n">
-        <v>8215.0</v>
+        <v>15197.0</v>
       </c>
       <c r="E155" t="n">
-        <v>4977.0</v>
+        <v>10850.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>9322936.0</v>
+        <v>9175742.0</v>
       </c>
       <c r="B156" t="n">
-        <v>115953.0</v>
+        <v>249170.0</v>
       </c>
       <c r="C156" t="n">
-        <v>429553.0</v>
+        <v>443530.0</v>
       </c>
       <c r="D156" t="n">
-        <v>6472.0</v>
+        <v>12633.0</v>
       </c>
       <c r="E156" t="n">
-        <v>4525.0</v>
+        <v>9516.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>9328033.0</v>
+        <v>9194898.0</v>
       </c>
       <c r="B157" t="n">
-        <v>104794.0</v>
+        <v>228163.0</v>
       </c>
       <c r="C157" t="n">
-        <v>435615.0</v>
+        <v>445381.0</v>
       </c>
       <c r="D157" t="n">
-        <v>4965.0</v>
+        <v>10170.0</v>
       </c>
       <c r="E157" t="n">
-        <v>3848.0</v>
+        <v>7811.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>9330762.0</v>
+        <v>9209907.0</v>
       </c>
       <c r="B158" t="n">
-        <v>96963.0</v>
+        <v>211518.0</v>
       </c>
       <c r="C158" t="n">
-        <v>440717.0</v>
+        <v>447017.0</v>
       </c>
       <c r="D158" t="n">
-        <v>7476.0</v>
+        <v>15844.0</v>
       </c>
       <c r="E158" t="n">
-        <v>3092.0</v>
+        <v>6645.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>9334809.0</v>
+        <v>9226021.0</v>
       </c>
       <c r="B159" t="n">
-        <v>89826.0</v>
+        <v>196719.0</v>
       </c>
       <c r="C159" t="n">
-        <v>443807.0</v>
+        <v>445702.0</v>
       </c>
       <c r="D159" t="n">
-        <v>6610.0</v>
+        <v>13706.0</v>
       </c>
       <c r="E159" t="n">
-        <v>2926.0</v>
+        <v>6054.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>9342653.0</v>
+        <v>9247174.0</v>
       </c>
       <c r="B160" t="n">
-        <v>79526.0</v>
+        <v>179095.0</v>
       </c>
       <c r="C160" t="n">
-        <v>446263.0</v>
+        <v>442173.0</v>
       </c>
       <c r="D160" t="n">
-        <v>3192.0</v>
+        <v>7255.0</v>
       </c>
       <c r="E160" t="n">
-        <v>2945.0</v>
+        <v>5778.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>9349396.0</v>
+        <v>9271821.0</v>
       </c>
       <c r="B161" t="n">
-        <v>72166.0</v>
+        <v>160215.0</v>
       </c>
       <c r="C161" t="n">
-        <v>446880.0</v>
+        <v>436406.0</v>
       </c>
       <c r="D161" t="n">
-        <v>4544.0</v>
+        <v>8006.0</v>
       </c>
       <c r="E161" t="n">
-        <v>2863.0</v>
+        <v>5697.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>9355475.0</v>
+        <v>9291614.0</v>
       </c>
       <c r="B162" t="n">
-        <v>67440.0</v>
+        <v>149537.0</v>
       </c>
       <c r="C162" t="n">
-        <v>445527.0</v>
+        <v>427291.0</v>
       </c>
       <c r="D162" t="n">
-        <v>5667.0</v>
+        <v>11506.0</v>
       </c>
       <c r="E162" t="n">
-        <v>2471.0</v>
+        <v>5425.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>9361872.0</v>
+        <v>9314179.0</v>
       </c>
       <c r="B163" t="n">
-        <v>63488.0</v>
+        <v>139036.0</v>
       </c>
       <c r="C163" t="n">
-        <v>443082.0</v>
+        <v>415227.0</v>
       </c>
       <c r="D163" t="n">
-        <v>5253.0</v>
+        <v>10682.0</v>
       </c>
       <c r="E163" t="n">
-        <v>2471.0</v>
+        <v>5169.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>9367272.0</v>
+        <v>9333367.0</v>
       </c>
       <c r="B164" t="n">
-        <v>61161.0</v>
+        <v>132213.0</v>
       </c>
       <c r="C164" t="n">
-        <v>440009.0</v>
+        <v>402862.0</v>
       </c>
       <c r="D164" t="n">
-        <v>6190.0</v>
+        <v>12832.0</v>
       </c>
       <c r="E164" t="n">
-        <v>2203.0</v>
+        <v>4654.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>9372877.0</v>
+        <v>9353699.0</v>
       </c>
       <c r="B165" t="n">
-        <v>59711.0</v>
+        <v>127752.0</v>
       </c>
       <c r="C165" t="n">
-        <v>435854.0</v>
+        <v>386991.0</v>
       </c>
       <c r="D165" t="n">
-        <v>6505.0</v>
+        <v>13074.0</v>
       </c>
       <c r="E165" t="n">
-        <v>2245.0</v>
+        <v>4613.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>9378313.0</v>
+        <v>9371715.0</v>
       </c>
       <c r="B166" t="n">
-        <v>59588.0</v>
+        <v>127453.0</v>
       </c>
       <c r="C166" t="n">
-        <v>430541.0</v>
+        <v>369274.0</v>
       </c>
       <c r="D166" t="n">
-        <v>7203.0</v>
+        <v>14212.0</v>
       </c>
       <c r="E166" t="n">
-        <v>2604.0</v>
+        <v>4902.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>9386515.0</v>
+        <v>9391385.0</v>
       </c>
       <c r="B167" t="n">
-        <v>57442.0</v>
+        <v>124456.0</v>
       </c>
       <c r="C167" t="n">
-        <v>424485.0</v>
+        <v>352601.0</v>
       </c>
       <c r="D167" t="n">
-        <v>5144.0</v>
+        <v>10579.0</v>
       </c>
       <c r="E167" t="n">
-        <v>2949.0</v>
+        <v>5448.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>9394496.0</v>
+        <v>9415553.0</v>
       </c>
       <c r="B168" t="n">
-        <v>56268.0</v>
+        <v>121892.0</v>
       </c>
       <c r="C168" t="n">
-        <v>417678.0</v>
+        <v>330997.0</v>
       </c>
       <c r="D168" t="n">
-        <v>5512.0</v>
+        <v>9996.0</v>
       </c>
       <c r="E168" t="n">
-        <v>2885.0</v>
+        <v>5800.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>9400398.0</v>
+        <v>9430982.0</v>
       </c>
       <c r="B169" t="n">
-        <v>57986.0</v>
+        <v>126185.0</v>
       </c>
       <c r="C169" t="n">
-        <v>410058.0</v>
+        <v>311275.0</v>
       </c>
       <c r="D169" t="n">
-        <v>8101.0</v>
+        <v>16848.0</v>
       </c>
       <c r="E169" t="n">
-        <v>2746.0</v>
+        <v>5736.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>9406996.0</v>
+        <v>9448807.0</v>
       </c>
       <c r="B170" t="n">
-        <v>59483.0</v>
+        <v>130615.0</v>
       </c>
       <c r="C170" t="n">
-        <v>401963.0</v>
+        <v>289020.0</v>
       </c>
       <c r="D170" t="n">
-        <v>7521.0</v>
+        <v>15755.0</v>
       </c>
       <c r="E170" t="n">
-        <v>2921.0</v>
+        <v>5611.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>9412982.0</v>
+        <v>9463014.0</v>
       </c>
       <c r="B171" t="n">
-        <v>61677.0</v>
+        <v>135850.0</v>
       </c>
       <c r="C171" t="n">
-        <v>393783.0</v>
+        <v>269578.0</v>
       </c>
       <c r="D171" t="n">
-        <v>7969.0</v>
+        <v>16970.0</v>
       </c>
       <c r="E171" t="n">
-        <v>2890.0</v>
+        <v>5975.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>9418326.0</v>
+        <v>9477255.0</v>
       </c>
       <c r="B172" t="n">
-        <v>64596.0</v>
+        <v>142729.0</v>
       </c>
       <c r="C172" t="n">
-        <v>385520.0</v>
+        <v>248458.0</v>
       </c>
       <c r="D172" t="n">
-        <v>8883.0</v>
+        <v>18248.0</v>
       </c>
       <c r="E172" t="n">
-        <v>3254.0</v>
+        <v>6449.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>9423595.0</v>
+        <v>9485713.0</v>
       </c>
       <c r="B173" t="n">
-        <v>68475.0</v>
+        <v>151846.0</v>
       </c>
       <c r="C173" t="n">
-        <v>376372.0</v>
+        <v>230883.0</v>
       </c>
       <c r="D173" t="n">
-        <v>9709.0</v>
+        <v>20047.0</v>
       </c>
       <c r="E173" t="n">
-        <v>3564.0</v>
+        <v>7288.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>9431728.0</v>
+        <v>9494416.0</v>
       </c>
       <c r="B174" t="n">
-        <v>69706.0</v>
+        <v>156555.0</v>
       </c>
       <c r="C174" t="n">
-        <v>367008.0</v>
+        <v>217471.0</v>
       </c>
       <c r="D174" t="n">
-        <v>7508.0</v>
+        <v>16176.0</v>
       </c>
       <c r="E174" t="n">
-        <v>4115.0</v>
+        <v>7958.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>9440069.0</v>
+        <v>9506860.0</v>
       </c>
       <c r="B175" t="n">
-        <v>70597.0</v>
+        <v>158438.0</v>
       </c>
       <c r="C175" t="n">
-        <v>357776.0</v>
+        <v>203144.0</v>
       </c>
       <c r="D175" t="n">
-        <v>7331.0</v>
+        <v>14442.0</v>
       </c>
       <c r="E175" t="n">
-        <v>4033.0</v>
+        <v>8112.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>9445969.0</v>
+        <v>9506100.0</v>
       </c>
       <c r="B176" t="n">
-        <v>74288.0</v>
+        <v>168725.0</v>
       </c>
       <c r="C176" t="n">
-        <v>348185.0</v>
+        <v>193617.0</v>
       </c>
       <c r="D176" t="n">
-        <v>10391.0</v>
+        <v>22944.0</v>
       </c>
       <c r="E176" t="n">
-        <v>3788.0</v>
+        <v>7942.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>9452500.0</v>
+        <v>9505448.0</v>
       </c>
       <c r="B177" t="n">
-        <v>77151.0</v>
+        <v>176229.0</v>
       </c>
       <c r="C177" t="n">
-        <v>338791.0</v>
+        <v>186765.0</v>
       </c>
       <c r="D177" t="n">
-        <v>9879.0</v>
+        <v>21835.0</v>
       </c>
       <c r="E177" t="n">
-        <v>3724.0</v>
+        <v>8108.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>9458051.0</v>
+        <v>9501640.0</v>
       </c>
       <c r="B178" t="n">
-        <v>80217.0</v>
+        <v>186028.0</v>
       </c>
       <c r="C178" t="n">
-        <v>330174.0</v>
+        <v>180774.0</v>
       </c>
       <c r="D178" t="n">
-        <v>10594.0</v>
+        <v>23463.0</v>
       </c>
       <c r="E178" t="n">
-        <v>3977.0</v>
+        <v>8545.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>9463092.0</v>
+        <v>9493873.0</v>
       </c>
       <c r="B179" t="n">
-        <v>83828.0</v>
+        <v>195181.0</v>
       </c>
       <c r="C179" t="n">
-        <v>321522.0</v>
+        <v>179388.0</v>
       </c>
       <c r="D179" t="n">
-        <v>11415.0</v>
+        <v>25302.0</v>
       </c>
       <c r="E179" t="n">
-        <v>4336.0</v>
+        <v>8897.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>9467441.0</v>
+        <v>9480482.0</v>
       </c>
       <c r="B180" t="n">
-        <v>88481.0</v>
+        <v>207795.0</v>
       </c>
       <c r="C180" t="n">
-        <v>312520.0</v>
+        <v>180165.0</v>
       </c>
       <c r="D180" t="n">
-        <v>12708.0</v>
+        <v>27902.0</v>
       </c>
       <c r="E180" t="n">
-        <v>4799.0</v>
+        <v>10058.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>9475458.0</v>
+        <v>9471374.0</v>
       </c>
       <c r="B181" t="n">
-        <v>89439.0</v>
+        <v>215053.0</v>
       </c>
       <c r="C181" t="n">
-        <v>303545.0</v>
+        <v>182015.0</v>
       </c>
       <c r="D181" t="n">
-        <v>9584.0</v>
+        <v>22684.0</v>
       </c>
       <c r="E181" t="n">
-        <v>5263.0</v>
+        <v>11150.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>9483434.0</v>
+        <v>9463998.0</v>
       </c>
       <c r="B182" t="n">
-        <v>90309.0</v>
+        <v>216855.0</v>
       </c>
       <c r="C182" t="n">
-        <v>294699.0</v>
+        <v>187589.0</v>
       </c>
       <c r="D182" t="n">
-        <v>9519.0</v>
+        <v>19936.0</v>
       </c>
       <c r="E182" t="n">
-        <v>5252.0</v>
+        <v>11397.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>9488638.0</v>
+        <v>9445288.0</v>
       </c>
       <c r="B183" t="n">
-        <v>94741.0</v>
+        <v>230159.0</v>
       </c>
       <c r="C183" t="n">
-        <v>285063.0</v>
+        <v>192995.0</v>
       </c>
       <c r="D183" t="n">
-        <v>13144.0</v>
+        <v>31265.0</v>
       </c>
       <c r="E183" t="n">
-        <v>4842.0</v>
+        <v>11333.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>9493749.0</v>
+        <v>9427555.0</v>
       </c>
       <c r="B184" t="n">
-        <v>98142.0</v>
+        <v>239290.0</v>
       </c>
       <c r="C184" t="n">
-        <v>276551.0</v>
+        <v>201597.0</v>
       </c>
       <c r="D184" t="n">
-        <v>12656.0</v>
+        <v>29058.0</v>
       </c>
       <c r="E184" t="n">
-        <v>4807.0</v>
+        <v>11234.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>9497072.0</v>
+        <v>9408161.0</v>
       </c>
       <c r="B185" t="n">
-        <v>101951.0</v>
+        <v>250622.0</v>
       </c>
       <c r="C185" t="n">
-        <v>269419.0</v>
+        <v>209659.0</v>
       </c>
       <c r="D185" t="n">
-        <v>13719.0</v>
+        <v>31129.0</v>
       </c>
       <c r="E185" t="n">
-        <v>5015.0</v>
+        <v>11420.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>9498828.0</v>
+        <v>9386255.0</v>
       </c>
       <c r="B186" t="n">
-        <v>106168.0</v>
+        <v>261230.0</v>
       </c>
       <c r="C186" t="n">
-        <v>263446.0</v>
+        <v>220957.0</v>
       </c>
       <c r="D186" t="n">
-        <v>14769.0</v>
+        <v>33275.0</v>
       </c>
       <c r="E186" t="n">
-        <v>5408.0</v>
+        <v>12167.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>9498699.0</v>
+        <v>9361023.0</v>
       </c>
       <c r="B187" t="n">
-        <v>112092.0</v>
+        <v>275736.0</v>
       </c>
       <c r="C187" t="n">
-        <v>257651.0</v>
+        <v>231683.0</v>
       </c>
       <c r="D187" t="n">
-        <v>16253.0</v>
+        <v>36162.0</v>
       </c>
       <c r="E187" t="n">
-        <v>6201.0</v>
+        <v>13558.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>9501475.0</v>
+        <v>9343238.0</v>
       </c>
       <c r="B188" t="n">
-        <v>113600.0</v>
+        <v>283462.0</v>
       </c>
       <c r="C188" t="n">
-        <v>253367.0</v>
+        <v>241742.0</v>
       </c>
       <c r="D188" t="n">
-        <v>12531.0</v>
+        <v>29252.0</v>
       </c>
       <c r="E188" t="n">
-        <v>6834.0</v>
+        <v>14794.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>9503326.0</v>
+        <v>9330508.0</v>
       </c>
       <c r="B189" t="n">
-        <v>114147.0</v>
+        <v>283046.0</v>
       </c>
       <c r="C189" t="n">
-        <v>250969.0</v>
+        <v>254888.0</v>
       </c>
       <c r="D189" t="n">
-        <v>11896.0</v>
+        <v>25289.0</v>
       </c>
       <c r="E189" t="n">
-        <v>6727.0</v>
+        <v>15041.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>9500165.0</v>
+        <v>9304694.0</v>
       </c>
       <c r="B190" t="n">
-        <v>119413.0</v>
+        <v>296111.0</v>
       </c>
       <c r="C190" t="n">
-        <v>248864.0</v>
+        <v>267637.0</v>
       </c>
       <c r="D190" t="n">
-        <v>16653.0</v>
+        <v>38471.0</v>
       </c>
       <c r="E190" t="n">
-        <v>6196.0</v>
+        <v>14512.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>9496229.0</v>
+        <v>9283594.0</v>
       </c>
       <c r="B191" t="n">
-        <v>123228.0</v>
+        <v>304228.0</v>
       </c>
       <c r="C191" t="n">
-        <v>248985.0</v>
+        <v>280620.0</v>
       </c>
       <c r="D191" t="n">
-        <v>15840.0</v>
+        <v>35431.0</v>
       </c>
       <c r="E191" t="n">
-        <v>6108.0</v>
+        <v>13850.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>9489343.0</v>
+        <v>9260119.0</v>
       </c>
       <c r="B192" t="n">
-        <v>127855.0</v>
+        <v>314525.0</v>
       </c>
       <c r="C192" t="n">
-        <v>251244.0</v>
+        <v>293798.0</v>
       </c>
       <c r="D192" t="n">
-        <v>17279.0</v>
+        <v>37139.0</v>
       </c>
       <c r="E192" t="n">
-        <v>6470.0</v>
+        <v>14445.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>9480248.0</v>
+        <v>9237275.0</v>
       </c>
       <c r="B193" t="n">
-        <v>132862.0</v>
+        <v>323071.0</v>
       </c>
       <c r="C193" t="n">
-        <v>255332.0</v>
+        <v>308096.0</v>
       </c>
       <c r="D193" t="n">
-        <v>18300.0</v>
+        <v>38993.0</v>
       </c>
       <c r="E193" t="n">
-        <v>6958.0</v>
+        <v>14956.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>9468639.0</v>
+        <v>9210768.0</v>
       </c>
       <c r="B194" t="n">
-        <v>139657.0</v>
+        <v>335812.0</v>
       </c>
       <c r="C194" t="n">
-        <v>260146.0</v>
+        <v>321862.0</v>
       </c>
       <c r="D194" t="n">
-        <v>20126.0</v>
+        <v>41795.0</v>
       </c>
       <c r="E194" t="n">
-        <v>7727.0</v>
+        <v>16166.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>9461750.0</v>
+        <v>9193482.0</v>
       </c>
       <c r="B195" t="n">
-        <v>140223.0</v>
+        <v>340391.0</v>
       </c>
       <c r="C195" t="n">
-        <v>266469.0</v>
+        <v>334569.0</v>
       </c>
       <c r="D195" t="n">
-        <v>14844.0</v>
+        <v>32712.0</v>
       </c>
       <c r="E195" t="n">
-        <v>8620.0</v>
+        <v>17720.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>9454109.0</v>
+        <v>9183016.0</v>
       </c>
       <c r="B196" t="n">
-        <v>140847.0</v>
+        <v>335819.0</v>
       </c>
       <c r="C196" t="n">
-        <v>273486.0</v>
+        <v>349607.0</v>
       </c>
       <c r="D196" t="n">
-        <v>14967.0</v>
+        <v>28600.0</v>
       </c>
       <c r="E196" t="n">
-        <v>8455.0</v>
+        <v>17478.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>9441367.0</v>
+        <v>9158949.0</v>
       </c>
       <c r="B197" t="n">
-        <v>146659.0</v>
+        <v>345913.0</v>
       </c>
       <c r="C197" t="n">
-        <v>280416.0</v>
+        <v>363580.0</v>
       </c>
       <c r="D197" t="n">
-        <v>20032.0</v>
+        <v>42028.0</v>
       </c>
       <c r="E197" t="n">
-        <v>7302.0</v>
+        <v>16496.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>9429393.0</v>
+        <v>9141066.0</v>
       </c>
       <c r="B198" t="n">
-        <v>150322.0</v>
+        <v>349509.0</v>
       </c>
       <c r="C198" t="n">
-        <v>288727.0</v>
+        <v>377867.0</v>
       </c>
       <c r="D198" t="n">
-        <v>18660.0</v>
+        <v>37810.0</v>
       </c>
       <c r="E198" t="n">
-        <v>7461.0</v>
+        <v>15763.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>9415934.0</v>
+        <v>9121275.0</v>
       </c>
       <c r="B199" t="n">
-        <v>154337.0</v>
+        <v>356020.0</v>
       </c>
       <c r="C199" t="n">
-        <v>298171.0</v>
+        <v>391147.0</v>
       </c>
       <c r="D199" t="n">
-        <v>19842.0</v>
+        <v>39588.0</v>
       </c>
       <c r="E199" t="n">
-        <v>7813.0</v>
+        <v>15728.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>9401043.0</v>
+        <v>9103662.0</v>
       </c>
       <c r="B200" t="n">
-        <v>158511.0</v>
+        <v>358787.0</v>
       </c>
       <c r="C200" t="n">
-        <v>308888.0</v>
+        <v>405993.0</v>
       </c>
       <c r="D200" t="n">
-        <v>20915.0</v>
+        <v>40280.0</v>
       </c>
       <c r="E200" t="n">
-        <v>8309.0</v>
+        <v>16094.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>9384180.0</v>
+        <v>9082750.0</v>
       </c>
       <c r="B201" t="n">
-        <v>164596.0</v>
+        <v>367023.0</v>
       </c>
       <c r="C201" t="n">
-        <v>319666.0</v>
+        <v>418669.0</v>
       </c>
       <c r="D201" t="n">
-        <v>22638.0</v>
+        <v>42568.0</v>
       </c>
       <c r="E201" t="n">
-        <v>8926.0</v>
+        <v>17067.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>9373321.0</v>
+        <v>9071997.0</v>
       </c>
       <c r="B202" t="n">
-        <v>163809.0</v>
+        <v>366029.0</v>
       </c>
       <c r="C202" t="n">
-        <v>331312.0</v>
+        <v>430416.0</v>
       </c>
       <c r="D202" t="n">
-        <v>16823.0</v>
+        <v>32279.0</v>
       </c>
       <c r="E202" t="n">
-        <v>9656.0</v>
+        <v>18289.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>9362698.0</v>
+        <v>9069111.0</v>
       </c>
       <c r="B203" t="n">
-        <v>162886.0</v>
+        <v>355844.0</v>
       </c>
       <c r="C203" t="n">
-        <v>342858.0</v>
+        <v>443487.0</v>
       </c>
       <c r="D203" t="n">
-        <v>16453.0</v>
+        <v>28591.0</v>
       </c>
       <c r="E203" t="n">
-        <v>9593.0</v>
+        <v>18182.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>9347251.0</v>
+        <v>9053947.0</v>
       </c>
       <c r="B204" t="n">
-        <v>167502.0</v>
+        <v>359801.0</v>
       </c>
       <c r="C204" t="n">
-        <v>353689.0</v>
+        <v>454694.0</v>
       </c>
       <c r="D204" t="n">
-        <v>21724.0</v>
+        <v>40570.0</v>
       </c>
       <c r="E204" t="n">
-        <v>8251.0</v>
+        <v>16434.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>9333889.0</v>
+        <v>9044447.0</v>
       </c>
       <c r="B205" t="n">
-        <v>169508.0</v>
+        <v>359201.0</v>
       </c>
       <c r="C205" t="n">
-        <v>365045.0</v>
+        <v>464794.0</v>
       </c>
       <c r="D205" t="n">
-        <v>19802.0</v>
+        <v>36814.0</v>
       </c>
       <c r="E205" t="n">
-        <v>8215.0</v>
+        <v>15867.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>9319749.0</v>
+        <v>9033732.0</v>
       </c>
       <c r="B206" t="n">
-        <v>171918.0</v>
+        <v>361135.0</v>
       </c>
       <c r="C206" t="n">
-        <v>376775.0</v>
+        <v>473575.0</v>
       </c>
       <c r="D206" t="n">
-        <v>20840.0</v>
+        <v>37557.0</v>
       </c>
       <c r="E206" t="n">
-        <v>8505.0</v>
+        <v>15572.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>9305078.0</v>
+        <v>9026320.0</v>
       </c>
       <c r="B207" t="n">
-        <v>174368.0</v>
+        <v>359023.0</v>
       </c>
       <c r="C207" t="n">
-        <v>388996.0</v>
+        <v>483099.0</v>
       </c>
       <c r="D207" t="n">
-        <v>21687.0</v>
+        <v>37859.0</v>
       </c>
       <c r="E207" t="n">
-        <v>8724.0</v>
+        <v>15398.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>9297500.0</v>
+        <v>9029887.0</v>
       </c>
       <c r="B208" t="n">
-        <v>170350.0</v>
+        <v>348857.0</v>
       </c>
       <c r="C208" t="n">
-        <v>400592.0</v>
+        <v>489698.0</v>
       </c>
       <c r="D208" t="n">
-        <v>15106.0</v>
+        <v>25487.0</v>
       </c>
       <c r="E208" t="n">
-        <v>9355.0</v>
+        <v>16359.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>9290166.0</v>
+        <v>9029439.0</v>
       </c>
       <c r="B209" t="n">
-        <v>165571.0</v>
+        <v>343375.0</v>
       </c>
       <c r="C209" t="n">
-        <v>412705.0</v>
+        <v>495628.0</v>
       </c>
       <c r="D209" t="n">
-        <v>15138.0</v>
+        <v>28581.0</v>
       </c>
       <c r="E209" t="n">
-        <v>9139.0</v>
+        <v>16106.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>9285412.0</v>
+        <v>9040898.0</v>
       </c>
       <c r="B210" t="n">
-        <v>159201.0</v>
+        <v>326264.0</v>
       </c>
       <c r="C210" t="n">
-        <v>423829.0</v>
+        <v>501280.0</v>
       </c>
       <c r="D210" t="n">
-        <v>12809.0</v>
+        <v>21713.0</v>
       </c>
       <c r="E210" t="n">
-        <v>8024.0</v>
+        <v>14992.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>9276753.0</v>
+        <v>9040562.0</v>
       </c>
       <c r="B211" t="n">
-        <v>157552.0</v>
+        <v>321854.0</v>
       </c>
       <c r="C211" t="n">
-        <v>434137.0</v>
+        <v>506026.0</v>
       </c>
       <c r="D211" t="n">
-        <v>17285.0</v>
+        <v>32270.0</v>
       </c>
       <c r="E211" t="n">
-        <v>7158.0</v>
+        <v>13747.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>9269986.0</v>
+        <v>9046468.0</v>
       </c>
       <c r="B212" t="n">
-        <v>153922.0</v>
+        <v>313207.0</v>
       </c>
       <c r="C212" t="n">
-        <v>444534.0</v>
+        <v>508767.0</v>
       </c>
       <c r="D212" t="n">
-        <v>15416.0</v>
+        <v>28308.0</v>
       </c>
       <c r="E212" t="n">
-        <v>6587.0</v>
+        <v>12392.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>9262723.0</v>
+        <v>9051049.0</v>
       </c>
       <c r="B213" t="n">
-        <v>150707.0</v>
+        <v>307020.0</v>
       </c>
       <c r="C213" t="n">
-        <v>455012.0</v>
+        <v>510373.0</v>
       </c>
       <c r="D213" t="n">
-        <v>15975.0</v>
+        <v>28496.0</v>
       </c>
       <c r="E213" t="n">
-        <v>6592.0</v>
+        <v>11788.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>9255137.0</v>
+        <v>9059138.0</v>
       </c>
       <c r="B214" t="n">
-        <v>148878.0</v>
+        <v>300952.0</v>
       </c>
       <c r="C214" t="n">
-        <v>464427.0</v>
+        <v>508352.0</v>
       </c>
       <c r="D214" t="n">
-        <v>16841.0</v>
+        <v>29424.0</v>
       </c>
       <c r="E214" t="n">
-        <v>6866.0</v>
+        <v>12141.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>9247132.0</v>
+        <v>9063142.0</v>
       </c>
       <c r="B215" t="n">
-        <v>148852.0</v>
+        <v>298138.0</v>
       </c>
       <c r="C215" t="n">
-        <v>472458.0</v>
+        <v>507162.0</v>
       </c>
       <c r="D215" t="n">
-        <v>17915.0</v>
+        <v>30328.0</v>
       </c>
       <c r="E215" t="n">
-        <v>7479.0</v>
+        <v>12950.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>9244638.0</v>
+        <v>9073043.0</v>
       </c>
       <c r="B216" t="n">
-        <v>144628.0</v>
+        <v>292432.0</v>
       </c>
       <c r="C216" t="n">
-        <v>479176.0</v>
+        <v>502967.0</v>
       </c>
       <c r="D216" t="n">
-        <v>13046.0</v>
+        <v>23372.0</v>
       </c>
       <c r="E216" t="n">
-        <v>7896.0</v>
+        <v>13520.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>9242233.0</v>
+        <v>9091737.0</v>
       </c>
       <c r="B217" t="n">
-        <v>140986.0</v>
+        <v>277968.0</v>
       </c>
       <c r="C217" t="n">
-        <v>485223.0</v>
+        <v>498737.0</v>
       </c>
       <c r="D217" t="n">
-        <v>12734.0</v>
+        <v>20082.0</v>
       </c>
       <c r="E217" t="n">
-        <v>7518.0</v>
+        <v>13338.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>9236580.0</v>
+        <v>9098448.0</v>
       </c>
       <c r="B218" t="n">
-        <v>142180.0</v>
+        <v>279001.0</v>
       </c>
       <c r="C218" t="n">
-        <v>489682.0</v>
+        <v>490993.0</v>
       </c>
       <c r="D218" t="n">
-        <v>16676.0</v>
+        <v>29902.0</v>
       </c>
       <c r="E218" t="n">
-        <v>6714.0</v>
+        <v>12279.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>9232604.0</v>
+        <v>9108665.0</v>
       </c>
       <c r="B219" t="n">
-        <v>142152.0</v>
+        <v>275372.0</v>
       </c>
       <c r="C219" t="n">
-        <v>493686.0</v>
+        <v>484405.0</v>
       </c>
       <c r="D219" t="n">
-        <v>15325.0</v>
+        <v>27197.0</v>
       </c>
       <c r="E219" t="n">
-        <v>6579.0</v>
+        <v>11655.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>9228291.0</v>
+        <v>9117049.0</v>
       </c>
       <c r="B220" t="n">
-        <v>142095.0</v>
+        <v>273498.0</v>
       </c>
       <c r="C220" t="n">
-        <v>498056.0</v>
+        <v>477895.0</v>
       </c>
       <c r="D220" t="n">
-        <v>15700.0</v>
+        <v>27239.0</v>
       </c>
       <c r="E220" t="n">
-        <v>6441.0</v>
+        <v>11519.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>9230003.0</v>
+        <v>9139742.0</v>
       </c>
       <c r="B221" t="n">
-        <v>136339.0</v>
+        <v>264127.0</v>
       </c>
       <c r="C221" t="n">
-        <v>502100.0</v>
+        <v>464573.0</v>
       </c>
       <c r="D221" t="n">
-        <v>10313.0</v>
+        <v>17278.0</v>
       </c>
       <c r="E221" t="n">
-        <v>6521.0</v>
+        <v>11230.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>9227000.0</v>
+        <v>9147468.0</v>
       </c>
       <c r="B222" t="n">
-        <v>136136.0</v>
+        <v>264188.0</v>
       </c>
       <c r="C222" t="n">
-        <v>505306.0</v>
+        <v>456786.0</v>
       </c>
       <c r="D222" t="n">
-        <v>15655.0</v>
+        <v>27927.0</v>
       </c>
       <c r="E222" t="n">
-        <v>6514.0</v>
+        <v>11283.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>9230269.0</v>
+        <v>9162706.0</v>
       </c>
       <c r="B223" t="n">
-        <v>130143.0</v>
+        <v>258742.0</v>
       </c>
       <c r="C223" t="n">
-        <v>508030.0</v>
+        <v>446994.0</v>
       </c>
       <c r="D223" t="n">
-        <v>10024.0</v>
+        <v>18825.0</v>
       </c>
       <c r="E223" t="n">
-        <v>6462.0</v>
+        <v>11054.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>9234040.0</v>
+        <v>9185473.0</v>
       </c>
       <c r="B224" t="n">
-        <v>124339.0</v>
+        <v>245515.0</v>
       </c>
       <c r="C224" t="n">
-        <v>510063.0</v>
+        <v>437454.0</v>
       </c>
       <c r="D224" t="n">
-        <v>9560.0</v>
+        <v>16057.0</v>
       </c>
       <c r="E224" t="n">
-        <v>6316.0</v>
+        <v>11005.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>9235244.0</v>
+        <v>9197798.0</v>
       </c>
       <c r="B225" t="n">
-        <v>122712.0</v>
+        <v>243099.0</v>
       </c>
       <c r="C225" t="n">
-        <v>510486.0</v>
+        <v>427545.0</v>
       </c>
       <c r="D225" t="n">
-        <v>13074.0</v>
+        <v>24355.0</v>
       </c>
       <c r="E225" t="n">
-        <v>5101.0</v>
+        <v>9961.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>9238064.0</v>
+        <v>9212907.0</v>
       </c>
       <c r="B226" t="n">
-        <v>120050.0</v>
+        <v>238538.0</v>
       </c>
       <c r="C226" t="n">
-        <v>510328.0</v>
+        <v>416997.0</v>
       </c>
       <c r="D226" t="n">
-        <v>11523.0</v>
+        <v>21846.0</v>
       </c>
       <c r="E226" t="n">
-        <v>4952.0</v>
+        <v>9448.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>9240468.0</v>
+        <v>9225196.0</v>
       </c>
       <c r="B227" t="n">
-        <v>117868.0</v>
+        <v>237023.0</v>
       </c>
       <c r="C227" t="n">
-        <v>510106.0</v>
+        <v>406223.0</v>
       </c>
       <c r="D227" t="n">
-        <v>11816.0</v>
+        <v>22394.0</v>
       </c>
       <c r="E227" t="n">
-        <v>5239.0</v>
+        <v>9249.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>9243507.0</v>
+        <v>9238622.0</v>
       </c>
       <c r="B228" t="n">
-        <v>116164.0</v>
+        <v>232698.0</v>
       </c>
       <c r="C228" t="n">
-        <v>508771.0</v>
+        <v>397122.0</v>
       </c>
       <c r="D228" t="n">
-        <v>11958.0</v>
+        <v>22066.0</v>
       </c>
       <c r="E228" t="n">
-        <v>4917.0</v>
+        <v>9043.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>9246853.0</v>
+        <v>9248504.0</v>
       </c>
       <c r="B229" t="n">
-        <v>115581.0</v>
+        <v>232796.0</v>
       </c>
       <c r="C229" t="n">
-        <v>506008.0</v>
+        <v>387142.0</v>
       </c>
       <c r="D229" t="n">
-        <v>12481.0</v>
+        <v>23260.0</v>
       </c>
       <c r="E229" t="n">
-        <v>5320.0</v>
+        <v>9818.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>9254497.0</v>
+        <v>9259300.0</v>
       </c>
       <c r="B230" t="n">
-        <v>111658.0</v>
+        <v>229431.0</v>
       </c>
       <c r="C230" t="n">
-        <v>502287.0</v>
+        <v>379711.0</v>
       </c>
       <c r="D230" t="n">
-        <v>9097.0</v>
+        <v>18282.0</v>
       </c>
       <c r="E230" t="n">
-        <v>5541.0</v>
+        <v>10365.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>9262082.0</v>
+        <v>9278113.0</v>
       </c>
       <c r="B231" t="n">
-        <v>108247.0</v>
+        <v>221605.0</v>
       </c>
       <c r="C231" t="n">
-        <v>498113.0</v>
+        <v>368724.0</v>
       </c>
       <c r="D231" t="n">
-        <v>8968.0</v>
+        <v>15733.0</v>
       </c>
       <c r="E231" t="n">
-        <v>5390.0</v>
+        <v>10149.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>9267691.0</v>
+        <v>9282895.0</v>
       </c>
       <c r="B232" t="n">
-        <v>108430.0</v>
+        <v>222537.0</v>
       </c>
       <c r="C232" t="n">
-        <v>492321.0</v>
+        <v>363010.0</v>
       </c>
       <c r="D232" t="n">
-        <v>12001.0</v>
+        <v>24087.0</v>
       </c>
       <c r="E232" t="n">
-        <v>4901.0</v>
+        <v>9668.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>9274295.0</v>
+        <v>9291796.0</v>
       </c>
       <c r="B233" t="n">
-        <v>107532.0</v>
+        <v>221056.0</v>
       </c>
       <c r="C233" t="n">
-        <v>486615.0</v>
+        <v>355590.0</v>
       </c>
       <c r="D233" t="n">
-        <v>10772.0</v>
+        <v>21925.0</v>
       </c>
       <c r="E233" t="n">
-        <v>4794.0</v>
+        <v>9271.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>9280664.0</v>
+        <v>9299521.0</v>
       </c>
       <c r="B234" t="n">
-        <v>106763.0</v>
+        <v>223966.0</v>
       </c>
       <c r="C234" t="n">
-        <v>481015.0</v>
+        <v>344955.0</v>
       </c>
       <c r="D234" t="n">
-        <v>10739.0</v>
+        <v>21388.0</v>
       </c>
       <c r="E234" t="n">
-        <v>4406.0</v>
+        <v>8979.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>9289985.0</v>
+        <v>9308730.0</v>
       </c>
       <c r="B235" t="n">
-        <v>103689.0</v>
+        <v>218295.0</v>
       </c>
       <c r="C235" t="n">
-        <v>474768.0</v>
+        <v>341417.0</v>
       </c>
       <c r="D235" t="n">
-        <v>8475.0</v>
+        <v>17440.0</v>
       </c>
       <c r="E235" t="n">
-        <v>4410.0</v>
+        <v>8790.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>9299652.0</v>
+        <v>9318569.0</v>
       </c>
       <c r="B236" t="n">
-        <v>101207.0</v>
+        <v>216544.0</v>
       </c>
       <c r="C236" t="n">
-        <v>467583.0</v>
+        <v>333329.0</v>
       </c>
       <c r="D236" t="n">
-        <v>8763.0</v>
+        <v>18027.0</v>
       </c>
       <c r="E236" t="n">
-        <v>4733.0</v>
+        <v>9253.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>9312949.0</v>
+        <v>9329555.0</v>
       </c>
       <c r="B237" t="n">
-        <v>95867.0</v>
+        <v>210874.0</v>
       </c>
       <c r="C237" t="n">
-        <v>459626.0</v>
+        <v>328013.0</v>
       </c>
       <c r="D237" t="n">
-        <v>5940.0</v>
+        <v>13285.0</v>
       </c>
       <c r="E237" t="n">
-        <v>4771.0</v>
+        <v>9293.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>9325076.0</v>
+        <v>9345392.0</v>
       </c>
       <c r="B238" t="n">
-        <v>92108.0</v>
+        <v>202173.0</v>
       </c>
       <c r="C238" t="n">
-        <v>451258.0</v>
+        <v>320877.0</v>
       </c>
       <c r="D238" t="n">
-        <v>6997.0</v>
+        <v>13447.0</v>
       </c>
       <c r="E238" t="n">
-        <v>4169.0</v>
+        <v>8999.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>9337636.0</v>
+        <v>9356351.0</v>
       </c>
       <c r="B239" t="n">
-        <v>89043.0</v>
+        <v>197681.0</v>
       </c>
       <c r="C239" t="n">
-        <v>441763.0</v>
+        <v>314410.0</v>
       </c>
       <c r="D239" t="n">
-        <v>7357.0</v>
+        <v>15812.0</v>
       </c>
       <c r="E239" t="n">
-        <v>3621.0</v>
+        <v>8016.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>9350302.0</v>
+        <v>9368649.0</v>
       </c>
       <c r="B240" t="n">
-        <v>85362.0</v>
+        <v>190640.0</v>
       </c>
       <c r="C240" t="n">
-        <v>432778.0</v>
+        <v>309153.0</v>
       </c>
       <c r="D240" t="n">
-        <v>6513.0</v>
+        <v>14109.0</v>
       </c>
       <c r="E240" t="n">
-        <v>3210.0</v>
+        <v>7072.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>9363235.0</v>
+        <v>9379473.0</v>
       </c>
       <c r="B241" t="n">
-        <v>81521.0</v>
+        <v>183929.0</v>
       </c>
       <c r="C241" t="n">
-        <v>423686.0</v>
+        <v>305040.0</v>
       </c>
       <c r="D241" t="n">
-        <v>6001.0</v>
+        <v>13085.0</v>
       </c>
       <c r="E241" t="n">
-        <v>2890.0</v>
+        <v>6362.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>9376337.0</v>
+        <v>9393199.0</v>
       </c>
       <c r="B242" t="n">
-        <v>77654.0</v>
+        <v>175832.0</v>
       </c>
       <c r="C242" t="n">
-        <v>414451.0</v>
+        <v>299411.0</v>
       </c>
       <c r="D242" t="n">
-        <v>5944.0</v>
+        <v>12665.0</v>
       </c>
       <c r="E242" t="n">
-        <v>2797.0</v>
+        <v>6211.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>9389604.0</v>
+        <v>9403634.0</v>
       </c>
       <c r="B243" t="n">
-        <v>74306.0</v>
+        <v>169585.0</v>
       </c>
       <c r="C243" t="n">
-        <v>404532.0</v>
+        <v>295223.0</v>
       </c>
       <c r="D243" t="n">
-        <v>5923.0</v>
+        <v>12727.0</v>
       </c>
       <c r="E243" t="n">
-        <v>3024.0</v>
+        <v>6093.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>9404719.0</v>
+        <v>9417096.0</v>
       </c>
       <c r="B244" t="n">
-        <v>68661.0</v>
+        <v>160509.0</v>
       </c>
       <c r="C244" t="n">
-        <v>395062.0</v>
+        <v>290837.0</v>
       </c>
       <c r="D244" t="n">
-        <v>3555.0</v>
+        <v>8185.0</v>
       </c>
       <c r="E244" t="n">
-        <v>2912.0</v>
+        <v>6087.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>9418167.0</v>
+        <v>9431966.0</v>
       </c>
       <c r="B245" t="n">
-        <v>64662.0</v>
+        <v>149392.0</v>
       </c>
       <c r="C245" t="n">
-        <v>385613.0</v>
+        <v>287084.0</v>
       </c>
       <c r="D245" t="n">
-        <v>4493.0</v>
+        <v>8689.0</v>
       </c>
       <c r="E245" t="n">
-        <v>2691.0</v>
+        <v>5819.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>9429540.0</v>
+        <v>9442163.0</v>
       </c>
       <c r="B246" t="n">
-        <v>62739.0</v>
+        <v>144289.0</v>
       </c>
       <c r="C246" t="n">
-        <v>376163.0</v>
+        <v>281990.0</v>
       </c>
       <c r="D246" t="n">
-        <v>5897.0</v>
+        <v>12958.0</v>
       </c>
       <c r="E246" t="n">
-        <v>2407.0</v>
+        <v>5379.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>9440560.0</v>
+        <v>9454145.0</v>
       </c>
       <c r="B247" t="n">
-        <v>60787.0</v>
+        <v>137244.0</v>
       </c>
       <c r="C247" t="n">
-        <v>367095.0</v>
+        <v>277053.0</v>
       </c>
       <c r="D247" t="n">
-        <v>5356.0</v>
+        <v>11424.0</v>
       </c>
       <c r="E247" t="n">
-        <v>2205.0</v>
+        <v>4951.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>9450846.0</v>
+        <v>9461234.0</v>
       </c>
       <c r="B248" t="n">
-        <v>59077.0</v>
+        <v>133207.0</v>
       </c>
       <c r="C248" t="n">
-        <v>358519.0</v>
+        <v>274001.0</v>
       </c>
       <c r="D248" t="n">
-        <v>5196.0</v>
+        <v>11389.0</v>
       </c>
       <c r="E248" t="n">
-        <v>2041.0</v>
+        <v>4640.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>9460651.0</v>
+        <v>9472665.0</v>
       </c>
       <c r="B249" t="n">
-        <v>58003.0</v>
+        <v>129500.0</v>
       </c>
       <c r="C249" t="n">
-        <v>349788.0</v>
+        <v>266277.0</v>
       </c>
       <c r="D249" t="n">
-        <v>5548.0</v>
+        <v>11680.0</v>
       </c>
       <c r="E249" t="n">
-        <v>2144.0</v>
+        <v>4541.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>9470592.0</v>
+        <v>9480334.0</v>
       </c>
       <c r="B250" t="n">
-        <v>57471.0</v>
+        <v>128830.0</v>
       </c>
       <c r="C250" t="n">
-        <v>340379.0</v>
+        <v>259278.0</v>
       </c>
       <c r="D250" t="n">
-        <v>5816.0</v>
+        <v>12109.0</v>
       </c>
       <c r="E250" t="n">
-        <v>2456.0</v>
+        <v>5059.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>9482496.0</v>
+        <v>9490198.0</v>
       </c>
       <c r="B251" t="n">
-        <v>55335.0</v>
+        <v>125426.0</v>
       </c>
       <c r="C251" t="n">
-        <v>330611.0</v>
+        <v>252818.0</v>
       </c>
       <c r="D251" t="n">
-        <v>4165.0</v>
+        <v>9091.0</v>
       </c>
       <c r="E251" t="n">
-        <v>2557.0</v>
+        <v>5362.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>9493894.0</v>
+        <v>9503979.0</v>
       </c>
       <c r="B252" t="n">
-        <v>53886.0</v>
+        <v>120852.0</v>
       </c>
       <c r="C252" t="n">
-        <v>320662.0</v>
+        <v>243611.0</v>
       </c>
       <c r="D252" t="n">
-        <v>4460.0</v>
+        <v>8367.0</v>
       </c>
       <c r="E252" t="n">
-        <v>2419.0</v>
+        <v>5294.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>9503762.0</v>
+        <v>9510749.0</v>
       </c>
       <c r="B253" t="n">
-        <v>54382.0</v>
+        <v>122314.0</v>
       </c>
       <c r="C253" t="n">
-        <v>310298.0</v>
+        <v>235379.0</v>
       </c>
       <c r="D253" t="n">
-        <v>6149.0</v>
+        <v>13534.0</v>
       </c>
       <c r="E253" t="n">
-        <v>2389.0</v>
+        <v>5212.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>9513518.0</v>
+        <v>9519428.0</v>
       </c>
       <c r="B254" t="n">
-        <v>54788.0</v>
+        <v>122863.0</v>
       </c>
       <c r="C254" t="n">
-        <v>300136.0</v>
+        <v>226151.0</v>
       </c>
       <c r="D254" t="n">
-        <v>5608.0</v>
+        <v>12471.0</v>
       </c>
       <c r="E254" t="n">
-        <v>2300.0</v>
+        <v>4979.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>9522412.0</v>
+        <v>9526667.0</v>
       </c>
       <c r="B255" t="n">
-        <v>55451.0</v>
+        <v>124411.0</v>
       </c>
       <c r="C255" t="n">
-        <v>290579.0</v>
+        <v>217364.0</v>
       </c>
       <c r="D255" t="n">
-        <v>5807.0</v>
+        <v>12557.0</v>
       </c>
       <c r="E255" t="n">
-        <v>2247.0</v>
+        <v>4761.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>9530615.0</v>
+        <v>9534555.0</v>
       </c>
       <c r="B256" t="n">
-        <v>56295.0</v>
+        <v>126218.0</v>
       </c>
       <c r="C256" t="n">
-        <v>281532.0</v>
+        <v>207669.0</v>
       </c>
       <c r="D256" t="n">
-        <v>5982.0</v>
+        <v>12874.0</v>
       </c>
       <c r="E256" t="n">
-        <v>2248.0</v>
+        <v>4978.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>9538244.0</v>
+        <v>9539871.0</v>
       </c>
       <c r="B257" t="n">
-        <v>57585.0</v>
+        <v>130189.0</v>
       </c>
       <c r="C257" t="n">
-        <v>272613.0</v>
+        <v>198382.0</v>
       </c>
       <c r="D257" t="n">
-        <v>6369.0</v>
+        <v>13658.0</v>
       </c>
       <c r="E257" t="n">
-        <v>2550.0</v>
+        <v>5274.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>9547098.0</v>
+        <v>9546598.0</v>
       </c>
       <c r="B258" t="n">
-        <v>57110.0</v>
+        <v>130842.0</v>
       </c>
       <c r="C258" t="n">
-        <v>264234.0</v>
+        <v>191002.0</v>
       </c>
       <c r="D258" t="n">
-        <v>4808.0</v>
+        <v>10534.0</v>
       </c>
       <c r="E258" t="n">
-        <v>2704.0</v>
+        <v>5671.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>9555400.0</v>
+        <v>9557135.0</v>
       </c>
       <c r="B259" t="n">
-        <v>56535.0</v>
+        <v>128668.0</v>
       </c>
       <c r="C259" t="n">
-        <v>256507.0</v>
+        <v>182639.0</v>
       </c>
       <c r="D259" t="n">
-        <v>4762.0</v>
+        <v>9269.0</v>
       </c>
       <c r="E259" t="n">
-        <v>2797.0</v>
+        <v>5726.0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>9561619.0</v>
+        <v>9560544.0</v>
       </c>
       <c r="B260" t="n">
-        <v>58103.0</v>
+        <v>132328.0</v>
       </c>
       <c r="C260" t="n">
-        <v>248720.0</v>
+        <v>175570.0</v>
       </c>
       <c r="D260" t="n">
-        <v>6801.0</v>
+        <v>14652.0</v>
       </c>
       <c r="E260" t="n">
-        <v>2631.0</v>
+        <v>5835.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>9567662.0</v>
+        <v>9565792.0</v>
       </c>
       <c r="B261" t="n">
-        <v>59309.0</v>
+        <v>134055.0</v>
       </c>
       <c r="C261" t="n">
-        <v>241471.0</v>
+        <v>168595.0</v>
       </c>
       <c r="D261" t="n">
-        <v>6336.0</v>
+        <v>13221.0</v>
       </c>
       <c r="E261" t="n">
-        <v>2540.0</v>
+        <v>5453.0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>9573183.0</v>
+        <v>9567904.0</v>
       </c>
       <c r="B262" t="n">
-        <v>60379.0</v>
+        <v>136353.0</v>
       </c>
       <c r="C262" t="n">
-        <v>234880.0</v>
+        <v>164185.0</v>
       </c>
       <c r="D262" t="n">
-        <v>6297.0</v>
+        <v>13314.0</v>
       </c>
       <c r="E262" t="n">
-        <v>2420.0</v>
+        <v>5290.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>9578259.0</v>
+        <v>9569367.0</v>
       </c>
       <c r="B263" t="n">
-        <v>61633.0</v>
+        <v>138894.0</v>
       </c>
       <c r="C263" t="n">
-        <v>228550.0</v>
+        <v>160181.0</v>
       </c>
       <c r="D263" t="n">
-        <v>6594.0</v>
+        <v>13924.0</v>
       </c>
       <c r="E263" t="n">
-        <v>2465.0</v>
+        <v>5453.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>9582936.0</v>
+        <v>9567638.0</v>
       </c>
       <c r="B264" t="n">
-        <v>63097.0</v>
+        <v>142708.0</v>
       </c>
       <c r="C264" t="n">
-        <v>222409.0</v>
+        <v>158096.0</v>
       </c>
       <c r="D264" t="n">
-        <v>6831.0</v>
+        <v>14508.0</v>
       </c>
       <c r="E264" t="n">
-        <v>2779.0</v>
+        <v>5811.0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>9589189.0</v>
+        <v>9568886.0</v>
       </c>
       <c r="B265" t="n">
-        <v>62983.0</v>
+        <v>144003.0</v>
       </c>
       <c r="C265" t="n">
-        <v>216270.0</v>
+        <v>155553.0</v>
       </c>
       <c r="D265" t="n">
-        <v>5296.0</v>
+        <v>11247.0</v>
       </c>
       <c r="E265" t="n">
-        <v>2983.0</v>
+        <v>6067.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>9595102.0</v>
+        <v>9571900.0</v>
       </c>
       <c r="B266" t="n">
-        <v>62743.0</v>
+        <v>141581.0</v>
       </c>
       <c r="C266" t="n">
-        <v>210597.0</v>
+        <v>154961.0</v>
       </c>
       <c r="D266" t="n">
-        <v>5332.0</v>
+        <v>9927.0</v>
       </c>
       <c r="E266" t="n">
-        <v>3032.0</v>
+        <v>6268.0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>9598896.0</v>
+        <v>9568606.0</v>
       </c>
       <c r="B267" t="n">
-        <v>64659.0</v>
+        <v>144869.0</v>
       </c>
       <c r="C267" t="n">
-        <v>204887.0</v>
+        <v>154967.0</v>
       </c>
       <c r="D267" t="n">
-        <v>7486.0</v>
+        <v>15366.0</v>
       </c>
       <c r="E267" t="n">
-        <v>2824.0</v>
+        <v>6518.0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>9602645.0</v>
+        <v>9566559.0</v>
       </c>
       <c r="B268" t="n">
-        <v>66106.0</v>
+        <v>146279.0</v>
       </c>
       <c r="C268" t="n">
-        <v>199691.0</v>
+        <v>155604.0</v>
       </c>
       <c r="D268" t="n">
-        <v>7007.0</v>
+        <v>13969.0</v>
       </c>
       <c r="E268" t="n">
-        <v>2893.0</v>
+        <v>5882.0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>9606159.0</v>
+        <v>9563496.0</v>
       </c>
       <c r="B269" t="n">
-        <v>67624.0</v>
+        <v>147762.0</v>
       </c>
       <c r="C269" t="n">
-        <v>194659.0</v>
+        <v>157184.0</v>
       </c>
       <c r="D269" t="n">
-        <v>6908.0</v>
+        <v>14072.0</v>
       </c>
       <c r="E269" t="n">
-        <v>2745.0</v>
+        <v>5578.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>9609261.0</v>
+        <v>9560151.0</v>
       </c>
       <c r="B270" t="n">
-        <v>68903.0</v>
+        <v>149686.0</v>
       </c>
       <c r="C270" t="n">
-        <v>190278.0</v>
+        <v>158605.0</v>
       </c>
       <c r="D270" t="n">
-        <v>7092.0</v>
+        <v>14412.0</v>
       </c>
       <c r="E270" t="n">
-        <v>2718.0</v>
+        <v>5767.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>9611488.0</v>
+        <v>9554938.0</v>
       </c>
       <c r="B271" t="n">
-        <v>70722.0</v>
+        <v>152454.0</v>
       </c>
       <c r="C271" t="n">
-        <v>186232.0</v>
+        <v>161050.0</v>
       </c>
       <c r="D271" t="n">
-        <v>7615.0</v>
+        <v>14900.0</v>
       </c>
       <c r="E271" t="n">
-        <v>3132.0</v>
+        <v>6116.0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>9615559.0</v>
+        <v>9552790.0</v>
       </c>
       <c r="B272" t="n">
-        <v>70297.0</v>
+        <v>153640.0</v>
       </c>
       <c r="C272" t="n">
-        <v>182586.0</v>
+        <v>162012.0</v>
       </c>
       <c r="D272" t="n">
-        <v>5740.0</v>
+        <v>12029.0</v>
       </c>
       <c r="E272" t="n">
-        <v>3335.0</v>
+        <v>6290.0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>9619161.0</v>
+        <v>9554091.0</v>
       </c>
       <c r="B273" t="n">
-        <v>69866.0</v>
+        <v>150504.0</v>
       </c>
       <c r="C273" t="n">
-        <v>179415.0</v>
+        <v>163847.0</v>
       </c>
       <c r="D273" t="n">
-        <v>5669.0</v>
+        <v>10142.0</v>
       </c>
       <c r="E273" t="n">
-        <v>3336.0</v>
+        <v>6719.0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>9620126.0</v>
+        <v>9549051.0</v>
       </c>
       <c r="B274" t="n">
-        <v>71932.0</v>
+        <v>153777.0</v>
       </c>
       <c r="C274" t="n">
-        <v>176384.0</v>
+        <v>165614.0</v>
       </c>
       <c r="D274" t="n">
-        <v>8235.0</v>
+        <v>16032.0</v>
       </c>
       <c r="E274" t="n">
-        <v>3160.0</v>
+        <v>6542.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>9623342.0</v>
+        <v>9551365.0</v>
       </c>
       <c r="B275" t="n">
-        <v>71096.0</v>
+        <v>149408.0</v>
       </c>
       <c r="C275" t="n">
-        <v>174004.0</v>
+        <v>167669.0</v>
       </c>
       <c r="D275" t="n">
-        <v>5276.0</v>
+        <v>9180.0</v>
       </c>
       <c r="E275" t="n">
-        <v>3121.0</v>
+        <v>6143.0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>9623673.0</v>
+        <v>9547977.0</v>
       </c>
       <c r="B276" t="n">
-        <v>72353.0</v>
+        <v>150604.0</v>
       </c>
       <c r="C276" t="n">
-        <v>172416.0</v>
+        <v>169861.0</v>
       </c>
       <c r="D276" t="n">
-        <v>7489.0</v>
+        <v>14404.0</v>
       </c>
       <c r="E276" t="n">
-        <v>2904.0</v>
+        <v>5882.0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>9623820.0</v>
+        <v>9545759.0</v>
       </c>
       <c r="B277" t="n">
-        <v>73267.0</v>
+        <v>151054.0</v>
       </c>
       <c r="C277" t="n">
-        <v>171355.0</v>
+        <v>171629.0</v>
       </c>
       <c r="D277" t="n">
-        <v>7161.0</v>
+        <v>13601.0</v>
       </c>
       <c r="E277" t="n">
-        <v>2812.0</v>
+        <v>5703.0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>9623534.0</v>
+        <v>9543075.0</v>
       </c>
       <c r="B278" t="n">
-        <v>73959.0</v>
+        <v>151566.0</v>
       </c>
       <c r="C278" t="n">
-        <v>170949.0</v>
+        <v>173801.0</v>
       </c>
       <c r="D278" t="n">
-        <v>7192.0</v>
+        <v>13378.0</v>
       </c>
       <c r="E278" t="n">
-        <v>3049.0</v>
+        <v>5559.0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>9624647.0</v>
+        <v>9542573.0</v>
       </c>
       <c r="B279" t="n">
-        <v>72781.0</v>
+        <v>150796.0</v>
       </c>
       <c r="C279" t="n">
-        <v>171014.0</v>
+        <v>175073.0</v>
       </c>
       <c r="D279" t="n">
-        <v>5509.0</v>
+        <v>10454.0</v>
       </c>
       <c r="E279" t="n">
-        <v>3207.0</v>
+        <v>5805.0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>9625858.0</v>
+        <v>9546222.0</v>
       </c>
       <c r="B280" t="n">
-        <v>71182.0</v>
+        <v>145738.0</v>
       </c>
       <c r="C280" t="n">
-        <v>171402.0</v>
+        <v>176482.0</v>
       </c>
       <c r="D280" t="n">
-        <v>5137.0</v>
+        <v>8700.0</v>
       </c>
       <c r="E280" t="n">
-        <v>3123.0</v>
+        <v>5933.0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>9624202.0</v>
+        <v>9544086.0</v>
       </c>
       <c r="B281" t="n">
-        <v>72635.0</v>
+        <v>146915.0</v>
       </c>
       <c r="C281" t="n">
-        <v>171605.0</v>
+        <v>177441.0</v>
       </c>
       <c r="D281" t="n">
-        <v>7957.0</v>
+        <v>14214.0</v>
       </c>
       <c r="E281" t="n">
-        <v>3073.0</v>
+        <v>5948.0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>9622599.0</v>
+        <v>9543998.0</v>
       </c>
       <c r="B282" t="n">
-        <v>73517.0</v>
+        <v>145412.0</v>
       </c>
       <c r="C282" t="n">
-        <v>172326.0</v>
+        <v>179032.0</v>
       </c>
       <c r="D282" t="n">
-        <v>7512.0</v>
+        <v>12647.0</v>
       </c>
       <c r="E282" t="n">
-        <v>2993.0</v>
+        <v>5434.0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>9623203.0</v>
+        <v>9548510.0</v>
       </c>
       <c r="B283" t="n">
-        <v>71900.0</v>
+        <v>139841.0</v>
       </c>
       <c r="C283" t="n">
-        <v>173339.0</v>
+        <v>180091.0</v>
       </c>
       <c r="D283" t="n">
-        <v>5049.0</v>
+        <v>8077.0</v>
       </c>
       <c r="E283" t="n">
-        <v>2806.0</v>
+        <v>5300.0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>9620863.0</v>
+        <v>9547714.0</v>
       </c>
       <c r="B284" t="n">
-        <v>72957.0</v>
+        <v>139530.0</v>
       </c>
       <c r="C284" t="n">
-        <v>174622.0</v>
+        <v>181198.0</v>
       </c>
       <c r="D284" t="n">
-        <v>7542.0</v>
+        <v>13284.0</v>
       </c>
       <c r="E284" t="n">
-        <v>2889.0</v>
+        <v>5535.0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>9618558.0</v>
+        <v>9547424.0</v>
       </c>
       <c r="B285" t="n">
-        <v>73788.0</v>
+        <v>139007.0</v>
       </c>
       <c r="C285" t="n">
-        <v>176096.0</v>
+        <v>182011.0</v>
       </c>
       <c r="D285" t="n">
-        <v>7449.0</v>
+        <v>12422.0</v>
       </c>
       <c r="E285" t="n">
-        <v>3034.0</v>
+        <v>5434.0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>9618300.0</v>
+        <v>9548759.0</v>
       </c>
       <c r="B286" t="n">
-        <v>72278.0</v>
+        <v>137360.0</v>
       </c>
       <c r="C286" t="n">
-        <v>177864.0</v>
+        <v>182323.0</v>
       </c>
       <c r="D286" t="n">
-        <v>5396.0</v>
+        <v>9508.0</v>
       </c>
       <c r="E286" t="n">
-        <v>3300.0</v>
+        <v>5209.0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>9618169.0</v>
+        <v>9554122.0</v>
       </c>
       <c r="B287" t="n">
-        <v>70670.0</v>
+        <v>131778.0</v>
       </c>
       <c r="C287" t="n">
-        <v>179603.0</v>
+        <v>182542.0</v>
       </c>
       <c r="D287" t="n">
-        <v>5210.0</v>
+        <v>7915.0</v>
       </c>
       <c r="E287" t="n">
-        <v>3059.0</v>
+        <v>5195.0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>9615689.0</v>
+        <v>9553966.0</v>
       </c>
       <c r="B288" t="n">
-        <v>71740.0</v>
+        <v>134463.0</v>
       </c>
       <c r="C288" t="n">
-        <v>181013.0</v>
+        <v>180013.0</v>
       </c>
       <c r="D288" t="n">
-        <v>7763.0</v>
+        <v>12915.0</v>
       </c>
       <c r="E288" t="n">
-        <v>2995.0</v>
+        <v>5355.0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>9613713.0</v>
+        <v>9555708.0</v>
       </c>
       <c r="B289" t="n">
-        <v>72390.0</v>
+        <v>132654.0</v>
       </c>
       <c r="C289" t="n">
-        <v>182339.0</v>
+        <v>180080.0</v>
       </c>
       <c r="D289" t="n">
-        <v>7313.0</v>
+        <v>11807.0</v>
       </c>
       <c r="E289" t="n">
-        <v>2943.0</v>
+        <v>4914.0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>9611795.0</v>
+        <v>9557195.0</v>
       </c>
       <c r="B290" t="n">
-        <v>73246.0</v>
+        <v>132353.0</v>
       </c>
       <c r="C290" t="n">
-        <v>183401.0</v>
+        <v>178894.0</v>
       </c>
       <c r="D290" t="n">
-        <v>7151.0</v>
+        <v>11721.0</v>
       </c>
       <c r="E290" t="n">
-        <v>2972.0</v>
+        <v>4660.0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>9609650.0</v>
+        <v>9558266.0</v>
       </c>
       <c r="B291" t="n">
-        <v>74068.0</v>
+        <v>132477.0</v>
       </c>
       <c r="C291" t="n">
-        <v>184724.0</v>
+        <v>177699.0</v>
       </c>
       <c r="D291" t="n">
-        <v>7275.0</v>
+        <v>12080.0</v>
       </c>
       <c r="E291" t="n">
-        <v>2866.0</v>
+        <v>5091.0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>9607120.0</v>
+        <v>9558726.0</v>
       </c>
       <c r="B292" t="n">
-        <v>75284.0</v>
+        <v>132976.0</v>
       </c>
       <c r="C292" t="n">
-        <v>186038.0</v>
+        <v>176740.0</v>
       </c>
       <c r="D292" t="n">
-        <v>7757.0</v>
+        <v>12406.0</v>
       </c>
       <c r="E292" t="n">
-        <v>3216.0</v>
+        <v>5346.0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>9606399.0</v>
+        <v>9560172.0</v>
       </c>
       <c r="B293" t="n">
-        <v>74834.0</v>
+        <v>132249.0</v>
       </c>
       <c r="C293" t="n">
-        <v>187209.0</v>
+        <v>176021.0</v>
       </c>
       <c r="D293" t="n">
-        <v>6061.0</v>
+        <v>9778.0</v>
       </c>
       <c r="E293" t="n">
-        <v>3530.0</v>
+        <v>5346.0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>9605880.0</v>
+        <v>9565573.0</v>
       </c>
       <c r="B294" t="n">
-        <v>73951.0</v>
+        <v>128503.0</v>
       </c>
       <c r="C294" t="n">
-        <v>188611.0</v>
+        <v>174366.0</v>
       </c>
       <c r="D294" t="n">
-        <v>5886.0</v>
+        <v>8357.0</v>
       </c>
       <c r="E294" t="n">
-        <v>3457.0</v>
+        <v>5509.0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>9602940.0</v>
+        <v>9565281.0</v>
       </c>
       <c r="B295" t="n">
-        <v>75685.0</v>
+        <v>130579.0</v>
       </c>
       <c r="C295" t="n">
-        <v>189817.0</v>
+        <v>172582.0</v>
       </c>
       <c r="D295" t="n">
-        <v>8350.0</v>
+        <v>13329.0</v>
       </c>
       <c r="E295" t="n">
-        <v>3307.0</v>
+        <v>5481.0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>9600699.0</v>
+        <v>9567330.0</v>
       </c>
       <c r="B296" t="n">
-        <v>77045.0</v>
+        <v>132412.0</v>
       </c>
       <c r="C296" t="n">
-        <v>190698.0</v>
+        <v>168700.0</v>
       </c>
       <c r="D296" t="n">
-        <v>7813.0</v>
+        <v>12101.0</v>
       </c>
       <c r="E296" t="n">
-        <v>3260.0</v>
+        <v>5114.0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>9598677.0</v>
+        <v>9568920.0</v>
       </c>
       <c r="B297" t="n">
-        <v>78130.0</v>
+        <v>132400.0</v>
       </c>
       <c r="C297" t="n">
-        <v>191635.0</v>
+        <v>167122.0</v>
       </c>
       <c r="D297" t="n">
-        <v>7592.0</v>
+        <v>12058.0</v>
       </c>
       <c r="E297" t="n">
-        <v>3167.0</v>
+        <v>4923.0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>9596360.0</v>
+        <v>9570094.0</v>
       </c>
       <c r="B298" t="n">
-        <v>79371.0</v>
+        <v>134547.0</v>
       </c>
       <c r="C298" t="n">
-        <v>192711.0</v>
+        <v>163801.0</v>
       </c>
       <c r="D298" t="n">
-        <v>7877.0</v>
+        <v>12421.0</v>
       </c>
       <c r="E298" t="n">
-        <v>3120.0</v>
+        <v>5175.0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>9593621.0</v>
+        <v>9570363.0</v>
       </c>
       <c r="B299" t="n">
-        <v>80831.0</v>
+        <v>136373.0</v>
       </c>
       <c r="C299" t="n">
-        <v>193990.0</v>
+        <v>161706.0</v>
       </c>
       <c r="D299" t="n">
-        <v>8129.0</v>
+        <v>12676.0</v>
       </c>
       <c r="E299" t="n">
-        <v>3584.0</v>
+        <v>5474.0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>9593234.0</v>
+        <v>9571547.0</v>
       </c>
       <c r="B300" t="n">
-        <v>80112.0</v>
+        <v>136539.0</v>
       </c>
       <c r="C300" t="n">
-        <v>195096.0</v>
+        <v>160356.0</v>
       </c>
       <c r="D300" t="n">
-        <v>6200.0</v>
+        <v>9971.0</v>
       </c>
       <c r="E300" t="n">
-        <v>3750.0</v>
+        <v>5408.0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>9592749.0</v>
+        <v>9576408.0</v>
       </c>
       <c r="B301" t="n">
-        <v>79446.0</v>
+        <v>133494.0</v>
       </c>
       <c r="C301" t="n">
-        <v>196247.0</v>
+        <v>158540.0</v>
       </c>
       <c r="D301" t="n">
-        <v>6281.0</v>
+        <v>8636.0</v>
       </c>
       <c r="E301" t="n">
-        <v>3687.0</v>
+        <v>5694.0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>9590158.0</v>
+        <v>9573275.0</v>
       </c>
       <c r="B302" t="n">
-        <v>81270.0</v>
+        <v>135890.0</v>
       </c>
       <c r="C302" t="n">
-        <v>197014.0</v>
+        <v>159277.0</v>
       </c>
       <c r="D302" t="n">
-        <v>8756.0</v>
+        <v>13363.0</v>
       </c>
       <c r="E302" t="n">
-        <v>3491.0</v>
+        <v>5710.0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>9588230.0</v>
+        <v>9574734.0</v>
       </c>
       <c r="B303" t="n">
-        <v>82293.0</v>
+        <v>135827.0</v>
       </c>
       <c r="C303" t="n">
-        <v>197919.0</v>
+        <v>157881.0</v>
       </c>
       <c r="D303" t="n">
-        <v>8028.0</v>
+        <v>12157.0</v>
       </c>
       <c r="E303" t="n">
-        <v>3434.0</v>
+        <v>5184.0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>9586318.0</v>
+        <v>9574970.0</v>
       </c>
       <c r="B304" t="n">
-        <v>83459.0</v>
+        <v>135868.0</v>
       </c>
       <c r="C304" t="n">
-        <v>198665.0</v>
+        <v>157604.0</v>
       </c>
       <c r="D304" t="n">
-        <v>8081.0</v>
+        <v>11786.0</v>
       </c>
       <c r="E304" t="n">
-        <v>3217.0</v>
+        <v>4969.0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>9584422.0</v>
+        <v>9574656.0</v>
       </c>
       <c r="B305" t="n">
-        <v>84190.0</v>
+        <v>136845.0</v>
       </c>
       <c r="C305" t="n">
-        <v>199830.0</v>
+        <v>156941.0</v>
       </c>
       <c r="D305" t="n">
-        <v>8008.0</v>
+        <v>12270.0</v>
       </c>
       <c r="E305" t="n">
-        <v>3249.0</v>
+        <v>5200.0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>9583930.0</v>
+        <v>9576607.0</v>
       </c>
       <c r="B306" t="n">
-        <v>83708.0</v>
+        <v>135546.0</v>
       </c>
       <c r="C306" t="n">
-        <v>200804.0</v>
+        <v>156289.0</v>
       </c>
       <c r="D306" t="n">
-        <v>6724.0</v>
+        <v>9956.0</v>
       </c>
       <c r="E306" t="n">
-        <v>3594.0</v>
+        <v>5317.0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>9585390.0</v>
+        <v>9579471.0</v>
       </c>
       <c r="B307" t="n">
-        <v>81068.0</v>
+        <v>133121.0</v>
       </c>
       <c r="C307" t="n">
-        <v>201984.0</v>
+        <v>155850.0</v>
       </c>
       <c r="D307" t="n">
-        <v>4787.0</v>
+        <v>7641.0</v>
       </c>
       <c r="E307" t="n">
-        <v>3857.0</v>
+        <v>5354.0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>9585708.0</v>
+        <v>9583655.0</v>
       </c>
       <c r="B308" t="n">
-        <v>79640.0</v>
+        <v>129043.0</v>
       </c>
       <c r="C308" t="n">
-        <v>203094.0</v>
+        <v>155744.0</v>
       </c>
       <c r="D308" t="n">
-        <v>6182.0</v>
+        <v>7919.0</v>
       </c>
       <c r="E308" t="n">
-        <v>3632.0</v>
+        <v>5342.0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>9586028.0</v>
+        <v>9585409.0</v>
       </c>
       <c r="B309" t="n">
-        <v>78663.0</v>
+        <v>127326.0</v>
       </c>
       <c r="C309" t="n">
-        <v>203751.0</v>
+        <v>155707.0</v>
       </c>
       <c r="D309" t="n">
-        <v>6367.0</v>
+        <v>9499.0</v>
       </c>
       <c r="E309" t="n">
-        <v>3287.0</v>
+        <v>4912.0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>9586897.0</v>
+        <v>9587073.0</v>
       </c>
       <c r="B310" t="n">
-        <v>77278.0</v>
+        <v>123637.0</v>
       </c>
       <c r="C310" t="n">
-        <v>204267.0</v>
+        <v>157732.0</v>
       </c>
       <c r="D310" t="n">
-        <v>5867.0</v>
+        <v>8604.0</v>
       </c>
       <c r="E310" t="n">
-        <v>2867.0</v>
+        <v>4248.0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>9588038.0</v>
+        <v>9590773.0</v>
       </c>
       <c r="B311" t="n">
-        <v>75257.0</v>
+        <v>120023.0</v>
       </c>
       <c r="C311" t="n">
-        <v>205147.0</v>
+        <v>157646.0</v>
       </c>
       <c r="D311" t="n">
-        <v>5363.0</v>
+        <v>8370.0</v>
       </c>
       <c r="E311" t="n">
-        <v>2566.0</v>
+        <v>4024.0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>9589366.0</v>
+        <v>9592906.0</v>
       </c>
       <c r="B312" t="n">
-        <v>73062.0</v>
+        <v>116407.0</v>
       </c>
       <c r="C312" t="n">
-        <v>206014.0</v>
+        <v>159129.0</v>
       </c>
       <c r="D312" t="n">
-        <v>5302.0</v>
+        <v>8141.0</v>
       </c>
       <c r="E312" t="n">
-        <v>2500.0</v>
+        <v>4043.0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>9590702.0</v>
+        <v>9595711.0</v>
       </c>
       <c r="B313" t="n">
-        <v>70827.0</v>
+        <v>113209.0</v>
       </c>
       <c r="C313" t="n">
-        <v>206913.0</v>
+        <v>159522.0</v>
       </c>
       <c r="D313" t="n">
-        <v>5330.0</v>
+        <v>8045.0</v>
       </c>
       <c r="E313" t="n">
-        <v>2665.0</v>
+        <v>3849.0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>9593990.0</v>
+        <v>9600237.0</v>
       </c>
       <c r="B314" t="n">
-        <v>66361.0</v>
+        <v>108333.0</v>
       </c>
       <c r="C314" t="n">
-        <v>208091.0</v>
+        <v>159872.0</v>
       </c>
       <c r="D314" t="n">
-        <v>3197.0</v>
+        <v>5279.0</v>
       </c>
       <c r="E314" t="n">
-        <v>2689.0</v>
+        <v>3610.0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>9596545.0</v>
+        <v>9606327.0</v>
       </c>
       <c r="B315" t="n">
-        <v>63027.0</v>
+        <v>102169.0</v>
       </c>
       <c r="C315" t="n">
-        <v>208870.0</v>
+        <v>159946.0</v>
       </c>
       <c r="D315" t="n">
-        <v>4063.0</v>
+        <v>5591.0</v>
       </c>
       <c r="E315" t="n">
-        <v>2453.0</v>
+        <v>3658.0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>9598457.0</v>
+        <v>9609929.0</v>
       </c>
       <c r="B316" t="n">
-        <v>61036.0</v>
+        <v>98668.0</v>
       </c>
       <c r="C316" t="n">
-        <v>208949.0</v>
+        <v>159845.0</v>
       </c>
       <c r="D316" t="n">
-        <v>4994.0</v>
+        <v>7365.0</v>
       </c>
       <c r="E316" t="n">
-        <v>2164.0</v>
+        <v>3505.0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>9601881.0</v>
+        <v>9617485.0</v>
       </c>
       <c r="B317" t="n">
-        <v>57610.0</v>
+        <v>91587.0</v>
       </c>
       <c r="C317" t="n">
-        <v>208951.0</v>
+        <v>159370.0</v>
       </c>
       <c r="D317" t="n">
-        <v>3394.0</v>
+        <v>4664.0</v>
       </c>
       <c r="E317" t="n">
-        <v>2018.0</v>
+        <v>2887.0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>9604550.0</v>
+        <v>9622813.0</v>
       </c>
       <c r="B318" t="n">
-        <v>55299.0</v>
+        <v>86646.0</v>
       </c>
       <c r="C318" t="n">
-        <v>208593.0</v>
+        <v>158983.0</v>
       </c>
       <c r="D318" t="n">
-        <v>4024.0</v>
+        <v>6417.0</v>
       </c>
       <c r="E318" t="n">
-        <v>1782.0</v>
+        <v>2991.0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>9607346.0</v>
+        <v>9627986.0</v>
       </c>
       <c r="B319" t="n">
-        <v>52943.0</v>
+        <v>83250.0</v>
       </c>
       <c r="C319" t="n">
-        <v>208153.0</v>
+        <v>157206.0</v>
       </c>
       <c r="D319" t="n">
-        <v>3867.0</v>
+        <v>6120.0</v>
       </c>
       <c r="E319" t="n">
-        <v>1778.0</v>
+        <v>2783.0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>9609695.0</v>
+        <v>9633513.0</v>
       </c>
       <c r="B320" t="n">
-        <v>50825.0</v>
+        <v>80072.0</v>
       </c>
       <c r="C320" t="n">
-        <v>207922.0</v>
+        <v>154857.0</v>
       </c>
       <c r="D320" t="n">
-        <v>3946.0</v>
+        <v>5728.0</v>
       </c>
       <c r="E320" t="n">
-        <v>1857.0</v>
+        <v>2573.0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>9613769.0</v>
+        <v>9639730.0</v>
       </c>
       <c r="B321" t="n">
-        <v>47335.0</v>
+        <v>75479.0</v>
       </c>
       <c r="C321" t="n">
-        <v>207338.0</v>
+        <v>153233.0</v>
       </c>
       <c r="D321" t="n">
-        <v>2379.0</v>
+        <v>3849.0</v>
       </c>
       <c r="E321" t="n">
-        <v>1880.0</v>
+        <v>2480.0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>9617410.0</v>
+        <v>9647580.0</v>
       </c>
       <c r="B322" t="n">
-        <v>44606.0</v>
+        <v>71562.0</v>
       </c>
       <c r="C322" t="n">
-        <v>206426.0</v>
+        <v>149300.0</v>
       </c>
       <c r="D322" t="n">
-        <v>2900.0</v>
+        <v>4147.0</v>
       </c>
       <c r="E322" t="n">
-        <v>1663.0</v>
+        <v>2723.0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>9620181.0</v>
+        <v>9653227.0</v>
       </c>
       <c r="B323" t="n">
-        <v>43119.0</v>
+        <v>69308.0</v>
       </c>
       <c r="C323" t="n">
-        <v>205142.0</v>
+        <v>145907.0</v>
       </c>
       <c r="D323" t="n">
-        <v>3740.0</v>
+        <v>5569.0</v>
       </c>
       <c r="E323" t="n">
-        <v>1589.0</v>
+        <v>2491.0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>9623599.0</v>
+        <v>9660539.0</v>
       </c>
       <c r="B324" t="n">
-        <v>41602.0</v>
+        <v>66207.0</v>
       </c>
       <c r="C324" t="n">
-        <v>203241.0</v>
+        <v>141696.0</v>
       </c>
       <c r="D324" t="n">
-        <v>3351.0</v>
+        <v>4981.0</v>
       </c>
       <c r="E324" t="n">
-        <v>1620.0</v>
+        <v>2163.0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>9626998.0</v>
+        <v>9667442.0</v>
       </c>
       <c r="B325" t="n">
-        <v>40192.0</v>
+        <v>63742.0</v>
       </c>
       <c r="C325" t="n">
-        <v>201252.0</v>
+        <v>137258.0</v>
       </c>
       <c r="D325" t="n">
-        <v>3217.0</v>
+        <v>5081.0</v>
       </c>
       <c r="E325" t="n">
-        <v>1349.0</v>
+        <v>2104.0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>9630271.0</v>
+        <v>9674286.0</v>
       </c>
       <c r="B326" t="n">
-        <v>39040.0</v>
+        <v>61709.0</v>
       </c>
       <c r="C326" t="n">
-        <v>199131.0</v>
+        <v>132447.0</v>
       </c>
       <c r="D326" t="n">
-        <v>3180.0</v>
+        <v>4913.0</v>
       </c>
       <c r="E326" t="n">
-        <v>1423.0</v>
+        <v>2383.0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>9633474.0</v>
+        <v>9680417.0</v>
       </c>
       <c r="B327" t="n">
-        <v>38184.0</v>
+        <v>60707.0</v>
       </c>
       <c r="C327" t="n">
-        <v>196784.0</v>
+        <v>127318.0</v>
       </c>
       <c r="D327" t="n">
-        <v>3304.0</v>
+        <v>5112.0</v>
       </c>
       <c r="E327" t="n">
-        <v>1478.0</v>
+        <v>2105.0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>9637925.0</v>
+        <v>9687120.0</v>
       </c>
       <c r="B328" t="n">
-        <v>36200.0</v>
+        <v>58018.0</v>
       </c>
       <c r="C328" t="n">
-        <v>194317.0</v>
+        <v>123304.0</v>
       </c>
       <c r="D328" t="n">
-        <v>2185.0</v>
+        <v>3452.0</v>
       </c>
       <c r="E328" t="n">
-        <v>1573.0</v>
+        <v>2195.0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>9641897.0</v>
+        <v>9695135.0</v>
       </c>
       <c r="B329" t="n">
-        <v>34907.0</v>
+        <v>56074.0</v>
       </c>
       <c r="C329" t="n">
-        <v>191638.0</v>
+        <v>117233.0</v>
       </c>
       <c r="D329" t="n">
-        <v>2697.0</v>
+        <v>3740.0</v>
       </c>
       <c r="E329" t="n">
-        <v>1373.0</v>
+        <v>2103.0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>9645628.0</v>
+        <v>9701046.0</v>
       </c>
       <c r="B330" t="n">
-        <v>34233.0</v>
+        <v>55662.0</v>
       </c>
       <c r="C330" t="n">
-        <v>188581.0</v>
+        <v>111734.0</v>
       </c>
       <c r="D330" t="n">
-        <v>3188.0</v>
+        <v>4955.0</v>
       </c>
       <c r="E330" t="n">
-        <v>1386.0</v>
+        <v>2141.0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>9649695.0</v>
+        <v>9708256.0</v>
       </c>
       <c r="B331" t="n">
-        <v>33514.0</v>
+        <v>54133.0</v>
       </c>
       <c r="C331" t="n">
-        <v>185233.0</v>
+        <v>106053.0</v>
       </c>
       <c r="D331" t="n">
-        <v>2880.0</v>
+        <v>4535.0</v>
       </c>
       <c r="E331" t="n">
-        <v>1298.0</v>
+        <v>1957.0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>9653817.0</v>
+        <v>9715019.0</v>
       </c>
       <c r="B332" t="n">
-        <v>33017.0</v>
+        <v>53500.0</v>
       </c>
       <c r="C332" t="n">
-        <v>181608.0</v>
+        <v>99923.0</v>
       </c>
       <c r="D332" t="n">
-        <v>2810.0</v>
+        <v>4595.0</v>
       </c>
       <c r="E332" t="n">
-        <v>1190.0</v>
+        <v>1888.0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>9658018.0</v>
+        <v>9719997.0</v>
       </c>
       <c r="B333" t="n">
-        <v>32515.0</v>
+        <v>52978.0</v>
       </c>
       <c r="C333" t="n">
-        <v>177909.0</v>
+        <v>95467.0</v>
       </c>
       <c r="D333" t="n">
-        <v>2804.0</v>
+        <v>4538.0</v>
       </c>
       <c r="E333" t="n">
-        <v>1215.0</v>
+        <v>1980.0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>9662055.0</v>
+        <v>9724187.0</v>
       </c>
       <c r="B334" t="n">
-        <v>32177.0</v>
+        <v>52924.0</v>
       </c>
       <c r="C334" t="n">
-        <v>174210.0</v>
+        <v>91331.0</v>
       </c>
       <c r="D334" t="n">
-        <v>2878.0</v>
+        <v>4716.0</v>
       </c>
       <c r="E334" t="n">
-        <v>1387.0</v>
+        <v>1961.0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>9667336.0</v>
+        <v>9729540.0</v>
       </c>
       <c r="B335" t="n">
-        <v>30925.0</v>
+        <v>51135.0</v>
       </c>
       <c r="C335" t="n">
-        <v>170181.0</v>
+        <v>87767.0</v>
       </c>
       <c r="D335" t="n">
-        <v>1996.0</v>
+        <v>3089.0</v>
       </c>
       <c r="E335" t="n">
-        <v>1342.0</v>
+        <v>1922.0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>9672043.0</v>
+        <v>9734074.0</v>
       </c>
       <c r="B336" t="n">
-        <v>30253.0</v>
+        <v>49909.0</v>
       </c>
       <c r="C336" t="n">
-        <v>166146.0</v>
+        <v>84459.0</v>
       </c>
       <c r="D336" t="n">
-        <v>2499.0</v>
+        <v>3530.0</v>
       </c>
       <c r="E336" t="n">
-        <v>1235.0</v>
+        <v>1974.0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>9677154.0</v>
+        <v>9738247.0</v>
       </c>
       <c r="B337" t="n">
-        <v>29436.0</v>
+        <v>48788.0</v>
       </c>
       <c r="C337" t="n">
-        <v>161852.0</v>
+        <v>81407.0</v>
       </c>
       <c r="D337" t="n">
-        <v>2316.0</v>
+        <v>3650.0</v>
       </c>
       <c r="E337" t="n">
-        <v>1134.0</v>
+        <v>1961.0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>9682543.0</v>
+        <v>9742811.0</v>
       </c>
       <c r="B338" t="n">
-        <v>28736.0</v>
+        <v>47291.0</v>
       </c>
       <c r="C338" t="n">
-        <v>157163.0</v>
+        <v>78340.0</v>
       </c>
       <c r="D338" t="n">
-        <v>2221.0</v>
+        <v>3518.0</v>
       </c>
       <c r="E338" t="n">
-        <v>1183.0</v>
+        <v>1828.0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>9687825.0</v>
+        <v>9746979.0</v>
       </c>
       <c r="B339" t="n">
-        <v>27869.0</v>
+        <v>45880.0</v>
       </c>
       <c r="C339" t="n">
-        <v>152748.0</v>
+        <v>75583.0</v>
       </c>
       <c r="D339" t="n">
-        <v>2062.0</v>
+        <v>3378.0</v>
       </c>
       <c r="E339" t="n">
-        <v>1049.0</v>
+        <v>1685.0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>9693076.0</v>
+        <v>9750751.0</v>
       </c>
       <c r="B340" t="n">
-        <v>26890.0</v>
+        <v>44579.0</v>
       </c>
       <c r="C340" t="n">
-        <v>148476.0</v>
+        <v>73112.0</v>
       </c>
       <c r="D340" t="n">
-        <v>2001.0</v>
+        <v>3174.0</v>
       </c>
       <c r="E340" t="n">
-        <v>937.0</v>
+        <v>1679.0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>9698602.0</v>
+        <v>9753755.0</v>
       </c>
       <c r="B341" t="n">
-        <v>25878.0</v>
+        <v>43490.0</v>
       </c>
       <c r="C341" t="n">
-        <v>143962.0</v>
+        <v>71197.0</v>
       </c>
       <c r="D341" t="n">
-        <v>1858.0</v>
+        <v>3110.0</v>
       </c>
       <c r="E341" t="n">
-        <v>977.0</v>
+        <v>1516.0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>9704496.0</v>
+        <v>9757285.0</v>
       </c>
       <c r="B342" t="n">
-        <v>24616.0</v>
+        <v>41709.0</v>
       </c>
       <c r="C342" t="n">
-        <v>139330.0</v>
+        <v>69448.0</v>
       </c>
       <c r="D342" t="n">
-        <v>1603.0</v>
+        <v>2611.0</v>
       </c>
       <c r="E342" t="n">
-        <v>864.0</v>
+        <v>1421.0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>9710553.0</v>
+        <v>9760456.0</v>
       </c>
       <c r="B343" t="n">
-        <v>23313.0</v>
+        <v>39938.0</v>
       </c>
       <c r="C343" t="n">
-        <v>134576.0</v>
+        <v>68048.0</v>
       </c>
       <c r="D343" t="n">
-        <v>1508.0</v>
+        <v>2513.0</v>
       </c>
       <c r="E343" t="n">
-        <v>859.0</v>
+        <v>1346.0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>9716508.0</v>
+        <v>9763034.0</v>
       </c>
       <c r="B344" t="n">
-        <v>22306.0</v>
+        <v>38469.0</v>
       </c>
       <c r="C344" t="n">
-        <v>129628.0</v>
+        <v>66939.0</v>
       </c>
       <c r="D344" t="n">
-        <v>1708.0</v>
+        <v>2789.0</v>
       </c>
       <c r="E344" t="n">
-        <v>844.0</v>
+        <v>1327.0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>9722235.0</v>
+        <v>9766451.0</v>
       </c>
       <c r="B345" t="n">
-        <v>21336.0</v>
+        <v>36596.0</v>
       </c>
       <c r="C345" t="n">
-        <v>124871.0</v>
+        <v>65395.0</v>
       </c>
       <c r="D345" t="n">
-        <v>1670.0</v>
+        <v>2647.0</v>
       </c>
       <c r="E345" t="n">
-        <v>801.0</v>
+        <v>1258.0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>9727640.0</v>
+        <v>9769105.0</v>
       </c>
       <c r="B346" t="n">
-        <v>20387.0</v>
+        <v>34702.0</v>
       </c>
       <c r="C346" t="n">
-        <v>120415.0</v>
+        <v>64635.0</v>
       </c>
       <c r="D346" t="n">
-        <v>1580.0</v>
+        <v>2574.0</v>
       </c>
       <c r="E346" t="n">
-        <v>676.0</v>
+        <v>1126.0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>9732947.0</v>
+        <v>9771570.0</v>
       </c>
       <c r="B347" t="n">
-        <v>19533.0</v>
+        <v>33200.0</v>
       </c>
       <c r="C347" t="n">
-        <v>115962.0</v>
+        <v>63672.0</v>
       </c>
       <c r="D347" t="n">
-        <v>1513.0</v>
+        <v>2595.0</v>
       </c>
       <c r="E347" t="n">
-        <v>663.0</v>
+        <v>1159.0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>9737761.0</v>
+        <v>9773826.0</v>
       </c>
       <c r="B348" t="n">
-        <v>18754.0</v>
+        <v>31956.0</v>
       </c>
       <c r="C348" t="n">
-        <v>111927.0</v>
+        <v>62660.0</v>
       </c>
       <c r="D348" t="n">
-        <v>1521.0</v>
+        <v>2514.0</v>
       </c>
       <c r="E348" t="n">
-        <v>664.0</v>
+        <v>1135.0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>9742703.0</v>
+        <v>9776549.0</v>
       </c>
       <c r="B349" t="n">
-        <v>17811.0</v>
+        <v>30330.0</v>
       </c>
       <c r="C349" t="n">
-        <v>107928.0</v>
+        <v>61563.0</v>
       </c>
       <c r="D349" t="n">
-        <v>1281.0</v>
+        <v>2155.0</v>
       </c>
       <c r="E349" t="n">
-        <v>680.0</v>
+        <v>1140.0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>9747474.0</v>
+        <v>9779192.0</v>
       </c>
       <c r="B350" t="n">
-        <v>16943.0</v>
+        <v>29038.0</v>
       </c>
       <c r="C350" t="n">
-        <v>104025.0</v>
+        <v>60212.0</v>
       </c>
       <c r="D350" t="n">
-        <v>1293.0</v>
+        <v>2113.0</v>
       </c>
       <c r="E350" t="n">
-        <v>634.0</v>
+        <v>1137.0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>9751882.0</v>
+        <v>9781645.0</v>
       </c>
       <c r="B351" t="n">
-        <v>16400.0</v>
+        <v>27955.0</v>
       </c>
       <c r="C351" t="n">
-        <v>100160.0</v>
+        <v>58842.0</v>
       </c>
       <c r="D351" t="n">
-        <v>1461.0</v>
+        <v>2318.0</v>
       </c>
       <c r="E351" t="n">
-        <v>622.0</v>
+        <v>1049.0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>9756084.0</v>
+        <v>9784290.0</v>
       </c>
       <c r="B352" t="n">
-        <v>15926.0</v>
+        <v>27075.0</v>
       </c>
       <c r="C352" t="n">
-        <v>96432.0</v>
+        <v>57077.0</v>
       </c>
       <c r="D352" t="n">
-        <v>1427.0</v>
+        <v>2370.0</v>
       </c>
       <c r="E352" t="n">
-        <v>558.0</v>
+        <v>977.0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>9759899.0</v>
+        <v>9786792.0</v>
       </c>
       <c r="B353" t="n">
-        <v>15566.0</v>
+        <v>26312.0</v>
       </c>
       <c r="C353" t="n">
-        <v>92977.0</v>
+        <v>55338.0</v>
       </c>
       <c r="D353" t="n">
-        <v>1412.0</v>
+        <v>2287.0</v>
       </c>
       <c r="E353" t="n">
-        <v>577.0</v>
+        <v>931.0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>9763365.0</v>
+        <v>9789002.0</v>
       </c>
       <c r="B354" t="n">
-        <v>15248.0</v>
+        <v>25824.0</v>
       </c>
       <c r="C354" t="n">
-        <v>89829.0</v>
+        <v>53616.0</v>
       </c>
       <c r="D354" t="n">
-        <v>1402.0</v>
+        <v>2265.0</v>
       </c>
       <c r="E354" t="n">
-        <v>591.0</v>
+        <v>941.0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>9766558.0</v>
+        <v>9790817.0</v>
       </c>
       <c r="B355" t="n">
-        <v>15054.0</v>
+        <v>25477.0</v>
       </c>
       <c r="C355" t="n">
-        <v>86830.0</v>
+        <v>52148.0</v>
       </c>
       <c r="D355" t="n">
-        <v>1434.0</v>
+        <v>2384.0</v>
       </c>
       <c r="E355" t="n">
-        <v>605.0</v>
+        <v>1013.0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>9769522.0</v>
+        <v>9793143.0</v>
       </c>
       <c r="B356" t="n">
-        <v>14843.0</v>
+        <v>24786.0</v>
       </c>
       <c r="C356" t="n">
-        <v>84077.0</v>
+        <v>50513.0</v>
       </c>
       <c r="D356" t="n">
-        <v>1368.0</v>
+        <v>2066.0</v>
       </c>
       <c r="E356" t="n">
-        <v>571.0</v>
+        <v>956.0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>9772446.0</v>
+        <v>9795439.0</v>
       </c>
       <c r="B357" t="n">
-        <v>14469.0</v>
+        <v>24198.0</v>
       </c>
       <c r="C357" t="n">
-        <v>81527.0</v>
+        <v>48805.0</v>
       </c>
       <c r="D357" t="n">
-        <v>1236.0</v>
+        <v>1988.0</v>
       </c>
       <c r="E357" t="n">
-        <v>604.0</v>
+        <v>951.0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>9775247.0</v>
+        <v>9797438.0</v>
       </c>
       <c r="B358" t="n">
-        <v>14306.0</v>
+        <v>23806.0</v>
       </c>
       <c r="C358" t="n">
-        <v>78889.0</v>
+        <v>47198.0</v>
       </c>
       <c r="D358" t="n">
-        <v>1368.0</v>
+        <v>2259.0</v>
       </c>
       <c r="E358" t="n">
-        <v>577.0</v>
+        <v>963.0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>9777871.0</v>
+        <v>9799667.0</v>
       </c>
       <c r="B359" t="n">
-        <v>14139.0</v>
+        <v>23539.0</v>
       </c>
       <c r="C359" t="n">
-        <v>76432.0</v>
+        <v>45236.0</v>
       </c>
       <c r="D359" t="n">
-        <v>1366.0</v>
+        <v>2291.0</v>
       </c>
       <c r="E359" t="n">
-        <v>554.0</v>
+        <v>912.0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>9780320.0</v>
+        <v>9801916.0</v>
       </c>
       <c r="B360" t="n">
-        <v>14047.0</v>
+        <v>23293.0</v>
       </c>
       <c r="C360" t="n">
-        <v>74075.0</v>
+        <v>43233.0</v>
       </c>
       <c r="D360" t="n">
-        <v>1413.0</v>
+        <v>2219.0</v>
       </c>
       <c r="E360" t="n">
-        <v>551.0</v>
+        <v>899.0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>9782549.0</v>
+        <v>9803725.0</v>
       </c>
       <c r="B361" t="n">
-        <v>14039.0</v>
+        <v>23365.0</v>
       </c>
       <c r="C361" t="n">
-        <v>71854.0</v>
+        <v>41352.0</v>
       </c>
       <c r="D361" t="n">
-        <v>1370.0</v>
+        <v>2288.0</v>
       </c>
       <c r="E361" t="n">
-        <v>560.0</v>
+        <v>938.0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>9784515.0</v>
+        <v>9805287.0</v>
       </c>
       <c r="B362" t="n">
-        <v>14003.0</v>
+        <v>23398.0</v>
       </c>
       <c r="C362" t="n">
-        <v>69924.0</v>
+        <v>39757.0</v>
       </c>
       <c r="D362" t="n">
-        <v>1341.0</v>
+        <v>2196.0</v>
       </c>
       <c r="E362" t="n">
-        <v>586.0</v>
+        <v>910.0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>9786554.0</v>
+        <v>9807071.0</v>
       </c>
       <c r="B363" t="n">
-        <v>13863.0</v>
+        <v>23069.0</v>
       </c>
       <c r="C363" t="n">
-        <v>68025.0</v>
+        <v>38302.0</v>
       </c>
       <c r="D363" t="n">
-        <v>1267.0</v>
+        <v>1997.0</v>
       </c>
       <c r="E363" t="n">
-        <v>561.0</v>
+        <v>975.0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>9788559.0</v>
+        <v>9808495.0</v>
       </c>
       <c r="B364" t="n">
-        <v>13706.0</v>
+        <v>22730.0</v>
       </c>
       <c r="C364" t="n">
-        <v>66177.0</v>
+        <v>37217.0</v>
       </c>
       <c r="D364" t="n">
-        <v>1211.0</v>
+        <v>1981.0</v>
       </c>
       <c r="E364" t="n">
-        <v>533.0</v>
+        <v>924.0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>9790436.0</v>
+        <v>9809765.0</v>
       </c>
       <c r="B365" t="n">
-        <v>13691.0</v>
+        <v>22473.0</v>
       </c>
       <c r="C365" t="n">
-        <v>64315.0</v>
+        <v>36204.0</v>
       </c>
       <c r="D365" t="n">
-        <v>1371.0</v>
+        <v>2131.0</v>
       </c>
       <c r="E365" t="n">
-        <v>576.0</v>
+        <v>879.0</v>
       </c>
     </row>
   </sheetData>
